--- a/Angular/Paletas Yahvé.xlsx
+++ b/Angular/Paletas Yahvé.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bmedina\Downloads\Curso Angular\Angular\Angular\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9E524DC-CB2F-404F-9F43-C670E7208FCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CACB01FE-5BEB-4DBE-A15C-140ADC00C56F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{8B9CBAAB-98A8-4499-B93A-25E4DC44FD39}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="50">
   <si>
     <t>Venta Paletas Semana 25-28Ago</t>
   </si>
@@ -177,6 +177,15 @@
   </si>
   <si>
     <t>PEDIDO</t>
+  </si>
+  <si>
+    <t>R Fresa Yogurt</t>
+  </si>
+  <si>
+    <t>R Maracuya Yogurt</t>
+  </si>
+  <si>
+    <t>NUEVO STOCK SEMANA 01/OCT</t>
   </si>
 </sst>
 </file>
@@ -664,31 +673,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{734E0C91-4377-4E4F-B8BB-89756185763E}">
   <dimension ref="B1:V64"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N27" sqref="N27"/>
+    <sheetView tabSelected="1" topLeftCell="C22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M46" sqref="M46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="17.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.875" customWidth="1"/>
-    <col min="6" max="6" width="18.75" customWidth="1"/>
-    <col min="7" max="7" width="13.125" customWidth="1"/>
-    <col min="8" max="11" width="11.375" customWidth="1"/>
-    <col min="12" max="12" width="21.25" customWidth="1"/>
-    <col min="13" max="13" width="15.625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="31.125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="20.625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.7109375" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" customWidth="1"/>
+    <col min="8" max="11" width="11.42578125" customWidth="1"/>
+    <col min="12" max="12" width="21.28515625" customWidth="1"/>
+    <col min="13" max="13" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="23" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="20.75" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.25" customWidth="1"/>
-    <col min="22" max="22" width="20.75" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.28515625" customWidth="1"/>
+    <col min="22" max="22" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B1" s="18" t="s">
         <v>0</v>
       </c>
@@ -705,7 +714,7 @@
       <c r="M1" s="19"/>
       <c r="N1" s="19"/>
     </row>
-    <row r="2" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
@@ -749,7 +758,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B3" s="2">
         <v>1</v>
       </c>
@@ -800,7 +809,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B4" s="2">
         <v>2</v>
       </c>
@@ -851,7 +860,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B5" s="2">
         <v>3</v>
       </c>
@@ -902,7 +911,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B6" s="2">
         <v>4</v>
       </c>
@@ -953,7 +962,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B7" s="2">
         <v>5</v>
       </c>
@@ -1004,7 +1013,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B8" s="2">
         <v>6</v>
       </c>
@@ -1055,7 +1064,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B9" s="13">
         <v>7</v>
       </c>
@@ -1106,7 +1115,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B10" s="2">
         <v>8</v>
       </c>
@@ -1157,7 +1166,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B11" s="13">
         <v>9</v>
       </c>
@@ -1208,7 +1217,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B12" s="13">
         <v>10</v>
       </c>
@@ -1259,7 +1268,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B13" s="13">
         <v>11</v>
       </c>
@@ -1310,7 +1319,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B14" s="13">
         <v>12</v>
       </c>
@@ -1361,7 +1370,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B15" s="2">
         <v>13</v>
       </c>
@@ -1412,7 +1421,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B16" s="2">
         <v>14</v>
       </c>
@@ -1463,7 +1472,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B17" s="2">
         <v>15</v>
       </c>
@@ -1514,7 +1523,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B18" s="2">
         <v>16</v>
       </c>
@@ -1565,7 +1574,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B19" s="2">
         <v>17</v>
       </c>
@@ -1616,7 +1625,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B20" s="2">
         <v>18</v>
       </c>
@@ -1667,7 +1676,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B21" s="2">
         <v>19</v>
       </c>
@@ -1719,7 +1728,7 @@
       </c>
       <c r="R21" s="5"/>
     </row>
-    <row r="22" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B22" s="2">
         <v>20</v>
       </c>
@@ -1770,7 +1779,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B23" s="2">
         <v>21</v>
       </c>
@@ -1828,7 +1837,7 @@
         <v>2273</v>
       </c>
     </row>
-    <row r="24" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B24" s="2">
         <v>22</v>
       </c>
@@ -1898,7 +1907,7 @@
         <v>3080</v>
       </c>
     </row>
-    <row r="25" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:22" x14ac:dyDescent="0.25">
       <c r="Q25" s="1" t="s">
         <v>45</v>
       </c>
@@ -1914,7 +1923,7 @@
         <v>3165</v>
       </c>
     </row>
-    <row r="26" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B26" s="18" t="s">
         <v>36</v>
       </c>
@@ -1949,7 +1958,7 @@
         <v>593.5</v>
       </c>
     </row>
-    <row r="27" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B27" s="2" t="s">
         <v>1</v>
       </c>
@@ -1990,29 +1999,29 @@
         <v>34</v>
       </c>
       <c r="O27" s="12" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="28" spans="2:22" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="28" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B28" s="2">
         <v>1</v>
       </c>
       <c r="C28" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D28" s="2">
+        <v>10</v>
+      </c>
+      <c r="E28" s="2">
         <v>6</v>
-      </c>
-      <c r="D28" s="2">
-        <v>20</v>
-      </c>
-      <c r="E28" s="2">
-        <v>11</v>
       </c>
       <c r="F28" s="2">
         <f>+D28-E28</f>
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="G28" s="4">
         <f>+F28*40</f>
-        <v>360</v>
+        <v>160</v>
       </c>
       <c r="H28" s="4">
         <v>25</v>
@@ -2026,44 +2035,44 @@
       </c>
       <c r="K28" s="6">
         <f>+J28*F28</f>
-        <v>135</v>
+        <v>60</v>
       </c>
       <c r="L28" s="10">
         <v>10</v>
       </c>
       <c r="M28" s="11">
         <f>+L28-E28</f>
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="N28" s="8">
         <f>+M28*H28</f>
-        <v>-25</v>
+        <v>100</v>
       </c>
       <c r="O28">
         <f>+M28+E28</f>
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B29" s="2">
         <v>2</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>7</v>
+        <v>47</v>
       </c>
       <c r="D29" s="2">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E29" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F29" s="2">
         <f t="shared" ref="F29:F47" si="9">+D29-E29</f>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G29" s="4">
         <f t="shared" ref="G29:G40" si="10">+F29*40</f>
-        <v>240</v>
+        <v>400</v>
       </c>
       <c r="H29" s="4">
         <v>25</v>
@@ -2077,25 +2086,25 @@
       </c>
       <c r="K29" s="6">
         <f t="shared" ref="K29:K47" si="12">+J29*F29</f>
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="L29" s="10">
         <v>10</v>
       </c>
       <c r="M29" s="11">
         <f t="shared" ref="M29:M47" si="13">+L29-E29</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N29" s="8">
         <f t="shared" ref="N29:N47" si="14">+M29*H29</f>
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="O29">
         <f t="shared" ref="O29:O49" si="15">+M29+E29</f>
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B30" s="2">
         <v>3</v>
       </c>
@@ -2106,15 +2115,15 @@
         <v>10</v>
       </c>
       <c r="E30" s="2">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F30" s="2">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G30" s="4">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="H30" s="4">
         <v>25</v>
@@ -2128,25 +2137,25 @@
       </c>
       <c r="K30" s="6">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="L30" s="10">
         <v>10</v>
       </c>
       <c r="M30" s="11">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N30" s="8">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="O30">
         <f t="shared" si="15"/>
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B31" s="2">
         <v>4</v>
       </c>
@@ -2157,15 +2166,15 @@
         <v>10</v>
       </c>
       <c r="E31" s="2">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F31" s="2">
         <f t="shared" si="9"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G31" s="4">
         <f t="shared" si="10"/>
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="H31" s="4">
         <v>25</v>
@@ -2179,25 +2188,25 @@
       </c>
       <c r="K31" s="6">
         <f t="shared" si="12"/>
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="L31" s="10">
         <v>10</v>
       </c>
       <c r="M31" s="11">
         <f t="shared" si="13"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N31" s="8">
         <f t="shared" si="14"/>
-        <v>125</v>
+        <v>50</v>
       </c>
       <c r="O31">
         <f t="shared" si="15"/>
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B32" s="2">
         <v>5</v>
       </c>
@@ -2205,18 +2214,18 @@
         <v>10</v>
       </c>
       <c r="D32" s="2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E32" s="2">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F32" s="2">
         <f t="shared" si="9"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G32" s="4">
         <f t="shared" si="10"/>
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="H32" s="4">
         <v>25</v>
@@ -2230,25 +2239,25 @@
       </c>
       <c r="K32" s="6">
         <f t="shared" si="12"/>
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="L32" s="10">
         <v>10</v>
       </c>
       <c r="M32" s="11">
         <f t="shared" si="13"/>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="N32" s="8">
         <f t="shared" si="14"/>
-        <v>175</v>
+        <v>25</v>
       </c>
       <c r="O32">
         <f t="shared" si="15"/>
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B33" s="2">
         <v>6</v>
       </c>
@@ -2259,15 +2268,15 @@
         <v>9</v>
       </c>
       <c r="E33" s="2">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F33" s="2">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G33" s="4">
         <f t="shared" si="10"/>
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="H33" s="4">
         <v>25</v>
@@ -2281,25 +2290,25 @@
       </c>
       <c r="K33" s="6">
         <f t="shared" si="12"/>
-        <v>15</v>
+        <v>90</v>
       </c>
       <c r="L33" s="10">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="M33" s="11">
         <f t="shared" si="13"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N33" s="8">
         <f t="shared" si="14"/>
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="O33">
         <f t="shared" si="15"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="34" spans="2:21" s="17" customFormat="1" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="2:21" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B34" s="13">
         <v>7</v>
       </c>
@@ -2307,10 +2316,10 @@
         <v>12</v>
       </c>
       <c r="D34" s="13">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E34" s="13">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F34" s="13">
         <f t="shared" si="9"/>
@@ -2335,22 +2344,22 @@
         <v>30</v>
       </c>
       <c r="L34" s="16">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M34" s="16">
         <f t="shared" si="13"/>
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="N34" s="15">
         <f t="shared" si="14"/>
-        <v>-50</v>
+        <v>50</v>
       </c>
       <c r="O34" s="17">
         <f t="shared" si="15"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B35" s="2">
         <v>8</v>
       </c>
@@ -2358,18 +2367,18 @@
         <v>13</v>
       </c>
       <c r="D35" s="2">
+        <v>10</v>
+      </c>
+      <c r="E35" s="2">
         <v>8</v>
-      </c>
-      <c r="E35" s="2">
-        <v>5</v>
       </c>
       <c r="F35" s="2">
         <f t="shared" si="9"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G35" s="4">
         <f t="shared" si="10"/>
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="H35" s="4">
         <v>25</v>
@@ -2383,25 +2392,25 @@
       </c>
       <c r="K35" s="6">
         <f t="shared" si="12"/>
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="L35" s="10">
         <v>8</v>
       </c>
       <c r="M35" s="11">
         <f t="shared" si="13"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N35" s="8">
         <f t="shared" si="14"/>
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="O35">
         <f t="shared" si="15"/>
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="2:21" s="17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:21" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B36" s="13">
         <v>9</v>
       </c>
@@ -2409,18 +2418,18 @@
         <v>40</v>
       </c>
       <c r="D36" s="13">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E36" s="13">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F36" s="13">
         <f t="shared" ref="F36" si="16">+D36-E36</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G36" s="14">
         <f t="shared" ref="G36" si="17">+F36*40</f>
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="H36" s="14">
         <v>25</v>
@@ -2434,25 +2443,25 @@
       </c>
       <c r="K36" s="15">
         <f t="shared" ref="K36" si="19">+J36*F36</f>
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="L36" s="16">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M36" s="16">
         <f t="shared" ref="M36" si="20">+L36-E36</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N36" s="15">
         <f t="shared" ref="N36" si="21">+M36*H36</f>
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="O36" s="17">
         <f t="shared" si="15"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="37" spans="2:21" s="17" customFormat="1" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="2:21" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B37" s="13">
         <v>10</v>
       </c>
@@ -2463,15 +2472,15 @@
         <v>5</v>
       </c>
       <c r="E37" s="13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F37" s="13">
         <f t="shared" ref="F37:F38" si="22">+D37-E37</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G37" s="14">
         <f t="shared" ref="G37:G38" si="23">+F37*40</f>
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="H37" s="14">
         <v>25</v>
@@ -2485,25 +2494,25 @@
       </c>
       <c r="K37" s="15">
         <f t="shared" ref="K37:K38" si="25">+J37*F37</f>
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="L37" s="16">
         <v>5</v>
       </c>
       <c r="M37" s="16">
         <f t="shared" ref="M37:M38" si="26">+L37-E37</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N37" s="15">
         <f t="shared" ref="N37:N38" si="27">+M37*H37</f>
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="O37" s="17">
         <f t="shared" si="15"/>
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="2:21" s="17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B38" s="13">
         <v>11</v>
       </c>
@@ -2511,18 +2520,18 @@
         <v>42</v>
       </c>
       <c r="D38" s="13">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E38" s="13">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F38" s="13">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G38" s="14">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="H38" s="14">
         <v>25</v>
@@ -2536,25 +2545,25 @@
       </c>
       <c r="K38" s="15">
         <f t="shared" si="25"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L38" s="16">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="M38" s="16">
         <f t="shared" si="26"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N38" s="15">
         <f t="shared" si="27"/>
-        <v>125</v>
+        <v>25</v>
       </c>
       <c r="O38" s="17">
         <f t="shared" si="15"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="39" spans="2:21" s="17" customFormat="1" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="2:21" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B39" s="13">
         <v>12</v>
       </c>
@@ -2562,18 +2571,18 @@
         <v>39</v>
       </c>
       <c r="D39" s="13">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E39" s="13">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F39" s="13">
         <f t="shared" si="9"/>
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="G39" s="14">
         <f t="shared" si="10"/>
-        <v>80</v>
+        <v>-80</v>
       </c>
       <c r="H39" s="14">
         <v>25</v>
@@ -2587,25 +2596,25 @@
       </c>
       <c r="K39" s="15">
         <f t="shared" ref="K39" si="29">+J39*F39</f>
-        <v>30</v>
+        <v>-30</v>
       </c>
       <c r="L39" s="16">
         <v>5</v>
       </c>
       <c r="M39" s="16">
         <f t="shared" ref="M39" si="30">+L39-E39</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N39" s="15">
         <f t="shared" ref="N39" si="31">+M39*H39</f>
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="O39" s="17">
         <f t="shared" si="15"/>
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B40" s="2">
         <v>13</v>
       </c>
@@ -2613,18 +2622,18 @@
         <v>14</v>
       </c>
       <c r="D40" s="2">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E40" s="2">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F40" s="2">
         <f t="shared" si="9"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G40" s="4">
         <f t="shared" si="10"/>
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="H40" s="4">
         <v>25</v>
@@ -2638,18 +2647,18 @@
       </c>
       <c r="K40" s="6">
         <f t="shared" si="12"/>
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="L40" s="10">
         <v>10</v>
       </c>
       <c r="M40" s="11">
         <f t="shared" si="13"/>
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="N40" s="8">
         <f t="shared" si="14"/>
-        <v>250</v>
+        <v>75</v>
       </c>
       <c r="O40">
         <f t="shared" si="15"/>
@@ -2661,7 +2670,7 @@
       <c r="T40" s="20"/>
       <c r="U40" s="20"/>
     </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B41" s="2">
         <v>14</v>
       </c>
@@ -2672,15 +2681,15 @@
         <v>10</v>
       </c>
       <c r="E41" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F41" s="2">
         <f t="shared" si="9"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G41" s="4">
         <f>+F41*23</f>
-        <v>92</v>
+        <v>184</v>
       </c>
       <c r="H41" s="4">
         <v>15</v>
@@ -2694,18 +2703,18 @@
       </c>
       <c r="K41" s="6">
         <f t="shared" si="12"/>
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="L41" s="10">
         <v>10</v>
       </c>
       <c r="M41" s="11">
         <f t="shared" si="13"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="N41" s="8">
         <f t="shared" si="14"/>
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="O41">
         <f t="shared" si="15"/>
@@ -2721,7 +2730,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B42" s="2">
         <v>15</v>
       </c>
@@ -2729,18 +2738,18 @@
         <v>16</v>
       </c>
       <c r="D42" s="2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E42" s="2">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F42" s="2">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G42" s="4">
         <f t="shared" ref="G42:G47" si="32">+F42*23</f>
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="H42" s="4">
         <v>15</v>
@@ -2754,36 +2763,36 @@
       </c>
       <c r="K42" s="6">
         <f t="shared" si="12"/>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="L42" s="10">
         <v>10</v>
       </c>
       <c r="M42" s="11">
         <f t="shared" si="13"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="N42" s="8">
         <f t="shared" si="14"/>
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="O42">
         <f t="shared" si="15"/>
         <v>10</v>
       </c>
       <c r="S42" s="2" t="s">
-        <v>6</v>
+        <v>48</v>
       </c>
       <c r="T42" s="11">
-        <f>M3</f>
-        <v>6</v>
+        <f>M28</f>
+        <v>4</v>
       </c>
       <c r="U42" s="8">
-        <f>N3</f>
-        <v>150</v>
-      </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+        <f>N28</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B43" s="2">
         <v>16</v>
       </c>
@@ -2794,15 +2803,15 @@
         <v>10</v>
       </c>
       <c r="E43" s="2">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F43" s="2">
         <f t="shared" si="9"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G43" s="4">
         <f t="shared" si="32"/>
-        <v>69</v>
+        <v>161</v>
       </c>
       <c r="H43" s="4">
         <v>15</v>
@@ -2816,36 +2825,36 @@
       </c>
       <c r="K43" s="6">
         <f t="shared" si="12"/>
-        <v>24</v>
+        <v>56</v>
       </c>
       <c r="L43" s="10">
         <v>10</v>
       </c>
       <c r="M43" s="11">
         <f t="shared" si="13"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="N43" s="8">
         <f t="shared" si="14"/>
-        <v>45</v>
+        <v>105</v>
       </c>
       <c r="O43">
         <f t="shared" si="15"/>
         <v>10</v>
       </c>
       <c r="S43" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="T43" s="11">
+        <f t="shared" ref="T43:T63" si="34">M29</f>
         <v>7</v>
       </c>
-      <c r="T43" s="11">
-        <f t="shared" ref="T43:T63" si="34">M4</f>
-        <v>9</v>
-      </c>
       <c r="U43" s="8">
-        <f t="shared" ref="U43:U63" si="35">N4</f>
-        <v>225</v>
-      </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+        <f t="shared" ref="U43:U63" si="35">N29</f>
+        <v>175</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B44" s="2">
         <v>17</v>
       </c>
@@ -2853,18 +2862,18 @@
         <v>18</v>
       </c>
       <c r="D44" s="2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E44" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F44" s="2">
         <f t="shared" si="9"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G44" s="4">
         <f t="shared" si="32"/>
-        <v>69</v>
+        <v>92</v>
       </c>
       <c r="H44" s="4">
         <v>15</v>
@@ -2878,18 +2887,18 @@
       </c>
       <c r="K44" s="6">
         <f t="shared" si="12"/>
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="L44" s="10">
         <v>10</v>
       </c>
       <c r="M44" s="11">
         <f t="shared" si="13"/>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="N44" s="8">
         <f t="shared" si="14"/>
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="O44">
         <f t="shared" si="15"/>
@@ -2900,14 +2909,14 @@
       </c>
       <c r="T44" s="11">
         <f t="shared" si="34"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="U44" s="8">
         <f t="shared" si="35"/>
-        <v>150</v>
-      </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B45" s="2">
         <v>18</v>
       </c>
@@ -2918,15 +2927,15 @@
         <v>10</v>
       </c>
       <c r="E45" s="2">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F45" s="2">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G45" s="4">
         <f t="shared" si="32"/>
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="H45" s="4">
         <v>15</v>
@@ -2940,18 +2949,18 @@
       </c>
       <c r="K45" s="6">
         <f t="shared" si="12"/>
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="L45" s="10">
         <v>10</v>
       </c>
       <c r="M45" s="11">
         <f t="shared" si="13"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N45" s="8">
         <f t="shared" si="14"/>
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="O45">
         <f t="shared" si="15"/>
@@ -2962,14 +2971,14 @@
       </c>
       <c r="T45" s="11">
         <f t="shared" si="34"/>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="U45" s="8">
         <f t="shared" si="35"/>
-        <v>150</v>
-      </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B46" s="2">
         <v>19</v>
       </c>
@@ -2980,15 +2989,15 @@
         <v>10</v>
       </c>
       <c r="E46" s="2">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F46" s="2">
         <f t="shared" si="9"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G46" s="4">
         <f t="shared" si="32"/>
-        <v>69</v>
+        <v>0</v>
       </c>
       <c r="H46" s="4">
         <v>15</v>
@@ -3002,18 +3011,18 @@
       </c>
       <c r="K46" s="6">
         <f t="shared" si="12"/>
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="L46" s="10">
         <v>10</v>
       </c>
       <c r="M46" s="11">
         <f t="shared" si="13"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N46" s="8">
         <f t="shared" si="14"/>
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="O46">
         <f t="shared" si="15"/>
@@ -3024,14 +3033,14 @@
       </c>
       <c r="T46" s="11">
         <f t="shared" si="34"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U46" s="8">
         <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B47" s="2">
         <v>20</v>
       </c>
@@ -3039,18 +3048,18 @@
         <v>21</v>
       </c>
       <c r="D47" s="2">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="E47" s="2">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="F47" s="2">
         <f t="shared" si="9"/>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G47" s="4">
         <f t="shared" si="32"/>
-        <v>322</v>
+        <v>368</v>
       </c>
       <c r="H47" s="4">
         <v>12</v>
@@ -3064,36 +3073,36 @@
       </c>
       <c r="K47" s="6">
         <f t="shared" si="12"/>
-        <v>154</v>
+        <v>176</v>
       </c>
       <c r="L47" s="10">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="M47" s="11">
         <f t="shared" si="13"/>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N47" s="8">
         <f t="shared" si="14"/>
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="O47">
         <f t="shared" si="15"/>
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="S47" s="2" t="s">
         <v>11</v>
       </c>
       <c r="T47" s="11">
         <f t="shared" si="34"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="U47" s="8">
         <f t="shared" si="35"/>
-        <v>125</v>
-      </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B48" s="2">
         <v>21</v>
       </c>
@@ -3101,18 +3110,18 @@
         <v>37</v>
       </c>
       <c r="D48" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E48" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F48" s="2">
         <f t="shared" ref="F48:F49" si="36">+D48-E48</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G48" s="4">
         <f t="shared" ref="G48:G49" si="37">+F48*23</f>
-        <v>23</v>
+        <v>-23</v>
       </c>
       <c r="H48" s="4">
         <v>12</v>
@@ -3126,18 +3135,18 @@
       </c>
       <c r="K48" s="6">
         <f t="shared" ref="K48:K49" si="39">+J48*F48</f>
-        <v>11</v>
+        <v>-11</v>
       </c>
       <c r="L48" s="10">
         <v>5</v>
       </c>
       <c r="M48" s="11">
         <f t="shared" ref="M48:M49" si="40">+L48-E48</f>
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="N48" s="8">
         <f t="shared" ref="N48:N49" si="41">+M48*H48</f>
-        <v>24</v>
+        <v>-12</v>
       </c>
       <c r="O48">
         <f t="shared" si="15"/>
@@ -3148,14 +3157,14 @@
       </c>
       <c r="T48" s="11">
         <f t="shared" si="34"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U48" s="8">
         <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="2:21" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="49" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B49" s="2">
         <v>22</v>
       </c>
@@ -3166,15 +3175,15 @@
         <v>5</v>
       </c>
       <c r="E49" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F49" s="2">
         <f t="shared" si="36"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G49" s="4">
         <f t="shared" si="37"/>
-        <v>23</v>
+        <v>92</v>
       </c>
       <c r="H49" s="4">
         <v>12</v>
@@ -3188,18 +3197,18 @@
       </c>
       <c r="K49" s="6">
         <f t="shared" si="39"/>
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="L49" s="10">
         <v>5</v>
       </c>
       <c r="M49" s="11">
         <f t="shared" si="40"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N49" s="8">
         <f t="shared" si="41"/>
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="O49">
         <f t="shared" si="15"/>
@@ -3210,54 +3219,54 @@
       </c>
       <c r="T49" s="11">
         <f t="shared" si="34"/>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="U49" s="8">
         <f t="shared" si="35"/>
-        <v>175</v>
-      </c>
-    </row>
-    <row r="50" spans="2:21" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="2:21" x14ac:dyDescent="0.25">
       <c r="G50" s="5"/>
       <c r="S50" s="13" t="s">
         <v>40</v>
       </c>
       <c r="T50" s="11">
         <f t="shared" si="34"/>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="U50" s="8">
         <f t="shared" si="35"/>
-        <v>175</v>
-      </c>
-    </row>
-    <row r="51" spans="2:21" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="2:21" x14ac:dyDescent="0.25">
       <c r="S51" s="13" t="s">
         <v>41</v>
       </c>
       <c r="T51" s="11">
         <f t="shared" si="34"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U51" s="8">
         <f t="shared" si="35"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="52" spans="2:21" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="52" spans="2:21" x14ac:dyDescent="0.25">
       <c r="S52" s="13" t="s">
         <v>42</v>
       </c>
       <c r="T52" s="11">
         <f t="shared" si="34"/>
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="U52" s="8">
         <f t="shared" si="35"/>
-        <v>250</v>
-      </c>
-    </row>
-    <row r="53" spans="2:21" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="53" spans="2:21" x14ac:dyDescent="0.25">
       <c r="S53" s="13" t="s">
         <v>39</v>
       </c>
@@ -3270,64 +3279,64 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:21" x14ac:dyDescent="0.25">
       <c r="S54" s="2" t="s">
         <v>14</v>
       </c>
       <c r="T54" s="11">
         <f t="shared" si="34"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U54" s="8">
         <f t="shared" si="35"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="55" spans="2:21" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="55" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C55" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D55" s="3">
         <f>SUM(D28:D50)</f>
-        <v>179</v>
+        <v>217</v>
       </c>
       <c r="E55" s="3">
         <f>SUM(E28:E50)</f>
-        <v>110</v>
+        <v>139</v>
       </c>
       <c r="F55" s="3">
         <f>SUM(F28:F50)</f>
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="G55" s="3">
         <f>SUM(G28:G50)</f>
-        <v>2233</v>
+        <v>2423</v>
       </c>
       <c r="L55" s="1" t="s">
         <v>33</v>
       </c>
       <c r="M55" s="8">
         <f>SUM(N28:N50)</f>
-        <v>1579</v>
+        <v>1172</v>
       </c>
       <c r="S55" s="2" t="s">
         <v>15</v>
       </c>
       <c r="T55" s="11">
         <f t="shared" si="34"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="U55" s="8">
         <f t="shared" si="35"/>
-        <v>135</v>
-      </c>
-    </row>
-    <row r="56" spans="2:21" x14ac:dyDescent="0.2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="56" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C56" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D56" s="3">
-        <v>1091</v>
+        <v>375</v>
       </c>
       <c r="E56" s="3"/>
       <c r="F56" s="3" t="s">
@@ -3335,26 +3344,26 @@
       </c>
       <c r="G56" s="3">
         <f>+G55+D56</f>
-        <v>3324</v>
+        <v>2798</v>
       </c>
       <c r="S56" s="2" t="s">
         <v>16</v>
       </c>
       <c r="T56" s="11">
         <f t="shared" si="34"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U56" s="8">
         <f t="shared" si="35"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="57" spans="2:21" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C57" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D57" s="3">
-        <v>1715</v>
+        <v>1229</v>
       </c>
       <c r="E57" s="1"/>
       <c r="F57" s="3" t="s">
@@ -3362,38 +3371,38 @@
       </c>
       <c r="G57" s="9">
         <f>SUM(K28:K49)</f>
-        <v>866</v>
+        <v>940</v>
       </c>
       <c r="H57" s="7">
         <f>+G57/2</f>
-        <v>433</v>
+        <v>470</v>
       </c>
       <c r="S57" s="2" t="s">
         <v>17</v>
       </c>
       <c r="T57" s="11">
         <f t="shared" si="34"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="U57" s="8">
         <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="2:21" x14ac:dyDescent="0.2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="58" spans="2:21" x14ac:dyDescent="0.25">
       <c r="S58" s="2" t="s">
         <v>18</v>
       </c>
       <c r="T58" s="11">
         <f t="shared" si="34"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="U58" s="8">
         <f t="shared" si="35"/>
-        <v>90</v>
-      </c>
-    </row>
-    <row r="59" spans="2:21" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="59" spans="2:21" x14ac:dyDescent="0.25">
       <c r="S59" s="2" t="s">
         <v>19</v>
       </c>
@@ -3406,33 +3415,33 @@
         <v>45</v>
       </c>
     </row>
-    <row r="60" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:21" x14ac:dyDescent="0.25">
       <c r="S60" s="2" t="s">
         <v>20</v>
       </c>
       <c r="T60" s="11">
         <f t="shared" si="34"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U60" s="8">
         <f t="shared" si="35"/>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="61" spans="2:21" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="2:21" x14ac:dyDescent="0.25">
       <c r="S61" s="2" t="s">
         <v>21</v>
       </c>
       <c r="T61" s="11">
         <f t="shared" si="34"/>
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="U61" s="8">
         <f t="shared" si="35"/>
-        <v>420</v>
-      </c>
-    </row>
-    <row r="62" spans="2:21" x14ac:dyDescent="0.2">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="62" spans="2:21" x14ac:dyDescent="0.25">
       <c r="S62" s="2" t="s">
         <v>37</v>
       </c>
@@ -3445,26 +3454,26 @@
         <v>-12</v>
       </c>
     </row>
-    <row r="63" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:21" x14ac:dyDescent="0.25">
       <c r="S63" s="2" t="s">
         <v>38</v>
       </c>
       <c r="T63" s="11">
         <f t="shared" si="34"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="U63" s="8">
         <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="2:21" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="64" spans="2:21" x14ac:dyDescent="0.25">
       <c r="S64" s="1" t="s">
         <v>33</v>
       </c>
       <c r="T64" s="8">
         <f>SUM(U42:U63)</f>
-        <v>2273</v>
+        <v>1172</v>
       </c>
     </row>
   </sheetData>

--- a/Angular/Paletas Yahvé.xlsx
+++ b/Angular/Paletas Yahvé.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bmedina\Downloads\Curso Angular\Angular\Angular\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CACB01FE-5BEB-4DBE-A15C-140ADC00C56F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBD98F84-B402-425C-B76F-5FD6C5729B95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{8B9CBAAB-98A8-4499-B93A-25E4DC44FD39}"/>
+    <workbookView xWindow="20535" yWindow="-9150" windowWidth="29040" windowHeight="16440" xr2:uid="{8B9CBAAB-98A8-4499-B93A-25E4DC44FD39}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,10 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="50">
-  <si>
-    <t>Venta Paletas Semana 25-28Ago</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="52">
   <si>
     <t>#</t>
   </si>
@@ -146,9 +143,6 @@
     <t>Total Deberia Caja</t>
   </si>
   <si>
-    <t>Venta Paletas Semana 28Ago-08Sept</t>
-  </si>
-  <si>
     <t>V Sandia</t>
   </si>
   <si>
@@ -186,6 +180,18 @@
   </si>
   <si>
     <t>NUEVO STOCK SEMANA 01/OCT</t>
+  </si>
+  <si>
+    <t>Venta Paletas Semana OCT-31OCT</t>
+  </si>
+  <si>
+    <t>Venta Paletas NUEVO STOCK 15/10/2024</t>
+  </si>
+  <si>
+    <t>GANANCIA /2</t>
+  </si>
+  <si>
+    <t>PEDIDO 14/10/2024</t>
   </si>
 </sst>
 </file>
@@ -298,7 +304,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -336,6 +342,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -671,10 +678,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{734E0C91-4377-4E4F-B8BB-89756185763E}">
-  <dimension ref="B1:V64"/>
+  <dimension ref="B1:X64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M46" sqref="M46"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="S11" sqref="S11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -694,12 +701,12 @@
     <col min="20" max="20" width="20.7109375" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="14.28515625" customWidth="1"/>
     <col min="22" max="22" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="21.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B1" s="18" t="s">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="C1" s="19"/>
       <c r="D1" s="19"/>
@@ -713,71 +720,85 @@
       <c r="L1" s="19"/>
       <c r="M1" s="19"/>
       <c r="N1" s="19"/>
-    </row>
-    <row r="2" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="V1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+    </row>
+    <row r="2" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="K2" s="2" t="s">
+      <c r="L2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O2" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="V2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="W2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="M2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="O2" s="12" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="X2" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B3" s="2">
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D3" s="2">
         <v>10</v>
       </c>
       <c r="E3" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F3" s="2">
         <f>+D3-E3</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G3" s="4">
         <f>+F3*40</f>
-        <v>240</v>
+        <v>360</v>
       </c>
       <c r="H3" s="4">
         <v>25</v>
@@ -791,44 +812,55 @@
       </c>
       <c r="K3" s="6">
         <f>+J3*F3</f>
-        <v>90</v>
+        <v>135</v>
       </c>
       <c r="L3" s="10">
         <v>10</v>
       </c>
       <c r="M3" s="11">
         <f>+L3-E3</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="N3" s="8">
         <f>+M3*H3</f>
-        <v>150</v>
+        <v>225</v>
       </c>
       <c r="O3">
         <f>+M3+E3</f>
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="V3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="W3" s="11">
+        <f>M3</f>
+        <v>9</v>
+      </c>
+      <c r="X3" s="8">
+        <f>N3</f>
+        <v>225</v>
+      </c>
+    </row>
+    <row r="4" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B4" s="2">
         <v>2</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D4" s="2">
         <v>10</v>
       </c>
       <c r="E4" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F4" s="2">
         <f t="shared" ref="F4:F24" si="0">+D4-E4</f>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G4" s="4">
         <f t="shared" ref="G4:G15" si="1">+F4*40</f>
-        <v>240</v>
+        <v>400</v>
       </c>
       <c r="H4" s="4">
         <v>25</v>
@@ -842,44 +874,55 @@
       </c>
       <c r="K4" s="6">
         <f t="shared" ref="K4:K24" si="3">+J4*F4</f>
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="L4" s="10">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="M4" s="11">
         <f t="shared" ref="M4:M24" si="4">+L4-E4</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="N4" s="8">
         <f t="shared" ref="N4:N24" si="5">+M4*H4</f>
-        <v>225</v>
+        <v>250</v>
       </c>
       <c r="O4">
         <f t="shared" ref="O4:O24" si="6">+M4+E4</f>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="V4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="W4" s="11">
+        <f>M4</f>
+        <v>10</v>
+      </c>
+      <c r="X4" s="8">
+        <f>N4</f>
+        <v>250</v>
+      </c>
+    </row>
+    <row r="5" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B5" s="2">
         <v>3</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D5" s="2">
         <v>10</v>
       </c>
       <c r="E5" s="2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F5" s="2">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G5" s="4">
         <f t="shared" si="1"/>
-        <v>240</v>
+        <v>120</v>
       </c>
       <c r="H5" s="4">
         <v>25</v>
@@ -893,44 +936,55 @@
       </c>
       <c r="K5" s="6">
         <f t="shared" si="3"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="L5" s="10">
         <v>10</v>
       </c>
       <c r="M5" s="11">
         <f t="shared" si="4"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="N5" s="8">
         <f t="shared" si="5"/>
-        <v>150</v>
+        <v>75</v>
       </c>
       <c r="O5">
         <f t="shared" si="6"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="V5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="W5" s="11">
+        <f>M5</f>
+        <v>3</v>
+      </c>
+      <c r="X5" s="8">
+        <f>N5</f>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B6" s="2">
         <v>4</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D6" s="2">
         <v>10</v>
       </c>
       <c r="E6" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F6" s="2">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G6" s="4">
         <f t="shared" si="1"/>
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="H6" s="4">
         <v>25</v>
@@ -944,44 +998,55 @@
       </c>
       <c r="K6" s="6">
         <f t="shared" si="3"/>
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="L6" s="10">
         <v>10</v>
       </c>
       <c r="M6" s="11">
         <f t="shared" si="4"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N6" s="8">
         <f t="shared" si="5"/>
-        <v>150</v>
+        <v>125</v>
       </c>
       <c r="O6">
         <f t="shared" si="6"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="V6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="W6" s="11">
+        <f>M6</f>
+        <v>5</v>
+      </c>
+      <c r="X6" s="8">
+        <f>N6</f>
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B7" s="2">
         <v>5</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D7" s="2">
         <v>10</v>
       </c>
       <c r="E7" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F7" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G7" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H7" s="4">
         <v>25</v>
@@ -995,44 +1060,55 @@
       </c>
       <c r="K7" s="6">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="L7" s="10">
         <v>10</v>
       </c>
       <c r="M7" s="11">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N7" s="8">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>125</v>
       </c>
       <c r="O7">
         <f t="shared" si="6"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="V7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="W7" s="11">
+        <f>M7</f>
+        <v>5</v>
+      </c>
+      <c r="X7" s="8">
+        <f>N7</f>
+        <v>125</v>
+      </c>
+    </row>
+    <row r="8" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B8" s="2">
         <v>6</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D8" s="2">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E8" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F8" s="2">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G8" s="4">
         <f t="shared" si="1"/>
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="H8" s="4">
         <v>25</v>
@@ -1046,44 +1122,55 @@
       </c>
       <c r="K8" s="6">
         <f t="shared" si="3"/>
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="L8" s="10">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="M8" s="11">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N8" s="8">
         <f t="shared" si="5"/>
-        <v>125</v>
+        <v>0</v>
       </c>
       <c r="O8">
         <f t="shared" si="6"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="V8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="W8" s="11">
+        <f>M8</f>
+        <v>0</v>
+      </c>
+      <c r="X8" s="8">
+        <f>N8</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B9" s="13">
         <v>7</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D9" s="13">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E9" s="13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F9" s="13">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G9" s="14">
         <f t="shared" si="1"/>
-        <v>200</v>
+        <v>40</v>
       </c>
       <c r="H9" s="14">
         <v>25</v>
@@ -1097,30 +1184,41 @@
       </c>
       <c r="K9" s="15">
         <f t="shared" si="3"/>
-        <v>75</v>
+        <v>15</v>
       </c>
       <c r="L9" s="16">
         <v>2</v>
       </c>
       <c r="M9" s="16">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N9" s="15">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="O9" s="17">
         <f t="shared" si="6"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="V9" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="W9" s="11">
+        <f>M9</f>
+        <v>1</v>
+      </c>
+      <c r="X9" s="8">
+        <f>N9</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B10" s="2">
         <v>8</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D10" s="2">
         <v>8</v>
@@ -1151,41 +1249,52 @@
         <v>75</v>
       </c>
       <c r="L10" s="10">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="M10" s="11">
         <f t="shared" si="4"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="N10" s="8">
         <f t="shared" si="5"/>
-        <v>175</v>
+        <v>125</v>
       </c>
       <c r="O10">
         <f t="shared" si="6"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="V10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="W10" s="11">
+        <f>M10</f>
+        <v>5</v>
+      </c>
+      <c r="X10" s="8">
+        <f>N10</f>
+        <v>125</v>
+      </c>
+    </row>
+    <row r="11" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B11" s="13">
         <v>9</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D11" s="13">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E11" s="13">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F11" s="13">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G11" s="14">
         <f t="shared" si="1"/>
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="H11" s="14">
         <v>25</v>
@@ -1199,44 +1308,55 @@
       </c>
       <c r="K11" s="15">
         <f t="shared" si="3"/>
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="L11" s="16">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="M11" s="16">
         <f t="shared" si="4"/>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="N11" s="15">
         <f t="shared" si="5"/>
-        <v>175</v>
+        <v>25</v>
       </c>
       <c r="O11" s="17">
         <f t="shared" si="6"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="V11" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="W11" s="11">
+        <f>M11</f>
+        <v>1</v>
+      </c>
+      <c r="X11" s="8">
+        <f>N11</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B12" s="13">
         <v>10</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D12" s="13">
         <v>5</v>
       </c>
       <c r="E12" s="13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F12" s="13">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G12" s="14">
         <f t="shared" si="1"/>
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="H12" s="14">
         <v>25</v>
@@ -1250,36 +1370,47 @@
       </c>
       <c r="K12" s="15">
         <f t="shared" si="3"/>
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="L12" s="16">
         <v>5</v>
       </c>
       <c r="M12" s="16">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N12" s="15">
         <f t="shared" si="5"/>
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="O12" s="17">
         <f t="shared" si="6"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="V12" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="W12" s="11">
+        <f>M12</f>
+        <v>4</v>
+      </c>
+      <c r="X12" s="8">
+        <f>N12</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B13" s="13">
         <v>11</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D13" s="13">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E13" s="13">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F13" s="13">
         <f t="shared" si="0"/>
@@ -1308,23 +1439,34 @@
       </c>
       <c r="M13" s="16">
         <f t="shared" si="4"/>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="N13" s="15">
         <f t="shared" si="5"/>
-        <v>250</v>
+        <v>125</v>
       </c>
       <c r="O13" s="17">
         <f t="shared" si="6"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="V13" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="W13" s="11">
+        <f>M13</f>
+        <v>5</v>
+      </c>
+      <c r="X13" s="8">
+        <f>N13</f>
+        <v>125</v>
+      </c>
+    </row>
+    <row r="14" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B14" s="13">
         <v>12</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D14" s="13">
         <v>5</v>
@@ -1355,41 +1497,52 @@
         <v>30</v>
       </c>
       <c r="L14" s="16">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M14" s="16">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N14" s="15">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="O14" s="17">
         <f t="shared" si="6"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="V14" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="W14" s="11">
+        <f>M14</f>
+        <v>2</v>
+      </c>
+      <c r="X14" s="8">
+        <f>N14</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B15" s="2">
         <v>13</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D15" s="2">
         <v>10</v>
       </c>
       <c r="E15" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F15" s="2">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G15" s="4">
         <f t="shared" si="1"/>
-        <v>160</v>
+        <v>320</v>
       </c>
       <c r="H15" s="4">
         <v>25</v>
@@ -1403,44 +1556,55 @@
       </c>
       <c r="K15" s="6">
         <f t="shared" si="3"/>
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="L15" s="10">
         <v>10</v>
       </c>
       <c r="M15" s="11">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="N15" s="8">
         <f t="shared" si="5"/>
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O15">
         <f t="shared" si="6"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="V15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="W15" s="11">
+        <f>M15</f>
+        <v>8</v>
+      </c>
+      <c r="X15" s="8">
+        <f>N15</f>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="16" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B16" s="2">
         <v>14</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D16" s="2">
         <v>10</v>
       </c>
       <c r="E16" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16" s="2">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G16" s="4">
         <f>+F16*23</f>
-        <v>207</v>
+        <v>184</v>
       </c>
       <c r="H16" s="4">
         <v>15</v>
@@ -1454,44 +1618,55 @@
       </c>
       <c r="K16" s="6">
         <f t="shared" si="3"/>
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="L16" s="10">
         <v>10</v>
       </c>
       <c r="M16" s="11">
         <f t="shared" si="4"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N16" s="8">
         <f t="shared" si="5"/>
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="O16">
         <f t="shared" si="6"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="17" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="V16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="W16" s="11">
+        <f>M16</f>
+        <v>8</v>
+      </c>
+      <c r="X16" s="8">
+        <f>N16</f>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="17" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B17" s="2">
         <v>15</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D17" s="2">
         <v>10</v>
       </c>
       <c r="E17" s="2">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F17" s="2">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G17" s="4">
         <f t="shared" ref="G17:G24" si="7">+F17*23</f>
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="H17" s="4">
         <v>15</v>
@@ -1505,44 +1680,55 @@
       </c>
       <c r="K17" s="6">
         <f t="shared" si="3"/>
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="L17" s="10">
         <v>10</v>
       </c>
       <c r="M17" s="11">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N17" s="8">
         <f t="shared" si="5"/>
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="O17">
         <f t="shared" si="6"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="18" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="V17" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="W17" s="11">
+        <f>M17</f>
+        <v>3</v>
+      </c>
+      <c r="X17" s="8">
+        <f>N17</f>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B18" s="2">
         <v>16</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D18" s="2">
         <v>10</v>
       </c>
       <c r="E18" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F18" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G18" s="4">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>207</v>
       </c>
       <c r="H18" s="4">
         <v>15</v>
@@ -1556,44 +1742,55 @@
       </c>
       <c r="K18" s="6">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="L18" s="10">
         <v>10</v>
       </c>
       <c r="M18" s="11">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="N18" s="8">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>135</v>
       </c>
       <c r="O18">
         <f t="shared" si="6"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="19" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="V18" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="W18" s="11">
+        <f>M18</f>
+        <v>9</v>
+      </c>
+      <c r="X18" s="8">
+        <f>N18</f>
+        <v>135</v>
+      </c>
+    </row>
+    <row r="19" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B19" s="2">
         <v>17</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D19" s="2">
         <v>10</v>
       </c>
       <c r="E19" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F19" s="2">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G19" s="4">
         <f t="shared" si="7"/>
-        <v>138</v>
+        <v>92</v>
       </c>
       <c r="H19" s="4">
         <v>15</v>
@@ -1607,44 +1804,55 @@
       </c>
       <c r="K19" s="6">
         <f t="shared" si="3"/>
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="L19" s="10">
         <v>10</v>
       </c>
       <c r="M19" s="11">
         <f t="shared" si="4"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="N19" s="8">
         <f t="shared" si="5"/>
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="O19">
         <f t="shared" si="6"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="20" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="V19" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="W19" s="11">
+        <f>M19</f>
+        <v>4</v>
+      </c>
+      <c r="X19" s="8">
+        <f>N19</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B20" s="2">
         <v>18</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D20" s="2">
         <v>10</v>
       </c>
       <c r="E20" s="2">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F20" s="2">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G20" s="4">
         <f t="shared" si="7"/>
-        <v>69</v>
+        <v>161</v>
       </c>
       <c r="H20" s="4">
         <v>15</v>
@@ -1658,30 +1866,41 @@
       </c>
       <c r="K20" s="6">
         <f t="shared" si="3"/>
-        <v>24</v>
+        <v>56</v>
       </c>
       <c r="L20" s="10">
         <v>10</v>
       </c>
       <c r="M20" s="11">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="N20" s="8">
         <f t="shared" si="5"/>
-        <v>45</v>
+        <v>105</v>
       </c>
       <c r="O20">
         <f t="shared" si="6"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="21" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="V20" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="W20" s="11">
+        <f>M20</f>
+        <v>7</v>
+      </c>
+      <c r="X20" s="8">
+        <f>N20</f>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="21" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B21" s="2">
         <v>19</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D21" s="2">
         <v>10</v>
@@ -1727,27 +1946,38 @@
         <v>10</v>
       </c>
       <c r="R21" s="5"/>
-    </row>
-    <row r="22" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="V21" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="W21" s="11">
+        <f>M21</f>
+        <v>2</v>
+      </c>
+      <c r="X21" s="8">
+        <f>N21</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B22" s="2">
         <v>20</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D22" s="2">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="E22" s="2">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F22" s="2">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G22" s="4">
         <f t="shared" si="7"/>
-        <v>460</v>
+        <v>529</v>
       </c>
       <c r="H22" s="4">
         <v>12</v>
@@ -1761,44 +1991,55 @@
       </c>
       <c r="K22" s="6">
         <f t="shared" si="3"/>
-        <v>220</v>
+        <v>253</v>
       </c>
       <c r="L22" s="10">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="M22" s="11">
         <f t="shared" si="4"/>
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="N22" s="8">
         <f t="shared" si="5"/>
-        <v>420</v>
+        <v>276</v>
       </c>
       <c r="O22">
         <f t="shared" si="6"/>
-        <v>35</v>
-      </c>
-    </row>
-    <row r="23" spans="2:22" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="V22" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="W22" s="11">
+        <f>M22</f>
+        <v>23</v>
+      </c>
+      <c r="X22" s="8">
+        <f>N22</f>
+        <v>276</v>
+      </c>
+    </row>
+    <row r="23" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B23" s="2">
         <v>21</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D23" s="2">
         <v>5</v>
       </c>
       <c r="E23" s="2">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F23" s="2">
         <f t="shared" si="0"/>
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="G23" s="4">
         <f t="shared" si="7"/>
-        <v>-23</v>
+        <v>-69</v>
       </c>
       <c r="H23" s="4">
         <v>12</v>
@@ -1812,51 +2053,62 @@
       </c>
       <c r="K23" s="6">
         <f t="shared" si="3"/>
-        <v>-11</v>
+        <v>-33</v>
       </c>
       <c r="L23" s="10">
         <v>5</v>
       </c>
       <c r="M23" s="11">
         <f t="shared" si="4"/>
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="N23" s="8">
         <f t="shared" si="5"/>
-        <v>-12</v>
+        <v>-36</v>
       </c>
       <c r="O23">
         <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="S23" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T23" s="8">
         <f>SUM(N3:N24)</f>
-        <v>2273</v>
-      </c>
-    </row>
-    <row r="24" spans="2:22" x14ac:dyDescent="0.25">
+        <v>2221</v>
+      </c>
+      <c r="V23" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="W23" s="11">
+        <f>M23</f>
+        <v>-3</v>
+      </c>
+      <c r="X23" s="8">
+        <f>N23</f>
+        <v>-36</v>
+      </c>
+    </row>
+    <row r="24" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B24" s="2">
         <v>22</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D24" s="2">
         <v>5</v>
       </c>
       <c r="E24" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F24" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G24" s="4">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="H24" s="4">
         <v>12</v>
@@ -1870,62 +2122,80 @@
       </c>
       <c r="K24" s="6">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="L24" s="10">
         <v>5</v>
       </c>
       <c r="M24" s="11">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N24" s="8">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="O24">
         <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="Q24" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="R24" s="3">
         <f>SUM(D3:D24)</f>
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="S24" s="3">
         <f>SUM(E3:E21)</f>
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="T24" s="3">
         <f>SUM(F3:F24)</f>
-        <v>94</v>
+        <v>114</v>
       </c>
       <c r="U24" s="3">
         <f>SUM(G3:G24)</f>
-        <v>3080</v>
-      </c>
-    </row>
-    <row r="25" spans="2:22" x14ac:dyDescent="0.25">
+        <v>3608</v>
+      </c>
+      <c r="V24" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="W24" s="11">
+        <f>M24</f>
+        <v>3</v>
+      </c>
+      <c r="X24" s="8">
+        <f>N24</f>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="2:24" x14ac:dyDescent="0.25">
       <c r="Q25" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="R25" s="3">
         <v>85</v>
       </c>
       <c r="S25" s="3"/>
       <c r="T25" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="U25" s="3">
         <f>+U24+R25</f>
-        <v>3165</v>
-      </c>
-    </row>
-    <row r="26" spans="2:22" x14ac:dyDescent="0.25">
+        <v>3693</v>
+      </c>
+      <c r="V25" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="W25" s="21">
+        <f>SUM(X3:X24)</f>
+        <v>2221</v>
+      </c>
+    </row>
+    <row r="26" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B26" s="18" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="C26" s="19"/>
       <c r="D26" s="19"/>
@@ -1940,74 +2210,77 @@
       <c r="M26" s="19"/>
       <c r="N26" s="19"/>
       <c r="Q26" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R26" s="3">
         <v>3190</v>
       </c>
       <c r="S26" s="1"/>
       <c r="T26" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U26" s="9">
         <f>SUM(K3:K24)</f>
-        <v>1187</v>
-      </c>
-      <c r="V26" s="7">
+        <v>1387</v>
+      </c>
+    </row>
+    <row r="27" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B27" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="N27" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O27" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="T27" t="s">
+        <v>50</v>
+      </c>
+      <c r="U27" s="7">
         <f>+U26/2</f>
-        <v>593.5</v>
-      </c>
-    </row>
-    <row r="27" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B27" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I27" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="J27" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="K27" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="L27" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="M27" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="N27" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="O27" s="12" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="28" spans="2:22" x14ac:dyDescent="0.25">
+        <v>693.5</v>
+      </c>
+    </row>
+    <row r="28" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B28" s="2">
         <v>1</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D28" s="2">
         <v>10</v>
@@ -2053,12 +2326,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B29" s="2">
         <v>2</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D29" s="2">
         <v>13</v>
@@ -2104,12 +2377,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B30" s="2">
         <v>3</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D30" s="2">
         <v>10</v>
@@ -2155,12 +2428,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B31" s="2">
         <v>4</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D31" s="2">
         <v>10</v>
@@ -2206,12 +2479,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B32" s="2">
         <v>5</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D32" s="2">
         <v>10</v>
@@ -2262,7 +2535,7 @@
         <v>6</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D33" s="2">
         <v>9</v>
@@ -2313,7 +2586,7 @@
         <v>7</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D34" s="13">
         <v>2</v>
@@ -2364,7 +2637,7 @@
         <v>8</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D35" s="2">
         <v>10</v>
@@ -2415,7 +2688,7 @@
         <v>9</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D36" s="13">
         <v>10</v>
@@ -2466,7 +2739,7 @@
         <v>10</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D37" s="13">
         <v>5</v>
@@ -2517,7 +2790,7 @@
         <v>11</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D38" s="13">
         <v>10</v>
@@ -2568,7 +2841,7 @@
         <v>12</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D39" s="13">
         <v>3</v>
@@ -2619,7 +2892,7 @@
         <v>13</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D40" s="2">
         <v>10</v>
@@ -2665,7 +2938,7 @@
         <v>10</v>
       </c>
       <c r="S40" s="20" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="T40" s="20"/>
       <c r="U40" s="20"/>
@@ -2675,7 +2948,7 @@
         <v>14</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D41" s="2">
         <v>10</v>
@@ -2721,13 +2994,13 @@
         <v>10</v>
       </c>
       <c r="S41" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T41" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U41" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="42" spans="2:21" x14ac:dyDescent="0.25">
@@ -2735,7 +3008,7 @@
         <v>15</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D42" s="2">
         <v>10</v>
@@ -2781,7 +3054,7 @@
         <v>10</v>
       </c>
       <c r="S42" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="T42" s="11">
         <f>M28</f>
@@ -2797,7 +3070,7 @@
         <v>16</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D43" s="2">
         <v>10</v>
@@ -2843,7 +3116,7 @@
         <v>10</v>
       </c>
       <c r="S43" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="T43" s="11">
         <f t="shared" ref="T43:T63" si="34">M29</f>
@@ -2859,7 +3132,7 @@
         <v>17</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D44" s="2">
         <v>10</v>
@@ -2905,7 +3178,7 @@
         <v>10</v>
       </c>
       <c r="S44" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="T44" s="11">
         <f t="shared" si="34"/>
@@ -2921,7 +3194,7 @@
         <v>18</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D45" s="2">
         <v>10</v>
@@ -2967,7 +3240,7 @@
         <v>10</v>
       </c>
       <c r="S45" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="T45" s="11">
         <f t="shared" si="34"/>
@@ -2983,7 +3256,7 @@
         <v>19</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D46" s="2">
         <v>10</v>
@@ -3029,7 +3302,7 @@
         <v>10</v>
       </c>
       <c r="S46" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="T46" s="11">
         <f t="shared" si="34"/>
@@ -3045,7 +3318,7 @@
         <v>20</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D47" s="2">
         <v>35</v>
@@ -3091,7 +3364,7 @@
         <v>32</v>
       </c>
       <c r="S47" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="T47" s="11">
         <f t="shared" si="34"/>
@@ -3107,7 +3380,7 @@
         <v>21</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D48" s="2">
         <v>5</v>
@@ -3153,7 +3426,7 @@
         <v>5</v>
       </c>
       <c r="S48" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="T48" s="11">
         <f t="shared" si="34"/>
@@ -3169,7 +3442,7 @@
         <v>22</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D49" s="2">
         <v>5</v>
@@ -3215,7 +3488,7 @@
         <v>5</v>
       </c>
       <c r="S49" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="T49" s="11">
         <f t="shared" si="34"/>
@@ -3229,7 +3502,7 @@
     <row r="50" spans="2:21" x14ac:dyDescent="0.25">
       <c r="G50" s="5"/>
       <c r="S50" s="13" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="T50" s="11">
         <f t="shared" si="34"/>
@@ -3242,7 +3515,7 @@
     </row>
     <row r="51" spans="2:21" x14ac:dyDescent="0.25">
       <c r="S51" s="13" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="T51" s="11">
         <f t="shared" si="34"/>
@@ -3255,7 +3528,7 @@
     </row>
     <row r="52" spans="2:21" x14ac:dyDescent="0.25">
       <c r="S52" s="13" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="T52" s="11">
         <f t="shared" si="34"/>
@@ -3268,7 +3541,7 @@
     </row>
     <row r="53" spans="2:21" x14ac:dyDescent="0.25">
       <c r="S53" s="13" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="T53" s="11">
         <f t="shared" si="34"/>
@@ -3281,7 +3554,7 @@
     </row>
     <row r="54" spans="2:21" x14ac:dyDescent="0.25">
       <c r="S54" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="T54" s="11">
         <f t="shared" si="34"/>
@@ -3294,7 +3567,7 @@
     </row>
     <row r="55" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C55" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D55" s="3">
         <f>SUM(D28:D50)</f>
@@ -3313,14 +3586,14 @@
         <v>2423</v>
       </c>
       <c r="L55" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M55" s="8">
         <f>SUM(N28:N50)</f>
         <v>1172</v>
       </c>
       <c r="S55" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="T55" s="11">
         <f t="shared" si="34"/>
@@ -3333,21 +3606,21 @@
     </row>
     <row r="56" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C56" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D56" s="3">
         <v>375</v>
       </c>
       <c r="E56" s="3"/>
       <c r="F56" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G56" s="3">
         <f>+G55+D56</f>
         <v>2798</v>
       </c>
       <c r="S56" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="T56" s="11">
         <f t="shared" si="34"/>
@@ -3360,14 +3633,14 @@
     </row>
     <row r="57" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C57" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D57" s="3">
         <v>1229</v>
       </c>
       <c r="E57" s="1"/>
       <c r="F57" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G57" s="9">
         <f>SUM(K28:K49)</f>
@@ -3378,7 +3651,7 @@
         <v>470</v>
       </c>
       <c r="S57" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="T57" s="11">
         <f t="shared" si="34"/>
@@ -3391,7 +3664,7 @@
     </row>
     <row r="58" spans="2:21" x14ac:dyDescent="0.25">
       <c r="S58" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="T58" s="11">
         <f t="shared" si="34"/>
@@ -3404,7 +3677,7 @@
     </row>
     <row r="59" spans="2:21" x14ac:dyDescent="0.25">
       <c r="S59" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="T59" s="11">
         <f t="shared" si="34"/>
@@ -3417,7 +3690,7 @@
     </row>
     <row r="60" spans="2:21" x14ac:dyDescent="0.25">
       <c r="S60" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="T60" s="11">
         <f t="shared" si="34"/>
@@ -3430,7 +3703,7 @@
     </row>
     <row r="61" spans="2:21" x14ac:dyDescent="0.25">
       <c r="S61" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="T61" s="11">
         <f t="shared" si="34"/>
@@ -3443,7 +3716,7 @@
     </row>
     <row r="62" spans="2:21" x14ac:dyDescent="0.25">
       <c r="S62" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="T62" s="11">
         <f t="shared" si="34"/>
@@ -3456,7 +3729,7 @@
     </row>
     <row r="63" spans="2:21" x14ac:dyDescent="0.25">
       <c r="S63" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="T63" s="11">
         <f t="shared" si="34"/>
@@ -3469,7 +3742,7 @@
     </row>
     <row r="64" spans="2:21" x14ac:dyDescent="0.25">
       <c r="S64" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T64" s="8">
         <f>SUM(U42:U63)</f>

--- a/Angular/Paletas Yahvé.xlsx
+++ b/Angular/Paletas Yahvé.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bmedina\Downloads\Curso Angular\Angular\Angular\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBD98F84-B402-425C-B76F-5FD6C5729B95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AEA2CC9-885A-4AA3-AD7A-D1CF757FF1F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20535" yWindow="-9150" windowWidth="29040" windowHeight="16440" xr2:uid="{8B9CBAAB-98A8-4499-B93A-25E4DC44FD39}"/>
+    <workbookView xWindow="-8265" yWindow="-16320" windowWidth="29040" windowHeight="16440" xr2:uid="{8B9CBAAB-98A8-4499-B93A-25E4DC44FD39}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="55">
   <si>
     <t>#</t>
   </si>
@@ -192,6 +192,15 @@
   </si>
   <si>
     <t>PEDIDO 14/10/2024</t>
+  </si>
+  <si>
+    <t>Total Rellenas=</t>
+  </si>
+  <si>
+    <t>Total Vasito</t>
+  </si>
+  <si>
+    <t>Total Chocoguineos</t>
   </si>
 </sst>
 </file>
@@ -333,6 +342,7 @@
     <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -342,7 +352,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -680,8 +689,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{734E0C91-4377-4E4F-B8BB-89756185763E}">
   <dimension ref="B1:X64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S11" sqref="S11"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -705,21 +714,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
       <c r="V1" s="2" t="s">
         <v>51</v>
       </c>
@@ -829,11 +838,22 @@
         <f>+M3+E3</f>
         <v>10</v>
       </c>
+      <c r="S3">
+        <f>+U3*25</f>
+        <v>1450</v>
+      </c>
+      <c r="T3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U3">
+        <f>SUM(W3:W15)</f>
+        <v>58</v>
+      </c>
       <c r="V3" s="2" t="s">
         <v>46</v>
       </c>
       <c r="W3" s="11">
-        <f>M3</f>
+        <f t="shared" ref="W3:W24" si="0">M3</f>
         <v>9</v>
       </c>
       <c r="X3" s="8">
@@ -855,11 +875,11 @@
         <v>0</v>
       </c>
       <c r="F4" s="2">
-        <f t="shared" ref="F4:F24" si="0">+D4-E4</f>
+        <f t="shared" ref="F4:F24" si="1">+D4-E4</f>
         <v>10</v>
       </c>
       <c r="G4" s="4">
-        <f t="shared" ref="G4:G15" si="1">+F4*40</f>
+        <f t="shared" ref="G4:G15" si="2">+F4*40</f>
         <v>400</v>
       </c>
       <c r="H4" s="4">
@@ -869,37 +889,48 @@
         <v>40</v>
       </c>
       <c r="J4" s="6">
-        <f t="shared" ref="J4:J15" si="2">+I4-H4</f>
+        <f t="shared" ref="J4:J15" si="3">+I4-H4</f>
         <v>15</v>
       </c>
       <c r="K4" s="6">
-        <f t="shared" ref="K4:K24" si="3">+J4*F4</f>
+        <f t="shared" ref="K4:K24" si="4">+J4*F4</f>
         <v>150</v>
       </c>
       <c r="L4" s="10">
         <v>10</v>
       </c>
       <c r="M4" s="11">
-        <f t="shared" ref="M4:M24" si="4">+L4-E4</f>
+        <f t="shared" ref="M4:M24" si="5">+L4-E4</f>
         <v>10</v>
       </c>
       <c r="N4" s="8">
-        <f t="shared" ref="N4:N24" si="5">+M4*H4</f>
+        <f t="shared" ref="N4:N24" si="6">+M4*H4</f>
         <v>250</v>
       </c>
       <c r="O4">
-        <f t="shared" ref="O4:O24" si="6">+M4+E4</f>
-        <v>10</v>
+        <f t="shared" ref="O4:O24" si="7">+M4+E4</f>
+        <v>10</v>
+      </c>
+      <c r="S4">
+        <f>+U4*15</f>
+        <v>495</v>
+      </c>
+      <c r="T4" t="s">
+        <v>53</v>
+      </c>
+      <c r="U4">
+        <f>SUM(W16:W24)-W22</f>
+        <v>33</v>
       </c>
       <c r="V4" s="2" t="s">
         <v>45</v>
       </c>
       <c r="W4" s="11">
-        <f>M4</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="X4" s="8">
-        <f>N4</f>
+        <f t="shared" ref="X3:X24" si="8">N4</f>
         <v>250</v>
       </c>
     </row>
@@ -917,51 +948,62 @@
         <v>7</v>
       </c>
       <c r="F5" s="2">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="G5" s="4">
+        <f t="shared" si="2"/>
+        <v>120</v>
+      </c>
+      <c r="H5" s="4">
+        <v>25</v>
+      </c>
+      <c r="I5" s="4">
+        <v>40</v>
+      </c>
+      <c r="J5" s="6">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+      <c r="K5" s="6">
+        <f t="shared" si="4"/>
+        <v>45</v>
+      </c>
+      <c r="L5" s="10">
+        <v>10</v>
+      </c>
+      <c r="M5" s="11">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="N5" s="8">
+        <f t="shared" si="6"/>
+        <v>75</v>
+      </c>
+      <c r="O5">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="S5">
+        <f>+U5*15</f>
+        <v>345</v>
+      </c>
+      <c r="T5" t="s">
+        <v>54</v>
+      </c>
+      <c r="U5">
+        <f>+W22</f>
+        <v>23</v>
+      </c>
+      <c r="V5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="W5" s="11">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="G5" s="4">
-        <f t="shared" si="1"/>
-        <v>120</v>
-      </c>
-      <c r="H5" s="4">
-        <v>25</v>
-      </c>
-      <c r="I5" s="4">
-        <v>40</v>
-      </c>
-      <c r="J5" s="6">
-        <f t="shared" si="2"/>
-        <v>15</v>
-      </c>
-      <c r="K5" s="6">
-        <f t="shared" si="3"/>
-        <v>45</v>
-      </c>
-      <c r="L5" s="10">
-        <v>10</v>
-      </c>
-      <c r="M5" s="11">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="N5" s="8">
-        <f t="shared" si="5"/>
-        <v>75</v>
-      </c>
-      <c r="O5">
-        <f t="shared" si="6"/>
-        <v>10</v>
-      </c>
-      <c r="V5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="W5" s="11">
-        <f>M5</f>
-        <v>3</v>
-      </c>
       <c r="X5" s="8">
-        <f>N5</f>
+        <f t="shared" si="8"/>
         <v>75</v>
       </c>
     </row>
@@ -979,11 +1021,11 @@
         <v>5</v>
       </c>
       <c r="F6" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="G6" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>200</v>
       </c>
       <c r="H6" s="4">
@@ -993,37 +1035,41 @@
         <v>40</v>
       </c>
       <c r="J6" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="K6" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>75</v>
       </c>
       <c r="L6" s="10">
         <v>10</v>
       </c>
       <c r="M6" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="N6" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>125</v>
       </c>
       <c r="O6">
-        <f t="shared" si="6"/>
-        <v>10</v>
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="S6">
+        <f>+S3+S4+S5</f>
+        <v>2290</v>
       </c>
       <c r="V6" s="2" t="s">
         <v>8</v>
       </c>
       <c r="W6" s="11">
-        <f>M6</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="X6" s="8">
-        <f>N6</f>
+        <f t="shared" si="8"/>
         <v>125</v>
       </c>
     </row>
@@ -1041,11 +1087,11 @@
         <v>5</v>
       </c>
       <c r="F7" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="G7" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>200</v>
       </c>
       <c r="H7" s="4">
@@ -1055,37 +1101,37 @@
         <v>40</v>
       </c>
       <c r="J7" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="K7" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>75</v>
       </c>
       <c r="L7" s="10">
         <v>10</v>
       </c>
       <c r="M7" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="N7" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>125</v>
       </c>
       <c r="O7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="V7" s="2" t="s">
         <v>9</v>
       </c>
       <c r="W7" s="11">
-        <f>M7</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="X7" s="8">
-        <f>N7</f>
+        <f t="shared" si="8"/>
         <v>125</v>
       </c>
     </row>
@@ -1103,51 +1149,51 @@
         <v>5</v>
       </c>
       <c r="F8" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G8" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H8" s="4">
+        <v>25</v>
+      </c>
+      <c r="I8" s="4">
+        <v>40</v>
+      </c>
+      <c r="J8" s="6">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+      <c r="K8" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L8" s="10">
+        <v>5</v>
+      </c>
+      <c r="M8" s="11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N8" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="V8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="W8" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G8" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H8" s="4">
-        <v>25</v>
-      </c>
-      <c r="I8" s="4">
-        <v>40</v>
-      </c>
-      <c r="J8" s="6">
-        <f t="shared" si="2"/>
-        <v>15</v>
-      </c>
-      <c r="K8" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L8" s="10">
-        <v>5</v>
-      </c>
-      <c r="M8" s="11">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="N8" s="8">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="O8">
-        <f t="shared" si="6"/>
-        <v>5</v>
-      </c>
-      <c r="V8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="W8" s="11">
-        <f>M8</f>
-        <v>0</v>
-      </c>
       <c r="X8" s="8">
-        <f>N8</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -1165,51 +1211,51 @@
         <v>1</v>
       </c>
       <c r="F9" s="13">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G9" s="14">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+      <c r="H9" s="14">
+        <v>25</v>
+      </c>
+      <c r="I9" s="14">
+        <v>40</v>
+      </c>
+      <c r="J9" s="15">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+      <c r="K9" s="15">
+        <f t="shared" si="4"/>
+        <v>15</v>
+      </c>
+      <c r="L9" s="16">
+        <v>2</v>
+      </c>
+      <c r="M9" s="16">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="N9" s="15">
+        <f t="shared" si="6"/>
+        <v>25</v>
+      </c>
+      <c r="O9" s="17">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="V9" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="W9" s="11">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G9" s="14">
-        <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
-      <c r="H9" s="14">
-        <v>25</v>
-      </c>
-      <c r="I9" s="14">
-        <v>40</v>
-      </c>
-      <c r="J9" s="15">
-        <f t="shared" si="2"/>
-        <v>15</v>
-      </c>
-      <c r="K9" s="15">
-        <f t="shared" si="3"/>
-        <v>15</v>
-      </c>
-      <c r="L9" s="16">
-        <v>2</v>
-      </c>
-      <c r="M9" s="16">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="N9" s="15">
-        <f t="shared" si="5"/>
-        <v>25</v>
-      </c>
-      <c r="O9" s="17">
-        <f t="shared" si="6"/>
-        <v>2</v>
-      </c>
-      <c r="V9" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="W9" s="11">
-        <f>M9</f>
-        <v>1</v>
-      </c>
       <c r="X9" s="8">
-        <f>N9</f>
+        <f t="shared" si="8"/>
         <v>25</v>
       </c>
     </row>
@@ -1227,11 +1273,11 @@
         <v>3</v>
       </c>
       <c r="F10" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="G10" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>200</v>
       </c>
       <c r="H10" s="4">
@@ -1241,37 +1287,37 @@
         <v>40</v>
       </c>
       <c r="J10" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="K10" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>75</v>
       </c>
       <c r="L10" s="10">
         <v>8</v>
       </c>
       <c r="M10" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="N10" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>125</v>
       </c>
       <c r="O10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="V10" s="2" t="s">
         <v>12</v>
       </c>
       <c r="W10" s="11">
-        <f>M10</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="X10" s="8">
-        <f>N10</f>
+        <f t="shared" si="8"/>
         <v>125</v>
       </c>
     </row>
@@ -1289,51 +1335,51 @@
         <v>5</v>
       </c>
       <c r="F11" s="13">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G11" s="14">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+      <c r="H11" s="14">
+        <v>25</v>
+      </c>
+      <c r="I11" s="14">
+        <v>40</v>
+      </c>
+      <c r="J11" s="15">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+      <c r="K11" s="15">
+        <f t="shared" si="4"/>
+        <v>15</v>
+      </c>
+      <c r="L11" s="16">
+        <v>6</v>
+      </c>
+      <c r="M11" s="16">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="N11" s="15">
+        <f t="shared" si="6"/>
+        <v>25</v>
+      </c>
+      <c r="O11" s="17">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="V11" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="W11" s="11">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G11" s="14">
-        <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
-      <c r="H11" s="14">
-        <v>25</v>
-      </c>
-      <c r="I11" s="14">
-        <v>40</v>
-      </c>
-      <c r="J11" s="15">
-        <f t="shared" si="2"/>
-        <v>15</v>
-      </c>
-      <c r="K11" s="15">
-        <f t="shared" si="3"/>
-        <v>15</v>
-      </c>
-      <c r="L11" s="16">
-        <v>6</v>
-      </c>
-      <c r="M11" s="16">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="N11" s="15">
-        <f t="shared" si="5"/>
-        <v>25</v>
-      </c>
-      <c r="O11" s="17">
-        <f t="shared" si="6"/>
-        <v>6</v>
-      </c>
-      <c r="V11" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="W11" s="11">
-        <f>M11</f>
-        <v>1</v>
-      </c>
       <c r="X11" s="8">
-        <f>N11</f>
+        <f t="shared" si="8"/>
         <v>25</v>
       </c>
     </row>
@@ -1351,51 +1397,51 @@
         <v>1</v>
       </c>
       <c r="F12" s="13">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="G12" s="14">
+        <f t="shared" si="2"/>
+        <v>160</v>
+      </c>
+      <c r="H12" s="14">
+        <v>25</v>
+      </c>
+      <c r="I12" s="14">
+        <v>40</v>
+      </c>
+      <c r="J12" s="15">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+      <c r="K12" s="15">
+        <f t="shared" si="4"/>
+        <v>60</v>
+      </c>
+      <c r="L12" s="16">
+        <v>5</v>
+      </c>
+      <c r="M12" s="16">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="N12" s="15">
+        <f t="shared" si="6"/>
+        <v>100</v>
+      </c>
+      <c r="O12" s="17">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="V12" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="W12" s="11">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="G12" s="14">
-        <f t="shared" si="1"/>
-        <v>160</v>
-      </c>
-      <c r="H12" s="14">
-        <v>25</v>
-      </c>
-      <c r="I12" s="14">
-        <v>40</v>
-      </c>
-      <c r="J12" s="15">
-        <f t="shared" si="2"/>
-        <v>15</v>
-      </c>
-      <c r="K12" s="15">
-        <f t="shared" si="3"/>
-        <v>60</v>
-      </c>
-      <c r="L12" s="16">
-        <v>5</v>
-      </c>
-      <c r="M12" s="16">
-        <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="N12" s="15">
-        <f t="shared" si="5"/>
-        <v>100</v>
-      </c>
-      <c r="O12" s="17">
-        <f t="shared" si="6"/>
-        <v>5</v>
-      </c>
-      <c r="V12" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="W12" s="11">
-        <f>M12</f>
-        <v>4</v>
-      </c>
       <c r="X12" s="8">
-        <f>N12</f>
+        <f t="shared" si="8"/>
         <v>100</v>
       </c>
     </row>
@@ -1413,11 +1459,11 @@
         <v>5</v>
       </c>
       <c r="F13" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="G13" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>200</v>
       </c>
       <c r="H13" s="14">
@@ -1427,37 +1473,37 @@
         <v>40</v>
       </c>
       <c r="J13" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="K13" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>75</v>
       </c>
       <c r="L13" s="16">
         <v>10</v>
       </c>
       <c r="M13" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="N13" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>125</v>
       </c>
       <c r="O13" s="17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="V13" s="13" t="s">
         <v>40</v>
       </c>
       <c r="W13" s="11">
-        <f>M13</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="X13" s="8">
-        <f>N13</f>
+        <f t="shared" si="8"/>
         <v>125</v>
       </c>
     </row>
@@ -1475,51 +1521,51 @@
         <v>3</v>
       </c>
       <c r="F14" s="13">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="G14" s="14">
+        <f t="shared" si="2"/>
+        <v>80</v>
+      </c>
+      <c r="H14" s="14">
+        <v>25</v>
+      </c>
+      <c r="I14" s="14">
+        <v>40</v>
+      </c>
+      <c r="J14" s="15">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+      <c r="K14" s="15">
+        <f t="shared" si="4"/>
+        <v>30</v>
+      </c>
+      <c r="L14" s="16">
+        <v>5</v>
+      </c>
+      <c r="M14" s="16">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="N14" s="15">
+        <f t="shared" si="6"/>
+        <v>50</v>
+      </c>
+      <c r="O14" s="17">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="V14" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="W14" s="11">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="G14" s="14">
-        <f t="shared" si="1"/>
-        <v>80</v>
-      </c>
-      <c r="H14" s="14">
-        <v>25</v>
-      </c>
-      <c r="I14" s="14">
-        <v>40</v>
-      </c>
-      <c r="J14" s="15">
-        <f t="shared" si="2"/>
-        <v>15</v>
-      </c>
-      <c r="K14" s="15">
-        <f t="shared" si="3"/>
-        <v>30</v>
-      </c>
-      <c r="L14" s="16">
-        <v>5</v>
-      </c>
-      <c r="M14" s="16">
-        <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="N14" s="15">
-        <f t="shared" si="5"/>
-        <v>50</v>
-      </c>
-      <c r="O14" s="17">
-        <f t="shared" si="6"/>
-        <v>5</v>
-      </c>
-      <c r="V14" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="W14" s="11">
-        <f>M14</f>
-        <v>2</v>
-      </c>
       <c r="X14" s="8">
-        <f>N14</f>
+        <f t="shared" si="8"/>
         <v>50</v>
       </c>
     </row>
@@ -1537,51 +1583,51 @@
         <v>2</v>
       </c>
       <c r="F15" s="2">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="G15" s="4">
+        <f t="shared" si="2"/>
+        <v>320</v>
+      </c>
+      <c r="H15" s="4">
+        <v>25</v>
+      </c>
+      <c r="I15" s="4">
+        <v>40</v>
+      </c>
+      <c r="J15" s="6">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+      <c r="K15" s="6">
+        <f t="shared" si="4"/>
+        <v>120</v>
+      </c>
+      <c r="L15" s="10">
+        <v>10</v>
+      </c>
+      <c r="M15" s="11">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="N15" s="8">
+        <f t="shared" si="6"/>
+        <v>200</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="V15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="W15" s="11">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="G15" s="4">
-        <f t="shared" si="1"/>
-        <v>320</v>
-      </c>
-      <c r="H15" s="4">
-        <v>25</v>
-      </c>
-      <c r="I15" s="4">
-        <v>40</v>
-      </c>
-      <c r="J15" s="6">
-        <f t="shared" si="2"/>
-        <v>15</v>
-      </c>
-      <c r="K15" s="6">
-        <f t="shared" si="3"/>
-        <v>120</v>
-      </c>
-      <c r="L15" s="10">
-        <v>10</v>
-      </c>
-      <c r="M15" s="11">
-        <f t="shared" si="4"/>
-        <v>8</v>
-      </c>
-      <c r="N15" s="8">
-        <f t="shared" si="5"/>
-        <v>200</v>
-      </c>
-      <c r="O15">
-        <f t="shared" si="6"/>
-        <v>10</v>
-      </c>
-      <c r="V15" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="W15" s="11">
-        <f>M15</f>
-        <v>8</v>
-      </c>
       <c r="X15" s="8">
-        <f>N15</f>
+        <f t="shared" si="8"/>
         <v>200</v>
       </c>
     </row>
@@ -1599,7 +1645,7 @@
         <v>2</v>
       </c>
       <c r="F16" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="G16" s="4">
@@ -1617,33 +1663,33 @@
         <v>8</v>
       </c>
       <c r="K16" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>64</v>
       </c>
       <c r="L16" s="10">
         <v>10</v>
       </c>
       <c r="M16" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="N16" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>120</v>
       </c>
       <c r="O16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="V16" s="2" t="s">
         <v>14</v>
       </c>
       <c r="W16" s="11">
-        <f>M16</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="X16" s="8">
-        <f>N16</f>
+        <f t="shared" si="8"/>
         <v>120</v>
       </c>
     </row>
@@ -1661,51 +1707,51 @@
         <v>7</v>
       </c>
       <c r="F17" s="2">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="G17" s="4">
+        <f t="shared" ref="G17:G24" si="9">+F17*23</f>
+        <v>69</v>
+      </c>
+      <c r="H17" s="4">
+        <v>15</v>
+      </c>
+      <c r="I17" s="4">
+        <v>23</v>
+      </c>
+      <c r="J17" s="6">
+        <f t="shared" ref="J17:J24" si="10">+I17-H17</f>
+        <v>8</v>
+      </c>
+      <c r="K17" s="6">
+        <f t="shared" si="4"/>
+        <v>24</v>
+      </c>
+      <c r="L17" s="10">
+        <v>10</v>
+      </c>
+      <c r="M17" s="11">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="N17" s="8">
+        <f t="shared" si="6"/>
+        <v>45</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="V17" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="W17" s="11">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="G17" s="4">
-        <f t="shared" ref="G17:G24" si="7">+F17*23</f>
-        <v>69</v>
-      </c>
-      <c r="H17" s="4">
-        <v>15</v>
-      </c>
-      <c r="I17" s="4">
-        <v>23</v>
-      </c>
-      <c r="J17" s="6">
-        <f t="shared" ref="J17:J24" si="8">+I17-H17</f>
-        <v>8</v>
-      </c>
-      <c r="K17" s="6">
-        <f t="shared" si="3"/>
-        <v>24</v>
-      </c>
-      <c r="L17" s="10">
-        <v>10</v>
-      </c>
-      <c r="M17" s="11">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="N17" s="8">
-        <f t="shared" si="5"/>
-        <v>45</v>
-      </c>
-      <c r="O17">
-        <f t="shared" si="6"/>
-        <v>10</v>
-      </c>
-      <c r="V17" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="W17" s="11">
-        <f>M17</f>
-        <v>3</v>
-      </c>
       <c r="X17" s="8">
-        <f>N17</f>
+        <f t="shared" si="8"/>
         <v>45</v>
       </c>
     </row>
@@ -1723,51 +1769,51 @@
         <v>1</v>
       </c>
       <c r="F18" s="2">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="G18" s="4">
+        <f t="shared" si="9"/>
+        <v>207</v>
+      </c>
+      <c r="H18" s="4">
+        <v>15</v>
+      </c>
+      <c r="I18" s="4">
+        <v>23</v>
+      </c>
+      <c r="J18" s="6">
+        <f t="shared" si="10"/>
+        <v>8</v>
+      </c>
+      <c r="K18" s="6">
+        <f t="shared" si="4"/>
+        <v>72</v>
+      </c>
+      <c r="L18" s="10">
+        <v>10</v>
+      </c>
+      <c r="M18" s="11">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+      <c r="N18" s="8">
+        <f t="shared" si="6"/>
+        <v>135</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="V18" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="W18" s="11">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="G18" s="4">
-        <f t="shared" si="7"/>
-        <v>207</v>
-      </c>
-      <c r="H18" s="4">
-        <v>15</v>
-      </c>
-      <c r="I18" s="4">
-        <v>23</v>
-      </c>
-      <c r="J18" s="6">
+      <c r="X18" s="8">
         <f t="shared" si="8"/>
-        <v>8</v>
-      </c>
-      <c r="K18" s="6">
-        <f t="shared" si="3"/>
-        <v>72</v>
-      </c>
-      <c r="L18" s="10">
-        <v>10</v>
-      </c>
-      <c r="M18" s="11">
-        <f t="shared" si="4"/>
-        <v>9</v>
-      </c>
-      <c r="N18" s="8">
-        <f t="shared" si="5"/>
-        <v>135</v>
-      </c>
-      <c r="O18">
-        <f t="shared" si="6"/>
-        <v>10</v>
-      </c>
-      <c r="V18" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="W18" s="11">
-        <f>M18</f>
-        <v>9</v>
-      </c>
-      <c r="X18" s="8">
-        <f>N18</f>
         <v>135</v>
       </c>
     </row>
@@ -1785,51 +1831,51 @@
         <v>6</v>
       </c>
       <c r="F19" s="2">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="G19" s="4">
+        <f t="shared" si="9"/>
+        <v>92</v>
+      </c>
+      <c r="H19" s="4">
+        <v>15</v>
+      </c>
+      <c r="I19" s="4">
+        <v>23</v>
+      </c>
+      <c r="J19" s="6">
+        <f t="shared" si="10"/>
+        <v>8</v>
+      </c>
+      <c r="K19" s="6">
+        <f t="shared" si="4"/>
+        <v>32</v>
+      </c>
+      <c r="L19" s="10">
+        <v>10</v>
+      </c>
+      <c r="M19" s="11">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="N19" s="8">
+        <f t="shared" si="6"/>
+        <v>60</v>
+      </c>
+      <c r="O19">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="V19" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="W19" s="11">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="G19" s="4">
-        <f t="shared" si="7"/>
-        <v>92</v>
-      </c>
-      <c r="H19" s="4">
-        <v>15</v>
-      </c>
-      <c r="I19" s="4">
-        <v>23</v>
-      </c>
-      <c r="J19" s="6">
+      <c r="X19" s="8">
         <f t="shared" si="8"/>
-        <v>8</v>
-      </c>
-      <c r="K19" s="6">
-        <f t="shared" si="3"/>
-        <v>32</v>
-      </c>
-      <c r="L19" s="10">
-        <v>10</v>
-      </c>
-      <c r="M19" s="11">
-        <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="N19" s="8">
-        <f t="shared" si="5"/>
-        <v>60</v>
-      </c>
-      <c r="O19">
-        <f t="shared" si="6"/>
-        <v>10</v>
-      </c>
-      <c r="V19" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="W19" s="11">
-        <f>M19</f>
-        <v>4</v>
-      </c>
-      <c r="X19" s="8">
-        <f>N19</f>
         <v>60</v>
       </c>
     </row>
@@ -1847,51 +1893,51 @@
         <v>3</v>
       </c>
       <c r="F20" s="2">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="G20" s="4">
+        <f t="shared" si="9"/>
+        <v>161</v>
+      </c>
+      <c r="H20" s="4">
+        <v>15</v>
+      </c>
+      <c r="I20" s="4">
+        <v>23</v>
+      </c>
+      <c r="J20" s="6">
+        <f t="shared" si="10"/>
+        <v>8</v>
+      </c>
+      <c r="K20" s="6">
+        <f t="shared" si="4"/>
+        <v>56</v>
+      </c>
+      <c r="L20" s="10">
+        <v>10</v>
+      </c>
+      <c r="M20" s="11">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="N20" s="8">
+        <f t="shared" si="6"/>
+        <v>105</v>
+      </c>
+      <c r="O20">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="V20" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="W20" s="11">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="G20" s="4">
-        <f t="shared" si="7"/>
-        <v>161</v>
-      </c>
-      <c r="H20" s="4">
-        <v>15</v>
-      </c>
-      <c r="I20" s="4">
-        <v>23</v>
-      </c>
-      <c r="J20" s="6">
+      <c r="X20" s="8">
         <f t="shared" si="8"/>
-        <v>8</v>
-      </c>
-      <c r="K20" s="6">
-        <f t="shared" si="3"/>
-        <v>56</v>
-      </c>
-      <c r="L20" s="10">
-        <v>10</v>
-      </c>
-      <c r="M20" s="11">
-        <f t="shared" si="4"/>
-        <v>7</v>
-      </c>
-      <c r="N20" s="8">
-        <f t="shared" si="5"/>
-        <v>105</v>
-      </c>
-      <c r="O20">
-        <f t="shared" si="6"/>
-        <v>10</v>
-      </c>
-      <c r="V20" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="W20" s="11">
-        <f>M20</f>
-        <v>7</v>
-      </c>
-      <c r="X20" s="8">
-        <f>N20</f>
         <v>105</v>
       </c>
     </row>
@@ -1909,11 +1955,11 @@
         <v>8</v>
       </c>
       <c r="F21" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="G21" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>46</v>
       </c>
       <c r="H21" s="4">
@@ -1923,26 +1969,26 @@
         <v>23</v>
       </c>
       <c r="J21" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>8</v>
       </c>
       <c r="K21" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>16</v>
       </c>
       <c r="L21" s="10">
         <v>10</v>
       </c>
       <c r="M21" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="N21" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>30</v>
       </c>
       <c r="O21">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="R21" s="5"/>
@@ -1950,11 +1996,11 @@
         <v>19</v>
       </c>
       <c r="W21" s="11">
-        <f>M21</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="X21" s="8">
-        <f>N21</f>
+        <f t="shared" si="8"/>
         <v>30</v>
       </c>
     </row>
@@ -1972,52 +2018,52 @@
         <v>9</v>
       </c>
       <c r="F22" s="2">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="G22" s="4">
+        <f t="shared" si="9"/>
+        <v>529</v>
+      </c>
+      <c r="H22" s="4">
+        <v>15</v>
+      </c>
+      <c r="I22" s="4">
+        <v>23</v>
+      </c>
+      <c r="J22" s="6">
+        <f t="shared" si="10"/>
+        <v>8</v>
+      </c>
+      <c r="K22" s="6">
+        <f t="shared" si="4"/>
+        <v>184</v>
+      </c>
+      <c r="L22" s="10">
+        <v>32</v>
+      </c>
+      <c r="M22" s="11">
+        <f t="shared" si="5"/>
+        <v>23</v>
+      </c>
+      <c r="N22" s="8">
+        <f t="shared" si="6"/>
+        <v>345</v>
+      </c>
+      <c r="O22">
+        <f t="shared" si="7"/>
+        <v>32</v>
+      </c>
+      <c r="V22" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="W22" s="11">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="G22" s="4">
-        <f t="shared" si="7"/>
-        <v>529</v>
-      </c>
-      <c r="H22" s="4">
-        <v>12</v>
-      </c>
-      <c r="I22" s="4">
-        <v>23</v>
-      </c>
-      <c r="J22" s="6">
+      <c r="X22" s="8">
         <f t="shared" si="8"/>
-        <v>11</v>
-      </c>
-      <c r="K22" s="6">
-        <f t="shared" si="3"/>
-        <v>253</v>
-      </c>
-      <c r="L22" s="10">
-        <v>32</v>
-      </c>
-      <c r="M22" s="11">
-        <f t="shared" si="4"/>
-        <v>23</v>
-      </c>
-      <c r="N22" s="8">
-        <f t="shared" si="5"/>
-        <v>276</v>
-      </c>
-      <c r="O22">
-        <f t="shared" si="6"/>
-        <v>32</v>
-      </c>
-      <c r="V22" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="W22" s="11">
-        <f>M22</f>
-        <v>23</v>
-      </c>
-      <c r="X22" s="8">
-        <f>N22</f>
-        <v>276</v>
+        <v>345</v>
       </c>
     </row>
     <row r="23" spans="2:24" x14ac:dyDescent="0.25">
@@ -2034,59 +2080,59 @@
         <v>8</v>
       </c>
       <c r="F23" s="2">
+        <f t="shared" si="1"/>
+        <v>-3</v>
+      </c>
+      <c r="G23" s="4">
+        <f t="shared" si="9"/>
+        <v>-69</v>
+      </c>
+      <c r="H23" s="4">
+        <v>15</v>
+      </c>
+      <c r="I23" s="4">
+        <v>23</v>
+      </c>
+      <c r="J23" s="6">
+        <f t="shared" si="10"/>
+        <v>8</v>
+      </c>
+      <c r="K23" s="6">
+        <f t="shared" si="4"/>
+        <v>-24</v>
+      </c>
+      <c r="L23" s="10">
+        <v>5</v>
+      </c>
+      <c r="M23" s="11">
+        <f t="shared" si="5"/>
+        <v>-3</v>
+      </c>
+      <c r="N23" s="8">
+        <f t="shared" si="6"/>
+        <v>-45</v>
+      </c>
+      <c r="O23">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="S23" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T23" s="8">
+        <f>SUM(N3:N24)</f>
+        <v>2290</v>
+      </c>
+      <c r="V23" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="W23" s="11">
         <f t="shared" si="0"/>
         <v>-3</v>
       </c>
-      <c r="G23" s="4">
-        <f t="shared" si="7"/>
-        <v>-69</v>
-      </c>
-      <c r="H23" s="4">
-        <v>12</v>
-      </c>
-      <c r="I23" s="4">
-        <v>23</v>
-      </c>
-      <c r="J23" s="6">
+      <c r="X23" s="8">
         <f t="shared" si="8"/>
-        <v>11</v>
-      </c>
-      <c r="K23" s="6">
-        <f t="shared" si="3"/>
-        <v>-33</v>
-      </c>
-      <c r="L23" s="10">
-        <v>5</v>
-      </c>
-      <c r="M23" s="11">
-        <f t="shared" si="4"/>
-        <v>-3</v>
-      </c>
-      <c r="N23" s="8">
-        <f t="shared" si="5"/>
-        <v>-36</v>
-      </c>
-      <c r="O23">
-        <f t="shared" si="6"/>
-        <v>5</v>
-      </c>
-      <c r="S23" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="T23" s="8">
-        <f>SUM(N3:N24)</f>
-        <v>2221</v>
-      </c>
-      <c r="V23" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="W23" s="11">
-        <f>M23</f>
-        <v>-3</v>
-      </c>
-      <c r="X23" s="8">
-        <f>N23</f>
-        <v>-36</v>
+        <v>-45</v>
       </c>
     </row>
     <row r="24" spans="2:24" x14ac:dyDescent="0.25">
@@ -2103,40 +2149,40 @@
         <v>2</v>
       </c>
       <c r="F24" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="G24" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>69</v>
       </c>
       <c r="H24" s="4">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I24" s="4">
         <v>23</v>
       </c>
       <c r="J24" s="6">
-        <f t="shared" si="8"/>
-        <v>11</v>
+        <f t="shared" si="10"/>
+        <v>8</v>
       </c>
       <c r="K24" s="6">
-        <f t="shared" si="3"/>
-        <v>33</v>
+        <f t="shared" si="4"/>
+        <v>24</v>
       </c>
       <c r="L24" s="10">
         <v>5</v>
       </c>
       <c r="M24" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="N24" s="8">
-        <f t="shared" si="5"/>
-        <v>36</v>
+        <f t="shared" si="6"/>
+        <v>45</v>
       </c>
       <c r="O24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="Q24" s="1" t="s">
@@ -2162,12 +2208,12 @@
         <v>36</v>
       </c>
       <c r="W24" s="11">
-        <f>M24</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="X24" s="8">
-        <f>N24</f>
-        <v>36</v>
+        <f t="shared" si="8"/>
+        <v>45</v>
       </c>
     </row>
     <row r="25" spans="2:24" x14ac:dyDescent="0.25">
@@ -2188,27 +2234,27 @@
       <c r="V25" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="W25" s="21">
+      <c r="W25" s="18">
         <f>SUM(X3:X24)</f>
-        <v>2221</v>
+        <v>2290</v>
       </c>
     </row>
     <row r="26" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B26" s="18" t="s">
+      <c r="B26" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="C26" s="19"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="19"/>
-      <c r="F26" s="19"/>
-      <c r="G26" s="19"/>
-      <c r="H26" s="19"/>
-      <c r="I26" s="19"/>
-      <c r="J26" s="19"/>
-      <c r="K26" s="19"/>
-      <c r="L26" s="19"/>
-      <c r="M26" s="19"/>
-      <c r="N26" s="19"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="20"/>
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="20"/>
+      <c r="K26" s="20"/>
+      <c r="L26" s="20"/>
+      <c r="M26" s="20"/>
+      <c r="N26" s="20"/>
       <c r="Q26" s="1" t="s">
         <v>23</v>
       </c>
@@ -2221,7 +2267,7 @@
       </c>
       <c r="U26" s="9">
         <f>SUM(K3:K24)</f>
-        <v>1387</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="27" spans="2:24" x14ac:dyDescent="0.25">
@@ -2272,7 +2318,7 @@
       </c>
       <c r="U27" s="7">
         <f>+U26/2</f>
-        <v>693.5</v>
+        <v>659</v>
       </c>
     </row>
     <row r="28" spans="2:24" x14ac:dyDescent="0.25">
@@ -2340,11 +2386,11 @@
         <v>3</v>
       </c>
       <c r="F29" s="2">
-        <f t="shared" ref="F29:F47" si="9">+D29-E29</f>
+        <f t="shared" ref="F29:F47" si="11">+D29-E29</f>
         <v>10</v>
       </c>
       <c r="G29" s="4">
-        <f t="shared" ref="G29:G40" si="10">+F29*40</f>
+        <f t="shared" ref="G29:G40" si="12">+F29*40</f>
         <v>400</v>
       </c>
       <c r="H29" s="4">
@@ -2354,26 +2400,26 @@
         <v>40</v>
       </c>
       <c r="J29" s="6">
-        <f t="shared" ref="J29:J40" si="11">+I29-H29</f>
+        <f t="shared" ref="J29:J40" si="13">+I29-H29</f>
         <v>15</v>
       </c>
       <c r="K29" s="6">
-        <f t="shared" ref="K29:K47" si="12">+J29*F29</f>
+        <f t="shared" ref="K29:K47" si="14">+J29*F29</f>
         <v>150</v>
       </c>
       <c r="L29" s="10">
         <v>10</v>
       </c>
       <c r="M29" s="11">
-        <f t="shared" ref="M29:M47" si="13">+L29-E29</f>
+        <f t="shared" ref="M29:M47" si="15">+L29-E29</f>
         <v>7</v>
       </c>
       <c r="N29" s="8">
-        <f t="shared" ref="N29:N47" si="14">+M29*H29</f>
+        <f t="shared" ref="N29:N47" si="16">+M29*H29</f>
         <v>175</v>
       </c>
       <c r="O29">
-        <f t="shared" ref="O29:O49" si="15">+M29+E29</f>
+        <f t="shared" ref="O29:O49" si="17">+M29+E29</f>
         <v>10</v>
       </c>
     </row>
@@ -2391,11 +2437,11 @@
         <v>7</v>
       </c>
       <c r="F30" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
       <c r="G30" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>120</v>
       </c>
       <c r="H30" s="4">
@@ -2405,26 +2451,26 @@
         <v>40</v>
       </c>
       <c r="J30" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>15</v>
       </c>
       <c r="K30" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>45</v>
       </c>
       <c r="L30" s="10">
         <v>10</v>
       </c>
       <c r="M30" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>3</v>
       </c>
       <c r="N30" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>75</v>
       </c>
       <c r="O30">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>10</v>
       </c>
     </row>
@@ -2442,11 +2488,11 @@
         <v>8</v>
       </c>
       <c r="F31" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
       <c r="G31" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>80</v>
       </c>
       <c r="H31" s="4">
@@ -2456,26 +2502,26 @@
         <v>40</v>
       </c>
       <c r="J31" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>15</v>
       </c>
       <c r="K31" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>30</v>
       </c>
       <c r="L31" s="10">
         <v>10</v>
       </c>
       <c r="M31" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>2</v>
       </c>
       <c r="N31" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>50</v>
       </c>
       <c r="O31">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>10</v>
       </c>
     </row>
@@ -2493,11 +2539,11 @@
         <v>9</v>
       </c>
       <c r="F32" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="G32" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>40</v>
       </c>
       <c r="H32" s="4">
@@ -2507,26 +2553,26 @@
         <v>40</v>
       </c>
       <c r="J32" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>15</v>
       </c>
       <c r="K32" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>15</v>
       </c>
       <c r="L32" s="10">
         <v>10</v>
       </c>
       <c r="M32" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="N32" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>25</v>
       </c>
       <c r="O32">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>10</v>
       </c>
     </row>
@@ -2544,11 +2590,11 @@
         <v>3</v>
       </c>
       <c r="F33" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>6</v>
       </c>
       <c r="G33" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>240</v>
       </c>
       <c r="H33" s="4">
@@ -2558,26 +2604,26 @@
         <v>40</v>
       </c>
       <c r="J33" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>15</v>
       </c>
       <c r="K33" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>90</v>
       </c>
       <c r="L33" s="10">
         <v>5</v>
       </c>
       <c r="M33" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>2</v>
       </c>
       <c r="N33" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>50</v>
       </c>
       <c r="O33">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>5</v>
       </c>
     </row>
@@ -2595,11 +2641,11 @@
         <v>0</v>
       </c>
       <c r="F34" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
       <c r="G34" s="14">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>80</v>
       </c>
       <c r="H34" s="14">
@@ -2609,26 +2655,26 @@
         <v>40</v>
       </c>
       <c r="J34" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>15</v>
       </c>
       <c r="K34" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>30</v>
       </c>
       <c r="L34" s="16">
         <v>2</v>
       </c>
       <c r="M34" s="16">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>2</v>
       </c>
       <c r="N34" s="15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>50</v>
       </c>
       <c r="O34" s="17">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>2</v>
       </c>
     </row>
@@ -2646,11 +2692,11 @@
         <v>8</v>
       </c>
       <c r="F35" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
       <c r="G35" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>80</v>
       </c>
       <c r="H35" s="4">
@@ -2660,26 +2706,26 @@
         <v>40</v>
       </c>
       <c r="J35" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>15</v>
       </c>
       <c r="K35" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>30</v>
       </c>
       <c r="L35" s="10">
         <v>8</v>
       </c>
       <c r="M35" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="N35" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="O35">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>8</v>
       </c>
     </row>
@@ -2697,11 +2743,11 @@
         <v>6</v>
       </c>
       <c r="F36" s="13">
-        <f t="shared" ref="F36" si="16">+D36-E36</f>
+        <f t="shared" ref="F36" si="18">+D36-E36</f>
         <v>4</v>
       </c>
       <c r="G36" s="14">
-        <f t="shared" ref="G36" si="17">+F36*40</f>
+        <f t="shared" ref="G36" si="19">+F36*40</f>
         <v>160</v>
       </c>
       <c r="H36" s="14">
@@ -2711,26 +2757,26 @@
         <v>40</v>
       </c>
       <c r="J36" s="15">
-        <f t="shared" ref="J36" si="18">+I36-H36</f>
+        <f t="shared" ref="J36" si="20">+I36-H36</f>
         <v>15</v>
       </c>
       <c r="K36" s="15">
-        <f t="shared" ref="K36" si="19">+J36*F36</f>
+        <f t="shared" ref="K36" si="21">+J36*F36</f>
         <v>60</v>
       </c>
       <c r="L36" s="16">
         <v>6</v>
       </c>
       <c r="M36" s="16">
-        <f t="shared" ref="M36" si="20">+L36-E36</f>
+        <f t="shared" ref="M36" si="22">+L36-E36</f>
         <v>0</v>
       </c>
       <c r="N36" s="15">
-        <f t="shared" ref="N36" si="21">+M36*H36</f>
+        <f t="shared" ref="N36" si="23">+M36*H36</f>
         <v>0</v>
       </c>
       <c r="O36" s="17">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>6</v>
       </c>
     </row>
@@ -2748,11 +2794,11 @@
         <v>4</v>
       </c>
       <c r="F37" s="13">
-        <f t="shared" ref="F37:F38" si="22">+D37-E37</f>
+        <f t="shared" ref="F37:F38" si="24">+D37-E37</f>
         <v>1</v>
       </c>
       <c r="G37" s="14">
-        <f t="shared" ref="G37:G38" si="23">+F37*40</f>
+        <f t="shared" ref="G37:G38" si="25">+F37*40</f>
         <v>40</v>
       </c>
       <c r="H37" s="14">
@@ -2762,26 +2808,26 @@
         <v>40</v>
       </c>
       <c r="J37" s="15">
-        <f t="shared" ref="J37:J38" si="24">+I37-H37</f>
+        <f t="shared" ref="J37:J38" si="26">+I37-H37</f>
         <v>15</v>
       </c>
       <c r="K37" s="15">
-        <f t="shared" ref="K37:K38" si="25">+J37*F37</f>
+        <f t="shared" ref="K37:K38" si="27">+J37*F37</f>
         <v>15</v>
       </c>
       <c r="L37" s="16">
         <v>5</v>
       </c>
       <c r="M37" s="16">
-        <f t="shared" ref="M37:M38" si="26">+L37-E37</f>
+        <f t="shared" ref="M37:M38" si="28">+L37-E37</f>
         <v>1</v>
       </c>
       <c r="N37" s="15">
-        <f t="shared" ref="N37:N38" si="27">+M37*H37</f>
+        <f t="shared" ref="N37:N38" si="29">+M37*H37</f>
         <v>25</v>
       </c>
       <c r="O37" s="17">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>5</v>
       </c>
     </row>
@@ -2799,11 +2845,11 @@
         <v>9</v>
       </c>
       <c r="F38" s="13">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="G38" s="14">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>40</v>
       </c>
       <c r="H38" s="14">
@@ -2813,26 +2859,26 @@
         <v>40</v>
       </c>
       <c r="J38" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>15</v>
       </c>
       <c r="K38" s="15">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>15</v>
       </c>
       <c r="L38" s="16">
         <v>10</v>
       </c>
       <c r="M38" s="16">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="N38" s="15">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>25</v>
       </c>
       <c r="O38" s="17">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>10</v>
       </c>
     </row>
@@ -2850,11 +2896,11 @@
         <v>5</v>
       </c>
       <c r="F39" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>-2</v>
       </c>
       <c r="G39" s="14">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>-80</v>
       </c>
       <c r="H39" s="14">
@@ -2864,26 +2910,26 @@
         <v>40</v>
       </c>
       <c r="J39" s="15">
-        <f t="shared" ref="J39" si="28">+I39-H39</f>
+        <f t="shared" ref="J39" si="30">+I39-H39</f>
         <v>15</v>
       </c>
       <c r="K39" s="15">
-        <f t="shared" ref="K39" si="29">+J39*F39</f>
+        <f t="shared" ref="K39" si="31">+J39*F39</f>
         <v>-30</v>
       </c>
       <c r="L39" s="16">
         <v>5</v>
       </c>
       <c r="M39" s="16">
-        <f t="shared" ref="M39" si="30">+L39-E39</f>
+        <f t="shared" ref="M39" si="32">+L39-E39</f>
         <v>0</v>
       </c>
       <c r="N39" s="15">
-        <f t="shared" ref="N39" si="31">+M39*H39</f>
+        <f t="shared" ref="N39" si="33">+M39*H39</f>
         <v>0</v>
       </c>
       <c r="O39" s="17">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>5</v>
       </c>
     </row>
@@ -2901,11 +2947,11 @@
         <v>7</v>
       </c>
       <c r="F40" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
       <c r="G40" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>120</v>
       </c>
       <c r="H40" s="4">
@@ -2915,33 +2961,33 @@
         <v>40</v>
       </c>
       <c r="J40" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>15</v>
       </c>
       <c r="K40" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>45</v>
       </c>
       <c r="L40" s="10">
         <v>10</v>
       </c>
       <c r="M40" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>3</v>
       </c>
       <c r="N40" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>75</v>
       </c>
       <c r="O40">
-        <f t="shared" si="15"/>
-        <v>10</v>
-      </c>
-      <c r="S40" s="20" t="s">
+        <f t="shared" si="17"/>
+        <v>10</v>
+      </c>
+      <c r="S40" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="T40" s="20"/>
-      <c r="U40" s="20"/>
+      <c r="T40" s="21"/>
+      <c r="U40" s="21"/>
     </row>
     <row r="41" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B41" s="2">
@@ -2957,7 +3003,7 @@
         <v>2</v>
       </c>
       <c r="F41" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>8</v>
       </c>
       <c r="G41" s="4">
@@ -2975,22 +3021,22 @@
         <v>8</v>
       </c>
       <c r="K41" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>64</v>
       </c>
       <c r="L41" s="10">
         <v>10</v>
       </c>
       <c r="M41" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>8</v>
       </c>
       <c r="N41" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>120</v>
       </c>
       <c r="O41">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>10</v>
       </c>
       <c r="S41" s="2" t="s">
@@ -3017,11 +3063,11 @@
         <v>10</v>
       </c>
       <c r="F42" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G42" s="4">
-        <f t="shared" ref="G42:G47" si="32">+F42*23</f>
+        <f t="shared" ref="G42:G47" si="34">+F42*23</f>
         <v>0</v>
       </c>
       <c r="H42" s="4">
@@ -3031,26 +3077,26 @@
         <v>23</v>
       </c>
       <c r="J42" s="6">
-        <f t="shared" ref="J42:J47" si="33">+I42-H42</f>
+        <f t="shared" ref="J42:J47" si="35">+I42-H42</f>
         <v>8</v>
       </c>
       <c r="K42" s="6">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="L42" s="10">
-        <v>10</v>
-      </c>
-      <c r="M42" s="11">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="N42" s="8">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
+      <c r="L42" s="10">
+        <v>10</v>
+      </c>
+      <c r="M42" s="11">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="N42" s="8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
       <c r="O42">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>10</v>
       </c>
       <c r="S42" s="2" t="s">
@@ -3079,11 +3125,11 @@
         <v>3</v>
       </c>
       <c r="F43" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>7</v>
       </c>
       <c r="G43" s="4">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>161</v>
       </c>
       <c r="H43" s="4">
@@ -3093,37 +3139,37 @@
         <v>23</v>
       </c>
       <c r="J43" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>8</v>
       </c>
       <c r="K43" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>56</v>
       </c>
       <c r="L43" s="10">
         <v>10</v>
       </c>
       <c r="M43" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>7</v>
       </c>
       <c r="N43" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>105</v>
       </c>
       <c r="O43">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>10</v>
       </c>
       <c r="S43" s="2" t="s">
         <v>45</v>
       </c>
       <c r="T43" s="11">
-        <f t="shared" ref="T43:T63" si="34">M29</f>
+        <f t="shared" ref="T43:T63" si="36">M29</f>
         <v>7</v>
       </c>
       <c r="U43" s="8">
-        <f t="shared" ref="U43:U63" si="35">N29</f>
+        <f t="shared" ref="U43:U63" si="37">N29</f>
         <v>175</v>
       </c>
     </row>
@@ -3141,11 +3187,11 @@
         <v>6</v>
       </c>
       <c r="F44" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>4</v>
       </c>
       <c r="G44" s="4">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>92</v>
       </c>
       <c r="H44" s="4">
@@ -3155,37 +3201,37 @@
         <v>23</v>
       </c>
       <c r="J44" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>8</v>
       </c>
       <c r="K44" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>32</v>
       </c>
       <c r="L44" s="10">
         <v>10</v>
       </c>
       <c r="M44" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>4</v>
       </c>
       <c r="N44" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>60</v>
       </c>
       <c r="O44">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>10</v>
       </c>
       <c r="S44" s="2" t="s">
         <v>7</v>
       </c>
       <c r="T44" s="11">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>3</v>
       </c>
       <c r="U44" s="8">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>75</v>
       </c>
     </row>
@@ -3203,11 +3249,11 @@
         <v>7</v>
       </c>
       <c r="F45" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
       <c r="G45" s="4">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>69</v>
       </c>
       <c r="H45" s="4">
@@ -3217,37 +3263,37 @@
         <v>23</v>
       </c>
       <c r="J45" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>8</v>
       </c>
       <c r="K45" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>24</v>
       </c>
       <c r="L45" s="10">
         <v>10</v>
       </c>
       <c r="M45" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>3</v>
       </c>
       <c r="N45" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>45</v>
       </c>
       <c r="O45">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>10</v>
       </c>
       <c r="S45" s="2" t="s">
         <v>8</v>
       </c>
       <c r="T45" s="11">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>2</v>
       </c>
       <c r="U45" s="8">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>50</v>
       </c>
     </row>
@@ -3265,11 +3311,11 @@
         <v>10</v>
       </c>
       <c r="F46" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G46" s="4">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="H46" s="4">
@@ -3279,37 +3325,37 @@
         <v>23</v>
       </c>
       <c r="J46" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>8</v>
       </c>
       <c r="K46" s="6">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="L46" s="10">
-        <v>10</v>
-      </c>
-      <c r="M46" s="11">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="N46" s="8">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
+      <c r="L46" s="10">
+        <v>10</v>
+      </c>
+      <c r="M46" s="11">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="N46" s="8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
       <c r="O46">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>10</v>
       </c>
       <c r="S46" s="2" t="s">
         <v>9</v>
       </c>
       <c r="T46" s="11">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1</v>
       </c>
       <c r="U46" s="8">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>25</v>
       </c>
     </row>
@@ -3327,11 +3373,11 @@
         <v>19</v>
       </c>
       <c r="F47" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>16</v>
       </c>
       <c r="G47" s="4">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>368</v>
       </c>
       <c r="H47" s="4">
@@ -3341,37 +3387,37 @@
         <v>23</v>
       </c>
       <c r="J47" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>11</v>
       </c>
       <c r="K47" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>176</v>
       </c>
       <c r="L47" s="10">
         <v>32</v>
       </c>
       <c r="M47" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>13</v>
       </c>
       <c r="N47" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>156</v>
       </c>
       <c r="O47">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>32</v>
       </c>
       <c r="S47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="T47" s="11">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>2</v>
       </c>
       <c r="U47" s="8">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>50</v>
       </c>
     </row>
@@ -3389,11 +3435,11 @@
         <v>6</v>
       </c>
       <c r="F48" s="2">
-        <f t="shared" ref="F48:F49" si="36">+D48-E48</f>
+        <f t="shared" ref="F48:F49" si="38">+D48-E48</f>
         <v>-1</v>
       </c>
       <c r="G48" s="4">
-        <f t="shared" ref="G48:G49" si="37">+F48*23</f>
+        <f t="shared" ref="G48:G49" si="39">+F48*23</f>
         <v>-23</v>
       </c>
       <c r="H48" s="4">
@@ -3403,37 +3449,37 @@
         <v>23</v>
       </c>
       <c r="J48" s="6">
-        <f t="shared" ref="J48:J49" si="38">+I48-H48</f>
+        <f t="shared" ref="J48:J49" si="40">+I48-H48</f>
         <v>11</v>
       </c>
       <c r="K48" s="6">
-        <f t="shared" ref="K48:K49" si="39">+J48*F48</f>
+        <f t="shared" ref="K48:K49" si="41">+J48*F48</f>
         <v>-11</v>
       </c>
       <c r="L48" s="10">
         <v>5</v>
       </c>
       <c r="M48" s="11">
-        <f t="shared" ref="M48:M49" si="40">+L48-E48</f>
+        <f t="shared" ref="M48:M49" si="42">+L48-E48</f>
         <v>-1</v>
       </c>
       <c r="N48" s="8">
-        <f t="shared" ref="N48:N49" si="41">+M48*H48</f>
+        <f t="shared" ref="N48:N49" si="43">+M48*H48</f>
         <v>-12</v>
       </c>
       <c r="O48">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>5</v>
       </c>
       <c r="S48" s="13" t="s">
         <v>11</v>
       </c>
       <c r="T48" s="11">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>2</v>
       </c>
       <c r="U48" s="8">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>50</v>
       </c>
     </row>
@@ -3451,11 +3497,11 @@
         <v>1</v>
       </c>
       <c r="F49" s="2">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>4</v>
       </c>
       <c r="G49" s="4">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>92</v>
       </c>
       <c r="H49" s="4">
@@ -3465,37 +3511,37 @@
         <v>23</v>
       </c>
       <c r="J49" s="6">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>11</v>
       </c>
       <c r="K49" s="6">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>44</v>
       </c>
       <c r="L49" s="10">
         <v>5</v>
       </c>
       <c r="M49" s="11">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>4</v>
       </c>
       <c r="N49" s="8">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>48</v>
       </c>
       <c r="O49">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>5</v>
       </c>
       <c r="S49" s="2" t="s">
         <v>12</v>
       </c>
       <c r="T49" s="11">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="U49" s="8">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
     </row>
@@ -3505,11 +3551,11 @@
         <v>38</v>
       </c>
       <c r="T50" s="11">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="U50" s="8">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
     </row>
@@ -3518,11 +3564,11 @@
         <v>39</v>
       </c>
       <c r="T51" s="11">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1</v>
       </c>
       <c r="U51" s="8">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>25</v>
       </c>
     </row>
@@ -3531,11 +3577,11 @@
         <v>40</v>
       </c>
       <c r="T52" s="11">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1</v>
       </c>
       <c r="U52" s="8">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>25</v>
       </c>
     </row>
@@ -3544,11 +3590,11 @@
         <v>37</v>
       </c>
       <c r="T53" s="11">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="U53" s="8">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
     </row>
@@ -3557,11 +3603,11 @@
         <v>13</v>
       </c>
       <c r="T54" s="11">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>3</v>
       </c>
       <c r="U54" s="8">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>75</v>
       </c>
     </row>
@@ -3596,11 +3642,11 @@
         <v>14</v>
       </c>
       <c r="T55" s="11">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>8</v>
       </c>
       <c r="U55" s="8">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>120</v>
       </c>
     </row>
@@ -3623,11 +3669,11 @@
         <v>15</v>
       </c>
       <c r="T56" s="11">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="U56" s="8">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
     </row>
@@ -3654,11 +3700,11 @@
         <v>16</v>
       </c>
       <c r="T57" s="11">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>7</v>
       </c>
       <c r="U57" s="8">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>105</v>
       </c>
     </row>
@@ -3667,11 +3713,11 @@
         <v>17</v>
       </c>
       <c r="T58" s="11">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>4</v>
       </c>
       <c r="U58" s="8">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>60</v>
       </c>
     </row>
@@ -3680,11 +3726,11 @@
         <v>18</v>
       </c>
       <c r="T59" s="11">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>3</v>
       </c>
       <c r="U59" s="8">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>45</v>
       </c>
     </row>
@@ -3693,11 +3739,11 @@
         <v>19</v>
       </c>
       <c r="T60" s="11">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="U60" s="8">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
     </row>
@@ -3706,11 +3752,11 @@
         <v>20</v>
       </c>
       <c r="T61" s="11">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>13</v>
       </c>
       <c r="U61" s="8">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>156</v>
       </c>
     </row>
@@ -3719,11 +3765,11 @@
         <v>35</v>
       </c>
       <c r="T62" s="11">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>-1</v>
       </c>
       <c r="U62" s="8">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>-12</v>
       </c>
     </row>
@@ -3732,11 +3778,11 @@
         <v>36</v>
       </c>
       <c r="T63" s="11">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>4</v>
       </c>
       <c r="U63" s="8">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>48</v>
       </c>
     </row>

--- a/Angular/Paletas Yahvé.xlsx
+++ b/Angular/Paletas Yahvé.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bmedina\Downloads\Curso Angular\Angular\Angular\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AEA2CC9-885A-4AA3-AD7A-D1CF757FF1F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66E557DF-48FE-4DB8-99E0-6A1AC68CB72F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-8265" yWindow="-16320" windowWidth="29040" windowHeight="16440" xr2:uid="{8B9CBAAB-98A8-4499-B93A-25E4DC44FD39}"/>
+    <workbookView xWindow="20535" yWindow="-9150" windowWidth="29040" windowHeight="16440" xr2:uid="{8B9CBAAB-98A8-4499-B93A-25E4DC44FD39}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -161,9 +161,6 @@
     <t>R Fresa Kiwi</t>
   </si>
   <si>
-    <t>NUEVO STOCK SEMANA ENTRANTE</t>
-  </si>
-  <si>
     <t>Total Existencia=</t>
   </si>
   <si>
@@ -185,15 +182,9 @@
     <t>Venta Paletas Semana OCT-31OCT</t>
   </si>
   <si>
-    <t>Venta Paletas NUEVO STOCK 15/10/2024</t>
-  </si>
-  <si>
     <t>GANANCIA /2</t>
   </si>
   <si>
-    <t>PEDIDO 14/10/2024</t>
-  </si>
-  <si>
     <t>Total Rellenas=</t>
   </si>
   <si>
@@ -201,6 +192,15 @@
   </si>
   <si>
     <t>Total Chocoguineos</t>
+  </si>
+  <si>
+    <t>Venta Paletas NUEVO STOCK 19/11/2024</t>
+  </si>
+  <si>
+    <t>PEDIDO 19/11/2024</t>
+  </si>
+  <si>
+    <t>NUEVO STOCK SEMANA ENTRANTE 25/11/2024</t>
   </si>
 </sst>
 </file>
@@ -227,7 +227,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -261,6 +261,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -313,7 +319,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -350,6 +356,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -689,8 +701,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{734E0C91-4377-4E4F-B8BB-89756185763E}">
   <dimension ref="B1:X64"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P18" sqref="P18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -703,10 +715,10 @@
     <col min="8" max="11" width="11.42578125" customWidth="1"/>
     <col min="12" max="12" width="21.28515625" customWidth="1"/>
     <col min="13" max="13" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="31.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="41.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.7109375" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="23" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="21.28515625" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="20.7109375" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="14.28515625" customWidth="1"/>
     <col min="22" max="22" width="20.7109375" bestFit="1" customWidth="1"/>
@@ -714,23 +726,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B1" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
+      <c r="B1" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23"/>
       <c r="V1" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="W1" s="2"/>
       <c r="X1" s="2"/>
@@ -776,7 +788,7 @@
         <v>33</v>
       </c>
       <c r="O2" s="12" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="V2" s="2" t="s">
         <v>4</v>
@@ -799,15 +811,15 @@
         <v>10</v>
       </c>
       <c r="E3" s="2">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F3" s="2">
         <f>+D3-E3</f>
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="G3" s="4">
         <f>+F3*40</f>
-        <v>360</v>
+        <v>120</v>
       </c>
       <c r="H3" s="4">
         <v>25</v>
@@ -821,18 +833,18 @@
       </c>
       <c r="K3" s="6">
         <f>+J3*F3</f>
-        <v>135</v>
+        <v>45</v>
       </c>
       <c r="L3" s="10">
         <v>10</v>
       </c>
       <c r="M3" s="11">
         <f>+L3-E3</f>
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="N3" s="8">
         <f>+M3*H3</f>
-        <v>225</v>
+        <v>75</v>
       </c>
       <c r="O3">
         <f>+M3+E3</f>
@@ -840,25 +852,25 @@
       </c>
       <c r="S3">
         <f>+U3*25</f>
-        <v>1450</v>
+        <v>850</v>
       </c>
       <c r="T3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="U3">
         <f>SUM(W3:W15)</f>
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W3" s="11">
         <f t="shared" ref="W3:W24" si="0">M3</f>
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="X3" s="8">
         <f>N3</f>
-        <v>225</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="2:24" x14ac:dyDescent="0.25">
@@ -872,15 +884,15 @@
         <v>10</v>
       </c>
       <c r="E4" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F4" s="2">
         <f t="shared" ref="F4:F24" si="1">+D4-E4</f>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G4" s="4">
         <f t="shared" ref="G4:G15" si="2">+F4*40</f>
-        <v>400</v>
+        <v>280</v>
       </c>
       <c r="H4" s="4">
         <v>25</v>
@@ -894,18 +906,18 @@
       </c>
       <c r="K4" s="6">
         <f t="shared" ref="K4:K24" si="4">+J4*F4</f>
-        <v>150</v>
+        <v>105</v>
       </c>
       <c r="L4" s="10">
         <v>10</v>
       </c>
       <c r="M4" s="11">
         <f t="shared" ref="M4:M24" si="5">+L4-E4</f>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="N4" s="8">
         <f t="shared" ref="N4:N24" si="6">+M4*H4</f>
-        <v>250</v>
+        <v>175</v>
       </c>
       <c r="O4">
         <f t="shared" ref="O4:O24" si="7">+M4+E4</f>
@@ -913,25 +925,25 @@
       </c>
       <c r="S4">
         <f>+U4*15</f>
-        <v>495</v>
+        <v>270</v>
       </c>
       <c r="T4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="U4">
         <f>SUM(W16:W24)-W22</f>
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="V4" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="W4" s="11">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="X4" s="8">
-        <f t="shared" ref="X3:X24" si="8">N4</f>
-        <v>250</v>
+        <f t="shared" ref="X4:X24" si="8">N4</f>
+        <v>175</v>
       </c>
     </row>
     <row r="5" spans="2:24" x14ac:dyDescent="0.25">
@@ -945,15 +957,15 @@
         <v>10</v>
       </c>
       <c r="E5" s="2">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F5" s="2">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>-2</v>
       </c>
       <c r="G5" s="4">
         <f t="shared" si="2"/>
-        <v>120</v>
+        <v>-80</v>
       </c>
       <c r="H5" s="4">
         <v>25</v>
@@ -967,18 +979,18 @@
       </c>
       <c r="K5" s="6">
         <f t="shared" si="4"/>
-        <v>45</v>
+        <v>-30</v>
       </c>
       <c r="L5" s="10">
         <v>10</v>
       </c>
       <c r="M5" s="11">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>-2</v>
       </c>
       <c r="N5" s="8">
         <f t="shared" si="6"/>
-        <v>75</v>
+        <v>-50</v>
       </c>
       <c r="O5">
         <f t="shared" si="7"/>
@@ -986,25 +998,25 @@
       </c>
       <c r="S5">
         <f>+U5*15</f>
-        <v>345</v>
+        <v>270</v>
       </c>
       <c r="T5" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="U5">
         <f>+W22</f>
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="V5" s="2" t="s">
         <v>7</v>
       </c>
       <c r="W5" s="11">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>-2</v>
       </c>
       <c r="X5" s="8">
         <f t="shared" si="8"/>
-        <v>75</v>
+        <v>-50</v>
       </c>
     </row>
     <row r="6" spans="2:24" x14ac:dyDescent="0.25">
@@ -1018,15 +1030,15 @@
         <v>10</v>
       </c>
       <c r="E6" s="2">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F6" s="2">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G6" s="4">
         <f t="shared" si="2"/>
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="H6" s="4">
         <v>25</v>
@@ -1040,18 +1052,18 @@
       </c>
       <c r="K6" s="6">
         <f t="shared" si="4"/>
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="L6" s="10">
         <v>10</v>
       </c>
       <c r="M6" s="11">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N6" s="8">
         <f t="shared" si="6"/>
-        <v>125</v>
+        <v>50</v>
       </c>
       <c r="O6">
         <f t="shared" si="7"/>
@@ -1059,18 +1071,18 @@
       </c>
       <c r="S6">
         <f>+S3+S4+S5</f>
-        <v>2290</v>
+        <v>1390</v>
       </c>
       <c r="V6" s="2" t="s">
         <v>8</v>
       </c>
       <c r="W6" s="11">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="X6" s="8">
         <f t="shared" si="8"/>
-        <v>125</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="2:24" x14ac:dyDescent="0.25">
@@ -1084,15 +1096,15 @@
         <v>10</v>
       </c>
       <c r="E7" s="2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F7" s="2">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G7" s="4">
         <f t="shared" si="2"/>
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="H7" s="4">
         <v>25</v>
@@ -1106,18 +1118,18 @@
       </c>
       <c r="K7" s="6">
         <f t="shared" si="4"/>
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="L7" s="10">
         <v>10</v>
       </c>
       <c r="M7" s="11">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N7" s="8">
         <f t="shared" si="6"/>
-        <v>125</v>
+        <v>0</v>
       </c>
       <c r="O7">
         <f t="shared" si="7"/>
@@ -1128,11 +1140,11 @@
       </c>
       <c r="W7" s="11">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="X7" s="8">
         <f t="shared" si="8"/>
-        <v>125</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="2:24" x14ac:dyDescent="0.25">
@@ -1146,15 +1158,15 @@
         <v>5</v>
       </c>
       <c r="E8" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F8" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G8" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-40</v>
       </c>
       <c r="H8" s="4">
         <v>25</v>
@@ -1168,18 +1180,18 @@
       </c>
       <c r="K8" s="6">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>-15</v>
       </c>
       <c r="L8" s="10">
         <v>5</v>
       </c>
       <c r="M8" s="11">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="N8" s="8">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>-25</v>
       </c>
       <c r="O8">
         <f t="shared" si="7"/>
@@ -1190,11 +1202,11 @@
       </c>
       <c r="W8" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X8" s="8">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>-25</v>
       </c>
     </row>
     <row r="9" spans="2:24" x14ac:dyDescent="0.25">
@@ -1208,15 +1220,15 @@
         <v>2</v>
       </c>
       <c r="E9" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9" s="13">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" s="14">
         <f t="shared" si="2"/>
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="H9" s="14">
         <v>25</v>
@@ -1230,18 +1242,18 @@
       </c>
       <c r="K9" s="15">
         <f t="shared" si="4"/>
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="L9" s="16">
         <v>2</v>
       </c>
       <c r="M9" s="16">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N9" s="15">
         <f t="shared" si="6"/>
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="O9" s="17">
         <f t="shared" si="7"/>
@@ -1252,11 +1264,11 @@
       </c>
       <c r="W9" s="11">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X9" s="8">
         <f t="shared" si="8"/>
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="2:24" x14ac:dyDescent="0.25">
@@ -1270,15 +1282,15 @@
         <v>8</v>
       </c>
       <c r="E10" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F10" s="2">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G10" s="4">
         <f t="shared" si="2"/>
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="H10" s="4">
         <v>25</v>
@@ -1292,18 +1304,18 @@
       </c>
       <c r="K10" s="6">
         <f t="shared" si="4"/>
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="L10" s="10">
         <v>8</v>
       </c>
       <c r="M10" s="11">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N10" s="8">
         <f t="shared" si="6"/>
-        <v>125</v>
+        <v>150</v>
       </c>
       <c r="O10">
         <f t="shared" si="7"/>
@@ -1314,11 +1326,11 @@
       </c>
       <c r="W10" s="11">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="X10" s="8">
         <f t="shared" si="8"/>
-        <v>125</v>
+        <v>150</v>
       </c>
     </row>
     <row r="11" spans="2:24" x14ac:dyDescent="0.25">
@@ -1332,15 +1344,15 @@
         <v>6</v>
       </c>
       <c r="E11" s="13">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F11" s="13">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G11" s="14">
         <f t="shared" si="2"/>
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="H11" s="14">
         <v>25</v>
@@ -1354,18 +1366,18 @@
       </c>
       <c r="K11" s="15">
         <f t="shared" si="4"/>
-        <v>15</v>
+        <v>75</v>
       </c>
       <c r="L11" s="16">
         <v>6</v>
       </c>
       <c r="M11" s="16">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N11" s="15">
         <f t="shared" si="6"/>
-        <v>25</v>
+        <v>125</v>
       </c>
       <c r="O11" s="17">
         <f t="shared" si="7"/>
@@ -1376,11 +1388,11 @@
       </c>
       <c r="W11" s="11">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="X11" s="8">
         <f t="shared" si="8"/>
-        <v>25</v>
+        <v>125</v>
       </c>
     </row>
     <row r="12" spans="2:24" x14ac:dyDescent="0.25">
@@ -1394,15 +1406,15 @@
         <v>5</v>
       </c>
       <c r="E12" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12" s="13">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G12" s="14">
         <f t="shared" si="2"/>
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="H12" s="14">
         <v>25</v>
@@ -1416,18 +1428,18 @@
       </c>
       <c r="K12" s="15">
         <f t="shared" si="4"/>
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="L12" s="16">
         <v>5</v>
       </c>
       <c r="M12" s="16">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N12" s="15">
         <f t="shared" si="6"/>
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="O12" s="17">
         <f t="shared" si="7"/>
@@ -1438,11 +1450,11 @@
       </c>
       <c r="W12" s="11">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="X12" s="8">
         <f t="shared" si="8"/>
-        <v>100</v>
+        <v>125</v>
       </c>
     </row>
     <row r="13" spans="2:24" x14ac:dyDescent="0.25">
@@ -1456,15 +1468,15 @@
         <v>10</v>
       </c>
       <c r="E13" s="13">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F13" s="13">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G13" s="14">
         <f t="shared" si="2"/>
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="H13" s="14">
         <v>25</v>
@@ -1478,18 +1490,18 @@
       </c>
       <c r="K13" s="15">
         <f t="shared" si="4"/>
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="L13" s="16">
         <v>10</v>
       </c>
       <c r="M13" s="16">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N13" s="15">
         <f t="shared" si="6"/>
-        <v>125</v>
+        <v>75</v>
       </c>
       <c r="O13" s="17">
         <f t="shared" si="7"/>
@@ -1500,11 +1512,11 @@
       </c>
       <c r="W13" s="11">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="X13" s="8">
         <f t="shared" si="8"/>
-        <v>125</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="2:24" x14ac:dyDescent="0.25">
@@ -1518,15 +1530,15 @@
         <v>5</v>
       </c>
       <c r="E14" s="13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F14" s="13">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G14" s="14">
         <f t="shared" si="2"/>
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="H14" s="14">
         <v>25</v>
@@ -1540,18 +1552,18 @@
       </c>
       <c r="K14" s="15">
         <f t="shared" si="4"/>
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="L14" s="16">
         <v>5</v>
       </c>
       <c r="M14" s="16">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N14" s="15">
         <f t="shared" si="6"/>
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="O14" s="17">
         <f t="shared" si="7"/>
@@ -1562,11 +1574,11 @@
       </c>
       <c r="W14" s="11">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X14" s="8">
         <f t="shared" si="8"/>
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="2:24" x14ac:dyDescent="0.25">
@@ -1580,15 +1592,15 @@
         <v>10</v>
       </c>
       <c r="E15" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F15" s="2">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G15" s="4">
         <f t="shared" si="2"/>
-        <v>320</v>
+        <v>200</v>
       </c>
       <c r="H15" s="4">
         <v>25</v>
@@ -1602,18 +1614,18 @@
       </c>
       <c r="K15" s="6">
         <f t="shared" si="4"/>
-        <v>120</v>
+        <v>75</v>
       </c>
       <c r="L15" s="10">
         <v>10</v>
       </c>
       <c r="M15" s="11">
         <f t="shared" si="5"/>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="N15" s="8">
         <f t="shared" si="6"/>
-        <v>200</v>
+        <v>125</v>
       </c>
       <c r="O15">
         <f t="shared" si="7"/>
@@ -1624,11 +1636,11 @@
       </c>
       <c r="W15" s="11">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="X15" s="8">
         <f t="shared" si="8"/>
-        <v>200</v>
+        <v>125</v>
       </c>
     </row>
     <row r="16" spans="2:24" x14ac:dyDescent="0.25">
@@ -1642,15 +1654,15 @@
         <v>10</v>
       </c>
       <c r="E16" s="2">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F16" s="2">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G16" s="4">
         <f>+F16*23</f>
-        <v>184</v>
+        <v>69</v>
       </c>
       <c r="H16" s="4">
         <v>15</v>
@@ -1664,18 +1676,18 @@
       </c>
       <c r="K16" s="6">
         <f t="shared" si="4"/>
-        <v>64</v>
+        <v>24</v>
       </c>
       <c r="L16" s="10">
         <v>10</v>
       </c>
       <c r="M16" s="11">
         <f t="shared" si="5"/>
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="N16" s="8">
         <f t="shared" si="6"/>
-        <v>120</v>
+        <v>45</v>
       </c>
       <c r="O16">
         <f t="shared" si="7"/>
@@ -1686,11 +1698,11 @@
       </c>
       <c r="W16" s="11">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="X16" s="8">
         <f t="shared" si="8"/>
-        <v>120</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="2:24" x14ac:dyDescent="0.25">
@@ -1704,15 +1716,15 @@
         <v>10</v>
       </c>
       <c r="E17" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F17" s="2">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G17" s="4">
         <f t="shared" ref="G17:G24" si="9">+F17*23</f>
-        <v>69</v>
+        <v>92</v>
       </c>
       <c r="H17" s="4">
         <v>15</v>
@@ -1726,18 +1738,18 @@
       </c>
       <c r="K17" s="6">
         <f t="shared" si="4"/>
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="L17" s="10">
         <v>10</v>
       </c>
       <c r="M17" s="11">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N17" s="8">
         <f t="shared" si="6"/>
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="O17">
         <f t="shared" si="7"/>
@@ -1748,11 +1760,11 @@
       </c>
       <c r="W17" s="11">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="X17" s="8">
         <f t="shared" si="8"/>
-        <v>45</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="2:24" x14ac:dyDescent="0.25">
@@ -1766,15 +1778,15 @@
         <v>10</v>
       </c>
       <c r="E18" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18" s="2">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G18" s="4">
         <f t="shared" si="9"/>
-        <v>207</v>
+        <v>161</v>
       </c>
       <c r="H18" s="4">
         <v>15</v>
@@ -1788,18 +1800,18 @@
       </c>
       <c r="K18" s="6">
         <f t="shared" si="4"/>
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="L18" s="10">
         <v>10</v>
       </c>
       <c r="M18" s="11">
         <f t="shared" si="5"/>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="N18" s="8">
         <f t="shared" si="6"/>
-        <v>135</v>
+        <v>105</v>
       </c>
       <c r="O18">
         <f t="shared" si="7"/>
@@ -1810,11 +1822,11 @@
       </c>
       <c r="W18" s="11">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="X18" s="8">
         <f t="shared" si="8"/>
-        <v>135</v>
+        <v>105</v>
       </c>
     </row>
     <row r="19" spans="2:24" x14ac:dyDescent="0.25">
@@ -1828,15 +1840,15 @@
         <v>10</v>
       </c>
       <c r="E19" s="2">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F19" s="2">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G19" s="4">
         <f t="shared" si="9"/>
-        <v>92</v>
+        <v>23</v>
       </c>
       <c r="H19" s="4">
         <v>15</v>
@@ -1850,18 +1862,18 @@
       </c>
       <c r="K19" s="6">
         <f t="shared" si="4"/>
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="L19" s="10">
         <v>10</v>
       </c>
       <c r="M19" s="11">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N19" s="8">
         <f t="shared" si="6"/>
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="O19">
         <f t="shared" si="7"/>
@@ -1872,11 +1884,11 @@
       </c>
       <c r="W19" s="11">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="X19" s="8">
         <f t="shared" si="8"/>
-        <v>60</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="2:24" x14ac:dyDescent="0.25">
@@ -1890,15 +1902,15 @@
         <v>10</v>
       </c>
       <c r="E20" s="2">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="F20" s="2">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="G20" s="4">
         <f t="shared" si="9"/>
-        <v>161</v>
+        <v>-23</v>
       </c>
       <c r="H20" s="4">
         <v>15</v>
@@ -1912,18 +1924,18 @@
       </c>
       <c r="K20" s="6">
         <f t="shared" si="4"/>
-        <v>56</v>
+        <v>-8</v>
       </c>
       <c r="L20" s="10">
         <v>10</v>
       </c>
       <c r="M20" s="11">
         <f t="shared" si="5"/>
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="N20" s="8">
         <f t="shared" si="6"/>
-        <v>105</v>
+        <v>-15</v>
       </c>
       <c r="O20">
         <f t="shared" si="7"/>
@@ -1934,11 +1946,11 @@
       </c>
       <c r="W20" s="11">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="X20" s="8">
         <f t="shared" si="8"/>
-        <v>105</v>
+        <v>-15</v>
       </c>
     </row>
     <row r="21" spans="2:24" x14ac:dyDescent="0.25">
@@ -2015,15 +2027,15 @@
         <v>32</v>
       </c>
       <c r="E22" s="2">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F22" s="2">
         <f t="shared" si="1"/>
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="G22" s="4">
         <f t="shared" si="9"/>
-        <v>529</v>
+        <v>414</v>
       </c>
       <c r="H22" s="4">
         <v>15</v>
@@ -2037,18 +2049,18 @@
       </c>
       <c r="K22" s="6">
         <f t="shared" si="4"/>
-        <v>184</v>
+        <v>144</v>
       </c>
       <c r="L22" s="10">
         <v>32</v>
       </c>
       <c r="M22" s="11">
         <f t="shared" si="5"/>
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="N22" s="8">
         <f t="shared" si="6"/>
-        <v>345</v>
+        <v>270</v>
       </c>
       <c r="O22">
         <f t="shared" si="7"/>
@@ -2059,11 +2071,11 @@
       </c>
       <c r="W22" s="11">
         <f t="shared" si="0"/>
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="X22" s="8">
         <f t="shared" si="8"/>
-        <v>345</v>
+        <v>270</v>
       </c>
     </row>
     <row r="23" spans="2:24" x14ac:dyDescent="0.25">
@@ -2077,15 +2089,15 @@
         <v>5</v>
       </c>
       <c r="E23" s="2">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F23" s="2">
         <f t="shared" si="1"/>
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="G23" s="4">
         <f t="shared" si="9"/>
-        <v>-69</v>
+        <v>-23</v>
       </c>
       <c r="H23" s="4">
         <v>15</v>
@@ -2099,18 +2111,18 @@
       </c>
       <c r="K23" s="6">
         <f t="shared" si="4"/>
-        <v>-24</v>
+        <v>-8</v>
       </c>
       <c r="L23" s="10">
         <v>5</v>
       </c>
       <c r="M23" s="11">
         <f t="shared" si="5"/>
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="N23" s="8">
         <f t="shared" si="6"/>
-        <v>-45</v>
+        <v>-15</v>
       </c>
       <c r="O23">
         <f t="shared" si="7"/>
@@ -2121,18 +2133,18 @@
       </c>
       <c r="T23" s="8">
         <f>SUM(N3:N24)</f>
-        <v>2290</v>
+        <v>1390</v>
       </c>
       <c r="V23" s="2" t="s">
         <v>35</v>
       </c>
       <c r="W23" s="11">
         <f t="shared" si="0"/>
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="X23" s="8">
         <f t="shared" si="8"/>
-        <v>-45</v>
+        <v>-15</v>
       </c>
     </row>
     <row r="24" spans="2:24" x14ac:dyDescent="0.25">
@@ -2186,7 +2198,7 @@
         <v>5</v>
       </c>
       <c r="Q24" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R24" s="3">
         <f>SUM(D3:D24)</f>
@@ -2194,15 +2206,15 @@
       </c>
       <c r="S24" s="3">
         <f>SUM(E3:E21)</f>
-        <v>70</v>
+        <v>111</v>
       </c>
       <c r="T24" s="3">
         <f>SUM(F3:F24)</f>
-        <v>114</v>
+        <v>70</v>
       </c>
       <c r="U24" s="3">
         <f>SUM(G3:G24)</f>
-        <v>3608</v>
+        <v>2188</v>
       </c>
       <c r="V24" s="2" t="s">
         <v>36</v>
@@ -2218,10 +2230,10 @@
     </row>
     <row r="25" spans="2:24" x14ac:dyDescent="0.25">
       <c r="Q25" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="R25" s="3">
-        <v>85</v>
+        <v>1535</v>
       </c>
       <c r="S25" s="3"/>
       <c r="T25" s="3" t="s">
@@ -2229,19 +2241,19 @@
       </c>
       <c r="U25" s="3">
         <f>+U24+R25</f>
-        <v>3693</v>
+        <v>3723</v>
       </c>
       <c r="V25" s="1" t="s">
         <v>32</v>
       </c>
       <c r="W25" s="18">
         <f>SUM(X3:X24)</f>
-        <v>2290</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="26" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B26" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C26" s="20"/>
       <c r="D26" s="20"/>
@@ -2259,7 +2271,7 @@
         <v>23</v>
       </c>
       <c r="R26" s="3">
-        <v>3190</v>
+        <v>2123</v>
       </c>
       <c r="S26" s="1"/>
       <c r="T26" s="3" t="s">
@@ -2267,7 +2279,7 @@
       </c>
       <c r="U26" s="9">
         <f>SUM(K3:K24)</f>
-        <v>1318</v>
+        <v>798</v>
       </c>
     </row>
     <row r="27" spans="2:24" x14ac:dyDescent="0.25">
@@ -2311,14 +2323,14 @@
         <v>33</v>
       </c>
       <c r="O27" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="T27" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="U27" s="7">
         <f>+U26/2</f>
-        <v>659</v>
+        <v>399</v>
       </c>
     </row>
     <row r="28" spans="2:24" x14ac:dyDescent="0.25">
@@ -2326,7 +2338,7 @@
         <v>1</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D28" s="2">
         <v>10</v>
@@ -2377,7 +2389,7 @@
         <v>2</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D29" s="2">
         <v>13</v>
@@ -2984,7 +2996,7 @@
         <v>10</v>
       </c>
       <c r="S40" s="21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="T40" s="21"/>
       <c r="U40" s="21"/>
@@ -3100,7 +3112,7 @@
         <v>10</v>
       </c>
       <c r="S42" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T42" s="11">
         <f>M28</f>
@@ -3162,7 +3174,7 @@
         <v>10</v>
       </c>
       <c r="S43" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="T43" s="11">
         <f t="shared" ref="T43:T63" si="36">M29</f>

--- a/Angular/Paletas Yahvé.xlsx
+++ b/Angular/Paletas Yahvé.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bmedina\Downloads\Curso Angular\Angular\Angular\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66E557DF-48FE-4DB8-99E0-6A1AC68CB72F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06608E55-ECB8-4568-A672-BC6BD592EA62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20535" yWindow="-9150" windowWidth="29040" windowHeight="16440" xr2:uid="{8B9CBAAB-98A8-4499-B93A-25E4DC44FD39}"/>
   </bookViews>
@@ -101,9 +101,6 @@
     <t>Chocoguineo</t>
   </si>
   <si>
-    <t>Total=</t>
-  </si>
-  <si>
     <t>Dejado en Caja=</t>
   </si>
   <si>
@@ -176,12 +173,6 @@
     <t>R Maracuya Yogurt</t>
   </si>
   <si>
-    <t>NUEVO STOCK SEMANA 01/OCT</t>
-  </si>
-  <si>
-    <t>Venta Paletas Semana OCT-31OCT</t>
-  </si>
-  <si>
     <t>GANANCIA /2</t>
   </si>
   <si>
@@ -201,6 +192,15 @@
   </si>
   <si>
     <t>NUEVO STOCK SEMANA ENTRANTE 25/11/2024</t>
+  </si>
+  <si>
+    <t>Venta Paletas Semana 19OCT EN ADELANTE ULTIMO; REGISTRAR VENTA AQUÍ</t>
+  </si>
+  <si>
+    <t>Stock Paletas=</t>
+  </si>
+  <si>
+    <t>NUEVO STOCK SEMANA ENTRANTE</t>
   </si>
 </sst>
 </file>
@@ -211,7 +211,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_-[$L-480A]* #,##0.00_-;\-[$L-480A]* #,##0.00_-;_-[$L-480A]* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -226,8 +226,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -267,6 +274,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -319,7 +332,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -349,21 +362,22 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -701,8 +715,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{734E0C91-4377-4E4F-B8BB-89756185763E}">
   <dimension ref="B1:X64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P18" sqref="P18"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O28" sqref="O28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -726,23 +740,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B1" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
-      <c r="M1" s="23"/>
-      <c r="N1" s="23"/>
+      <c r="B1" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
       <c r="V1" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="W1" s="2"/>
       <c r="X1" s="2"/>
@@ -761,43 +775,43 @@
         <v>2</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>28</v>
-      </c>
       <c r="H2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I2" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="J2" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="L2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="M2" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="N2" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O2" s="12" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="V2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="2:24" x14ac:dyDescent="0.25">
@@ -811,15 +825,15 @@
         <v>10</v>
       </c>
       <c r="E3" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F3" s="2">
         <f>+D3-E3</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G3" s="4">
         <f>+F3*40</f>
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="H3" s="4">
         <v>25</v>
@@ -833,18 +847,18 @@
       </c>
       <c r="K3" s="6">
         <f>+J3*F3</f>
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="L3" s="10">
         <v>10</v>
       </c>
       <c r="M3" s="11">
         <f>+L3-E3</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N3" s="8">
         <f>+M3*H3</f>
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="O3">
         <f>+M3+E3</f>
@@ -855,22 +869,22 @@
         <v>850</v>
       </c>
       <c r="T3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="U3">
         <f>SUM(W3:W15)</f>
         <v>34</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="W3" s="11">
         <f t="shared" ref="W3:W24" si="0">M3</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X3" s="8">
         <f>N3</f>
-        <v>75</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="2:24" x14ac:dyDescent="0.25">
@@ -925,17 +939,17 @@
       </c>
       <c r="S4">
         <f>+U4*15</f>
-        <v>270</v>
+        <v>285</v>
       </c>
       <c r="T4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="U4">
         <f>SUM(W16:W24)-W22</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="V4" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="W4" s="11">
         <f t="shared" si="0"/>
@@ -1001,7 +1015,7 @@
         <v>270</v>
       </c>
       <c r="T5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="U5">
         <f>+W22</f>
@@ -1030,15 +1044,15 @@
         <v>10</v>
       </c>
       <c r="E6" s="2">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F6" s="2">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G6" s="4">
         <f t="shared" si="2"/>
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="H6" s="4">
         <v>25</v>
@@ -1052,18 +1066,18 @@
       </c>
       <c r="K6" s="6">
         <f t="shared" si="4"/>
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="L6" s="10">
         <v>10</v>
       </c>
       <c r="M6" s="11">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N6" s="8">
         <f t="shared" si="6"/>
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="O6">
         <f t="shared" si="7"/>
@@ -1071,18 +1085,18 @@
       </c>
       <c r="S6">
         <f>+S3+S4+S5</f>
-        <v>1390</v>
+        <v>1405</v>
       </c>
       <c r="V6" s="2" t="s">
         <v>8</v>
       </c>
       <c r="W6" s="11">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="X6" s="8">
         <f t="shared" si="8"/>
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="2:24" x14ac:dyDescent="0.25">
@@ -1282,15 +1296,15 @@
         <v>8</v>
       </c>
       <c r="E10" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10" s="2">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G10" s="4">
         <f t="shared" si="2"/>
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="H10" s="4">
         <v>25</v>
@@ -1304,18 +1318,18 @@
       </c>
       <c r="K10" s="6">
         <f t="shared" si="4"/>
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="L10" s="10">
         <v>8</v>
       </c>
       <c r="M10" s="11">
         <f t="shared" si="5"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N10" s="8">
         <f t="shared" si="6"/>
-        <v>150</v>
+        <v>125</v>
       </c>
       <c r="O10">
         <f t="shared" si="7"/>
@@ -1326,11 +1340,11 @@
       </c>
       <c r="W10" s="11">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="X10" s="8">
         <f t="shared" si="8"/>
-        <v>150</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11" spans="2:24" x14ac:dyDescent="0.25">
@@ -1338,7 +1352,7 @@
         <v>9</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D11" s="13">
         <v>6</v>
@@ -1384,7 +1398,7 @@
         <v>6</v>
       </c>
       <c r="V11" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="W11" s="11">
         <f t="shared" si="0"/>
@@ -1400,7 +1414,7 @@
         <v>10</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D12" s="13">
         <v>5</v>
@@ -1446,7 +1460,7 @@
         <v>5</v>
       </c>
       <c r="V12" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="W12" s="11">
         <f t="shared" si="0"/>
@@ -1462,7 +1476,7 @@
         <v>11</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D13" s="13">
         <v>10</v>
@@ -1508,7 +1522,7 @@
         <v>10</v>
       </c>
       <c r="V13" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="W13" s="11">
         <f t="shared" si="0"/>
@@ -1524,7 +1538,7 @@
         <v>12</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D14" s="13">
         <v>5</v>
@@ -1570,7 +1584,7 @@
         <v>5</v>
       </c>
       <c r="V14" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="W14" s="11">
         <f t="shared" si="0"/>
@@ -1654,15 +1668,15 @@
         <v>10</v>
       </c>
       <c r="E16" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F16" s="2">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G16" s="4">
         <f>+F16*23</f>
-        <v>69</v>
+        <v>92</v>
       </c>
       <c r="H16" s="4">
         <v>15</v>
@@ -1676,18 +1690,18 @@
       </c>
       <c r="K16" s="6">
         <f t="shared" si="4"/>
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="L16" s="10">
         <v>10</v>
       </c>
       <c r="M16" s="11">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N16" s="8">
         <f t="shared" si="6"/>
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="O16">
         <f t="shared" si="7"/>
@@ -1698,11 +1712,11 @@
       </c>
       <c r="W16" s="11">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="X16" s="8">
         <f t="shared" si="8"/>
-        <v>45</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="2:24" x14ac:dyDescent="0.25">
@@ -2083,7 +2097,7 @@
         <v>21</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D23" s="2">
         <v>5</v>
@@ -2129,14 +2143,14 @@
         <v>5</v>
       </c>
       <c r="S23" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T23" s="8">
         <f>SUM(N3:N24)</f>
-        <v>1390</v>
+        <v>1405</v>
       </c>
       <c r="V23" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="W23" s="11">
         <f t="shared" si="0"/>
@@ -2152,7 +2166,7 @@
         <v>22</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D24" s="2">
         <v>5</v>
@@ -2198,7 +2212,7 @@
         <v>5</v>
       </c>
       <c r="Q24" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R24" s="3">
         <f>SUM(D3:D24)</f>
@@ -2206,18 +2220,18 @@
       </c>
       <c r="S24" s="3">
         <f>SUM(E3:E21)</f>
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="T24" s="3">
         <f>SUM(F3:F24)</f>
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U24" s="3">
         <f>SUM(G3:G24)</f>
-        <v>2188</v>
+        <v>2211</v>
       </c>
       <c r="V24" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="W24" s="11">
         <f t="shared" si="0"/>
@@ -2230,56 +2244,56 @@
     </row>
     <row r="25" spans="2:24" x14ac:dyDescent="0.25">
       <c r="Q25" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R25" s="3">
         <v>1535</v>
       </c>
       <c r="S25" s="3"/>
       <c r="T25" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="U25" s="3">
         <f>+U24+R25</f>
-        <v>3723</v>
+        <v>3746</v>
       </c>
       <c r="V25" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="W25" s="18">
         <f>SUM(X3:X24)</f>
-        <v>1390</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="26" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B26" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="C26" s="20"/>
-      <c r="D26" s="20"/>
-      <c r="E26" s="20"/>
-      <c r="F26" s="20"/>
-      <c r="G26" s="20"/>
-      <c r="H26" s="20"/>
-      <c r="I26" s="20"/>
-      <c r="J26" s="20"/>
-      <c r="K26" s="20"/>
-      <c r="L26" s="20"/>
-      <c r="M26" s="20"/>
-      <c r="N26" s="20"/>
+      <c r="B26" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="C26" s="23"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="23"/>
+      <c r="H26" s="23"/>
+      <c r="I26" s="23"/>
+      <c r="J26" s="23"/>
+      <c r="K26" s="23"/>
+      <c r="L26" s="23"/>
+      <c r="M26" s="23"/>
+      <c r="N26" s="23"/>
       <c r="Q26" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R26" s="3">
         <v>2123</v>
       </c>
       <c r="S26" s="1"/>
       <c r="T26" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="U26" s="9">
         <f>SUM(K3:K24)</f>
-        <v>798</v>
+        <v>806</v>
       </c>
     </row>
     <row r="27" spans="2:24" x14ac:dyDescent="0.25">
@@ -2296,41 +2310,41 @@
         <v>2</v>
       </c>
       <c r="F27" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G27" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G27" s="2" t="s">
-        <v>28</v>
-      </c>
       <c r="H27" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I27" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I27" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="J27" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K27" s="2" t="s">
         <v>3</v>
       </c>
       <c r="L27" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M27" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="M27" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="N27" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O27" s="12" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="T27" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="U27" s="7">
         <f>+U26/2</f>
-        <v>399</v>
+        <v>403</v>
       </c>
     </row>
     <row r="28" spans="2:24" x14ac:dyDescent="0.25">
@@ -2338,21 +2352,21 @@
         <v>1</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D28" s="2">
         <v>10</v>
       </c>
       <c r="E28" s="2">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F28" s="2">
         <f>+D28-E28</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G28" s="4">
         <f>+F28*40</f>
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="H28" s="4">
         <v>25</v>
@@ -2366,18 +2380,18 @@
       </c>
       <c r="K28" s="6">
         <f>+J28*F28</f>
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="L28" s="10">
         <v>10</v>
       </c>
       <c r="M28" s="11">
         <f>+L28-E28</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N28" s="8">
         <f>+M28*H28</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O28">
         <f>+M28+E28</f>
@@ -2389,21 +2403,21 @@
         <v>2</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D29" s="2">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E29" s="2">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F29" s="2">
         <f t="shared" ref="F29:F47" si="11">+D29-E29</f>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G29" s="4">
         <f t="shared" ref="G29:G40" si="12">+F29*40</f>
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H29" s="4">
         <v>25</v>
@@ -2417,18 +2431,18 @@
       </c>
       <c r="K29" s="6">
         <f t="shared" ref="K29:K47" si="14">+J29*F29</f>
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="L29" s="10">
         <v>10</v>
       </c>
       <c r="M29" s="11">
         <f t="shared" ref="M29:M47" si="15">+L29-E29</f>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="N29" s="8">
         <f t="shared" ref="N29:N47" si="16">+M29*H29</f>
-        <v>175</v>
+        <v>0</v>
       </c>
       <c r="O29">
         <f t="shared" ref="O29:O49" si="17">+M29+E29</f>
@@ -2446,15 +2460,15 @@
         <v>10</v>
       </c>
       <c r="E30" s="2">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F30" s="2">
         <f t="shared" si="11"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G30" s="4">
         <f t="shared" si="12"/>
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="H30" s="4">
         <v>25</v>
@@ -2468,18 +2482,18 @@
       </c>
       <c r="K30" s="6">
         <f t="shared" si="14"/>
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="L30" s="10">
         <v>10</v>
       </c>
       <c r="M30" s="11">
         <f t="shared" si="15"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N30" s="8">
         <f t="shared" si="16"/>
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="O30">
         <f t="shared" si="17"/>
@@ -2497,15 +2511,15 @@
         <v>10</v>
       </c>
       <c r="E31" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F31" s="2">
         <f t="shared" si="11"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G31" s="4">
         <f t="shared" si="12"/>
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="H31" s="4">
         <v>25</v>
@@ -2519,18 +2533,18 @@
       </c>
       <c r="K31" s="6">
         <f t="shared" si="14"/>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="L31" s="10">
         <v>10</v>
       </c>
       <c r="M31" s="11">
         <f t="shared" si="15"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N31" s="8">
         <f t="shared" si="16"/>
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="O31">
         <f t="shared" si="17"/>
@@ -2548,15 +2562,15 @@
         <v>10</v>
       </c>
       <c r="E32" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F32" s="2">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G32" s="4">
         <f t="shared" si="12"/>
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="H32" s="4">
         <v>25</v>
@@ -2570,18 +2584,18 @@
       </c>
       <c r="K32" s="6">
         <f t="shared" si="14"/>
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="L32" s="10">
         <v>10</v>
       </c>
       <c r="M32" s="11">
         <f t="shared" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N32" s="8">
         <f t="shared" si="16"/>
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="O32">
         <f t="shared" si="17"/>
@@ -2596,18 +2610,18 @@
         <v>10</v>
       </c>
       <c r="D33" s="2">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E33" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F33" s="2">
         <f t="shared" si="11"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G33" s="4">
         <f t="shared" si="12"/>
-        <v>240</v>
+        <v>0</v>
       </c>
       <c r="H33" s="4">
         <v>25</v>
@@ -2621,18 +2635,18 @@
       </c>
       <c r="K33" s="6">
         <f t="shared" si="14"/>
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="L33" s="10">
         <v>5</v>
       </c>
       <c r="M33" s="11">
         <f t="shared" si="15"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N33" s="8">
         <f t="shared" si="16"/>
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="O33">
         <f t="shared" si="17"/>
@@ -2650,15 +2664,15 @@
         <v>2</v>
       </c>
       <c r="E34" s="13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F34" s="13">
         <f t="shared" si="11"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G34" s="14">
         <f t="shared" si="12"/>
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="H34" s="14">
         <v>25</v>
@@ -2672,18 +2686,18 @@
       </c>
       <c r="K34" s="15">
         <f t="shared" si="14"/>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="L34" s="16">
         <v>2</v>
       </c>
       <c r="M34" s="16">
         <f t="shared" si="15"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N34" s="15">
         <f t="shared" si="16"/>
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="O34" s="17">
         <f t="shared" si="17"/>
@@ -2698,18 +2712,18 @@
         <v>12</v>
       </c>
       <c r="D35" s="2">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E35" s="2">
         <v>8</v>
       </c>
       <c r="F35" s="2">
         <f t="shared" si="11"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G35" s="4">
         <f t="shared" si="12"/>
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="H35" s="4">
         <v>25</v>
@@ -2723,7 +2737,7 @@
       </c>
       <c r="K35" s="6">
         <f t="shared" si="14"/>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="L35" s="10">
         <v>8</v>
@@ -2746,21 +2760,21 @@
         <v>9</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D36" s="13">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E36" s="13">
         <v>6</v>
       </c>
       <c r="F36" s="13">
         <f t="shared" ref="F36" si="18">+D36-E36</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G36" s="14">
         <f t="shared" ref="G36" si="19">+F36*40</f>
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="H36" s="14">
         <v>25</v>
@@ -2774,7 +2788,7 @@
       </c>
       <c r="K36" s="15">
         <f t="shared" ref="K36" si="21">+J36*F36</f>
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="L36" s="16">
         <v>6</v>
@@ -2797,21 +2811,21 @@
         <v>10</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D37" s="13">
         <v>5</v>
       </c>
       <c r="E37" s="13">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F37" s="13">
         <f t="shared" ref="F37:F38" si="24">+D37-E37</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G37" s="14">
         <f t="shared" ref="G37:G38" si="25">+F37*40</f>
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="H37" s="14">
         <v>25</v>
@@ -2825,18 +2839,18 @@
       </c>
       <c r="K37" s="15">
         <f t="shared" ref="K37:K38" si="27">+J37*F37</f>
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="L37" s="16">
         <v>5</v>
       </c>
       <c r="M37" s="16">
         <f t="shared" ref="M37:M38" si="28">+L37-E37</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N37" s="15">
         <f t="shared" ref="N37:N38" si="29">+M37*H37</f>
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="O37" s="17">
         <f t="shared" si="17"/>
@@ -2848,21 +2862,21 @@
         <v>11</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D38" s="13">
         <v>10</v>
       </c>
       <c r="E38" s="13">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F38" s="13">
         <f t="shared" si="24"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G38" s="14">
         <f t="shared" si="25"/>
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="H38" s="14">
         <v>25</v>
@@ -2876,18 +2890,18 @@
       </c>
       <c r="K38" s="15">
         <f t="shared" si="27"/>
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="L38" s="16">
         <v>10</v>
       </c>
       <c r="M38" s="16">
         <f t="shared" si="28"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N38" s="15">
         <f t="shared" si="29"/>
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="O38" s="17">
         <f t="shared" si="17"/>
@@ -2899,21 +2913,21 @@
         <v>12</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D39" s="13">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E39" s="13">
         <v>5</v>
       </c>
       <c r="F39" s="13">
         <f t="shared" si="11"/>
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="G39" s="14">
         <f t="shared" si="12"/>
-        <v>-80</v>
+        <v>0</v>
       </c>
       <c r="H39" s="14">
         <v>25</v>
@@ -2927,7 +2941,7 @@
       </c>
       <c r="K39" s="15">
         <f t="shared" ref="K39" si="31">+J39*F39</f>
-        <v>-30</v>
+        <v>0</v>
       </c>
       <c r="L39" s="16">
         <v>5</v>
@@ -2956,15 +2970,15 @@
         <v>10</v>
       </c>
       <c r="E40" s="2">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F40" s="2">
         <f t="shared" si="11"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G40" s="4">
         <f t="shared" si="12"/>
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="H40" s="4">
         <v>25</v>
@@ -2978,25 +2992,25 @@
       </c>
       <c r="K40" s="6">
         <f t="shared" si="14"/>
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="L40" s="10">
         <v>10</v>
       </c>
       <c r="M40" s="11">
         <f t="shared" si="15"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N40" s="8">
         <f t="shared" si="16"/>
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="O40">
         <f t="shared" si="17"/>
         <v>10</v>
       </c>
       <c r="S40" s="21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="T40" s="21"/>
       <c r="U40" s="21"/>
@@ -3012,15 +3026,15 @@
         <v>10</v>
       </c>
       <c r="E41" s="2">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F41" s="2">
         <f t="shared" si="11"/>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G41" s="4">
         <f>+F41*23</f>
-        <v>184</v>
+        <v>0</v>
       </c>
       <c r="H41" s="4">
         <v>15</v>
@@ -3034,18 +3048,18 @@
       </c>
       <c r="K41" s="6">
         <f t="shared" si="14"/>
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="L41" s="10">
         <v>10</v>
       </c>
       <c r="M41" s="11">
         <f t="shared" si="15"/>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="N41" s="8">
         <f t="shared" si="16"/>
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="O41">
         <f t="shared" si="17"/>
@@ -3055,10 +3069,10 @@
         <v>4</v>
       </c>
       <c r="T41" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="U41" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="42" spans="2:21" x14ac:dyDescent="0.25">
@@ -3112,15 +3126,15 @@
         <v>10</v>
       </c>
       <c r="S42" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="T42" s="11">
         <f>M28</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="U42" s="8">
         <f>N28</f>
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="2:21" x14ac:dyDescent="0.25">
@@ -3134,15 +3148,15 @@
         <v>10</v>
       </c>
       <c r="E43" s="2">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F43" s="2">
         <f t="shared" si="11"/>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G43" s="4">
         <f t="shared" si="34"/>
-        <v>161</v>
+        <v>0</v>
       </c>
       <c r="H43" s="4">
         <v>15</v>
@@ -3156,33 +3170,33 @@
       </c>
       <c r="K43" s="6">
         <f t="shared" si="14"/>
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="L43" s="10">
         <v>10</v>
       </c>
       <c r="M43" s="11">
         <f t="shared" si="15"/>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="N43" s="8">
         <f t="shared" si="16"/>
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="O43">
         <f t="shared" si="17"/>
         <v>10</v>
       </c>
       <c r="S43" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="T43" s="11">
         <f t="shared" ref="T43:T63" si="36">M29</f>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="U43" s="8">
         <f t="shared" ref="U43:U63" si="37">N29</f>
-        <v>175</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="2:21" x14ac:dyDescent="0.25">
@@ -3196,15 +3210,15 @@
         <v>10</v>
       </c>
       <c r="E44" s="2">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F44" s="2">
         <f t="shared" si="11"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G44" s="4">
         <f t="shared" si="34"/>
-        <v>92</v>
+        <v>0</v>
       </c>
       <c r="H44" s="4">
         <v>15</v>
@@ -3218,18 +3232,18 @@
       </c>
       <c r="K44" s="6">
         <f t="shared" si="14"/>
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="L44" s="10">
         <v>10</v>
       </c>
       <c r="M44" s="11">
         <f t="shared" si="15"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N44" s="8">
         <f t="shared" si="16"/>
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="O44">
         <f t="shared" si="17"/>
@@ -3240,11 +3254,11 @@
       </c>
       <c r="T44" s="11">
         <f t="shared" si="36"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U44" s="8">
         <f t="shared" si="37"/>
-        <v>75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="2:21" x14ac:dyDescent="0.25">
@@ -3258,15 +3272,15 @@
         <v>10</v>
       </c>
       <c r="E45" s="2">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F45" s="2">
         <f t="shared" si="11"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G45" s="4">
         <f t="shared" si="34"/>
-        <v>69</v>
+        <v>0</v>
       </c>
       <c r="H45" s="4">
         <v>15</v>
@@ -3280,18 +3294,18 @@
       </c>
       <c r="K45" s="6">
         <f t="shared" si="14"/>
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="L45" s="10">
         <v>10</v>
       </c>
       <c r="M45" s="11">
         <f t="shared" si="15"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N45" s="8">
         <f t="shared" si="16"/>
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="O45">
         <f t="shared" si="17"/>
@@ -3302,11 +3316,11 @@
       </c>
       <c r="T45" s="11">
         <f t="shared" si="36"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U45" s="8">
         <f t="shared" si="37"/>
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="2:21" x14ac:dyDescent="0.25">
@@ -3364,11 +3378,11 @@
       </c>
       <c r="T46" s="11">
         <f t="shared" si="36"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U46" s="8">
         <f t="shared" si="37"/>
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="2:21" x14ac:dyDescent="0.25">
@@ -3379,18 +3393,18 @@
         <v>20</v>
       </c>
       <c r="D47" s="2">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E47" s="2">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="F47" s="2">
         <f t="shared" si="11"/>
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="G47" s="4">
         <f t="shared" si="34"/>
-        <v>368</v>
+        <v>0</v>
       </c>
       <c r="H47" s="4">
         <v>12</v>
@@ -3404,18 +3418,18 @@
       </c>
       <c r="K47" s="6">
         <f t="shared" si="14"/>
-        <v>176</v>
+        <v>0</v>
       </c>
       <c r="L47" s="10">
         <v>32</v>
       </c>
       <c r="M47" s="11">
         <f t="shared" si="15"/>
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="N47" s="8">
         <f t="shared" si="16"/>
-        <v>156</v>
+        <v>0</v>
       </c>
       <c r="O47">
         <f t="shared" si="17"/>
@@ -3426,11 +3440,11 @@
       </c>
       <c r="T47" s="11">
         <f t="shared" si="36"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U47" s="8">
         <f t="shared" si="37"/>
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="2:21" x14ac:dyDescent="0.25">
@@ -3438,21 +3452,21 @@
         <v>21</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D48" s="2">
         <v>5</v>
       </c>
       <c r="E48" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F48" s="2">
         <f t="shared" ref="F48:F49" si="38">+D48-E48</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G48" s="4">
         <f t="shared" ref="G48:G49" si="39">+F48*23</f>
-        <v>-23</v>
+        <v>0</v>
       </c>
       <c r="H48" s="4">
         <v>12</v>
@@ -3466,18 +3480,18 @@
       </c>
       <c r="K48" s="6">
         <f t="shared" ref="K48:K49" si="41">+J48*F48</f>
-        <v>-11</v>
+        <v>0</v>
       </c>
       <c r="L48" s="10">
         <v>5</v>
       </c>
       <c r="M48" s="11">
         <f t="shared" ref="M48:M49" si="42">+L48-E48</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="N48" s="8">
         <f t="shared" ref="N48:N49" si="43">+M48*H48</f>
-        <v>-12</v>
+        <v>0</v>
       </c>
       <c r="O48">
         <f t="shared" si="17"/>
@@ -3488,11 +3502,11 @@
       </c>
       <c r="T48" s="11">
         <f t="shared" si="36"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U48" s="8">
         <f t="shared" si="37"/>
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="2:21" x14ac:dyDescent="0.25">
@@ -3500,21 +3514,21 @@
         <v>22</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D49" s="2">
         <v>5</v>
       </c>
       <c r="E49" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F49" s="2">
         <f t="shared" si="38"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G49" s="4">
         <f t="shared" si="39"/>
-        <v>92</v>
+        <v>0</v>
       </c>
       <c r="H49" s="4">
         <v>12</v>
@@ -3528,18 +3542,18 @@
       </c>
       <c r="K49" s="6">
         <f t="shared" si="41"/>
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="L49" s="10">
         <v>5</v>
       </c>
       <c r="M49" s="11">
         <f t="shared" si="42"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N49" s="8">
         <f t="shared" si="43"/>
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="O49">
         <f t="shared" si="17"/>
@@ -3560,7 +3574,7 @@
     <row r="50" spans="2:21" x14ac:dyDescent="0.25">
       <c r="G50" s="5"/>
       <c r="S50" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="T50" s="11">
         <f t="shared" si="36"/>
@@ -3573,33 +3587,33 @@
     </row>
     <row r="51" spans="2:21" x14ac:dyDescent="0.25">
       <c r="S51" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="T51" s="11">
         <f t="shared" si="36"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U51" s="8">
         <f t="shared" si="37"/>
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="2:21" x14ac:dyDescent="0.25">
       <c r="S52" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="T52" s="11">
         <f t="shared" si="36"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U52" s="8">
         <f t="shared" si="37"/>
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="2:21" x14ac:dyDescent="0.25">
       <c r="S53" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="T53" s="11">
         <f t="shared" si="36"/>
@@ -3616,66 +3630,66 @@
       </c>
       <c r="T54" s="11">
         <f t="shared" si="36"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U54" s="8">
         <f t="shared" si="37"/>
-        <v>75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C55" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D55" s="3">
+        <v>53</v>
+      </c>
+      <c r="D55" s="24">
         <f>SUM(D28:D50)</f>
-        <v>217</v>
+        <v>203</v>
       </c>
       <c r="E55" s="3">
         <f>SUM(E28:E50)</f>
-        <v>139</v>
-      </c>
-      <c r="F55" s="3">
+        <v>203</v>
+      </c>
+      <c r="F55" s="24">
         <f>SUM(F28:F50)</f>
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="G55" s="3">
         <f>SUM(G28:G50)</f>
-        <v>2423</v>
+        <v>0</v>
       </c>
       <c r="L55" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M55" s="8">
         <f>SUM(N28:N50)</f>
-        <v>1172</v>
+        <v>0</v>
       </c>
       <c r="S55" s="2" t="s">
         <v>14</v>
       </c>
       <c r="T55" s="11">
         <f t="shared" si="36"/>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="U55" s="8">
         <f t="shared" si="37"/>
-        <v>120</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C56" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D56" s="3">
-        <v>375</v>
+        <v>200</v>
       </c>
       <c r="E56" s="3"/>
       <c r="F56" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G56" s="3">
         <f>+G55+D56</f>
-        <v>2798</v>
+        <v>200</v>
       </c>
       <c r="S56" s="2" t="s">
         <v>15</v>
@@ -3691,33 +3705,33 @@
     </row>
     <row r="57" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C57" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D57" s="3">
-        <v>1229</v>
+        <v>0</v>
       </c>
       <c r="E57" s="1"/>
       <c r="F57" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G57" s="9">
         <f>SUM(K28:K49)</f>
-        <v>940</v>
+        <v>0</v>
       </c>
       <c r="H57" s="7">
         <f>+G57/2</f>
-        <v>470</v>
+        <v>0</v>
       </c>
       <c r="S57" s="2" t="s">
         <v>16</v>
       </c>
       <c r="T57" s="11">
         <f t="shared" si="36"/>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="U57" s="8">
         <f t="shared" si="37"/>
-        <v>105</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="2:21" x14ac:dyDescent="0.25">
@@ -3726,11 +3740,11 @@
       </c>
       <c r="T58" s="11">
         <f t="shared" si="36"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="U58" s="8">
         <f t="shared" si="37"/>
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="2:21" x14ac:dyDescent="0.25">
@@ -3739,11 +3753,11 @@
       </c>
       <c r="T59" s="11">
         <f t="shared" si="36"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U59" s="8">
         <f t="shared" si="37"/>
-        <v>45</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="2:21" x14ac:dyDescent="0.25">
@@ -3765,46 +3779,46 @@
       </c>
       <c r="T61" s="11">
         <f t="shared" si="36"/>
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="U61" s="8">
         <f t="shared" si="37"/>
-        <v>156</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="2:21" x14ac:dyDescent="0.25">
       <c r="S62" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="T62" s="11">
         <f t="shared" si="36"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U62" s="8">
         <f t="shared" si="37"/>
-        <v>-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="2:21" x14ac:dyDescent="0.25">
       <c r="S63" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="T63" s="11">
         <f t="shared" si="36"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="U63" s="8">
         <f t="shared" si="37"/>
-        <v>48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="2:21" x14ac:dyDescent="0.25">
       <c r="S64" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T64" s="8">
         <f>SUM(U42:U63)</f>
-        <v>1172</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Angular/Paletas Yahvé.xlsx
+++ b/Angular/Paletas Yahvé.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bmedina\Downloads\Curso Angular\Angular\Angular\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06608E55-ECB8-4568-A672-BC6BD592EA62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD9EFB34-969A-466B-A318-48EB3DBEB182}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20535" yWindow="-9150" windowWidth="29040" windowHeight="16440" xr2:uid="{8B9CBAAB-98A8-4499-B93A-25E4DC44FD39}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="56">
   <si>
     <t>#</t>
   </si>
@@ -201,6 +201,9 @@
   </si>
   <si>
     <t>NUEVO STOCK SEMANA ENTRANTE</t>
+  </si>
+  <si>
+    <t>V Maracuya</t>
   </si>
 </sst>
 </file>
@@ -362,13 +365,11 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -377,7 +378,9 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -715,8 +718,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{734E0C91-4377-4E4F-B8BB-89756185763E}">
   <dimension ref="B1:X64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O28" sqref="O28"/>
+    <sheetView tabSelected="1" topLeftCell="B20" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D58" sqref="D58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -740,21 +743,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
       <c r="V1" s="2" t="s">
         <v>50</v>
       </c>
@@ -825,15 +828,15 @@
         <v>10</v>
       </c>
       <c r="E3" s="2">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F3" s="2">
         <f>+D3-E3</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G3" s="4">
         <f>+F3*40</f>
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="H3" s="4">
         <v>25</v>
@@ -847,18 +850,18 @@
       </c>
       <c r="K3" s="6">
         <f>+J3*F3</f>
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="L3" s="10">
         <v>10</v>
       </c>
       <c r="M3" s="11">
         <f>+L3-E3</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N3" s="8">
         <f>+M3*H3</f>
-        <v>50</v>
+        <v>125</v>
       </c>
       <c r="O3">
         <f>+M3+E3</f>
@@ -866,25 +869,25 @@
       </c>
       <c r="S3">
         <f>+U3*25</f>
-        <v>850</v>
+        <v>950</v>
       </c>
       <c r="T3" t="s">
         <v>46</v>
       </c>
       <c r="U3">
         <f>SUM(W3:W15)</f>
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="V3" s="2" t="s">
         <v>44</v>
       </c>
       <c r="W3" s="11">
         <f t="shared" ref="W3:W24" si="0">M3</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="X3" s="8">
         <f>N3</f>
-        <v>50</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" spans="2:24" x14ac:dyDescent="0.25">
@@ -898,15 +901,15 @@
         <v>10</v>
       </c>
       <c r="E4" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F4" s="2">
         <f t="shared" ref="F4:F24" si="1">+D4-E4</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G4" s="4">
         <f t="shared" ref="G4:G15" si="2">+F4*40</f>
-        <v>280</v>
+        <v>160</v>
       </c>
       <c r="H4" s="4">
         <v>25</v>
@@ -920,18 +923,18 @@
       </c>
       <c r="K4" s="6">
         <f t="shared" ref="K4:K24" si="4">+J4*F4</f>
-        <v>105</v>
+        <v>60</v>
       </c>
       <c r="L4" s="10">
         <v>10</v>
       </c>
       <c r="M4" s="11">
         <f t="shared" ref="M4:M24" si="5">+L4-E4</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="N4" s="8">
         <f t="shared" ref="N4:N24" si="6">+M4*H4</f>
-        <v>175</v>
+        <v>100</v>
       </c>
       <c r="O4">
         <f t="shared" ref="O4:O24" si="7">+M4+E4</f>
@@ -939,25 +942,25 @@
       </c>
       <c r="S4">
         <f>+U4*15</f>
-        <v>285</v>
+        <v>315</v>
       </c>
       <c r="T4" t="s">
         <v>47</v>
       </c>
       <c r="U4">
         <f>SUM(W16:W24)-W22</f>
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="V4" s="2" t="s">
         <v>43</v>
       </c>
       <c r="W4" s="11">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="X4" s="8">
         <f t="shared" ref="X4:X24" si="8">N4</f>
-        <v>175</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="2:24" x14ac:dyDescent="0.25">
@@ -971,15 +974,15 @@
         <v>10</v>
       </c>
       <c r="E5" s="2">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F5" s="2">
         <f t="shared" si="1"/>
-        <v>-2</v>
+        <v>3</v>
       </c>
       <c r="G5" s="4">
         <f t="shared" si="2"/>
-        <v>-80</v>
+        <v>120</v>
       </c>
       <c r="H5" s="4">
         <v>25</v>
@@ -993,18 +996,18 @@
       </c>
       <c r="K5" s="6">
         <f t="shared" si="4"/>
-        <v>-30</v>
+        <v>45</v>
       </c>
       <c r="L5" s="10">
         <v>10</v>
       </c>
       <c r="M5" s="11">
         <f t="shared" si="5"/>
-        <v>-2</v>
+        <v>3</v>
       </c>
       <c r="N5" s="8">
         <f t="shared" si="6"/>
-        <v>-50</v>
+        <v>75</v>
       </c>
       <c r="O5">
         <f t="shared" si="7"/>
@@ -1012,25 +1015,25 @@
       </c>
       <c r="S5">
         <f>+U5*15</f>
-        <v>270</v>
+        <v>390</v>
       </c>
       <c r="T5" t="s">
         <v>48</v>
       </c>
       <c r="U5">
         <f>+W22</f>
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="V5" s="2" t="s">
         <v>7</v>
       </c>
       <c r="W5" s="11">
         <f t="shared" si="0"/>
-        <v>-2</v>
+        <v>3</v>
       </c>
       <c r="X5" s="8">
         <f t="shared" si="8"/>
-        <v>-50</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="2:24" x14ac:dyDescent="0.25">
@@ -1044,15 +1047,15 @@
         <v>10</v>
       </c>
       <c r="E6" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F6" s="2">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G6" s="4">
         <f t="shared" si="2"/>
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="H6" s="4">
         <v>25</v>
@@ -1066,18 +1069,18 @@
       </c>
       <c r="K6" s="6">
         <f t="shared" si="4"/>
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="L6" s="10">
         <v>10</v>
       </c>
       <c r="M6" s="11">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N6" s="8">
         <f t="shared" si="6"/>
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="O6">
         <f t="shared" si="7"/>
@@ -1085,18 +1088,18 @@
       </c>
       <c r="S6">
         <f>+S3+S4+S5</f>
-        <v>1405</v>
+        <v>1655</v>
       </c>
       <c r="V6" s="2" t="s">
         <v>8</v>
       </c>
       <c r="W6" s="11">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="X6" s="8">
         <f t="shared" si="8"/>
-        <v>100</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="2:24" x14ac:dyDescent="0.25">
@@ -1110,15 +1113,15 @@
         <v>10</v>
       </c>
       <c r="E7" s="2">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F7" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G7" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="H7" s="4">
         <v>25</v>
@@ -1132,18 +1135,18 @@
       </c>
       <c r="K7" s="6">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="L7" s="10">
         <v>10</v>
       </c>
       <c r="M7" s="11">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N7" s="8">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O7">
         <f t="shared" si="7"/>
@@ -1154,11 +1157,11 @@
       </c>
       <c r="W7" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="X7" s="8">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="2:24" x14ac:dyDescent="0.25">
@@ -1172,15 +1175,15 @@
         <v>5</v>
       </c>
       <c r="E8" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F8" s="2">
         <f t="shared" si="1"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G8" s="4">
         <f t="shared" si="2"/>
-        <v>-40</v>
+        <v>0</v>
       </c>
       <c r="H8" s="4">
         <v>25</v>
@@ -1194,18 +1197,18 @@
       </c>
       <c r="K8" s="6">
         <f t="shared" si="4"/>
-        <v>-15</v>
+        <v>0</v>
       </c>
       <c r="L8" s="10">
         <v>5</v>
       </c>
       <c r="M8" s="11">
         <f t="shared" si="5"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="N8" s="8">
         <f t="shared" si="6"/>
-        <v>-25</v>
+        <v>0</v>
       </c>
       <c r="O8">
         <f t="shared" si="7"/>
@@ -1216,11 +1219,11 @@
       </c>
       <c r="W8" s="11">
         <f t="shared" si="0"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="X8" s="8">
         <f t="shared" si="8"/>
-        <v>-25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="2:24" x14ac:dyDescent="0.25">
@@ -1233,16 +1236,16 @@
       <c r="D9" s="13">
         <v>2</v>
       </c>
-      <c r="E9" s="13">
-        <v>2</v>
+      <c r="E9" s="2">
+        <v>0</v>
       </c>
       <c r="F9" s="13">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G9" s="14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="H9" s="14">
         <v>25</v>
@@ -1256,18 +1259,18 @@
       </c>
       <c r="K9" s="15">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L9" s="16">
         <v>2</v>
       </c>
       <c r="M9" s="16">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N9" s="15">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="O9" s="17">
         <f t="shared" si="7"/>
@@ -1278,11 +1281,11 @@
       </c>
       <c r="W9" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X9" s="8">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="2:24" x14ac:dyDescent="0.25">
@@ -1296,15 +1299,15 @@
         <v>8</v>
       </c>
       <c r="E10" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F10" s="2">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G10" s="4">
         <f t="shared" si="2"/>
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="H10" s="4">
         <v>25</v>
@@ -1318,18 +1321,18 @@
       </c>
       <c r="K10" s="6">
         <f t="shared" si="4"/>
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="L10" s="10">
         <v>8</v>
       </c>
       <c r="M10" s="11">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N10" s="8">
         <f t="shared" si="6"/>
-        <v>125</v>
+        <v>75</v>
       </c>
       <c r="O10">
         <f t="shared" si="7"/>
@@ -1340,11 +1343,11 @@
       </c>
       <c r="W10" s="11">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="X10" s="8">
         <f t="shared" si="8"/>
-        <v>125</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="2:24" x14ac:dyDescent="0.25">
@@ -1357,16 +1360,16 @@
       <c r="D11" s="13">
         <v>6</v>
       </c>
-      <c r="E11" s="13">
-        <v>1</v>
+      <c r="E11" s="2">
+        <v>6</v>
       </c>
       <c r="F11" s="13">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G11" s="14">
         <f t="shared" si="2"/>
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="H11" s="14">
         <v>25</v>
@@ -1380,18 +1383,18 @@
       </c>
       <c r="K11" s="15">
         <f t="shared" si="4"/>
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="L11" s="16">
         <v>6</v>
       </c>
       <c r="M11" s="16">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N11" s="15">
         <f t="shared" si="6"/>
-        <v>125</v>
+        <v>0</v>
       </c>
       <c r="O11" s="17">
         <f t="shared" si="7"/>
@@ -1402,11 +1405,11 @@
       </c>
       <c r="W11" s="11">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="X11" s="8">
         <f t="shared" si="8"/>
-        <v>125</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="2:24" x14ac:dyDescent="0.25">
@@ -1419,16 +1422,16 @@
       <c r="D12" s="13">
         <v>5</v>
       </c>
-      <c r="E12" s="13">
-        <v>0</v>
+      <c r="E12" s="2">
+        <v>4</v>
       </c>
       <c r="F12" s="13">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G12" s="14">
         <f t="shared" si="2"/>
-        <v>200</v>
+        <v>40</v>
       </c>
       <c r="H12" s="14">
         <v>25</v>
@@ -1442,18 +1445,18 @@
       </c>
       <c r="K12" s="15">
         <f t="shared" si="4"/>
-        <v>75</v>
+        <v>15</v>
       </c>
       <c r="L12" s="16">
         <v>5</v>
       </c>
       <c r="M12" s="16">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N12" s="15">
         <f t="shared" si="6"/>
-        <v>125</v>
+        <v>25</v>
       </c>
       <c r="O12" s="17">
         <f t="shared" si="7"/>
@@ -1464,11 +1467,11 @@
       </c>
       <c r="W12" s="11">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="X12" s="8">
         <f t="shared" si="8"/>
-        <v>125</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="2:24" x14ac:dyDescent="0.25">
@@ -1481,16 +1484,16 @@
       <c r="D13" s="13">
         <v>10</v>
       </c>
-      <c r="E13" s="13">
-        <v>7</v>
+      <c r="E13" s="2">
+        <v>6</v>
       </c>
       <c r="F13" s="13">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G13" s="14">
         <f t="shared" si="2"/>
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="H13" s="14">
         <v>25</v>
@@ -1504,18 +1507,18 @@
       </c>
       <c r="K13" s="15">
         <f t="shared" si="4"/>
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="L13" s="16">
         <v>10</v>
       </c>
       <c r="M13" s="16">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N13" s="15">
         <f t="shared" si="6"/>
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="O13" s="17">
         <f t="shared" si="7"/>
@@ -1526,11 +1529,11 @@
       </c>
       <c r="W13" s="11">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="X13" s="8">
         <f t="shared" si="8"/>
-        <v>75</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="2:24" x14ac:dyDescent="0.25">
@@ -1543,16 +1546,16 @@
       <c r="D14" s="13">
         <v>5</v>
       </c>
-      <c r="E14" s="13">
-        <v>4</v>
+      <c r="E14" s="2">
+        <v>2</v>
       </c>
       <c r="F14" s="13">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G14" s="14">
         <f t="shared" si="2"/>
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="H14" s="14">
         <v>25</v>
@@ -1566,18 +1569,18 @@
       </c>
       <c r="K14" s="15">
         <f t="shared" si="4"/>
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="L14" s="16">
         <v>5</v>
       </c>
       <c r="M14" s="16">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N14" s="15">
         <f t="shared" si="6"/>
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="O14" s="17">
         <f t="shared" si="7"/>
@@ -1588,11 +1591,11 @@
       </c>
       <c r="W14" s="11">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X14" s="8">
         <f t="shared" si="8"/>
-        <v>25</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15" spans="2:24" x14ac:dyDescent="0.25">
@@ -1606,15 +1609,15 @@
         <v>10</v>
       </c>
       <c r="E15" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F15" s="2">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G15" s="4">
         <f t="shared" si="2"/>
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="H15" s="4">
         <v>25</v>
@@ -1628,18 +1631,18 @@
       </c>
       <c r="K15" s="6">
         <f t="shared" si="4"/>
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="L15" s="10">
         <v>10</v>
       </c>
       <c r="M15" s="11">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N15" s="8">
         <f t="shared" si="6"/>
-        <v>125</v>
+        <v>150</v>
       </c>
       <c r="O15">
         <f t="shared" si="7"/>
@@ -1650,11 +1653,11 @@
       </c>
       <c r="W15" s="11">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="X15" s="8">
         <f t="shared" si="8"/>
-        <v>125</v>
+        <v>150</v>
       </c>
     </row>
     <row r="16" spans="2:24" x14ac:dyDescent="0.25">
@@ -1668,15 +1671,15 @@
         <v>10</v>
       </c>
       <c r="E16" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F16" s="2">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G16" s="4">
         <f>+F16*23</f>
-        <v>92</v>
+        <v>161</v>
       </c>
       <c r="H16" s="4">
         <v>15</v>
@@ -1690,18 +1693,18 @@
       </c>
       <c r="K16" s="6">
         <f t="shared" si="4"/>
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="L16" s="10">
         <v>10</v>
       </c>
       <c r="M16" s="11">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="N16" s="8">
         <f t="shared" si="6"/>
-        <v>60</v>
+        <v>105</v>
       </c>
       <c r="O16">
         <f t="shared" si="7"/>
@@ -1712,11 +1715,11 @@
       </c>
       <c r="W16" s="11">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="X16" s="8">
         <f t="shared" si="8"/>
-        <v>60</v>
+        <v>105</v>
       </c>
     </row>
     <row r="17" spans="2:24" x14ac:dyDescent="0.25">
@@ -1792,15 +1795,15 @@
         <v>10</v>
       </c>
       <c r="E18" s="2">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F18" s="2">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G18" s="4">
         <f t="shared" si="9"/>
-        <v>161</v>
+        <v>69</v>
       </c>
       <c r="H18" s="4">
         <v>15</v>
@@ -1814,18 +1817,18 @@
       </c>
       <c r="K18" s="6">
         <f t="shared" si="4"/>
-        <v>56</v>
+        <v>24</v>
       </c>
       <c r="L18" s="10">
         <v>10</v>
       </c>
       <c r="M18" s="11">
         <f t="shared" si="5"/>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="N18" s="8">
         <f t="shared" si="6"/>
-        <v>105</v>
+        <v>45</v>
       </c>
       <c r="O18">
         <f t="shared" si="7"/>
@@ -1836,11 +1839,11 @@
       </c>
       <c r="W18" s="11">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="X18" s="8">
         <f t="shared" si="8"/>
-        <v>105</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="2:24" x14ac:dyDescent="0.25">
@@ -1916,15 +1919,15 @@
         <v>10</v>
       </c>
       <c r="E20" s="2">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F20" s="2">
         <f t="shared" si="1"/>
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="G20" s="4">
         <f t="shared" si="9"/>
-        <v>-23</v>
+        <v>46</v>
       </c>
       <c r="H20" s="4">
         <v>15</v>
@@ -1938,18 +1941,18 @@
       </c>
       <c r="K20" s="6">
         <f t="shared" si="4"/>
-        <v>-8</v>
+        <v>16</v>
       </c>
       <c r="L20" s="10">
         <v>10</v>
       </c>
       <c r="M20" s="11">
         <f t="shared" si="5"/>
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="N20" s="8">
         <f t="shared" si="6"/>
-        <v>-15</v>
+        <v>30</v>
       </c>
       <c r="O20">
         <f t="shared" si="7"/>
@@ -1960,11 +1963,11 @@
       </c>
       <c r="W20" s="11">
         <f t="shared" si="0"/>
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X20" s="8">
         <f t="shared" si="8"/>
-        <v>-15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="2:24" x14ac:dyDescent="0.25">
@@ -2041,15 +2044,15 @@
         <v>32</v>
       </c>
       <c r="E22" s="2">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="F22" s="2">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="G22" s="4">
         <f t="shared" si="9"/>
-        <v>414</v>
+        <v>598</v>
       </c>
       <c r="H22" s="4">
         <v>15</v>
@@ -2063,18 +2066,18 @@
       </c>
       <c r="K22" s="6">
         <f t="shared" si="4"/>
-        <v>144</v>
+        <v>208</v>
       </c>
       <c r="L22" s="10">
         <v>32</v>
       </c>
       <c r="M22" s="11">
         <f t="shared" si="5"/>
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="N22" s="8">
         <f t="shared" si="6"/>
-        <v>270</v>
+        <v>390</v>
       </c>
       <c r="O22">
         <f t="shared" si="7"/>
@@ -2085,11 +2088,11 @@
       </c>
       <c r="W22" s="11">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="X22" s="8">
         <f t="shared" si="8"/>
-        <v>270</v>
+        <v>390</v>
       </c>
     </row>
     <row r="23" spans="2:24" x14ac:dyDescent="0.25">
@@ -2147,7 +2150,7 @@
       </c>
       <c r="T23" s="8">
         <f>SUM(N3:N24)</f>
-        <v>1405</v>
+        <v>1655</v>
       </c>
       <c r="V23" s="2" t="s">
         <v>34</v>
@@ -2219,16 +2222,16 @@
         <v>203</v>
       </c>
       <c r="S24" s="3">
-        <f>SUM(E3:E21)</f>
-        <v>110</v>
+        <f>SUM(E3:E24)</f>
+        <v>118</v>
       </c>
       <c r="T24" s="3">
         <f>SUM(F3:F24)</f>
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="U24" s="3">
         <f>SUM(G3:G24)</f>
-        <v>2211</v>
+        <v>2601</v>
       </c>
       <c r="V24" s="2" t="s">
         <v>35</v>
@@ -2247,7 +2250,7 @@
         <v>41</v>
       </c>
       <c r="R25" s="3">
-        <v>1535</v>
+        <v>200</v>
       </c>
       <c r="S25" s="3"/>
       <c r="T25" s="3" t="s">
@@ -2255,14 +2258,14 @@
       </c>
       <c r="U25" s="3">
         <f>+U24+R25</f>
-        <v>3746</v>
+        <v>2801</v>
       </c>
       <c r="V25" s="1" t="s">
         <v>31</v>
       </c>
       <c r="W25" s="18">
         <f>SUM(X3:X24)</f>
-        <v>1405</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="26" spans="2:24" x14ac:dyDescent="0.25">
@@ -2285,7 +2288,7 @@
         <v>22</v>
       </c>
       <c r="R26" s="3">
-        <v>2123</v>
+        <v>1513</v>
       </c>
       <c r="S26" s="1"/>
       <c r="T26" s="3" t="s">
@@ -2293,7 +2296,7 @@
       </c>
       <c r="U26" s="9">
         <f>SUM(K3:K24)</f>
-        <v>806</v>
+        <v>946</v>
       </c>
     </row>
     <row r="27" spans="2:24" x14ac:dyDescent="0.25">
@@ -2344,7 +2347,7 @@
       </c>
       <c r="U27" s="7">
         <f>+U26/2</f>
-        <v>403</v>
+        <v>473</v>
       </c>
     </row>
     <row r="28" spans="2:24" x14ac:dyDescent="0.25">
@@ -2358,15 +2361,15 @@
         <v>10</v>
       </c>
       <c r="E28" s="2">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F28" s="2">
         <f>+D28-E28</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G28" s="4">
         <f>+F28*40</f>
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="H28" s="4">
         <v>25</v>
@@ -2380,18 +2383,18 @@
       </c>
       <c r="K28" s="6">
         <f>+J28*F28</f>
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="L28" s="10">
         <v>10</v>
       </c>
       <c r="M28" s="11">
         <f>+L28-E28</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N28" s="8">
         <f>+M28*H28</f>
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="O28">
         <f>+M28+E28</f>
@@ -2409,15 +2412,15 @@
         <v>10</v>
       </c>
       <c r="E29" s="2">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F29" s="2">
         <f t="shared" ref="F29:F47" si="11">+D29-E29</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G29" s="4">
         <f t="shared" ref="G29:G40" si="12">+F29*40</f>
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="H29" s="4">
         <v>25</v>
@@ -2431,18 +2434,18 @@
       </c>
       <c r="K29" s="6">
         <f t="shared" ref="K29:K47" si="14">+J29*F29</f>
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="L29" s="10">
         <v>10</v>
       </c>
       <c r="M29" s="11">
         <f t="shared" ref="M29:M47" si="15">+L29-E29</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N29" s="8">
         <f t="shared" ref="N29:N47" si="16">+M29*H29</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O29">
         <f t="shared" ref="O29:O49" si="17">+M29+E29</f>
@@ -2460,15 +2463,15 @@
         <v>10</v>
       </c>
       <c r="E30" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F30" s="2">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G30" s="4">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="H30" s="4">
         <v>25</v>
@@ -2482,18 +2485,18 @@
       </c>
       <c r="K30" s="6">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L30" s="10">
         <v>10</v>
       </c>
       <c r="M30" s="11">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N30" s="8">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="O30">
         <f t="shared" si="17"/>
@@ -2511,15 +2514,15 @@
         <v>10</v>
       </c>
       <c r="E31" s="2">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F31" s="2">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G31" s="4">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="H31" s="4">
         <v>25</v>
@@ -2533,18 +2536,18 @@
       </c>
       <c r="K31" s="6">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="L31" s="10">
         <v>10</v>
       </c>
       <c r="M31" s="11">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N31" s="8">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="O31">
         <f t="shared" si="17"/>
@@ -2562,15 +2565,15 @@
         <v>10</v>
       </c>
       <c r="E32" s="2">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F32" s="2">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G32" s="4">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="H32" s="4">
         <v>25</v>
@@ -2584,18 +2587,18 @@
       </c>
       <c r="K32" s="6">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="L32" s="10">
         <v>10</v>
       </c>
       <c r="M32" s="11">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N32" s="8">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O32">
         <f t="shared" si="17"/>
@@ -2663,16 +2666,16 @@
       <c r="D34" s="13">
         <v>2</v>
       </c>
-      <c r="E34" s="13">
-        <v>2</v>
+      <c r="E34" s="2">
+        <v>0</v>
       </c>
       <c r="F34" s="13">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G34" s="14">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="H34" s="14">
         <v>25</v>
@@ -2686,18 +2689,18 @@
       </c>
       <c r="K34" s="15">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L34" s="16">
         <v>2</v>
       </c>
       <c r="M34" s="16">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N34" s="15">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="O34" s="17">
         <f t="shared" si="17"/>
@@ -2715,15 +2718,15 @@
         <v>8</v>
       </c>
       <c r="E35" s="2">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F35" s="2">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G35" s="4">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="H35" s="4">
         <v>25</v>
@@ -2737,18 +2740,18 @@
       </c>
       <c r="K35" s="6">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="L35" s="10">
         <v>8</v>
       </c>
       <c r="M35" s="11">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N35" s="8">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="O35">
         <f t="shared" si="17"/>
@@ -2765,7 +2768,7 @@
       <c r="D36" s="13">
         <v>6</v>
       </c>
-      <c r="E36" s="13">
+      <c r="E36" s="2">
         <v>6</v>
       </c>
       <c r="F36" s="13">
@@ -2816,16 +2819,16 @@
       <c r="D37" s="13">
         <v>5</v>
       </c>
-      <c r="E37" s="13">
-        <v>5</v>
+      <c r="E37" s="2">
+        <v>4</v>
       </c>
       <c r="F37" s="13">
         <f t="shared" ref="F37:F38" si="24">+D37-E37</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G37" s="14">
         <f t="shared" ref="G37:G38" si="25">+F37*40</f>
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="H37" s="14">
         <v>25</v>
@@ -2839,18 +2842,18 @@
       </c>
       <c r="K37" s="15">
         <f t="shared" ref="K37:K38" si="27">+J37*F37</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L37" s="16">
         <v>5</v>
       </c>
       <c r="M37" s="16">
         <f t="shared" ref="M37:M38" si="28">+L37-E37</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N37" s="15">
         <f t="shared" ref="N37:N38" si="29">+M37*H37</f>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="O37" s="17">
         <f t="shared" si="17"/>
@@ -2867,16 +2870,16 @@
       <c r="D38" s="13">
         <v>10</v>
       </c>
-      <c r="E38" s="13">
-        <v>10</v>
+      <c r="E38" s="2">
+        <v>6</v>
       </c>
       <c r="F38" s="13">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G38" s="14">
         <f t="shared" si="25"/>
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="H38" s="14">
         <v>25</v>
@@ -2890,18 +2893,18 @@
       </c>
       <c r="K38" s="15">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="L38" s="16">
         <v>10</v>
       </c>
       <c r="M38" s="16">
         <f t="shared" si="28"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N38" s="15">
         <f t="shared" si="29"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O38" s="17">
         <f t="shared" si="17"/>
@@ -2918,16 +2921,16 @@
       <c r="D39" s="13">
         <v>5</v>
       </c>
-      <c r="E39" s="13">
-        <v>5</v>
+      <c r="E39" s="2">
+        <v>2</v>
       </c>
       <c r="F39" s="13">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G39" s="14">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="H39" s="14">
         <v>25</v>
@@ -2941,18 +2944,18 @@
       </c>
       <c r="K39" s="15">
         <f t="shared" ref="K39" si="31">+J39*F39</f>
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="L39" s="16">
         <v>5</v>
       </c>
       <c r="M39" s="16">
         <f t="shared" ref="M39" si="32">+L39-E39</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N39" s="15">
         <f t="shared" ref="N39" si="33">+M39*H39</f>
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="O39" s="17">
         <f t="shared" si="17"/>
@@ -2970,15 +2973,15 @@
         <v>10</v>
       </c>
       <c r="E40" s="2">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F40" s="2">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G40" s="4">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="H40" s="4">
         <v>25</v>
@@ -2992,28 +2995,28 @@
       </c>
       <c r="K40" s="6">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="L40" s="10">
         <v>10</v>
       </c>
       <c r="M40" s="11">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="N40" s="8">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="O40">
         <f t="shared" si="17"/>
         <v>10</v>
       </c>
-      <c r="S40" s="21" t="s">
+      <c r="S40" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="T40" s="21"/>
-      <c r="U40" s="21"/>
+      <c r="T40" s="24"/>
+      <c r="U40" s="24"/>
     </row>
     <row r="41" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B41" s="2">
@@ -3026,15 +3029,15 @@
         <v>10</v>
       </c>
       <c r="E41" s="2">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F41" s="2">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G41" s="4">
         <f>+F41*23</f>
-        <v>0</v>
+        <v>161</v>
       </c>
       <c r="H41" s="4">
         <v>15</v>
@@ -3048,18 +3051,18 @@
       </c>
       <c r="K41" s="6">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="L41" s="10">
         <v>10</v>
       </c>
       <c r="M41" s="11">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="N41" s="8">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="O41">
         <f t="shared" si="17"/>
@@ -3086,15 +3089,15 @@
         <v>10</v>
       </c>
       <c r="E42" s="2">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F42" s="2">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G42" s="4">
         <f t="shared" ref="G42:G47" si="34">+F42*23</f>
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="H42" s="4">
         <v>15</v>
@@ -3108,18 +3111,18 @@
       </c>
       <c r="K42" s="6">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="L42" s="10">
         <v>10</v>
       </c>
       <c r="M42" s="11">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N42" s="8">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="O42">
         <f t="shared" si="17"/>
@@ -3130,11 +3133,11 @@
       </c>
       <c r="T42" s="11">
         <f>M28</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U42" s="8">
         <f>N28</f>
-        <v>0</v>
+        <v>75</v>
       </c>
     </row>
     <row r="43" spans="2:21" x14ac:dyDescent="0.25">
@@ -3148,15 +3151,15 @@
         <v>10</v>
       </c>
       <c r="E43" s="2">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F43" s="2">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G43" s="4">
         <f t="shared" si="34"/>
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="H43" s="4">
         <v>15</v>
@@ -3170,18 +3173,18 @@
       </c>
       <c r="K43" s="6">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="L43" s="10">
         <v>10</v>
       </c>
       <c r="M43" s="11">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N43" s="8">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="O43">
         <f t="shared" si="17"/>
@@ -3192,11 +3195,11 @@
       </c>
       <c r="T43" s="11">
         <f t="shared" ref="T43:T63" si="36">M29</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="U43" s="8">
         <f t="shared" ref="U43:U63" si="37">N29</f>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="44" spans="2:21" x14ac:dyDescent="0.25">
@@ -3210,15 +3213,15 @@
         <v>10</v>
       </c>
       <c r="E44" s="2">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F44" s="2">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="G44" s="4">
         <f t="shared" si="34"/>
-        <v>0</v>
+        <v>-46</v>
       </c>
       <c r="H44" s="4">
         <v>15</v>
@@ -3232,18 +3235,18 @@
       </c>
       <c r="K44" s="6">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>-16</v>
       </c>
       <c r="L44" s="10">
         <v>10</v>
       </c>
       <c r="M44" s="11">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="N44" s="8">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>-30</v>
       </c>
       <c r="O44">
         <f t="shared" si="17"/>
@@ -3254,11 +3257,11 @@
       </c>
       <c r="T44" s="11">
         <f t="shared" si="36"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U44" s="8">
         <f t="shared" si="37"/>
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="45" spans="2:21" x14ac:dyDescent="0.25">
@@ -3316,11 +3319,11 @@
       </c>
       <c r="T45" s="11">
         <f t="shared" si="36"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U45" s="8">
         <f t="shared" si="37"/>
-        <v>0</v>
+        <v>75</v>
       </c>
     </row>
     <row r="46" spans="2:21" x14ac:dyDescent="0.25">
@@ -3334,15 +3337,15 @@
         <v>10</v>
       </c>
       <c r="E46" s="2">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F46" s="2">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G46" s="4">
         <f t="shared" si="34"/>
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="H46" s="4">
         <v>15</v>
@@ -3356,18 +3359,18 @@
       </c>
       <c r="K46" s="6">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="L46" s="10">
         <v>10</v>
       </c>
       <c r="M46" s="11">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N46" s="8">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="O46">
         <f t="shared" si="17"/>
@@ -3378,11 +3381,11 @@
       </c>
       <c r="T46" s="11">
         <f t="shared" si="36"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="U46" s="8">
         <f t="shared" si="37"/>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="47" spans="2:21" x14ac:dyDescent="0.25">
@@ -3396,15 +3399,15 @@
         <v>32</v>
       </c>
       <c r="E47" s="2">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="F47" s="2">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="G47" s="4">
         <f t="shared" si="34"/>
-        <v>0</v>
+        <v>598</v>
       </c>
       <c r="H47" s="4">
         <v>12</v>
@@ -3418,18 +3421,18 @@
       </c>
       <c r="K47" s="6">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>286</v>
       </c>
       <c r="L47" s="10">
         <v>32</v>
       </c>
       <c r="M47" s="11">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="N47" s="8">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>312</v>
       </c>
       <c r="O47">
         <f t="shared" si="17"/>
@@ -3458,15 +3461,15 @@
         <v>5</v>
       </c>
       <c r="E48" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F48" s="2">
         <f t="shared" ref="F48:F49" si="38">+D48-E48</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G48" s="4">
         <f t="shared" ref="G48:G49" si="39">+F48*23</f>
-        <v>0</v>
+        <v>-23</v>
       </c>
       <c r="H48" s="4">
         <v>12</v>
@@ -3480,18 +3483,18 @@
       </c>
       <c r="K48" s="6">
         <f t="shared" ref="K48:K49" si="41">+J48*F48</f>
-        <v>0</v>
+        <v>-11</v>
       </c>
       <c r="L48" s="10">
         <v>5</v>
       </c>
       <c r="M48" s="11">
         <f t="shared" ref="M48:M49" si="42">+L48-E48</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="N48" s="8">
         <f t="shared" ref="N48:N49" si="43">+M48*H48</f>
-        <v>0</v>
+        <v>-12</v>
       </c>
       <c r="O48">
         <f t="shared" si="17"/>
@@ -3502,11 +3505,11 @@
       </c>
       <c r="T48" s="11">
         <f t="shared" si="36"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U48" s="8">
         <f t="shared" si="37"/>
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="49" spans="2:21" x14ac:dyDescent="0.25">
@@ -3520,15 +3523,15 @@
         <v>5</v>
       </c>
       <c r="E49" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F49" s="2">
         <f t="shared" si="38"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G49" s="4">
         <f t="shared" si="39"/>
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="H49" s="4">
         <v>12</v>
@@ -3542,18 +3545,18 @@
       </c>
       <c r="K49" s="6">
         <f t="shared" si="41"/>
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="L49" s="10">
         <v>5</v>
       </c>
       <c r="M49" s="11">
         <f t="shared" si="42"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N49" s="8">
         <f t="shared" si="43"/>
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="O49">
         <f t="shared" si="17"/>
@@ -3564,15 +3567,63 @@
       </c>
       <c r="T49" s="11">
         <f t="shared" si="36"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U49" s="8">
         <f t="shared" si="37"/>
-        <v>0</v>
+        <v>75</v>
       </c>
     </row>
     <row r="50" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="G50" s="5"/>
+      <c r="B50" s="2">
+        <v>23</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D50" s="2">
+        <v>4</v>
+      </c>
+      <c r="E50" s="2">
+        <v>4</v>
+      </c>
+      <c r="F50" s="2">
+        <f t="shared" ref="F50" si="44">+D50-E50</f>
+        <v>0</v>
+      </c>
+      <c r="G50" s="4">
+        <f t="shared" ref="G50" si="45">+F50*23</f>
+        <v>0</v>
+      </c>
+      <c r="H50" s="4">
+        <v>12</v>
+      </c>
+      <c r="I50" s="4">
+        <v>23</v>
+      </c>
+      <c r="J50" s="6">
+        <f t="shared" ref="J50" si="46">+I50-H50</f>
+        <v>11</v>
+      </c>
+      <c r="K50" s="6">
+        <f t="shared" ref="K50" si="47">+J50*F50</f>
+        <v>0</v>
+      </c>
+      <c r="L50" s="10">
+        <v>6</v>
+      </c>
+      <c r="M50" s="11">
+        <f t="shared" ref="M50" si="48">+L50-E50</f>
+        <v>2</v>
+      </c>
+      <c r="N50" s="8">
+        <f t="shared" ref="N50" si="49">+M50*H50</f>
+        <v>24</v>
+      </c>
+      <c r="O50">
+        <f t="shared" ref="O50" si="50">+M50+E50</f>
+        <v>6</v>
+      </c>
       <c r="S50" s="13" t="s">
         <v>37</v>
       </c>
@@ -3591,11 +3642,11 @@
       </c>
       <c r="T51" s="11">
         <f t="shared" si="36"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U51" s="8">
         <f t="shared" si="37"/>
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="52" spans="2:21" x14ac:dyDescent="0.25">
@@ -3604,11 +3655,11 @@
       </c>
       <c r="T52" s="11">
         <f t="shared" si="36"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="U52" s="8">
         <f t="shared" si="37"/>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="53" spans="2:21" x14ac:dyDescent="0.25">
@@ -3617,11 +3668,11 @@
       </c>
       <c r="T53" s="11">
         <f t="shared" si="36"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U53" s="8">
         <f t="shared" si="37"/>
-        <v>0</v>
+        <v>75</v>
       </c>
     </row>
     <row r="54" spans="2:21" x14ac:dyDescent="0.25">
@@ -3630,50 +3681,50 @@
       </c>
       <c r="T54" s="11">
         <f t="shared" si="36"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="U54" s="8">
         <f t="shared" si="37"/>
-        <v>0</v>
+        <v>150</v>
       </c>
     </row>
     <row r="55" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C55" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D55" s="24">
+      <c r="D55" s="19">
         <f>SUM(D28:D50)</f>
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="E55" s="3">
         <f>SUM(E28:E50)</f>
-        <v>203</v>
-      </c>
-      <c r="F55" s="24">
+        <v>131</v>
+      </c>
+      <c r="F55" s="19">
         <f>SUM(F28:F50)</f>
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="G55" s="3">
         <f>SUM(G28:G50)</f>
-        <v>0</v>
+        <v>2326</v>
       </c>
       <c r="L55" s="1" t="s">
         <v>31</v>
       </c>
       <c r="M55" s="8">
         <f>SUM(N28:N50)</f>
-        <v>0</v>
+        <v>1420</v>
       </c>
       <c r="S55" s="2" t="s">
         <v>14</v>
       </c>
       <c r="T55" s="11">
         <f t="shared" si="36"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="U55" s="8">
         <f t="shared" si="37"/>
-        <v>0</v>
+        <v>105</v>
       </c>
     </row>
     <row r="56" spans="2:21" x14ac:dyDescent="0.25">
@@ -3689,18 +3740,18 @@
       </c>
       <c r="G56" s="3">
         <f>+G55+D56</f>
-        <v>200</v>
+        <v>2526</v>
       </c>
       <c r="S56" s="2" t="s">
         <v>15</v>
       </c>
       <c r="T56" s="11">
         <f t="shared" si="36"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="U56" s="8">
         <f t="shared" si="37"/>
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
     <row r="57" spans="2:21" x14ac:dyDescent="0.25">
@@ -3708,30 +3759,30 @@
         <v>22</v>
       </c>
       <c r="D57" s="3">
-        <v>0</v>
+        <v>1513</v>
       </c>
       <c r="E57" s="1"/>
       <c r="F57" s="3" t="s">
         <v>28</v>
       </c>
       <c r="G57" s="9">
-        <f>SUM(K28:K49)</f>
-        <v>0</v>
+        <f>SUM(K28:K50)</f>
+        <v>930</v>
       </c>
       <c r="H57" s="7">
         <f>+G57/2</f>
-        <v>0</v>
+        <v>465</v>
       </c>
       <c r="S57" s="2" t="s">
         <v>16</v>
       </c>
       <c r="T57" s="11">
         <f t="shared" si="36"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U57" s="8">
         <f t="shared" si="37"/>
-        <v>0</v>
+        <v>45</v>
       </c>
     </row>
     <row r="58" spans="2:21" x14ac:dyDescent="0.25">
@@ -3740,11 +3791,11 @@
       </c>
       <c r="T58" s="11">
         <f t="shared" si="36"/>
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="U58" s="8">
         <f t="shared" si="37"/>
-        <v>0</v>
+        <v>-30</v>
       </c>
     </row>
     <row r="59" spans="2:21" x14ac:dyDescent="0.25">
@@ -3766,11 +3817,11 @@
       </c>
       <c r="T60" s="11">
         <f t="shared" si="36"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U60" s="8">
         <f t="shared" si="37"/>
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="61" spans="2:21" x14ac:dyDescent="0.25">
@@ -3779,11 +3830,11 @@
       </c>
       <c r="T61" s="11">
         <f t="shared" si="36"/>
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="U61" s="8">
         <f t="shared" si="37"/>
-        <v>0</v>
+        <v>312</v>
       </c>
     </row>
     <row r="62" spans="2:21" x14ac:dyDescent="0.25">
@@ -3792,11 +3843,11 @@
       </c>
       <c r="T62" s="11">
         <f t="shared" si="36"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="U62" s="8">
         <f t="shared" si="37"/>
-        <v>0</v>
+        <v>-12</v>
       </c>
     </row>
     <row r="63" spans="2:21" x14ac:dyDescent="0.25">
@@ -3805,11 +3856,11 @@
       </c>
       <c r="T63" s="11">
         <f t="shared" si="36"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U63" s="8">
         <f t="shared" si="37"/>
-        <v>0</v>
+        <v>36</v>
       </c>
     </row>
     <row r="64" spans="2:21" x14ac:dyDescent="0.25">
@@ -3818,7 +3869,7 @@
       </c>
       <c r="T64" s="8">
         <f>SUM(U42:U63)</f>
-        <v>0</v>
+        <v>1396</v>
       </c>
     </row>
   </sheetData>

--- a/Angular/Paletas Yahvé.xlsx
+++ b/Angular/Paletas Yahvé.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
-  <workbookPr defaultThemeVersion="202300"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bmedina\Downloads\Curso Angular\Angular\Angular\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Angular_Java\Angular\Angular\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD9EFB34-969A-466B-A318-48EB3DBEB182}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20535" yWindow="-9150" windowWidth="29040" windowHeight="16440" xr2:uid="{8B9CBAAB-98A8-4499-B93A-25E4DC44FD39}"/>
+    <workbookView xWindow="20540" yWindow="-9150" windowWidth="29040" windowHeight="16440"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -185,18 +184,12 @@
     <t>Total Chocoguineos</t>
   </si>
   <si>
-    <t>Venta Paletas NUEVO STOCK 19/11/2024</t>
-  </si>
-  <si>
     <t>PEDIDO 19/11/2024</t>
   </si>
   <si>
     <t>NUEVO STOCK SEMANA ENTRANTE 25/11/2024</t>
   </si>
   <si>
-    <t>Venta Paletas Semana 19OCT EN ADELANTE ULTIMO; REGISTRAR VENTA AQUÍ</t>
-  </si>
-  <si>
     <t>Stock Paletas=</t>
   </si>
   <si>
@@ -204,17 +197,23 @@
   </si>
   <si>
     <t>V Maracuya</t>
+  </si>
+  <si>
+    <t>Venta Paletas REGISTRAR AQUI NUEVO</t>
+  </si>
+  <si>
+    <t>Venta Paletas Semana 21/12/2024</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="_-[$L-480A]* #,##0.00_-;\-[$L-480A]* #,##0.00_-;_-[$L-480A]* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_-[$L-480A]* #,##0.00_-;\-[$L-480A]* #,##0.00_-;_-[$L-480A]* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -333,23 +332,23 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -358,14 +357,17 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -715,56 +717,56 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{734E0C91-4377-4E4F-B8BB-89756185763E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:X64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B20" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D58" sqref="D58"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G57" sqref="G57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
   <cols>
-    <col min="3" max="3" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.7109375" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" customWidth="1"/>
-    <col min="8" max="11" width="11.42578125" customWidth="1"/>
-    <col min="12" max="12" width="21.28515625" customWidth="1"/>
-    <col min="13" max="13" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="41.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="21.28515625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.28515625" customWidth="1"/>
-    <col min="22" max="22" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="21.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.83203125" customWidth="1"/>
+    <col min="6" max="6" width="18.75" customWidth="1"/>
+    <col min="7" max="7" width="13.1640625" customWidth="1"/>
+    <col min="8" max="11" width="11.4140625" customWidth="1"/>
+    <col min="12" max="12" width="21.25" customWidth="1"/>
+    <col min="13" max="13" width="15.58203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="41.25" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.75" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.4140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="21.25" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="20.75" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.25" customWidth="1"/>
+    <col min="22" max="22" width="20.75" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="21.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B1" s="20" t="s">
+    <row r="1" spans="2:24">
+      <c r="B1" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+      <c r="V1" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
-      <c r="N1" s="21"/>
-      <c r="V1" s="2" t="s">
-        <v>50</v>
       </c>
       <c r="W1" s="2"/>
       <c r="X1" s="2"/>
     </row>
-    <row r="2" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:24">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -805,7 +807,7 @@
         <v>32</v>
       </c>
       <c r="O2" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="V2" s="2" t="s">
         <v>4</v>
@@ -817,26 +819,26 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:24">
       <c r="B3" s="2">
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="2">
-        <v>10</v>
-      </c>
-      <c r="E3" s="2">
-        <v>5</v>
+      <c r="D3" s="20">
+        <v>7</v>
+      </c>
+      <c r="E3" s="20">
+        <v>7</v>
       </c>
       <c r="F3" s="2">
         <f>+D3-E3</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G3" s="4">
         <f>+F3*40</f>
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="H3" s="4">
         <v>25</v>
@@ -850,18 +852,18 @@
       </c>
       <c r="K3" s="6">
         <f>+J3*F3</f>
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="L3" s="10">
         <v>10</v>
       </c>
       <c r="M3" s="11">
         <f>+L3-E3</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N3" s="8">
         <f>+M3*H3</f>
-        <v>125</v>
+        <v>75</v>
       </c>
       <c r="O3">
         <f>+M3+E3</f>
@@ -869,47 +871,47 @@
       </c>
       <c r="S3">
         <f>+U3*25</f>
-        <v>950</v>
+        <v>850</v>
       </c>
       <c r="T3" t="s">
         <v>46</v>
       </c>
       <c r="U3">
         <f>SUM(W3:W15)</f>
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="V3" s="2" t="s">
         <v>44</v>
       </c>
       <c r="W3" s="11">
         <f t="shared" ref="W3:W24" si="0">M3</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="X3" s="8">
         <f>N3</f>
-        <v>125</v>
-      </c>
-    </row>
-    <row r="4" spans="2:24" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="2:24">
       <c r="B4" s="2">
         <v>2</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="2">
-        <v>10</v>
-      </c>
-      <c r="E4" s="2">
+      <c r="D4" s="20">
+        <v>6</v>
+      </c>
+      <c r="E4" s="20">
         <v>6</v>
       </c>
       <c r="F4" s="2">
         <f t="shared" ref="F4:F24" si="1">+D4-E4</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G4" s="4">
         <f t="shared" ref="G4:G15" si="2">+F4*40</f>
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="H4" s="4">
         <v>25</v>
@@ -923,7 +925,7 @@
       </c>
       <c r="K4" s="6">
         <f t="shared" ref="K4:K24" si="4">+J4*F4</f>
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="L4" s="10">
         <v>10</v>
@@ -942,14 +944,14 @@
       </c>
       <c r="S4">
         <f>+U4*15</f>
-        <v>315</v>
+        <v>240</v>
       </c>
       <c r="T4" t="s">
         <v>47</v>
       </c>
       <c r="U4">
         <f>SUM(W16:W24)-W22</f>
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="V4" s="2" t="s">
         <v>43</v>
@@ -963,26 +965,26 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:24">
       <c r="B5" s="2">
         <v>3</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="2">
-        <v>10</v>
-      </c>
-      <c r="E5" s="2">
-        <v>7</v>
+      <c r="D5" s="20">
+        <v>9</v>
+      </c>
+      <c r="E5" s="20">
+        <v>9</v>
       </c>
       <c r="F5" s="2">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G5" s="4">
         <f t="shared" si="2"/>
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="H5" s="4">
         <v>25</v>
@@ -996,18 +998,18 @@
       </c>
       <c r="K5" s="6">
         <f t="shared" si="4"/>
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="L5" s="10">
         <v>10</v>
       </c>
       <c r="M5" s="11">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N5" s="8">
         <f t="shared" si="6"/>
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="O5">
         <f t="shared" si="7"/>
@@ -1029,33 +1031,33 @@
       </c>
       <c r="W5" s="11">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X5" s="8">
         <f t="shared" si="8"/>
-        <v>75</v>
-      </c>
-    </row>
-    <row r="6" spans="2:24" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="2:24">
       <c r="B6" s="2">
         <v>4</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="2">
-        <v>10</v>
-      </c>
-      <c r="E6" s="2">
+      <c r="D6" s="20">
+        <v>7</v>
+      </c>
+      <c r="E6" s="20">
         <v>7</v>
       </c>
       <c r="F6" s="2">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G6" s="4">
         <f t="shared" si="2"/>
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="H6" s="4">
         <v>25</v>
@@ -1069,7 +1071,7 @@
       </c>
       <c r="K6" s="6">
         <f t="shared" si="4"/>
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="L6" s="10">
         <v>10</v>
@@ -1088,7 +1090,7 @@
       </c>
       <c r="S6">
         <f>+S3+S4+S5</f>
-        <v>1655</v>
+        <v>1480</v>
       </c>
       <c r="V6" s="2" t="s">
         <v>8</v>
@@ -1102,26 +1104,26 @@
         <v>75</v>
       </c>
     </row>
-    <row r="7" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:24">
       <c r="B7" s="2">
         <v>5</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="2">
-        <v>10</v>
-      </c>
-      <c r="E7" s="2">
+      <c r="D7" s="20">
+        <v>6</v>
+      </c>
+      <c r="E7" s="20">
         <v>6</v>
       </c>
       <c r="F7" s="2">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G7" s="4">
         <f t="shared" si="2"/>
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="H7" s="4">
         <v>25</v>
@@ -1135,7 +1137,7 @@
       </c>
       <c r="K7" s="6">
         <f t="shared" si="4"/>
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="L7" s="10">
         <v>10</v>
@@ -1164,17 +1166,17 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:24">
       <c r="B8" s="2">
         <v>6</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="20">
         <v>5</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="20">
         <v>5</v>
       </c>
       <c r="F8" s="2">
@@ -1226,26 +1228,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:24">
       <c r="B9" s="13">
         <v>7</v>
       </c>
       <c r="C9" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="13">
-        <v>2</v>
-      </c>
-      <c r="E9" s="2">
+      <c r="D9" s="20">
+        <v>0</v>
+      </c>
+      <c r="E9" s="20">
         <v>0</v>
       </c>
       <c r="F9" s="13">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G9" s="14">
         <f t="shared" si="2"/>
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="H9" s="14">
         <v>25</v>
@@ -1259,7 +1261,7 @@
       </c>
       <c r="K9" s="15">
         <f t="shared" si="4"/>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="L9" s="16">
         <v>2</v>
@@ -1288,26 +1290,26 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:24">
       <c r="B10" s="2">
         <v>8</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="2">
-        <v>8</v>
-      </c>
-      <c r="E10" s="2">
+      <c r="D10" s="20">
+        <v>5</v>
+      </c>
+      <c r="E10" s="20">
         <v>5</v>
       </c>
       <c r="F10" s="2">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G10" s="4">
         <f t="shared" si="2"/>
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="H10" s="4">
         <v>25</v>
@@ -1321,7 +1323,7 @@
       </c>
       <c r="K10" s="6">
         <f t="shared" si="4"/>
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="L10" s="10">
         <v>8</v>
@@ -1350,17 +1352,17 @@
         <v>75</v>
       </c>
     </row>
-    <row r="11" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:24">
       <c r="B11" s="13">
         <v>9</v>
       </c>
       <c r="C11" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="13">
+      <c r="D11" s="20">
         <v>6</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="20">
         <v>6</v>
       </c>
       <c r="F11" s="13">
@@ -1412,26 +1414,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:24">
       <c r="B12" s="13">
         <v>10</v>
       </c>
       <c r="C12" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="D12" s="13">
-        <v>5</v>
-      </c>
-      <c r="E12" s="2">
+      <c r="D12" s="20">
+        <v>4</v>
+      </c>
+      <c r="E12" s="20">
         <v>4</v>
       </c>
       <c r="F12" s="13">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" s="14">
         <f t="shared" si="2"/>
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="H12" s="14">
         <v>25</v>
@@ -1445,7 +1447,7 @@
       </c>
       <c r="K12" s="15">
         <f t="shared" si="4"/>
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="L12" s="16">
         <v>5</v>
@@ -1474,26 +1476,26 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:24">
       <c r="B13" s="13">
         <v>11</v>
       </c>
       <c r="C13" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="D13" s="13">
-        <v>10</v>
-      </c>
-      <c r="E13" s="2">
+      <c r="D13" s="20">
+        <v>6</v>
+      </c>
+      <c r="E13" s="20">
         <v>6</v>
       </c>
       <c r="F13" s="13">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G13" s="14">
         <f t="shared" si="2"/>
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="H13" s="14">
         <v>25</v>
@@ -1507,7 +1509,7 @@
       </c>
       <c r="K13" s="15">
         <f t="shared" si="4"/>
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="L13" s="16">
         <v>10</v>
@@ -1536,26 +1538,26 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:24">
       <c r="B14" s="13">
         <v>12</v>
       </c>
       <c r="C14" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="13">
-        <v>5</v>
-      </c>
-      <c r="E14" s="2">
+      <c r="D14" s="20">
+        <v>2</v>
+      </c>
+      <c r="E14" s="20">
         <v>2</v>
       </c>
       <c r="F14" s="13">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G14" s="14">
         <f t="shared" si="2"/>
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="H14" s="14">
         <v>25</v>
@@ -1569,7 +1571,7 @@
       </c>
       <c r="K14" s="15">
         <f t="shared" si="4"/>
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="L14" s="16">
         <v>5</v>
@@ -1598,26 +1600,26 @@
         <v>75</v>
       </c>
     </row>
-    <row r="15" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:24">
       <c r="B15" s="2">
         <v>13</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="2">
-        <v>10</v>
-      </c>
-      <c r="E15" s="2">
+      <c r="D15" s="20">
+        <v>4</v>
+      </c>
+      <c r="E15" s="20">
         <v>4</v>
       </c>
       <c r="F15" s="2">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G15" s="4">
         <f t="shared" si="2"/>
-        <v>240</v>
+        <v>0</v>
       </c>
       <c r="H15" s="4">
         <v>25</v>
@@ -1631,7 +1633,7 @@
       </c>
       <c r="K15" s="6">
         <f t="shared" si="4"/>
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="L15" s="10">
         <v>10</v>
@@ -1660,26 +1662,26 @@
         <v>150</v>
       </c>
     </row>
-    <row r="16" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:24">
       <c r="B16" s="2">
         <v>14</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="2">
-        <v>10</v>
-      </c>
-      <c r="E16" s="2">
+      <c r="D16" s="20">
+        <v>3</v>
+      </c>
+      <c r="E16" s="20">
         <v>3</v>
       </c>
       <c r="F16" s="2">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G16" s="4">
         <f>+F16*23</f>
-        <v>161</v>
+        <v>0</v>
       </c>
       <c r="H16" s="4">
         <v>15</v>
@@ -1693,7 +1695,7 @@
       </c>
       <c r="K16" s="6">
         <f t="shared" si="4"/>
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="L16" s="10">
         <v>10</v>
@@ -1722,26 +1724,26 @@
         <v>105</v>
       </c>
     </row>
-    <row r="17" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:24">
       <c r="B17" s="2">
         <v>15</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="2">
-        <v>10</v>
-      </c>
-      <c r="E17" s="2">
+      <c r="D17" s="20">
+        <v>6</v>
+      </c>
+      <c r="E17" s="20">
         <v>6</v>
       </c>
       <c r="F17" s="2">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G17" s="4">
         <f t="shared" ref="G17:G24" si="9">+F17*23</f>
-        <v>92</v>
+        <v>0</v>
       </c>
       <c r="H17" s="4">
         <v>15</v>
@@ -1755,7 +1757,7 @@
       </c>
       <c r="K17" s="6">
         <f t="shared" si="4"/>
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="L17" s="10">
         <v>10</v>
@@ -1784,26 +1786,26 @@
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:24">
       <c r="B18" s="2">
         <v>16</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D18" s="2">
-        <v>10</v>
-      </c>
-      <c r="E18" s="2">
+      <c r="D18" s="20">
+        <v>7</v>
+      </c>
+      <c r="E18" s="20">
         <v>7</v>
       </c>
       <c r="F18" s="2">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G18" s="4">
         <f t="shared" si="9"/>
-        <v>69</v>
+        <v>0</v>
       </c>
       <c r="H18" s="4">
         <v>15</v>
@@ -1817,7 +1819,7 @@
       </c>
       <c r="K18" s="6">
         <f t="shared" si="4"/>
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="L18" s="10">
         <v>10</v>
@@ -1846,26 +1848,26 @@
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:24">
       <c r="B19" s="2">
         <v>17</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D19" s="2">
-        <v>10</v>
-      </c>
-      <c r="E19" s="2">
-        <v>9</v>
+      <c r="D19" s="20">
+        <v>12</v>
+      </c>
+      <c r="E19" s="20">
+        <v>12</v>
       </c>
       <c r="F19" s="2">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G19" s="4">
         <f t="shared" si="9"/>
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="H19" s="4">
         <v>15</v>
@@ -1879,18 +1881,18 @@
       </c>
       <c r="K19" s="6">
         <f t="shared" si="4"/>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="L19" s="10">
         <v>10</v>
       </c>
       <c r="M19" s="11">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="N19" s="8">
         <f t="shared" si="6"/>
-        <v>15</v>
+        <v>-30</v>
       </c>
       <c r="O19">
         <f t="shared" si="7"/>
@@ -1901,33 +1903,33 @@
       </c>
       <c r="W19" s="11">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="X19" s="8">
         <f t="shared" si="8"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="2:24" x14ac:dyDescent="0.25">
+        <v>-30</v>
+      </c>
+    </row>
+    <row r="20" spans="2:24">
       <c r="B20" s="2">
         <v>18</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D20" s="2">
-        <v>10</v>
-      </c>
-      <c r="E20" s="2">
-        <v>8</v>
+      <c r="D20" s="20">
+        <v>10</v>
+      </c>
+      <c r="E20" s="20">
+        <v>10</v>
       </c>
       <c r="F20" s="2">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G20" s="4">
         <f t="shared" si="9"/>
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="H20" s="4">
         <v>15</v>
@@ -1941,18 +1943,18 @@
       </c>
       <c r="K20" s="6">
         <f t="shared" si="4"/>
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="L20" s="10">
         <v>10</v>
       </c>
       <c r="M20" s="11">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N20" s="8">
         <f t="shared" si="6"/>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="O20">
         <f t="shared" si="7"/>
@@ -1963,33 +1965,33 @@
       </c>
       <c r="W20" s="11">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X20" s="8">
         <f t="shared" si="8"/>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="21" spans="2:24" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:24">
       <c r="B21" s="2">
         <v>19</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D21" s="2">
-        <v>10</v>
-      </c>
-      <c r="E21" s="2">
+      <c r="D21" s="20">
+        <v>8</v>
+      </c>
+      <c r="E21" s="20">
         <v>8</v>
       </c>
       <c r="F21" s="2">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G21" s="4">
         <f t="shared" si="9"/>
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="H21" s="4">
         <v>15</v>
@@ -2003,7 +2005,7 @@
       </c>
       <c r="K21" s="6">
         <f t="shared" si="4"/>
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="L21" s="10">
         <v>10</v>
@@ -2033,26 +2035,26 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:24">
       <c r="B22" s="2">
         <v>20</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D22" s="2">
-        <v>32</v>
-      </c>
-      <c r="E22" s="2">
+      <c r="D22" s="20">
+        <v>6</v>
+      </c>
+      <c r="E22" s="20">
         <v>6</v>
       </c>
       <c r="F22" s="2">
         <f t="shared" si="1"/>
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="G22" s="4">
         <f t="shared" si="9"/>
-        <v>598</v>
+        <v>0</v>
       </c>
       <c r="H22" s="4">
         <v>15</v>
@@ -2066,7 +2068,7 @@
       </c>
       <c r="K22" s="6">
         <f t="shared" si="4"/>
-        <v>208</v>
+        <v>0</v>
       </c>
       <c r="L22" s="10">
         <v>32</v>
@@ -2095,26 +2097,26 @@
         <v>390</v>
       </c>
     </row>
-    <row r="23" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:24">
       <c r="B23" s="2">
         <v>21</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D23" s="2">
-        <v>5</v>
-      </c>
-      <c r="E23" s="2">
+      <c r="D23" s="20">
+        <v>6</v>
+      </c>
+      <c r="E23" s="20">
         <v>6</v>
       </c>
       <c r="F23" s="2">
         <f t="shared" si="1"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G23" s="4">
         <f t="shared" si="9"/>
-        <v>-23</v>
+        <v>0</v>
       </c>
       <c r="H23" s="4">
         <v>15</v>
@@ -2128,7 +2130,7 @@
       </c>
       <c r="K23" s="6">
         <f t="shared" si="4"/>
-        <v>-8</v>
+        <v>0</v>
       </c>
       <c r="L23" s="10">
         <v>5</v>
@@ -2150,7 +2152,7 @@
       </c>
       <c r="T23" s="8">
         <f>SUM(N3:N24)</f>
-        <v>1655</v>
+        <v>1480</v>
       </c>
       <c r="V23" s="2" t="s">
         <v>34</v>
@@ -2164,26 +2166,26 @@
         <v>-15</v>
       </c>
     </row>
-    <row r="24" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:24">
       <c r="B24" s="2">
         <v>22</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D24" s="2">
-        <v>5</v>
-      </c>
-      <c r="E24" s="2">
+      <c r="D24" s="20">
+        <v>2</v>
+      </c>
+      <c r="E24" s="20">
         <v>2</v>
       </c>
       <c r="F24" s="2">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G24" s="4">
         <f t="shared" si="9"/>
-        <v>69</v>
+        <v>0</v>
       </c>
       <c r="H24" s="4">
         <v>15</v>
@@ -2197,7 +2199,7 @@
       </c>
       <c r="K24" s="6">
         <f t="shared" si="4"/>
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="L24" s="10">
         <v>5</v>
@@ -2219,19 +2221,19 @@
       </c>
       <c r="R24" s="3">
         <f>SUM(D3:D24)</f>
-        <v>203</v>
+        <v>127</v>
       </c>
       <c r="S24" s="3">
         <f>SUM(E3:E24)</f>
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="T24" s="3">
         <f>SUM(F3:F24)</f>
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="U24" s="3">
         <f>SUM(G3:G24)</f>
-        <v>2601</v>
+        <v>0</v>
       </c>
       <c r="V24" s="2" t="s">
         <v>35</v>
@@ -2245,12 +2247,18 @@
         <v>45</v>
       </c>
     </row>
-    <row r="25" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:24">
+      <c r="D25" s="20">
+        <v>4</v>
+      </c>
+      <c r="E25" s="20">
+        <v>4</v>
+      </c>
       <c r="Q25" s="1" t="s">
         <v>41</v>
       </c>
       <c r="R25" s="3">
-        <v>200</v>
+        <v>1513</v>
       </c>
       <c r="S25" s="3"/>
       <c r="T25" s="3" t="s">
@@ -2258,32 +2266,32 @@
       </c>
       <c r="U25" s="3">
         <f>+U24+R25</f>
-        <v>2801</v>
+        <v>1513</v>
       </c>
       <c r="V25" s="1" t="s">
         <v>31</v>
       </c>
       <c r="W25" s="18">
         <f>SUM(X3:X24)</f>
-        <v>1655</v>
-      </c>
-    </row>
-    <row r="26" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B26" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="C26" s="23"/>
-      <c r="D26" s="23"/>
-      <c r="E26" s="23"/>
-      <c r="F26" s="23"/>
-      <c r="G26" s="23"/>
-      <c r="H26" s="23"/>
-      <c r="I26" s="23"/>
-      <c r="J26" s="23"/>
-      <c r="K26" s="23"/>
-      <c r="L26" s="23"/>
-      <c r="M26" s="23"/>
-      <c r="N26" s="23"/>
+        <v>1480</v>
+      </c>
+    </row>
+    <row r="26" spans="2:24">
+      <c r="B26" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="C26" s="24"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="24"/>
+      <c r="H26" s="24"/>
+      <c r="I26" s="24"/>
+      <c r="J26" s="24"/>
+      <c r="K26" s="24"/>
+      <c r="L26" s="24"/>
+      <c r="M26" s="24"/>
+      <c r="N26" s="24"/>
       <c r="Q26" s="1" t="s">
         <v>22</v>
       </c>
@@ -2296,10 +2304,10 @@
       </c>
       <c r="U26" s="9">
         <f>SUM(K3:K24)</f>
-        <v>946</v>
-      </c>
-    </row>
-    <row r="27" spans="2:24" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:24">
       <c r="B27" s="2" t="s">
         <v>0</v>
       </c>
@@ -2340,17 +2348,17 @@
         <v>32</v>
       </c>
       <c r="O27" s="12" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="T27" t="s">
         <v>45</v>
       </c>
       <c r="U27" s="7">
         <f>+U26/2</f>
-        <v>473</v>
-      </c>
-    </row>
-    <row r="28" spans="2:24" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:24">
       <c r="B28" s="2">
         <v>1</v>
       </c>
@@ -2401,7 +2409,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:24">
       <c r="B29" s="2">
         <v>2</v>
       </c>
@@ -2452,7 +2460,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:24">
       <c r="B30" s="2">
         <v>3</v>
       </c>
@@ -2503,7 +2511,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:24">
       <c r="B31" s="2">
         <v>4</v>
       </c>
@@ -2554,7 +2562,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:24">
       <c r="B32" s="2">
         <v>5</v>
       </c>
@@ -2605,7 +2613,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:21">
       <c r="B33" s="2">
         <v>6</v>
       </c>
@@ -2656,7 +2664,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="2:21" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:21" s="17" customFormat="1">
       <c r="B34" s="13">
         <v>7</v>
       </c>
@@ -2707,7 +2715,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:21">
       <c r="B35" s="2">
         <v>8</v>
       </c>
@@ -2758,7 +2766,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="2:21" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:21" s="17" customFormat="1">
       <c r="B36" s="13">
         <v>9</v>
       </c>
@@ -2809,7 +2817,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="2:21" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:21" s="17" customFormat="1">
       <c r="B37" s="13">
         <v>10</v>
       </c>
@@ -2860,7 +2868,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="2:21" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:21" s="17" customFormat="1">
       <c r="B38" s="13">
         <v>11</v>
       </c>
@@ -2911,7 +2919,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="2:21" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:21" s="17" customFormat="1">
       <c r="B39" s="13">
         <v>12</v>
       </c>
@@ -2962,7 +2970,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:21">
       <c r="B40" s="2">
         <v>13</v>
       </c>
@@ -3012,13 +3020,13 @@
         <f t="shared" si="17"/>
         <v>10</v>
       </c>
-      <c r="S40" s="24" t="s">
+      <c r="S40" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="T40" s="24"/>
-      <c r="U40" s="24"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="T40" s="25"/>
+      <c r="U40" s="25"/>
+    </row>
+    <row r="41" spans="2:21">
       <c r="B41" s="2">
         <v>14</v>
       </c>
@@ -3078,7 +3086,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:21">
       <c r="B42" s="2">
         <v>15</v>
       </c>
@@ -3140,7 +3148,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:21">
       <c r="B43" s="2">
         <v>16</v>
       </c>
@@ -3202,7 +3210,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:21">
       <c r="B44" s="2">
         <v>17</v>
       </c>
@@ -3264,7 +3272,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:21">
       <c r="B45" s="2">
         <v>18</v>
       </c>
@@ -3326,7 +3334,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:21">
       <c r="B46" s="2">
         <v>19</v>
       </c>
@@ -3388,7 +3396,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:21">
       <c r="B47" s="2">
         <v>20</v>
       </c>
@@ -3450,7 +3458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:21">
       <c r="B48" s="2">
         <v>21</v>
       </c>
@@ -3512,7 +3520,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="49" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:21">
       <c r="B49" s="2">
         <v>22</v>
       </c>
@@ -3574,12 +3582,12 @@
         <v>75</v>
       </c>
     </row>
-    <row r="50" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:21">
       <c r="B50" s="2">
         <v>23</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D50" s="2">
         <v>4</v>
@@ -3636,7 +3644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:21">
       <c r="S51" s="13" t="s">
         <v>38</v>
       </c>
@@ -3649,7 +3657,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="52" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:21">
       <c r="S52" s="13" t="s">
         <v>39</v>
       </c>
@@ -3662,7 +3670,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="53" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:21">
       <c r="S53" s="13" t="s">
         <v>36</v>
       </c>
@@ -3675,7 +3683,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="54" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:21">
       <c r="S54" s="2" t="s">
         <v>13</v>
       </c>
@@ -3688,9 +3696,9 @@
         <v>150</v>
       </c>
     </row>
-    <row r="55" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:21">
       <c r="C55" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D55" s="19">
         <f>SUM(D28:D50)</f>
@@ -3727,7 +3735,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="56" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:21">
       <c r="C56" s="1" t="s">
         <v>21</v>
       </c>
@@ -3754,7 +3762,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="57" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:21">
       <c r="C57" s="1" t="s">
         <v>22</v>
       </c>
@@ -3785,7 +3793,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="58" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:21">
       <c r="S58" s="2" t="s">
         <v>17</v>
       </c>
@@ -3798,7 +3806,7 @@
         <v>-30</v>
       </c>
     </row>
-    <row r="59" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:21">
       <c r="S59" s="2" t="s">
         <v>18</v>
       </c>
@@ -3811,7 +3819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:21">
       <c r="S60" s="2" t="s">
         <v>19</v>
       </c>
@@ -3824,7 +3832,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="61" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:21">
       <c r="S61" s="2" t="s">
         <v>20</v>
       </c>
@@ -3837,7 +3845,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="62" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:21">
       <c r="S62" s="2" t="s">
         <v>34</v>
       </c>
@@ -3850,7 +3858,7 @@
         <v>-12</v>
       </c>
     </row>
-    <row r="63" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:21">
       <c r="S63" s="2" t="s">
         <v>35</v>
       </c>
@@ -3863,7 +3871,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="64" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:21">
       <c r="S64" s="1" t="s">
         <v>31</v>
       </c>

--- a/Angular/Paletas Yahvé.xlsx
+++ b/Angular/Paletas Yahvé.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bmedina\Downloads\Curso Angular\Angular\Angular\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE07B5BB-F1F6-481E-BC92-C123AC9DB382}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5734A015-5DEC-4004-875B-F12CE385CDBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20535" yWindow="-9150" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="63">
   <si>
     <t>#</t>
   </si>
@@ -106,15 +106,6 @@
   </si>
   <si>
     <t>Total Actual Caja</t>
-  </si>
-  <si>
-    <t>G</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>V</t>
   </si>
   <si>
     <t>Diff/Cant Vendida</t>
@@ -216,10 +207,25 @@
     <t xml:space="preserve">Venta Paletas T1 REGISTRO VENDIDO </t>
   </si>
   <si>
-    <t xml:space="preserve">Venta Paletas T2 REGISTRO VENDIDO </t>
+    <t>PEDIDO T1 16/01/2025</t>
   </si>
   <si>
-    <t>PEDIDO T1 16/01/2025</t>
+    <t>Venta Paletas T2 REGISTRO VENDIDO  Enero/Febrero 2025</t>
+  </si>
+  <si>
+    <t>Ganancia J&amp;B</t>
+  </si>
+  <si>
+    <t>Depositado Enero=</t>
+  </si>
+  <si>
+    <t>Costo</t>
+  </si>
+  <si>
+    <t>Venta</t>
+  </si>
+  <si>
+    <t>Gananc</t>
   </si>
 </sst>
 </file>
@@ -260,7 +266,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -312,6 +318,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -390,7 +402,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -429,6 +441,8 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -444,14 +458,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -792,7 +805,7 @@
   <dimension ref="B1:Y69"/>
   <sheetViews>
     <sheetView topLeftCell="H1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="W1" sqref="W1:X24"/>
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -817,24 +830,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B1" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="25"/>
-      <c r="O1" s="25"/>
+      <c r="B1" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="27"/>
+      <c r="O1" s="27"/>
       <c r="W1" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="X1" s="2"/>
       <c r="Y1" s="2"/>
@@ -853,46 +866,46 @@
         <v>2</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>23</v>
+        <v>62</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="L2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="M2" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="P2" s="12" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="W2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="2:25" x14ac:dyDescent="0.25">
@@ -923,7 +936,7 @@
         <v>40</v>
       </c>
       <c r="J3" s="6">
-        <f>+I3-H3</f>
+        <f>(I3-(I3*0))-H3</f>
         <v>15</v>
       </c>
       <c r="K3" s="6">
@@ -954,14 +967,14 @@
         <v>850</v>
       </c>
       <c r="U3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="V3">
         <f>SUM(X3:X15)</f>
         <v>34</v>
       </c>
       <c r="W3" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="X3" s="11">
         <f t="shared" ref="X3:X24" si="2">N3</f>
@@ -1000,7 +1013,7 @@
         <v>40</v>
       </c>
       <c r="J4" s="6">
-        <f t="shared" ref="J4:J15" si="5">+I4-H4</f>
+        <f t="shared" ref="J4:J25" si="5">(I4-(I4*0))-H4</f>
         <v>15</v>
       </c>
       <c r="K4" s="6">
@@ -1031,14 +1044,14 @@
         <v>45</v>
       </c>
       <c r="U4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="V4">
         <f>SUM(X16:X24)-X22</f>
         <v>3</v>
       </c>
       <c r="W4" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="X4" s="11">
         <f t="shared" si="2"/>
@@ -1108,7 +1121,7 @@
         <v>405</v>
       </c>
       <c r="U5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="V5">
         <f>+X22</f>
@@ -1354,7 +1367,7 @@
       <c r="I9" s="14">
         <v>40</v>
       </c>
-      <c r="J9" s="15">
+      <c r="J9" s="6">
         <f t="shared" si="5"/>
         <v>15</v>
       </c>
@@ -1463,7 +1476,7 @@
         <v>9</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D11" s="2">
         <v>6</v>
@@ -1485,7 +1498,7 @@
       <c r="I11" s="14">
         <v>40</v>
       </c>
-      <c r="J11" s="15">
+      <c r="J11" s="6">
         <f t="shared" si="5"/>
         <v>15</v>
       </c>
@@ -1512,7 +1525,7 @@
         <v>5</v>
       </c>
       <c r="W11" s="13" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="X11" s="11">
         <f t="shared" si="2"/>
@@ -1528,7 +1541,7 @@
         <v>10</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D12" s="2">
         <v>4</v>
@@ -1550,7 +1563,7 @@
       <c r="I12" s="14">
         <v>40</v>
       </c>
-      <c r="J12" s="15">
+      <c r="J12" s="6">
         <f t="shared" si="5"/>
         <v>15</v>
       </c>
@@ -1577,7 +1590,7 @@
         <v>3</v>
       </c>
       <c r="W12" s="13" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="X12" s="11">
         <f t="shared" si="2"/>
@@ -1593,7 +1606,7 @@
         <v>11</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D13" s="2">
         <v>6</v>
@@ -1615,7 +1628,7 @@
       <c r="I13" s="14">
         <v>40</v>
       </c>
-      <c r="J13" s="15">
+      <c r="J13" s="6">
         <f t="shared" si="5"/>
         <v>15</v>
       </c>
@@ -1643,7 +1656,7 @@
         <v>5</v>
       </c>
       <c r="W13" s="13" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="X13" s="11">
         <f t="shared" si="2"/>
@@ -1659,7 +1672,7 @@
         <v>12</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D14" s="2">
         <v>2</v>
@@ -1681,7 +1694,7 @@
       <c r="I14" s="14">
         <v>40</v>
       </c>
-      <c r="J14" s="15">
+      <c r="J14" s="6">
         <f t="shared" si="5"/>
         <v>15</v>
       </c>
@@ -1708,7 +1721,7 @@
         <v>3</v>
       </c>
       <c r="W14" s="13" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="X14" s="11">
         <f t="shared" si="2"/>
@@ -1813,7 +1826,7 @@
         <v>23</v>
       </c>
       <c r="J16" s="6">
-        <f>+I16-H16</f>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="K16" s="6">
@@ -1879,7 +1892,7 @@
         <v>23</v>
       </c>
       <c r="J17" s="6">
-        <f t="shared" ref="J17:J25" si="11">+I17-H17</f>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="K17" s="6">
@@ -1945,7 +1958,7 @@
         <v>23</v>
       </c>
       <c r="J18" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="K18" s="6">
@@ -2011,7 +2024,7 @@
         <v>23</v>
       </c>
       <c r="J19" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="K19" s="6">
@@ -2077,7 +2090,7 @@
         <v>23</v>
       </c>
       <c r="J20" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="K20" s="6">
@@ -2143,7 +2156,7 @@
         <v>23</v>
       </c>
       <c r="J21" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="K21" s="6">
@@ -2210,7 +2223,7 @@
         <v>23</v>
       </c>
       <c r="J22" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="K22" s="6">
@@ -2252,7 +2265,7 @@
         <v>21</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D23" s="2">
         <v>6</v>
@@ -2275,7 +2288,7 @@
         <v>23</v>
       </c>
       <c r="J23" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="K23" s="6">
@@ -2301,14 +2314,14 @@
         <v>3</v>
       </c>
       <c r="T23" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="U23" s="8">
         <f>SUM(O3:O24)</f>
         <v>1300</v>
       </c>
       <c r="W23" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="X23" s="11">
         <f t="shared" si="2"/>
@@ -2324,7 +2337,7 @@
         <v>22</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D24" s="2">
         <v>2</v>
@@ -2347,7 +2360,7 @@
         <v>23</v>
       </c>
       <c r="J24" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="K24" s="6">
@@ -2373,7 +2386,7 @@
         <v>3</v>
       </c>
       <c r="R24" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="S24" s="3">
         <f>SUM(D3:D24)</f>
@@ -2392,7 +2405,7 @@
         <v>2306</v>
       </c>
       <c r="W24" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="X24" s="11">
         <f t="shared" si="2"/>
@@ -2408,7 +2421,7 @@
         <v>23</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D25" s="2">
         <v>4</v>
@@ -2431,7 +2444,7 @@
         <v>23</v>
       </c>
       <c r="J25" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>11</v>
       </c>
       <c r="K25" s="6">
@@ -2455,21 +2468,21 @@
         <v>6</v>
       </c>
       <c r="R25" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="S25" s="3">
         <v>1513</v>
       </c>
       <c r="T25" s="3"/>
       <c r="U25" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="V25" s="3">
         <f>+V24+S25</f>
         <v>3819</v>
       </c>
       <c r="W25" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="X25" s="18">
         <f>SUM(Y3:Y24)</f>
@@ -2485,7 +2498,7 @@
       </c>
       <c r="T26" s="1"/>
       <c r="U26" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="V26" s="9">
         <f>SUM(K3:K24)</f>
@@ -2495,52 +2508,30 @@
     <row r="27" spans="2:25" x14ac:dyDescent="0.25">
       <c r="P27" s="12"/>
       <c r="U27" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="V27" s="7">
         <f>+V26/2</f>
         <v>425.5</v>
       </c>
     </row>
-    <row r="31" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="P31" s="29"/>
-    </row>
-    <row r="32" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="P32" s="29"/>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="P33" s="29"/>
-    </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="P34" s="29"/>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="P35" s="29"/>
-    </row>
-    <row r="36" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="P36" s="29"/>
-    </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="P37" s="29"/>
-    </row>
     <row r="38" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B38" s="26" t="s">
-        <v>58</v>
-      </c>
-      <c r="C38" s="27"/>
-      <c r="D38" s="27"/>
-      <c r="E38" s="27"/>
-      <c r="F38" s="27"/>
-      <c r="G38" s="27"/>
-      <c r="H38" s="27"/>
-      <c r="I38" s="27"/>
-      <c r="J38" s="27"/>
-      <c r="K38" s="27"/>
-      <c r="L38" s="27"/>
-      <c r="M38" s="27"/>
-      <c r="N38" s="27"/>
-      <c r="O38" s="27"/>
-      <c r="P38" s="29"/>
+      <c r="B38" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="C38" s="29"/>
+      <c r="D38" s="29"/>
+      <c r="E38" s="29"/>
+      <c r="F38" s="29"/>
+      <c r="G38" s="29"/>
+      <c r="H38" s="29"/>
+      <c r="I38" s="29"/>
+      <c r="J38" s="29"/>
+      <c r="K38" s="29"/>
+      <c r="L38" s="29"/>
+      <c r="M38" s="29"/>
+      <c r="N38" s="29"/>
+      <c r="O38" s="29"/>
     </row>
     <row r="39" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B39" s="2" t="s">
@@ -2556,19 +2547,19 @@
         <v>2</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>23</v>
+        <v>62</v>
       </c>
       <c r="K39" s="2" t="s">
         <v>3</v>
@@ -2577,14 +2568,13 @@
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
-      <c r="P39" s="29"/>
     </row>
     <row r="40" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B40" s="2">
         <v>1</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D40" s="2">
         <v>5</v>
@@ -2607,30 +2597,29 @@
         <v>40</v>
       </c>
       <c r="J40" s="6">
-        <f>+I40-H40</f>
-        <v>15</v>
+        <f>(I40-(I40*0.002))-H40</f>
+        <v>14.920000000000002</v>
       </c>
       <c r="K40" s="6">
         <f>+J40*F40</f>
-        <v>45</v>
+        <v>44.760000000000005</v>
       </c>
       <c r="L40" s="10"/>
       <c r="M40" s="10"/>
       <c r="N40" s="11"/>
       <c r="O40" s="8"/>
-      <c r="P40" s="29"/>
-      <c r="T40" s="28" t="s">
-        <v>42</v>
-      </c>
-      <c r="U40" s="28"/>
-      <c r="V40" s="28"/>
+      <c r="T40" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="U40" s="30"/>
+      <c r="V40" s="30"/>
     </row>
     <row r="41" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B41" s="2">
         <v>2</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D41" s="2">
         <v>5</v>
@@ -2639,11 +2628,11 @@
         <v>0</v>
       </c>
       <c r="F41" s="2">
-        <f t="shared" ref="F41:F59" si="12">+D41-E41</f>
+        <f t="shared" ref="F41:F59" si="11">+D41-E41</f>
         <v>5</v>
       </c>
       <c r="G41" s="4">
-        <f t="shared" ref="G41:G52" si="13">+F41*40</f>
+        <f t="shared" ref="G41:G52" si="12">+F41*40</f>
         <v>200</v>
       </c>
       <c r="H41" s="4">
@@ -2653,26 +2642,25 @@
         <v>40</v>
       </c>
       <c r="J41" s="6">
-        <f t="shared" ref="J41:J52" si="14">+I41-H41</f>
-        <v>15</v>
+        <f t="shared" ref="J41:J62" si="13">(I41-(I41*0.002))-H41</f>
+        <v>14.920000000000002</v>
       </c>
       <c r="K41" s="6">
-        <f t="shared" ref="K41:K59" si="15">+J41*F41</f>
-        <v>75</v>
+        <f t="shared" ref="K41:K59" si="14">+J41*F41</f>
+        <v>74.600000000000009</v>
       </c>
       <c r="L41" s="10"/>
       <c r="M41" s="10"/>
       <c r="N41" s="11"/>
       <c r="O41" s="8"/>
-      <c r="P41" s="29"/>
       <c r="T41" s="2" t="s">
         <v>4</v>
       </c>
       <c r="U41" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="V41" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="42" spans="2:22" x14ac:dyDescent="0.25">
@@ -2689,11 +2677,11 @@
         <v>1</v>
       </c>
       <c r="F42" s="2">
+        <f t="shared" si="11"/>
+        <v>4</v>
+      </c>
+      <c r="G42" s="4">
         <f t="shared" si="12"/>
-        <v>4</v>
-      </c>
-      <c r="G42" s="4">
-        <f t="shared" si="13"/>
         <v>160</v>
       </c>
       <c r="H42" s="4">
@@ -2703,27 +2691,26 @@
         <v>40</v>
       </c>
       <c r="J42" s="6">
+        <f t="shared" si="13"/>
+        <v>14.920000000000002</v>
+      </c>
+      <c r="K42" s="6">
         <f t="shared" si="14"/>
-        <v>15</v>
-      </c>
-      <c r="K42" s="6">
-        <f t="shared" si="15"/>
-        <v>60</v>
+        <v>59.680000000000007</v>
       </c>
       <c r="L42" s="10"/>
       <c r="M42" s="10"/>
       <c r="N42" s="11"/>
       <c r="O42" s="8"/>
-      <c r="P42" s="29"/>
       <c r="T42" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="U42" s="11">
-        <f>N40</f>
+        <f t="shared" ref="U42:U63" si="15">N40</f>
         <v>0</v>
       </c>
       <c r="V42" s="8">
-        <f>O40</f>
+        <f t="shared" ref="V42:V63" si="16">O40</f>
         <v>0</v>
       </c>
     </row>
@@ -2741,11 +2728,11 @@
         <v>6</v>
       </c>
       <c r="F43" s="2">
+        <f t="shared" si="11"/>
+        <v>-1</v>
+      </c>
+      <c r="G43" s="4">
         <f t="shared" si="12"/>
-        <v>-1</v>
-      </c>
-      <c r="G43" s="4">
-        <f t="shared" si="13"/>
         <v>-40</v>
       </c>
       <c r="H43" s="4">
@@ -2755,27 +2742,26 @@
         <v>40</v>
       </c>
       <c r="J43" s="6">
+        <f t="shared" si="13"/>
+        <v>14.920000000000002</v>
+      </c>
+      <c r="K43" s="6">
         <f t="shared" si="14"/>
-        <v>15</v>
-      </c>
-      <c r="K43" s="6">
-        <f t="shared" si="15"/>
-        <v>-15</v>
+        <v>-14.920000000000002</v>
       </c>
       <c r="L43" s="10"/>
       <c r="M43" s="10"/>
       <c r="N43" s="11"/>
-      <c r="O43" s="30"/>
-      <c r="P43" s="29"/>
+      <c r="O43" s="24"/>
       <c r="T43" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="U43" s="11">
-        <f>N41</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="V43" s="8">
-        <f>O41</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -2793,11 +2779,11 @@
         <v>6</v>
       </c>
       <c r="F44" s="2">
+        <f t="shared" si="11"/>
+        <v>-1</v>
+      </c>
+      <c r="G44" s="4">
         <f t="shared" si="12"/>
-        <v>-1</v>
-      </c>
-      <c r="G44" s="4">
-        <f t="shared" si="13"/>
         <v>-40</v>
       </c>
       <c r="H44" s="4">
@@ -2807,27 +2793,26 @@
         <v>40</v>
       </c>
       <c r="J44" s="6">
+        <f t="shared" si="13"/>
+        <v>14.920000000000002</v>
+      </c>
+      <c r="K44" s="6">
         <f t="shared" si="14"/>
-        <v>15</v>
-      </c>
-      <c r="K44" s="6">
-        <f t="shared" si="15"/>
-        <v>-15</v>
+        <v>-14.920000000000002</v>
       </c>
       <c r="L44" s="10"/>
       <c r="M44" s="10"/>
       <c r="N44" s="11"/>
-      <c r="O44" s="30"/>
-      <c r="P44" s="29"/>
+      <c r="O44" s="24"/>
       <c r="T44" s="2" t="s">
         <v>7</v>
       </c>
       <c r="U44" s="11">
-        <f>N42</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="V44" s="8">
-        <f>O42</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -2845,11 +2830,11 @@
         <v>6</v>
       </c>
       <c r="F45" s="2">
+        <f t="shared" si="11"/>
+        <v>-1</v>
+      </c>
+      <c r="G45" s="4">
         <f t="shared" si="12"/>
-        <v>-1</v>
-      </c>
-      <c r="G45" s="4">
-        <f t="shared" si="13"/>
         <v>-40</v>
       </c>
       <c r="H45" s="4">
@@ -2859,27 +2844,26 @@
         <v>40</v>
       </c>
       <c r="J45" s="6">
+        <f t="shared" si="13"/>
+        <v>14.920000000000002</v>
+      </c>
+      <c r="K45" s="6">
         <f t="shared" si="14"/>
-        <v>15</v>
-      </c>
-      <c r="K45" s="6">
-        <f t="shared" si="15"/>
-        <v>-15</v>
+        <v>-14.920000000000002</v>
       </c>
       <c r="L45" s="10"/>
       <c r="M45" s="10"/>
       <c r="N45" s="11"/>
-      <c r="O45" s="30"/>
-      <c r="P45" s="29"/>
+      <c r="O45" s="24"/>
       <c r="T45" s="2" t="s">
         <v>8</v>
       </c>
       <c r="U45" s="11">
-        <f>N43</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="V45" s="8">
-        <f>O43</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -2897,11 +2881,11 @@
         <v>0</v>
       </c>
       <c r="F46" s="13">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="G46" s="14">
         <f t="shared" si="12"/>
-        <v>2</v>
-      </c>
-      <c r="G46" s="14">
-        <f t="shared" si="13"/>
         <v>80</v>
       </c>
       <c r="H46" s="14">
@@ -2910,28 +2894,27 @@
       <c r="I46" s="14">
         <v>40</v>
       </c>
-      <c r="J46" s="15">
+      <c r="J46" s="6">
+        <f t="shared" si="13"/>
+        <v>14.920000000000002</v>
+      </c>
+      <c r="K46" s="15">
         <f t="shared" si="14"/>
-        <v>15</v>
-      </c>
-      <c r="K46" s="15">
-        <f t="shared" si="15"/>
-        <v>30</v>
+        <v>29.840000000000003</v>
       </c>
       <c r="L46" s="16"/>
       <c r="M46" s="10"/>
       <c r="N46" s="16"/>
-      <c r="O46" s="31"/>
-      <c r="P46" s="32"/>
+      <c r="O46" s="25"/>
       <c r="T46" s="2" t="s">
         <v>9</v>
       </c>
       <c r="U46" s="11">
-        <f>N44</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="V46" s="8">
-        <f>O44</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -2949,11 +2932,11 @@
         <v>0</v>
       </c>
       <c r="F47" s="20">
+        <f t="shared" si="11"/>
+        <v>4</v>
+      </c>
+      <c r="G47" s="21">
         <f t="shared" si="12"/>
-        <v>4</v>
-      </c>
-      <c r="G47" s="21">
-        <f t="shared" si="13"/>
         <v>160</v>
       </c>
       <c r="H47" s="21">
@@ -2962,28 +2945,27 @@
       <c r="I47" s="21">
         <v>40</v>
       </c>
-      <c r="J47" s="22">
+      <c r="J47" s="6">
+        <f t="shared" si="13"/>
+        <v>14.920000000000002</v>
+      </c>
+      <c r="K47" s="22">
         <f t="shared" si="14"/>
-        <v>15</v>
-      </c>
-      <c r="K47" s="22">
-        <f t="shared" si="15"/>
-        <v>60</v>
+        <v>59.680000000000007</v>
       </c>
       <c r="L47" s="10"/>
       <c r="M47" s="10"/>
       <c r="N47" s="11"/>
-      <c r="O47" s="30"/>
-      <c r="P47" s="32"/>
+      <c r="O47" s="24"/>
       <c r="T47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="U47" s="11">
-        <f>N45</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="V47" s="8">
-        <f>O45</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -2992,7 +2974,7 @@
         <v>9</v>
       </c>
       <c r="C48" s="13" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D48" s="20">
         <v>5</v>
@@ -3001,11 +2983,11 @@
         <v>0</v>
       </c>
       <c r="F48" s="13">
-        <f t="shared" ref="F48" si="16">+D48-E48</f>
+        <f t="shared" ref="F48" si="17">+D48-E48</f>
         <v>5</v>
       </c>
       <c r="G48" s="14">
-        <f t="shared" ref="G48" si="17">+F48*40</f>
+        <f t="shared" ref="G48" si="18">+F48*40</f>
         <v>200</v>
       </c>
       <c r="H48" s="14">
@@ -3014,28 +2996,27 @@
       <c r="I48" s="14">
         <v>40</v>
       </c>
-      <c r="J48" s="15">
-        <f t="shared" ref="J48" si="18">+I48-H48</f>
-        <v>15</v>
+      <c r="J48" s="6">
+        <f t="shared" si="13"/>
+        <v>14.920000000000002</v>
       </c>
       <c r="K48" s="15">
         <f t="shared" ref="K48" si="19">+J48*F48</f>
-        <v>75</v>
+        <v>74.600000000000009</v>
       </c>
       <c r="L48" s="16"/>
       <c r="M48" s="10"/>
       <c r="N48" s="16"/>
-      <c r="O48" s="31"/>
-      <c r="P48" s="32"/>
+      <c r="O48" s="25"/>
       <c r="T48" s="13" t="s">
         <v>11</v>
       </c>
       <c r="U48" s="11">
-        <f>N46</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="V48" s="8">
-        <f>O46</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -3044,7 +3025,7 @@
         <v>10</v>
       </c>
       <c r="C49" s="13" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D49" s="20">
         <v>3</v>
@@ -3066,28 +3047,27 @@
       <c r="I49" s="14">
         <v>40</v>
       </c>
-      <c r="J49" s="15">
-        <f t="shared" ref="J49:J50" si="22">+I49-H49</f>
-        <v>15</v>
+      <c r="J49" s="6">
+        <f t="shared" si="13"/>
+        <v>14.920000000000002</v>
       </c>
       <c r="K49" s="15">
-        <f t="shared" ref="K49:K50" si="23">+J49*F49</f>
-        <v>45</v>
+        <f t="shared" ref="K49:K50" si="22">+J49*F49</f>
+        <v>44.760000000000005</v>
       </c>
       <c r="L49" s="16"/>
       <c r="M49" s="10"/>
       <c r="N49" s="16"/>
-      <c r="O49" s="31"/>
-      <c r="P49" s="32"/>
+      <c r="O49" s="25"/>
       <c r="T49" s="2" t="s">
         <v>12</v>
       </c>
       <c r="U49" s="11">
-        <f>N47</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="V49" s="8">
-        <f>O47</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -3096,7 +3076,7 @@
         <v>11</v>
       </c>
       <c r="C50" s="13" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D50" s="20">
         <v>5</v>
@@ -3118,28 +3098,27 @@
       <c r="I50" s="14">
         <v>40</v>
       </c>
-      <c r="J50" s="15">
+      <c r="J50" s="6">
+        <f t="shared" si="13"/>
+        <v>14.920000000000002</v>
+      </c>
+      <c r="K50" s="15">
         <f t="shared" si="22"/>
-        <v>15</v>
-      </c>
-      <c r="K50" s="15">
-        <f t="shared" si="23"/>
-        <v>60</v>
+        <v>59.680000000000007</v>
       </c>
       <c r="L50" s="16"/>
       <c r="M50" s="10"/>
       <c r="N50" s="16"/>
-      <c r="O50" s="31"/>
-      <c r="P50" s="32"/>
+      <c r="O50" s="25"/>
       <c r="T50" s="13" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="U50" s="11">
-        <f>N48</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="V50" s="8">
-        <f>O48</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -3148,7 +3127,7 @@
         <v>12</v>
       </c>
       <c r="C51" s="13" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D51" s="20">
         <v>3</v>
@@ -3157,11 +3136,11 @@
         <v>2</v>
       </c>
       <c r="F51" s="13">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="G51" s="14">
         <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="G51" s="14">
-        <f t="shared" si="13"/>
         <v>40</v>
       </c>
       <c r="H51" s="14">
@@ -3170,28 +3149,27 @@
       <c r="I51" s="14">
         <v>40</v>
       </c>
-      <c r="J51" s="15">
-        <f t="shared" ref="J51" si="24">+I51-H51</f>
-        <v>15</v>
+      <c r="J51" s="6">
+        <f t="shared" si="13"/>
+        <v>14.920000000000002</v>
       </c>
       <c r="K51" s="15">
-        <f t="shared" ref="K51" si="25">+J51*F51</f>
-        <v>15</v>
+        <f t="shared" ref="K51" si="23">+J51*F51</f>
+        <v>14.920000000000002</v>
       </c>
       <c r="L51" s="16"/>
       <c r="M51" s="10"/>
       <c r="N51" s="16"/>
-      <c r="O51" s="31"/>
-      <c r="P51" s="32"/>
+      <c r="O51" s="25"/>
       <c r="T51" s="13" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="U51" s="11">
-        <f>N49</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="V51" s="8">
-        <f>O49</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -3209,11 +3187,11 @@
         <v>0</v>
       </c>
       <c r="F52" s="2">
+        <f t="shared" si="11"/>
+        <v>5</v>
+      </c>
+      <c r="G52" s="4">
         <f t="shared" si="12"/>
-        <v>5</v>
-      </c>
-      <c r="G52" s="4">
-        <f t="shared" si="13"/>
         <v>200</v>
       </c>
       <c r="H52" s="4">
@@ -3223,26 +3201,26 @@
         <v>40</v>
       </c>
       <c r="J52" s="6">
+        <f t="shared" si="13"/>
+        <v>14.920000000000002</v>
+      </c>
+      <c r="K52" s="6">
         <f t="shared" si="14"/>
-        <v>15</v>
-      </c>
-      <c r="K52" s="6">
-        <f t="shared" si="15"/>
-        <v>75</v>
+        <v>74.600000000000009</v>
       </c>
       <c r="L52" s="10"/>
       <c r="M52" s="10"/>
       <c r="N52" s="11"/>
       <c r="O52" s="8"/>
       <c r="T52" s="13" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="U52" s="11">
-        <f>N50</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="V52" s="8">
-        <f>O50</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -3260,7 +3238,7 @@
         <v>3</v>
       </c>
       <c r="F53" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
       <c r="G53" s="4">
@@ -3274,26 +3252,26 @@
         <v>23</v>
       </c>
       <c r="J53" s="6">
-        <f>+I53-H53</f>
-        <v>8</v>
+        <f t="shared" si="13"/>
+        <v>7.9540000000000006</v>
       </c>
       <c r="K53" s="6">
-        <f t="shared" si="15"/>
-        <v>16</v>
+        <f t="shared" si="14"/>
+        <v>15.908000000000001</v>
       </c>
       <c r="L53" s="10"/>
       <c r="M53" s="10"/>
       <c r="N53" s="11"/>
       <c r="O53" s="8"/>
       <c r="T53" s="13" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="U53" s="11">
-        <f>N51</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="V53" s="8">
-        <f>O51</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -3311,11 +3289,11 @@
         <v>4</v>
       </c>
       <c r="F54" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="G54" s="4">
-        <f t="shared" ref="G54:G59" si="26">+F54*23</f>
+        <f t="shared" ref="G54:G59" si="24">+F54*23</f>
         <v>23</v>
       </c>
       <c r="H54" s="4">
@@ -3325,12 +3303,12 @@
         <v>23</v>
       </c>
       <c r="J54" s="6">
-        <f t="shared" ref="J54:J59" si="27">+I54-H54</f>
-        <v>8</v>
+        <f t="shared" si="13"/>
+        <v>7.9540000000000006</v>
       </c>
       <c r="K54" s="6">
-        <f t="shared" si="15"/>
-        <v>8</v>
+        <f t="shared" si="14"/>
+        <v>7.9540000000000006</v>
       </c>
       <c r="L54" s="10"/>
       <c r="M54" s="10"/>
@@ -3340,11 +3318,11 @@
         <v>13</v>
       </c>
       <c r="U54" s="11">
-        <f>N52</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="V54" s="8">
-        <f>O52</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -3362,11 +3340,11 @@
         <v>7</v>
       </c>
       <c r="F55" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>-2</v>
       </c>
       <c r="G55" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>-46</v>
       </c>
       <c r="H55" s="4">
@@ -3376,12 +3354,12 @@
         <v>23</v>
       </c>
       <c r="J55" s="6">
-        <f t="shared" si="27"/>
-        <v>8</v>
+        <f t="shared" si="13"/>
+        <v>7.9540000000000006</v>
       </c>
       <c r="K55" s="6">
-        <f t="shared" si="15"/>
-        <v>-16</v>
+        <f t="shared" si="14"/>
+        <v>-15.908000000000001</v>
       </c>
       <c r="L55" s="10"/>
       <c r="M55" s="10"/>
@@ -3391,11 +3369,11 @@
         <v>14</v>
       </c>
       <c r="U55" s="11">
-        <f>N53</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="V55" s="8">
-        <f>O53</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -3413,11 +3391,11 @@
         <v>7</v>
       </c>
       <c r="F56" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>-2</v>
       </c>
       <c r="G56" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>-46</v>
       </c>
       <c r="H56" s="4">
@@ -3427,12 +3405,12 @@
         <v>23</v>
       </c>
       <c r="J56" s="6">
-        <f t="shared" si="27"/>
-        <v>8</v>
+        <f t="shared" si="13"/>
+        <v>7.9540000000000006</v>
       </c>
       <c r="K56" s="6">
-        <f t="shared" si="15"/>
-        <v>-16</v>
+        <f t="shared" si="14"/>
+        <v>-15.908000000000001</v>
       </c>
       <c r="L56" s="10"/>
       <c r="M56" s="10"/>
@@ -3442,11 +3420,11 @@
         <v>15</v>
       </c>
       <c r="U56" s="11">
-        <f>N54</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="V56" s="8">
-        <f>O54</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -3464,11 +3442,11 @@
         <v>3</v>
       </c>
       <c r="F57" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
       <c r="G57" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>46</v>
       </c>
       <c r="H57" s="4">
@@ -3478,12 +3456,12 @@
         <v>23</v>
       </c>
       <c r="J57" s="6">
-        <f t="shared" si="27"/>
-        <v>8</v>
+        <f t="shared" si="13"/>
+        <v>7.9540000000000006</v>
       </c>
       <c r="K57" s="6">
-        <f t="shared" si="15"/>
-        <v>16</v>
+        <f t="shared" si="14"/>
+        <v>15.908000000000001</v>
       </c>
       <c r="L57" s="10"/>
       <c r="M57" s="10"/>
@@ -3493,11 +3471,11 @@
         <v>16</v>
       </c>
       <c r="U57" s="11">
-        <f>N55</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="V57" s="8">
-        <f>O55</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -3515,11 +3493,11 @@
         <v>8</v>
       </c>
       <c r="F58" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>-3</v>
       </c>
       <c r="G58" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>-69</v>
       </c>
       <c r="H58" s="4">
@@ -3529,12 +3507,12 @@
         <v>23</v>
       </c>
       <c r="J58" s="6">
-        <f t="shared" si="27"/>
-        <v>8</v>
+        <f t="shared" si="13"/>
+        <v>7.9540000000000006</v>
       </c>
       <c r="K58" s="6">
-        <f t="shared" si="15"/>
-        <v>-24</v>
+        <f t="shared" si="14"/>
+        <v>-23.862000000000002</v>
       </c>
       <c r="L58" s="10"/>
       <c r="M58" s="10"/>
@@ -3544,11 +3522,11 @@
         <v>17</v>
       </c>
       <c r="U58" s="11">
-        <f>N56</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="V58" s="8">
-        <f>O56</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -3566,11 +3544,11 @@
         <v>5</v>
       </c>
       <c r="F59" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>27</v>
       </c>
       <c r="G59" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>621</v>
       </c>
       <c r="H59" s="4">
@@ -3580,12 +3558,12 @@
         <v>23</v>
       </c>
       <c r="J59" s="6">
-        <f t="shared" si="27"/>
-        <v>11</v>
+        <f t="shared" si="13"/>
+        <v>10.954000000000001</v>
       </c>
       <c r="K59" s="6">
-        <f t="shared" si="15"/>
-        <v>297</v>
+        <f t="shared" si="14"/>
+        <v>295.75800000000004</v>
       </c>
       <c r="L59" s="10"/>
       <c r="M59" s="10"/>
@@ -3595,11 +3573,11 @@
         <v>18</v>
       </c>
       <c r="U59" s="11">
-        <f>N57</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="V59" s="8">
-        <f>O57</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -3608,7 +3586,7 @@
         <v>21</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D60" s="2">
         <v>3</v>
@@ -3617,11 +3595,11 @@
         <v>4</v>
       </c>
       <c r="F60" s="2">
-        <f t="shared" ref="F60:F61" si="28">+D60-E60</f>
+        <f t="shared" ref="F60:F61" si="25">+D60-E60</f>
         <v>-1</v>
       </c>
       <c r="G60" s="4">
-        <f t="shared" ref="G60:G61" si="29">+F60*23</f>
+        <f t="shared" ref="G60:G61" si="26">+F60*23</f>
         <v>-23</v>
       </c>
       <c r="H60" s="4">
@@ -3631,12 +3609,12 @@
         <v>23</v>
       </c>
       <c r="J60" s="6">
-        <f t="shared" ref="J60:J61" si="30">+I60-H60</f>
-        <v>11</v>
+        <f t="shared" si="13"/>
+        <v>10.954000000000001</v>
       </c>
       <c r="K60" s="6">
-        <f t="shared" ref="K60:K61" si="31">+J60*F60</f>
-        <v>-11</v>
+        <f t="shared" ref="K60:K61" si="27">+J60*F60</f>
+        <v>-10.954000000000001</v>
       </c>
       <c r="L60" s="10"/>
       <c r="M60" s="10"/>
@@ -3646,11 +3624,11 @@
         <v>19</v>
       </c>
       <c r="U60" s="11">
-        <f>N58</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="V60" s="8">
-        <f>O58</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -3659,7 +3637,7 @@
         <v>22</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D61" s="2">
         <v>3</v>
@@ -3668,11 +3646,11 @@
         <v>1</v>
       </c>
       <c r="F61" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="25"/>
         <v>2</v>
       </c>
       <c r="G61" s="4">
-        <f t="shared" si="29"/>
+        <f t="shared" si="26"/>
         <v>46</v>
       </c>
       <c r="H61" s="4">
@@ -3682,12 +3660,12 @@
         <v>23</v>
       </c>
       <c r="J61" s="6">
-        <f t="shared" si="30"/>
-        <v>11</v>
+        <f t="shared" si="13"/>
+        <v>10.954000000000001</v>
       </c>
       <c r="K61" s="6">
-        <f t="shared" si="31"/>
-        <v>22</v>
+        <f t="shared" si="27"/>
+        <v>21.908000000000001</v>
       </c>
       <c r="L61" s="10"/>
       <c r="M61" s="10"/>
@@ -3697,11 +3675,11 @@
         <v>20</v>
       </c>
       <c r="U61" s="11">
-        <f>N59</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="V61" s="8">
-        <f>O59</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -3710,7 +3688,7 @@
         <v>23</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D62" s="2">
         <v>6</v>
@@ -3719,11 +3697,11 @@
         <v>0</v>
       </c>
       <c r="F62" s="2">
-        <f t="shared" ref="F62" si="32">+D62-E62</f>
+        <f t="shared" ref="F62" si="28">+D62-E62</f>
         <v>6</v>
       </c>
       <c r="G62" s="4">
-        <f t="shared" ref="G62" si="33">+F62*23</f>
+        <f t="shared" ref="G62" si="29">+F62*23</f>
         <v>138</v>
       </c>
       <c r="H62" s="4">
@@ -3733,45 +3711,45 @@
         <v>23</v>
       </c>
       <c r="J62" s="6">
-        <f t="shared" ref="J62" si="34">+I62-H62</f>
-        <v>11</v>
+        <f t="shared" si="13"/>
+        <v>10.954000000000001</v>
       </c>
       <c r="K62" s="6">
-        <f t="shared" ref="K62" si="35">+J62*F62</f>
-        <v>66</v>
+        <f t="shared" ref="K62" si="30">+J62*F62</f>
+        <v>65.724000000000004</v>
       </c>
       <c r="L62" s="10"/>
       <c r="M62" s="10"/>
       <c r="N62" s="11"/>
       <c r="O62" s="8"/>
       <c r="T62" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="U62" s="11">
-        <f>N60</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="V62" s="8">
-        <f>O60</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
     <row r="63" spans="2:22" x14ac:dyDescent="0.25">
       <c r="T63" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="U63" s="11">
-        <f>N61</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="V63" s="8">
-        <f>O61</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
     <row r="64" spans="2:22" x14ac:dyDescent="0.25">
       <c r="T64" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="U64" s="8">
         <f>SUM(V42:V63)</f>
@@ -3780,7 +3758,7 @@
     </row>
     <row r="67" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C67" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D67" s="19">
         <f>SUM(D40:D62)</f>
@@ -3809,7 +3787,7 @@
       </c>
       <c r="E68" s="3"/>
       <c r="F68" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G68" s="3">
         <f>+G67+D68</f>
@@ -3825,15 +3803,15 @@
       </c>
       <c r="E69" s="1"/>
       <c r="F69" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G69" s="9">
         <f>SUM(K40:K62)</f>
-        <v>853</v>
+        <v>848.88800000000015</v>
       </c>
       <c r="H69" s="7">
         <f>+G69/2</f>
-        <v>426.5</v>
+        <v>424.44400000000007</v>
       </c>
     </row>
   </sheetData>
@@ -3848,10 +3826,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5ED568E-C8BF-4CAC-962C-4B9EA802F0E8}">
-  <dimension ref="B1:X69"/>
+  <dimension ref="B1:X70"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="V1" sqref="V1:W24"/>
+      <selection activeCell="S10" sqref="S10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3860,8 +3838,8 @@
     <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="7.85546875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="15.5703125" bestFit="1" customWidth="1"/>
@@ -3875,26 +3853,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="27"/>
+      <c r="O1" s="27"/>
+      <c r="V1" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="25"/>
-      <c r="O1" s="25"/>
-      <c r="V1" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="W1" s="34"/>
+      <c r="W1" s="32"/>
       <c r="X1" s="2"/>
     </row>
     <row r="2" spans="2:24" x14ac:dyDescent="0.25">
@@ -3911,46 +3889,46 @@
         <v>2</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>23</v>
+        <v>62</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="L2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="M2" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="P2" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="V2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="2:24" x14ac:dyDescent="0.25">
@@ -3964,29 +3942,29 @@
         <v>0</v>
       </c>
       <c r="E3" s="2">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F3" s="2">
         <f>+D3-E3</f>
-        <v>0</v>
+        <v>-8</v>
       </c>
       <c r="G3" s="4">
         <f>+F3*40</f>
-        <v>0</v>
+        <v>-320</v>
       </c>
       <c r="H3" s="4">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I3" s="4">
         <v>40</v>
       </c>
       <c r="J3" s="6">
-        <f>+I3-H3</f>
-        <v>15</v>
+        <f>(I3-(I3*0.12))-H3</f>
+        <v>11.200000000000003</v>
       </c>
       <c r="K3" s="6">
         <f>+J3*F3</f>
-        <v>0</v>
+        <v>-89.600000000000023</v>
       </c>
       <c r="L3" s="10">
         <v>10</v>
@@ -3996,11 +3974,11 @@
       </c>
       <c r="N3" s="11">
         <f>+M3-E3</f>
-        <v>6</v>
+        <v>-2</v>
       </c>
       <c r="O3" s="8">
         <f t="shared" ref="O3:O25" si="0">+N3*H3</f>
-        <v>150</v>
+        <v>-48</v>
       </c>
       <c r="P3">
         <f t="shared" ref="P3:P25" si="1">+N3+E3</f>
@@ -4008,25 +3986,25 @@
       </c>
       <c r="S3">
         <f>+U3*25</f>
-        <v>1750</v>
+        <v>700</v>
       </c>
       <c r="T3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="U3">
         <f>SUM(W3:W15)</f>
-        <v>70</v>
+        <v>28</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="W3" s="11">
         <f t="shared" ref="W3:W24" si="2">N3</f>
-        <v>6</v>
+        <v>-2</v>
       </c>
       <c r="X3" s="8">
         <f t="shared" ref="X3:X24" si="3">O3</f>
-        <v>150</v>
+        <v>-48</v>
       </c>
     </row>
     <row r="4" spans="2:24" x14ac:dyDescent="0.25">
@@ -4051,14 +4029,14 @@
         <v>0</v>
       </c>
       <c r="H4" s="4">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I4" s="4">
         <v>40</v>
       </c>
       <c r="J4" s="6">
-        <f t="shared" ref="J4:J15" si="6">+I4-H4</f>
-        <v>15</v>
+        <f t="shared" ref="J4:J25" si="6">(I4-(I4*0.12))-H4</f>
+        <v>11.200000000000003</v>
       </c>
       <c r="K4" s="6">
         <f t="shared" ref="K4:K24" si="7">+J4*F4</f>
@@ -4076,7 +4054,7 @@
       </c>
       <c r="O4" s="8">
         <f t="shared" si="0"/>
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="P4">
         <f t="shared" si="1"/>
@@ -4084,17 +4062,17 @@
       </c>
       <c r="S4">
         <f>+U4*15</f>
-        <v>660</v>
+        <v>480</v>
       </c>
       <c r="T4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="U4">
         <f>SUM(W16:W24)-W22</f>
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="V4" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="W4" s="11">
         <f t="shared" si="2"/>
@@ -4102,7 +4080,7 @@
       </c>
       <c r="X4" s="8">
         <f t="shared" si="3"/>
-        <v>150</v>
+        <v>144</v>
       </c>
     </row>
     <row r="5" spans="2:24" x14ac:dyDescent="0.25">
@@ -4116,29 +4094,29 @@
         <v>0</v>
       </c>
       <c r="E5" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F5" s="2">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="G5" s="4">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>-120</v>
       </c>
       <c r="H5" s="4">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I5" s="4">
         <v>40</v>
       </c>
       <c r="J5" s="6">
         <f t="shared" si="6"/>
-        <v>15</v>
+        <v>11.200000000000003</v>
       </c>
       <c r="K5" s="6">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>-33.600000000000009</v>
       </c>
       <c r="L5" s="10">
         <v>10</v>
@@ -4148,11 +4126,11 @@
       </c>
       <c r="N5" s="11">
         <f t="shared" si="8"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="O5" s="8">
         <f t="shared" si="0"/>
-        <v>150</v>
+        <v>72</v>
       </c>
       <c r="P5">
         <f t="shared" si="1"/>
@@ -4160,25 +4138,25 @@
       </c>
       <c r="S5">
         <f>+U5*15</f>
-        <v>525</v>
+        <v>255</v>
       </c>
       <c r="T5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="U5">
         <f>+W22</f>
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="V5" s="2" t="s">
         <v>7</v>
       </c>
       <c r="W5" s="11">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="X5" s="8">
         <f t="shared" si="3"/>
-        <v>150</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="2:24" x14ac:dyDescent="0.25">
@@ -4192,29 +4170,29 @@
         <v>0</v>
       </c>
       <c r="E6" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F6" s="2">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="G6" s="4">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>-160</v>
       </c>
       <c r="H6" s="4">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I6" s="4">
         <v>40</v>
       </c>
       <c r="J6" s="6">
         <f t="shared" si="6"/>
-        <v>15</v>
+        <v>11.200000000000003</v>
       </c>
       <c r="K6" s="6">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>-44.800000000000011</v>
       </c>
       <c r="L6" s="10">
         <v>10</v>
@@ -4224,11 +4202,11 @@
       </c>
       <c r="N6" s="11">
         <f t="shared" si="8"/>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="O6" s="8">
         <f t="shared" si="0"/>
-        <v>150</v>
+        <v>48</v>
       </c>
       <c r="P6">
         <f t="shared" si="1"/>
@@ -4236,18 +4214,18 @@
       </c>
       <c r="S6">
         <f>+S3+S4+S5</f>
-        <v>2935</v>
+        <v>1435</v>
       </c>
       <c r="V6" s="2" t="s">
         <v>8</v>
       </c>
       <c r="W6" s="11">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="X6" s="8">
         <f t="shared" si="3"/>
-        <v>150</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="2:24" x14ac:dyDescent="0.25">
@@ -4261,29 +4239,29 @@
         <v>0</v>
       </c>
       <c r="E7" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F7" s="2">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="G7" s="4">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="H7" s="4">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I7" s="4">
         <v>40</v>
       </c>
       <c r="J7" s="6">
         <f t="shared" si="6"/>
-        <v>15</v>
+        <v>11.200000000000003</v>
       </c>
       <c r="K7" s="6">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>-56.000000000000014</v>
       </c>
       <c r="L7" s="10">
         <v>10</v>
@@ -4293,11 +4271,11 @@
       </c>
       <c r="N7" s="11">
         <f t="shared" si="8"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="O7" s="8">
         <f t="shared" si="0"/>
-        <v>150</v>
+        <v>24</v>
       </c>
       <c r="P7">
         <f t="shared" si="1"/>
@@ -4308,11 +4286,11 @@
       </c>
       <c r="W7" s="11">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="X7" s="8">
         <f t="shared" si="3"/>
-        <v>150</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="2:24" x14ac:dyDescent="0.25">
@@ -4326,29 +4304,29 @@
         <v>0</v>
       </c>
       <c r="E8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" s="2">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G8" s="4">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>-40</v>
       </c>
       <c r="H8" s="4">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I8" s="4">
         <v>40</v>
       </c>
       <c r="J8" s="6">
         <f t="shared" si="6"/>
-        <v>15</v>
+        <v>11.200000000000003</v>
       </c>
       <c r="K8" s="6">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>-11.200000000000003</v>
       </c>
       <c r="L8" s="10">
         <v>5</v>
@@ -4358,11 +4336,11 @@
       </c>
       <c r="N8" s="11">
         <f t="shared" si="8"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O8" s="8">
         <f t="shared" si="0"/>
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="P8">
         <f t="shared" si="1"/>
@@ -4373,11 +4351,11 @@
       </c>
       <c r="W8" s="11">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="X8" s="8">
         <f t="shared" si="3"/>
-        <v>150</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="2:24" x14ac:dyDescent="0.25">
@@ -4391,29 +4369,29 @@
         <v>0</v>
       </c>
       <c r="E9" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F9" s="13">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="G9" s="14">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="H9" s="14">
-        <v>25</v>
+        <v>-120</v>
+      </c>
+      <c r="H9" s="4">
+        <v>24</v>
       </c>
       <c r="I9" s="14">
         <v>40</v>
       </c>
-      <c r="J9" s="15">
+      <c r="J9" s="6">
         <f t="shared" si="6"/>
-        <v>15</v>
+        <v>11.200000000000003</v>
       </c>
       <c r="K9" s="15">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>-33.600000000000009</v>
       </c>
       <c r="L9" s="16">
         <v>2</v>
@@ -4423,11 +4401,11 @@
       </c>
       <c r="N9" s="11">
         <f t="shared" si="8"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O9" s="15">
         <f t="shared" si="0"/>
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="P9" s="17">
         <f t="shared" si="1"/>
@@ -4438,11 +4416,11 @@
       </c>
       <c r="W9" s="11">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="X9" s="8">
         <f t="shared" si="3"/>
-        <v>75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="2:24" x14ac:dyDescent="0.25">
@@ -4456,29 +4434,29 @@
         <v>0</v>
       </c>
       <c r="E10" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F10" s="2">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="G10" s="4">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>-120</v>
       </c>
       <c r="H10" s="4">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I10" s="4">
         <v>40</v>
       </c>
       <c r="J10" s="6">
         <f t="shared" si="6"/>
-        <v>15</v>
+        <v>11.200000000000003</v>
       </c>
       <c r="K10" s="6">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>-33.600000000000009</v>
       </c>
       <c r="L10" s="10">
         <v>8</v>
@@ -4488,11 +4466,11 @@
       </c>
       <c r="N10" s="11">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="O10" s="8">
         <f t="shared" si="0"/>
-        <v>125</v>
+        <v>48</v>
       </c>
       <c r="P10">
         <f t="shared" si="1"/>
@@ -4503,11 +4481,11 @@
       </c>
       <c r="W10" s="11">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="X10" s="8">
         <f t="shared" si="3"/>
-        <v>125</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="2:24" x14ac:dyDescent="0.25">
@@ -4515,35 +4493,35 @@
         <v>9</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D11" s="2">
         <v>0</v>
       </c>
       <c r="E11" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F11" s="13">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>-6</v>
       </c>
       <c r="G11" s="14">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="H11" s="14">
-        <v>25</v>
+        <v>-240</v>
+      </c>
+      <c r="H11" s="4">
+        <v>24</v>
       </c>
       <c r="I11" s="14">
         <v>40</v>
       </c>
-      <c r="J11" s="15">
+      <c r="J11" s="6">
         <f t="shared" si="6"/>
-        <v>15</v>
+        <v>11.200000000000003</v>
       </c>
       <c r="K11" s="15">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>-67.200000000000017</v>
       </c>
       <c r="L11" s="16">
         <v>6</v>
@@ -4553,26 +4531,26 @@
       </c>
       <c r="N11" s="11">
         <f t="shared" si="8"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="O11" s="15">
         <f t="shared" si="0"/>
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="P11" s="17">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="V11" s="13" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="W11" s="11">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="X11" s="8">
         <f t="shared" si="3"/>
-        <v>150</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="2:24" x14ac:dyDescent="0.25">
@@ -4580,35 +4558,35 @@
         <v>10</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D12" s="2">
         <v>0</v>
       </c>
       <c r="E12" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F12" s="13">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="G12" s="14">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="H12" s="14">
-        <v>25</v>
+        <v>-120</v>
+      </c>
+      <c r="H12" s="4">
+        <v>24</v>
       </c>
       <c r="I12" s="14">
         <v>40</v>
       </c>
-      <c r="J12" s="15">
+      <c r="J12" s="6">
         <f t="shared" si="6"/>
-        <v>15</v>
+        <v>11.200000000000003</v>
       </c>
       <c r="K12" s="15">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>-33.600000000000009</v>
       </c>
       <c r="L12" s="16">
         <v>5</v>
@@ -4618,26 +4596,26 @@
       </c>
       <c r="N12" s="11">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="O12" s="15">
         <f t="shared" si="0"/>
-        <v>125</v>
+        <v>48</v>
       </c>
       <c r="P12" s="17">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="V12" s="13" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="W12" s="11">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="X12" s="8">
         <f t="shared" si="3"/>
-        <v>125</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="2:24" x14ac:dyDescent="0.25">
@@ -4645,7 +4623,7 @@
         <v>11</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D13" s="2">
         <v>0</v>
@@ -4661,15 +4639,15 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="H13" s="14">
-        <v>25</v>
+      <c r="H13" s="4">
+        <v>24</v>
       </c>
       <c r="I13" s="14">
         <v>40</v>
       </c>
-      <c r="J13" s="15">
+      <c r="J13" s="6">
         <f t="shared" si="6"/>
-        <v>15</v>
+        <v>11.200000000000003</v>
       </c>
       <c r="K13" s="15">
         <f t="shared" si="7"/>
@@ -4687,14 +4665,14 @@
       </c>
       <c r="O13" s="15">
         <f t="shared" si="0"/>
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="P13" s="17">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="V13" s="13" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="W13" s="11">
         <f t="shared" si="2"/>
@@ -4702,7 +4680,7 @@
       </c>
       <c r="X13" s="8">
         <f t="shared" si="3"/>
-        <v>150</v>
+        <v>144</v>
       </c>
     </row>
     <row r="14" spans="2:24" x14ac:dyDescent="0.25">
@@ -4710,7 +4688,7 @@
         <v>12</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D14" s="2">
         <v>0</v>
@@ -4726,15 +4704,15 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="H14" s="14">
-        <v>25</v>
+      <c r="H14" s="4">
+        <v>24</v>
       </c>
       <c r="I14" s="14">
         <v>40</v>
       </c>
-      <c r="J14" s="15">
+      <c r="J14" s="6">
         <f t="shared" si="6"/>
-        <v>15</v>
+        <v>11.200000000000003</v>
       </c>
       <c r="K14" s="15">
         <f t="shared" si="7"/>
@@ -4752,14 +4730,14 @@
       </c>
       <c r="O14" s="15">
         <f t="shared" si="0"/>
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="P14" s="17">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="V14" s="13" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="W14" s="11">
         <f t="shared" si="2"/>
@@ -4767,7 +4745,7 @@
       </c>
       <c r="X14" s="8">
         <f t="shared" si="3"/>
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="2:24" x14ac:dyDescent="0.25">
@@ -4781,29 +4759,29 @@
         <v>0</v>
       </c>
       <c r="E15" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F15" s="2">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>-6</v>
       </c>
       <c r="G15" s="4">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>-240</v>
       </c>
       <c r="H15" s="4">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I15" s="4">
         <v>40</v>
       </c>
       <c r="J15" s="6">
         <f t="shared" si="6"/>
-        <v>15</v>
+        <v>11.200000000000003</v>
       </c>
       <c r="K15" s="6">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>-67.200000000000017</v>
       </c>
       <c r="L15" s="10">
         <v>10</v>
@@ -4813,11 +4791,11 @@
       </c>
       <c r="N15" s="11">
         <f t="shared" si="8"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="O15" s="8">
         <f t="shared" si="0"/>
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="P15">
         <f t="shared" si="1"/>
@@ -4828,11 +4806,11 @@
       </c>
       <c r="W15" s="11">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="X15" s="8">
         <f t="shared" si="3"/>
-        <v>150</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="2:24" x14ac:dyDescent="0.25">
@@ -4863,8 +4841,8 @@
         <v>23</v>
       </c>
       <c r="J16" s="6">
-        <f>+I16-H16</f>
-        <v>8</v>
+        <f t="shared" si="6"/>
+        <v>5.240000000000002</v>
       </c>
       <c r="K16" s="6">
         <f t="shared" si="7"/>
@@ -4928,8 +4906,8 @@
         <v>23</v>
       </c>
       <c r="J17" s="6">
-        <f t="shared" ref="J17:J24" si="10">+I17-H17</f>
-        <v>8</v>
+        <f t="shared" si="6"/>
+        <v>5.240000000000002</v>
       </c>
       <c r="K17" s="6">
         <f t="shared" si="7"/>
@@ -4994,8 +4972,8 @@
         <v>23</v>
       </c>
       <c r="J18" s="6">
-        <f t="shared" si="10"/>
-        <v>8</v>
+        <f t="shared" si="6"/>
+        <v>5.240000000000002</v>
       </c>
       <c r="K18" s="6">
         <f t="shared" si="7"/>
@@ -5042,15 +5020,15 @@
         <v>0</v>
       </c>
       <c r="E19" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F19" s="2">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="G19" s="4">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>-69</v>
       </c>
       <c r="H19" s="4">
         <v>15</v>
@@ -5059,12 +5037,12 @@
         <v>23</v>
       </c>
       <c r="J19" s="6">
-        <f t="shared" si="10"/>
-        <v>8</v>
+        <f t="shared" si="6"/>
+        <v>5.240000000000002</v>
       </c>
       <c r="K19" s="6">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>-15.720000000000006</v>
       </c>
       <c r="L19" s="10">
         <v>10</v>
@@ -5074,11 +5052,11 @@
       </c>
       <c r="N19" s="11">
         <f t="shared" si="8"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="O19" s="8">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="P19">
         <f t="shared" si="1"/>
@@ -5089,11 +5067,11 @@
       </c>
       <c r="W19" s="11">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="X19" s="8">
         <f t="shared" si="3"/>
-        <v>90</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20" spans="2:24" x14ac:dyDescent="0.25">
@@ -5107,15 +5085,15 @@
         <v>0</v>
       </c>
       <c r="E20" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F20" s="2">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="G20" s="4">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>-46</v>
       </c>
       <c r="H20" s="4">
         <v>15</v>
@@ -5124,12 +5102,12 @@
         <v>23</v>
       </c>
       <c r="J20" s="6">
-        <f t="shared" si="10"/>
-        <v>8</v>
+        <f t="shared" si="6"/>
+        <v>5.240000000000002</v>
       </c>
       <c r="K20" s="6">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>-10.480000000000004</v>
       </c>
       <c r="L20" s="10">
         <v>10</v>
@@ -5139,11 +5117,11 @@
       </c>
       <c r="N20" s="11">
         <f t="shared" si="8"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="O20" s="8">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="P20">
         <f t="shared" si="1"/>
@@ -5154,11 +5132,11 @@
       </c>
       <c r="W20" s="11">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="X20" s="8">
         <f t="shared" si="3"/>
-        <v>90</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21" spans="2:24" x14ac:dyDescent="0.25">
@@ -5172,15 +5150,15 @@
         <v>0</v>
       </c>
       <c r="E21" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F21" s="2">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="G21" s="4">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>-69</v>
       </c>
       <c r="H21" s="4">
         <v>15</v>
@@ -5189,12 +5167,12 @@
         <v>23</v>
       </c>
       <c r="J21" s="6">
-        <f t="shared" si="10"/>
-        <v>8</v>
+        <f t="shared" si="6"/>
+        <v>5.240000000000002</v>
       </c>
       <c r="K21" s="6">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>-15.720000000000006</v>
       </c>
       <c r="L21" s="10">
         <v>10</v>
@@ -5204,11 +5182,11 @@
       </c>
       <c r="N21" s="11">
         <f t="shared" si="8"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="O21" s="8">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="P21">
         <f t="shared" si="1"/>
@@ -5220,11 +5198,11 @@
       </c>
       <c r="W21" s="11">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="X21" s="8">
         <f t="shared" si="3"/>
-        <v>90</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22" spans="2:24" x14ac:dyDescent="0.25">
@@ -5238,15 +5216,15 @@
         <v>0</v>
       </c>
       <c r="E22" s="2">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="F22" s="2">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>-18</v>
       </c>
       <c r="G22" s="4">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>-414</v>
       </c>
       <c r="H22" s="4">
         <v>15</v>
@@ -5255,12 +5233,12 @@
         <v>23</v>
       </c>
       <c r="J22" s="6">
-        <f t="shared" si="10"/>
-        <v>8</v>
+        <f t="shared" si="6"/>
+        <v>5.240000000000002</v>
       </c>
       <c r="K22" s="6">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>-94.320000000000036</v>
       </c>
       <c r="L22" s="10">
         <v>32</v>
@@ -5270,11 +5248,11 @@
       </c>
       <c r="N22" s="11">
         <f t="shared" si="8"/>
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="O22" s="8">
         <f t="shared" si="0"/>
-        <v>525</v>
+        <v>255</v>
       </c>
       <c r="P22">
         <f t="shared" si="1"/>
@@ -5285,11 +5263,11 @@
       </c>
       <c r="W22" s="11">
         <f t="shared" si="2"/>
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="X22" s="8">
         <f t="shared" si="3"/>
-        <v>525</v>
+        <v>255</v>
       </c>
     </row>
     <row r="23" spans="2:24" x14ac:dyDescent="0.25">
@@ -5297,7 +5275,7 @@
         <v>21</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D23" s="2">
         <v>0</v>
@@ -5320,8 +5298,8 @@
         <v>23</v>
       </c>
       <c r="J23" s="6">
-        <f t="shared" si="10"/>
-        <v>8</v>
+        <f t="shared" si="6"/>
+        <v>5.240000000000002</v>
       </c>
       <c r="K23" s="6">
         <f t="shared" si="7"/>
@@ -5346,14 +5324,14 @@
         <v>4</v>
       </c>
       <c r="S23" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="T23" s="8">
         <f>SUM(O3:O24)</f>
-        <v>2935</v>
+        <v>1407</v>
       </c>
       <c r="V23" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="W23" s="11">
         <f t="shared" si="2"/>
@@ -5369,21 +5347,21 @@
         <v>22</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D24" s="2">
         <v>0</v>
       </c>
       <c r="E24" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F24" s="2">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="G24" s="4">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>-92</v>
       </c>
       <c r="H24" s="4">
         <v>15</v>
@@ -5392,12 +5370,12 @@
         <v>23</v>
       </c>
       <c r="J24" s="6">
-        <f t="shared" si="10"/>
-        <v>8</v>
+        <f t="shared" si="6"/>
+        <v>5.240000000000002</v>
       </c>
       <c r="K24" s="6">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>-20.960000000000008</v>
       </c>
       <c r="L24" s="10">
         <v>5</v>
@@ -5407,18 +5385,18 @@
       </c>
       <c r="N24" s="11">
         <f t="shared" si="8"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O24" s="8">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="P24">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="Q24" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="R24" s="3">
         <f>SUM(D3:D24)</f>
@@ -5426,26 +5404,26 @@
       </c>
       <c r="S24" s="3">
         <f>SUM(E3:E24)</f>
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="T24" s="3">
         <f>SUM(F3:F24)</f>
-        <v>0</v>
+        <v>-72</v>
       </c>
       <c r="U24" s="3">
         <f>SUM(G3:G24)</f>
-        <v>0</v>
+        <v>-2370</v>
       </c>
       <c r="V24" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="W24" s="11">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="X24" s="8">
         <f t="shared" si="3"/>
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="2:24" x14ac:dyDescent="0.25">
@@ -5453,7 +5431,7 @@
         <v>23</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D25" s="2">
         <v>0</v>
@@ -5462,11 +5440,11 @@
         <v>0</v>
       </c>
       <c r="F25" s="2">
-        <f t="shared" ref="F25" si="11">+D25-E25</f>
+        <f t="shared" ref="F25" si="10">+D25-E25</f>
         <v>0</v>
       </c>
       <c r="G25" s="4">
-        <f t="shared" ref="G25" si="12">+F25*23</f>
+        <f t="shared" ref="G25" si="11">+F25*23</f>
         <v>0</v>
       </c>
       <c r="H25" s="4">
@@ -5476,11 +5454,11 @@
         <v>23</v>
       </c>
       <c r="J25" s="6">
-        <f t="shared" ref="J25" si="13">+I25-H25</f>
-        <v>8</v>
+        <f t="shared" si="6"/>
+        <v>5.240000000000002</v>
       </c>
       <c r="K25" s="6">
-        <f t="shared" ref="K25" si="14">+J25*F25</f>
+        <f t="shared" ref="K25" si="12">+J25*F25</f>
         <v>0</v>
       </c>
       <c r="L25" s="10">
@@ -5490,7 +5468,7 @@
         <v>4</v>
       </c>
       <c r="N25" s="11">
-        <f t="shared" ref="N25" si="15">+M25-E25</f>
+        <f t="shared" ref="N25" si="13">+M25-E25</f>
         <v>4</v>
       </c>
       <c r="O25" s="8">
@@ -5502,25 +5480,25 @@
         <v>4</v>
       </c>
       <c r="Q25" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="R25" s="3">
         <v>0</v>
       </c>
       <c r="S25" s="3"/>
       <c r="T25" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="U25" s="3">
         <f>+U24+R25</f>
-        <v>0</v>
+        <v>-2370</v>
       </c>
       <c r="V25" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="W25" s="18">
         <f>SUM(X3:X24)</f>
-        <v>2935</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="26" spans="2:24" x14ac:dyDescent="0.25">
@@ -5532,21 +5510,21 @@
       </c>
       <c r="S26" s="1"/>
       <c r="T26" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="U26" s="9">
         <f>SUM(K3:K24)</f>
-        <v>0</v>
+        <v>-627.60000000000036</v>
       </c>
     </row>
     <row r="27" spans="2:24" x14ac:dyDescent="0.25">
       <c r="P27" s="12"/>
       <c r="T27" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="U27" s="7">
         <f>+U26/2</f>
-        <v>0</v>
+        <v>-313.80000000000018</v>
       </c>
     </row>
     <row r="34" spans="2:16" x14ac:dyDescent="0.25">
@@ -5559,22 +5537,22 @@
       <c r="P37" s="17"/>
     </row>
     <row r="38" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B38" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="C38" s="27"/>
-      <c r="D38" s="27"/>
-      <c r="E38" s="27"/>
-      <c r="F38" s="27"/>
-      <c r="G38" s="27"/>
-      <c r="H38" s="27"/>
-      <c r="I38" s="27"/>
-      <c r="J38" s="27"/>
-      <c r="K38" s="27"/>
-      <c r="L38" s="27"/>
-      <c r="M38" s="27"/>
-      <c r="N38" s="27"/>
-      <c r="O38" s="27"/>
+      <c r="B38" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="C38" s="29"/>
+      <c r="D38" s="29"/>
+      <c r="E38" s="29"/>
+      <c r="F38" s="29"/>
+      <c r="G38" s="29"/>
+      <c r="H38" s="29"/>
+      <c r="I38" s="29"/>
+      <c r="J38" s="29"/>
+      <c r="K38" s="29"/>
+      <c r="L38" s="29"/>
+      <c r="M38" s="29"/>
+      <c r="N38" s="29"/>
+      <c r="O38" s="29"/>
       <c r="P38" s="17"/>
     </row>
     <row r="39" spans="2:16" x14ac:dyDescent="0.25">
@@ -5591,19 +5569,19 @@
         <v>2</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>23</v>
+        <v>62</v>
       </c>
       <c r="K39" s="2" t="s">
         <v>3</v>
@@ -5619,82 +5597,89 @@
         <v>1</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D40" s="2">
-        <v>0</v>
+        <v>41</v>
+      </c>
+      <c r="D40" s="33">
+        <v>12</v>
       </c>
       <c r="E40" s="2">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F40" s="2">
         <f>+D40-E40</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G40" s="4">
         <f>+F40*40</f>
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="H40" s="4">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I40" s="4">
         <v>40</v>
       </c>
       <c r="J40" s="6">
-        <f>+I40-H40</f>
-        <v>15</v>
+        <f>(I40-(I40*0.12))-H40</f>
+        <v>11.200000000000003</v>
       </c>
       <c r="K40" s="6">
         <f>+J40*F40</f>
-        <v>0</v>
+        <v>44.800000000000011</v>
       </c>
       <c r="L40" s="10"/>
       <c r="M40" s="10"/>
-      <c r="N40" s="11"/>
-      <c r="O40" s="8"/>
+      <c r="N40" s="33">
+        <v>12</v>
+      </c>
+      <c r="O40" s="8">
+        <f>+N40*H40</f>
+        <v>288</v>
+      </c>
     </row>
     <row r="41" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B41" s="2">
         <v>2</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D41" s="2">
-        <v>0</v>
+        <v>40</v>
+      </c>
+      <c r="D41" s="33">
+        <v>19</v>
       </c>
       <c r="E41" s="2">
         <v>0</v>
       </c>
       <c r="F41" s="2">
-        <f t="shared" ref="F41:F62" si="16">+D41-E41</f>
-        <v>0</v>
+        <f t="shared" ref="F41:F62" si="14">+D41-E41</f>
+        <v>19</v>
       </c>
       <c r="G41" s="4">
-        <f t="shared" ref="G41:G52" si="17">+F41*40</f>
-        <v>0</v>
+        <f t="shared" ref="G41:G52" si="15">+F41*40</f>
+        <v>760</v>
       </c>
       <c r="H41" s="4">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I41" s="4">
         <v>40</v>
       </c>
       <c r="J41" s="6">
-        <f t="shared" ref="J41:J52" si="18">+I41-H41</f>
-        <v>15</v>
+        <f t="shared" ref="J41:J62" si="16">(I41-(I41*0.12))-H41</f>
+        <v>11.200000000000003</v>
       </c>
       <c r="K41" s="6">
-        <f t="shared" ref="K41:K62" si="19">+J41*F41</f>
-        <v>0</v>
+        <f t="shared" ref="K41:K62" si="17">+J41*F41</f>
+        <v>212.80000000000007</v>
       </c>
       <c r="L41" s="10"/>
       <c r="M41" s="10"/>
-      <c r="N41" s="11"/>
+      <c r="N41" s="33">
+        <v>19</v>
+      </c>
       <c r="O41" s="8">
-        <f t="shared" ref="O41:O62" si="20">+N41*H41</f>
-        <v>0</v>
+        <f>+N41*H41</f>
+        <v>456</v>
       </c>
     </row>
     <row r="42" spans="2:16" x14ac:dyDescent="0.25">
@@ -5704,40 +5689,42 @@
       <c r="C42" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D42" s="2">
-        <v>0</v>
+      <c r="D42" s="33">
+        <v>6</v>
       </c>
       <c r="E42" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F42" s="2">
-        <f t="shared" si="16"/>
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>3</v>
       </c>
       <c r="G42" s="4">
-        <f t="shared" si="17"/>
-        <v>0</v>
+        <f t="shared" si="15"/>
+        <v>120</v>
       </c>
       <c r="H42" s="4">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I42" s="4">
         <v>40</v>
       </c>
       <c r="J42" s="6">
-        <f t="shared" si="18"/>
-        <v>15</v>
+        <f t="shared" si="16"/>
+        <v>11.200000000000003</v>
       </c>
       <c r="K42" s="6">
-        <f t="shared" si="19"/>
-        <v>0</v>
+        <f t="shared" si="17"/>
+        <v>33.600000000000009</v>
       </c>
       <c r="L42" s="10"/>
       <c r="M42" s="10"/>
-      <c r="N42" s="11"/>
+      <c r="N42" s="33">
+        <v>6</v>
+      </c>
       <c r="O42" s="8">
-        <f t="shared" si="20"/>
-        <v>0</v>
+        <f t="shared" ref="O41:O62" si="18">+N42*H42</f>
+        <v>144</v>
       </c>
     </row>
     <row r="43" spans="2:16" x14ac:dyDescent="0.25">
@@ -5747,40 +5734,42 @@
       <c r="C43" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D43" s="2">
-        <v>0</v>
+      <c r="D43" s="33">
+        <v>6</v>
       </c>
       <c r="E43" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F43" s="2">
-        <f t="shared" si="16"/>
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>2</v>
       </c>
       <c r="G43" s="4">
-        <f t="shared" si="17"/>
-        <v>0</v>
+        <f t="shared" si="15"/>
+        <v>80</v>
       </c>
       <c r="H43" s="4">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I43" s="4">
         <v>40</v>
       </c>
       <c r="J43" s="6">
-        <f t="shared" si="18"/>
-        <v>15</v>
+        <f t="shared" si="16"/>
+        <v>11.200000000000003</v>
       </c>
       <c r="K43" s="6">
-        <f t="shared" si="19"/>
-        <v>0</v>
+        <f t="shared" si="17"/>
+        <v>22.400000000000006</v>
       </c>
       <c r="L43" s="10"/>
       <c r="M43" s="10"/>
-      <c r="N43" s="11"/>
+      <c r="N43" s="33">
+        <v>6</v>
+      </c>
       <c r="O43" s="8">
-        <f t="shared" si="20"/>
-        <v>0</v>
+        <f t="shared" si="18"/>
+        <v>144</v>
       </c>
     </row>
     <row r="44" spans="2:16" x14ac:dyDescent="0.25">
@@ -5790,40 +5779,42 @@
       <c r="C44" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D44" s="2">
-        <v>0</v>
+      <c r="D44" s="33">
+        <v>6</v>
       </c>
       <c r="E44" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F44" s="2">
-        <f t="shared" si="16"/>
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>1</v>
       </c>
       <c r="G44" s="4">
-        <f t="shared" si="17"/>
-        <v>0</v>
+        <f t="shared" si="15"/>
+        <v>40</v>
       </c>
       <c r="H44" s="4">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I44" s="4">
         <v>40</v>
       </c>
       <c r="J44" s="6">
-        <f t="shared" si="18"/>
-        <v>15</v>
+        <f t="shared" si="16"/>
+        <v>11.200000000000003</v>
       </c>
       <c r="K44" s="6">
-        <f t="shared" si="19"/>
-        <v>0</v>
+        <f t="shared" si="17"/>
+        <v>11.200000000000003</v>
       </c>
       <c r="L44" s="10"/>
       <c r="M44" s="10"/>
-      <c r="N44" s="11"/>
+      <c r="N44" s="33">
+        <v>6</v>
+      </c>
       <c r="O44" s="8">
-        <f t="shared" si="20"/>
-        <v>0</v>
+        <f t="shared" si="18"/>
+        <v>144</v>
       </c>
     </row>
     <row r="45" spans="2:16" x14ac:dyDescent="0.25">
@@ -5833,40 +5824,42 @@
       <c r="C45" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D45" s="2">
-        <v>0</v>
+      <c r="D45" s="33">
+        <v>6</v>
       </c>
       <c r="E45" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F45" s="2">
-        <f t="shared" si="16"/>
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>5</v>
       </c>
       <c r="G45" s="4">
-        <f t="shared" si="17"/>
-        <v>0</v>
+        <f t="shared" si="15"/>
+        <v>200</v>
       </c>
       <c r="H45" s="4">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I45" s="4">
         <v>40</v>
       </c>
       <c r="J45" s="6">
-        <f t="shared" si="18"/>
-        <v>15</v>
+        <f t="shared" si="16"/>
+        <v>11.200000000000003</v>
       </c>
       <c r="K45" s="6">
-        <f t="shared" si="19"/>
-        <v>0</v>
+        <f t="shared" si="17"/>
+        <v>56.000000000000014</v>
       </c>
       <c r="L45" s="10"/>
       <c r="M45" s="10"/>
-      <c r="N45" s="11"/>
+      <c r="N45" s="33">
+        <v>6</v>
+      </c>
       <c r="O45" s="8">
-        <f t="shared" si="20"/>
-        <v>0</v>
+        <f t="shared" si="18"/>
+        <v>144</v>
       </c>
     </row>
     <row r="46" spans="2:16" x14ac:dyDescent="0.25">
@@ -5876,40 +5869,42 @@
       <c r="C46" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D46" s="2">
-        <v>0</v>
+      <c r="D46" s="33">
+        <v>6</v>
       </c>
       <c r="E46" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F46" s="13">
-        <f t="shared" si="16"/>
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>3</v>
       </c>
       <c r="G46" s="14">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="H46" s="14">
-        <v>25</v>
+        <f t="shared" si="15"/>
+        <v>120</v>
+      </c>
+      <c r="H46" s="4">
+        <v>24</v>
       </c>
       <c r="I46" s="14">
         <v>40</v>
       </c>
-      <c r="J46" s="15">
-        <f t="shared" si="18"/>
-        <v>15</v>
+      <c r="J46" s="6">
+        <f t="shared" si="16"/>
+        <v>11.200000000000003</v>
       </c>
       <c r="K46" s="15">
-        <f t="shared" si="19"/>
-        <v>0</v>
+        <f t="shared" si="17"/>
+        <v>33.600000000000009</v>
       </c>
       <c r="L46" s="16"/>
       <c r="M46" s="10"/>
-      <c r="N46" s="16"/>
+      <c r="N46" s="33">
+        <v>6</v>
+      </c>
       <c r="O46" s="15">
-        <f t="shared" si="20"/>
-        <v>0</v>
+        <f t="shared" si="18"/>
+        <v>144</v>
       </c>
     </row>
     <row r="47" spans="2:16" x14ac:dyDescent="0.25">
@@ -5919,40 +5914,42 @@
       <c r="C47" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="D47" s="2">
-        <v>0</v>
+      <c r="D47" s="33">
+        <v>5</v>
       </c>
       <c r="E47" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F47" s="20">
-        <f t="shared" si="16"/>
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>2</v>
       </c>
       <c r="G47" s="21">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="H47" s="21">
-        <v>25</v>
+        <f t="shared" si="15"/>
+        <v>80</v>
+      </c>
+      <c r="H47" s="4">
+        <v>24</v>
       </c>
       <c r="I47" s="21">
         <v>40</v>
       </c>
-      <c r="J47" s="22">
-        <f t="shared" si="18"/>
-        <v>15</v>
+      <c r="J47" s="6">
+        <f t="shared" si="16"/>
+        <v>11.200000000000003</v>
       </c>
       <c r="K47" s="22">
-        <f t="shared" si="19"/>
-        <v>0</v>
+        <f t="shared" si="17"/>
+        <v>22.400000000000006</v>
       </c>
       <c r="L47" s="10"/>
       <c r="M47" s="10"/>
-      <c r="N47" s="11"/>
+      <c r="N47" s="33">
+        <v>5</v>
+      </c>
       <c r="O47" s="8">
-        <f t="shared" si="20"/>
-        <v>0</v>
+        <f t="shared" si="18"/>
+        <v>120</v>
       </c>
     </row>
     <row r="48" spans="2:16" x14ac:dyDescent="0.25">
@@ -5960,42 +5957,44 @@
         <v>9</v>
       </c>
       <c r="C48" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="D48" s="2">
-        <v>0</v>
+        <v>34</v>
+      </c>
+      <c r="D48" s="33">
+        <v>6</v>
       </c>
       <c r="E48" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F48" s="13">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="G48" s="14">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="H48" s="14">
-        <v>25</v>
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="H48" s="4">
+        <v>24</v>
       </c>
       <c r="I48" s="14">
         <v>40</v>
       </c>
-      <c r="J48" s="15">
-        <f t="shared" si="18"/>
-        <v>15</v>
+      <c r="J48" s="6">
+        <f t="shared" si="16"/>
+        <v>11.200000000000003</v>
       </c>
       <c r="K48" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="L48" s="16"/>
       <c r="M48" s="10"/>
-      <c r="N48" s="16"/>
+      <c r="N48" s="33">
+        <v>6</v>
+      </c>
       <c r="O48" s="15">
-        <f t="shared" si="20"/>
-        <v>0</v>
+        <f t="shared" si="18"/>
+        <v>144</v>
       </c>
     </row>
     <row r="49" spans="2:15" x14ac:dyDescent="0.25">
@@ -6003,42 +6002,44 @@
         <v>10</v>
       </c>
       <c r="C49" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="D49" s="2">
-        <v>0</v>
+        <v>35</v>
+      </c>
+      <c r="D49" s="33">
+        <v>6</v>
       </c>
       <c r="E49" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F49" s="13">
-        <f t="shared" si="16"/>
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>3</v>
       </c>
       <c r="G49" s="14">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="H49" s="14">
-        <v>25</v>
+        <f t="shared" si="15"/>
+        <v>120</v>
+      </c>
+      <c r="H49" s="4">
+        <v>24</v>
       </c>
       <c r="I49" s="14">
         <v>40</v>
       </c>
-      <c r="J49" s="15">
-        <f t="shared" si="18"/>
-        <v>15</v>
+      <c r="J49" s="6">
+        <f t="shared" si="16"/>
+        <v>11.200000000000003</v>
       </c>
       <c r="K49" s="15">
-        <f t="shared" si="19"/>
-        <v>0</v>
+        <f t="shared" si="17"/>
+        <v>33.600000000000009</v>
       </c>
       <c r="L49" s="16"/>
       <c r="M49" s="10"/>
-      <c r="N49" s="16"/>
+      <c r="N49" s="33">
+        <v>6</v>
+      </c>
       <c r="O49" s="15">
-        <f t="shared" si="20"/>
-        <v>0</v>
+        <f t="shared" si="18"/>
+        <v>144</v>
       </c>
     </row>
     <row r="50" spans="2:15" x14ac:dyDescent="0.25">
@@ -6046,7 +6047,7 @@
         <v>11</v>
       </c>
       <c r="C50" s="13" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D50" s="2">
         <v>0</v>
@@ -6055,32 +6056,34 @@
         <v>0</v>
       </c>
       <c r="F50" s="13">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="G50" s="14">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="H50" s="14">
-        <v>25</v>
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="H50" s="4">
+        <v>24</v>
       </c>
       <c r="I50" s="14">
         <v>40</v>
       </c>
-      <c r="J50" s="15">
-        <f t="shared" si="18"/>
-        <v>15</v>
+      <c r="J50" s="6">
+        <f t="shared" si="16"/>
+        <v>11.200000000000003</v>
       </c>
       <c r="K50" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="L50" s="16"/>
       <c r="M50" s="10"/>
-      <c r="N50" s="16"/>
+      <c r="N50" s="2">
+        <v>0</v>
+      </c>
       <c r="O50" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -6089,7 +6092,7 @@
         <v>12</v>
       </c>
       <c r="C51" s="13" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D51" s="2">
         <v>0</v>
@@ -6098,32 +6101,34 @@
         <v>0</v>
       </c>
       <c r="F51" s="13">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="G51" s="14">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="H51" s="14">
-        <v>25</v>
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="H51" s="4">
+        <v>24</v>
       </c>
       <c r="I51" s="14">
         <v>40</v>
       </c>
-      <c r="J51" s="15">
-        <f t="shared" si="18"/>
-        <v>15</v>
+      <c r="J51" s="6">
+        <f t="shared" si="16"/>
+        <v>11.200000000000003</v>
       </c>
       <c r="K51" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="L51" s="16"/>
       <c r="M51" s="10"/>
-      <c r="N51" s="16"/>
+      <c r="N51" s="2">
+        <v>0</v>
+      </c>
       <c r="O51" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -6134,40 +6139,42 @@
       <c r="C52" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D52" s="2">
-        <v>0</v>
+      <c r="D52" s="33">
+        <v>6</v>
       </c>
       <c r="E52" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F52" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="G52" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="H52" s="4">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I52" s="4">
         <v>40</v>
       </c>
       <c r="J52" s="6">
-        <f t="shared" si="18"/>
-        <v>15</v>
+        <f t="shared" si="16"/>
+        <v>11.200000000000003</v>
       </c>
       <c r="K52" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="L52" s="10"/>
       <c r="M52" s="10"/>
-      <c r="N52" s="11"/>
+      <c r="N52" s="33">
+        <v>6</v>
+      </c>
       <c r="O52" s="8">
-        <f t="shared" si="20"/>
-        <v>0</v>
+        <f t="shared" si="18"/>
+        <v>144</v>
       </c>
     </row>
     <row r="53" spans="2:15" x14ac:dyDescent="0.25">
@@ -6177,40 +6184,42 @@
       <c r="C53" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D53" s="2">
-        <v>0</v>
+      <c r="D53" s="33">
+        <v>6</v>
       </c>
       <c r="E53" s="2">
         <v>0</v>
       </c>
       <c r="F53" s="2">
-        <f t="shared" si="16"/>
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>6</v>
       </c>
       <c r="G53" s="4">
         <f>+F53*23</f>
-        <v>0</v>
+        <v>138</v>
       </c>
       <c r="H53" s="4">
         <v>15</v>
       </c>
       <c r="I53" s="4">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J53" s="6">
-        <f>+I53-H53</f>
-        <v>8</v>
+        <f t="shared" si="16"/>
+        <v>7</v>
       </c>
       <c r="K53" s="6">
-        <f t="shared" si="19"/>
-        <v>0</v>
+        <f t="shared" si="17"/>
+        <v>42</v>
       </c>
       <c r="L53" s="10"/>
       <c r="M53" s="10"/>
-      <c r="N53" s="11"/>
+      <c r="N53" s="33">
+        <v>6</v>
+      </c>
       <c r="O53" s="8">
-        <f t="shared" si="20"/>
-        <v>0</v>
+        <f t="shared" si="18"/>
+        <v>90</v>
       </c>
     </row>
     <row r="54" spans="2:15" x14ac:dyDescent="0.25">
@@ -6221,39 +6230,41 @@
         <v>15</v>
       </c>
       <c r="D54" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E54" s="2">
         <v>0</v>
       </c>
       <c r="F54" s="2">
-        <f t="shared" si="16"/>
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>6</v>
       </c>
       <c r="G54" s="4">
-        <f t="shared" ref="G54:G62" si="21">+F54*23</f>
-        <v>0</v>
+        <f t="shared" ref="G54:G62" si="19">+F54*23</f>
+        <v>138</v>
       </c>
       <c r="H54" s="4">
         <v>15</v>
       </c>
       <c r="I54" s="4">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J54" s="6">
-        <f t="shared" ref="J54:J62" si="22">+I54-H54</f>
-        <v>8</v>
+        <f t="shared" si="16"/>
+        <v>7</v>
       </c>
       <c r="K54" s="6">
-        <f t="shared" si="19"/>
-        <v>0</v>
+        <f t="shared" si="17"/>
+        <v>42</v>
       </c>
       <c r="L54" s="10"/>
       <c r="M54" s="10"/>
-      <c r="N54" s="11"/>
+      <c r="N54" s="2">
+        <v>6</v>
+      </c>
       <c r="O54" s="8">
-        <f t="shared" si="20"/>
-        <v>0</v>
+        <f t="shared" si="18"/>
+        <v>90</v>
       </c>
     </row>
     <row r="55" spans="2:15" x14ac:dyDescent="0.25">
@@ -6263,40 +6274,42 @@
       <c r="C55" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D55" s="2">
-        <v>0</v>
+      <c r="D55" s="33">
+        <v>6</v>
       </c>
       <c r="E55" s="2">
         <v>0</v>
       </c>
       <c r="F55" s="2">
-        <f t="shared" si="16"/>
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>6</v>
       </c>
       <c r="G55" s="4">
-        <f t="shared" si="21"/>
-        <v>0</v>
+        <f t="shared" si="19"/>
+        <v>138</v>
       </c>
       <c r="H55" s="4">
         <v>15</v>
       </c>
       <c r="I55" s="4">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J55" s="6">
-        <f t="shared" si="22"/>
-        <v>8</v>
+        <f t="shared" si="16"/>
+        <v>7</v>
       </c>
       <c r="K55" s="6">
-        <f t="shared" si="19"/>
-        <v>0</v>
+        <f t="shared" si="17"/>
+        <v>42</v>
       </c>
       <c r="L55" s="10"/>
       <c r="M55" s="10"/>
-      <c r="N55" s="11"/>
+      <c r="N55" s="33">
+        <v>6</v>
+      </c>
       <c r="O55" s="8">
-        <f t="shared" si="20"/>
-        <v>0</v>
+        <f t="shared" si="18"/>
+        <v>90</v>
       </c>
     </row>
     <row r="56" spans="2:15" x14ac:dyDescent="0.25">
@@ -6307,39 +6320,41 @@
         <v>17</v>
       </c>
       <c r="D56" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E56" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F56" s="2">
-        <f t="shared" si="16"/>
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>1</v>
       </c>
       <c r="G56" s="4">
-        <f t="shared" si="21"/>
-        <v>0</v>
+        <f t="shared" si="19"/>
+        <v>23</v>
       </c>
       <c r="H56" s="4">
         <v>15</v>
       </c>
       <c r="I56" s="4">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J56" s="6">
-        <f t="shared" si="22"/>
-        <v>8</v>
+        <f t="shared" si="16"/>
+        <v>7</v>
       </c>
       <c r="K56" s="6">
-        <f t="shared" si="19"/>
-        <v>0</v>
+        <f t="shared" si="17"/>
+        <v>7</v>
       </c>
       <c r="L56" s="10"/>
       <c r="M56" s="10"/>
-      <c r="N56" s="11"/>
+      <c r="N56" s="2">
+        <v>4</v>
+      </c>
       <c r="O56" s="8">
-        <f t="shared" si="20"/>
-        <v>0</v>
+        <f t="shared" si="18"/>
+        <v>60</v>
       </c>
     </row>
     <row r="57" spans="2:15" x14ac:dyDescent="0.25">
@@ -6350,39 +6365,41 @@
         <v>18</v>
       </c>
       <c r="D57" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E57" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F57" s="2">
-        <f t="shared" si="16"/>
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>4</v>
       </c>
       <c r="G57" s="4">
-        <f t="shared" si="21"/>
-        <v>0</v>
+        <f t="shared" si="19"/>
+        <v>92</v>
       </c>
       <c r="H57" s="4">
         <v>15</v>
       </c>
       <c r="I57" s="4">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J57" s="6">
-        <f t="shared" si="22"/>
-        <v>8</v>
+        <f t="shared" si="16"/>
+        <v>7</v>
       </c>
       <c r="K57" s="6">
-        <f t="shared" si="19"/>
-        <v>0</v>
+        <f t="shared" si="17"/>
+        <v>28</v>
       </c>
       <c r="L57" s="10"/>
       <c r="M57" s="10"/>
-      <c r="N57" s="11"/>
+      <c r="N57" s="2">
+        <v>6</v>
+      </c>
       <c r="O57" s="8">
-        <f t="shared" si="20"/>
-        <v>0</v>
+        <f t="shared" si="18"/>
+        <v>90</v>
       </c>
     </row>
     <row r="58" spans="2:15" x14ac:dyDescent="0.25">
@@ -6393,39 +6410,41 @@
         <v>19</v>
       </c>
       <c r="D58" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E58" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F58" s="2">
-        <f t="shared" si="16"/>
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>1</v>
       </c>
       <c r="G58" s="4">
-        <f t="shared" si="21"/>
-        <v>0</v>
+        <f t="shared" si="19"/>
+        <v>23</v>
       </c>
       <c r="H58" s="4">
         <v>15</v>
       </c>
       <c r="I58" s="4">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J58" s="6">
-        <f t="shared" si="22"/>
-        <v>8</v>
+        <f t="shared" si="16"/>
+        <v>7</v>
       </c>
       <c r="K58" s="6">
-        <f t="shared" si="19"/>
-        <v>0</v>
+        <f t="shared" si="17"/>
+        <v>7</v>
       </c>
       <c r="L58" s="10"/>
       <c r="M58" s="10"/>
-      <c r="N58" s="11"/>
+      <c r="N58" s="2">
+        <v>4</v>
+      </c>
       <c r="O58" s="8">
-        <f t="shared" si="20"/>
-        <v>0</v>
+        <f t="shared" si="18"/>
+        <v>60</v>
       </c>
     </row>
     <row r="59" spans="2:15" x14ac:dyDescent="0.25">
@@ -6436,39 +6455,41 @@
         <v>20</v>
       </c>
       <c r="D59" s="2">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="E59" s="2">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="F59" s="2">
-        <f t="shared" si="16"/>
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>12</v>
       </c>
       <c r="G59" s="4">
-        <f t="shared" si="21"/>
-        <v>0</v>
+        <f t="shared" si="19"/>
+        <v>276</v>
       </c>
       <c r="H59" s="4">
         <v>12</v>
       </c>
       <c r="I59" s="4">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J59" s="6">
-        <f t="shared" si="22"/>
-        <v>11</v>
+        <f t="shared" si="16"/>
+        <v>10</v>
       </c>
       <c r="K59" s="6">
-        <f t="shared" si="19"/>
-        <v>0</v>
+        <f t="shared" si="17"/>
+        <v>120</v>
       </c>
       <c r="L59" s="10"/>
       <c r="M59" s="10"/>
-      <c r="N59" s="11"/>
+      <c r="N59" s="2">
+        <v>30</v>
+      </c>
       <c r="O59" s="8">
-        <f t="shared" si="20"/>
-        <v>0</v>
+        <f t="shared" si="18"/>
+        <v>360</v>
       </c>
     </row>
     <row r="60" spans="2:15" x14ac:dyDescent="0.25">
@@ -6476,7 +6497,7 @@
         <v>21</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D60" s="2">
         <v>0</v>
@@ -6485,32 +6506,34 @@
         <v>0</v>
       </c>
       <c r="F60" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="G60" s="4">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="H60" s="4">
         <v>12</v>
       </c>
       <c r="I60" s="4">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J60" s="6">
-        <f t="shared" si="22"/>
-        <v>11</v>
+        <f t="shared" si="16"/>
+        <v>10</v>
       </c>
       <c r="K60" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="L60" s="10"/>
       <c r="M60" s="10"/>
-      <c r="N60" s="11"/>
+      <c r="N60" s="2">
+        <v>0</v>
+      </c>
       <c r="O60" s="8">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -6519,42 +6542,44 @@
         <v>22</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D61" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E61" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F61" s="2">
-        <f t="shared" si="16"/>
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>2</v>
       </c>
       <c r="G61" s="4">
-        <f t="shared" si="21"/>
-        <v>0</v>
+        <f t="shared" si="19"/>
+        <v>46</v>
       </c>
       <c r="H61" s="4">
         <v>12</v>
       </c>
       <c r="I61" s="4">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J61" s="6">
-        <f t="shared" si="22"/>
-        <v>11</v>
+        <f t="shared" si="16"/>
+        <v>10</v>
       </c>
       <c r="K61" s="6">
-        <f t="shared" si="19"/>
-        <v>0</v>
+        <f t="shared" si="17"/>
+        <v>20</v>
       </c>
       <c r="L61" s="10"/>
       <c r="M61" s="10"/>
-      <c r="N61" s="11"/>
+      <c r="N61" s="2">
+        <v>6</v>
+      </c>
       <c r="O61" s="8">
-        <f t="shared" si="20"/>
-        <v>0</v>
+        <f t="shared" si="18"/>
+        <v>72</v>
       </c>
     </row>
     <row r="62" spans="2:15" x14ac:dyDescent="0.25">
@@ -6562,7 +6587,7 @@
         <v>23</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D62" s="2">
         <v>0</v>
@@ -6571,91 +6596,110 @@
         <v>0</v>
       </c>
       <c r="F62" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="G62" s="4">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="H62" s="4">
         <v>12</v>
       </c>
       <c r="I62" s="4">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J62" s="6">
-        <f t="shared" si="22"/>
-        <v>11</v>
+        <f t="shared" si="16"/>
+        <v>10</v>
       </c>
       <c r="K62" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="L62" s="10"/>
       <c r="M62" s="10"/>
-      <c r="N62" s="11"/>
+      <c r="N62" s="2">
+        <v>0</v>
+      </c>
       <c r="O62" s="8">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="3:14" x14ac:dyDescent="0.25">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="O63" s="5"/>
+    </row>
+    <row r="64" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="O64" s="5"/>
+    </row>
+    <row r="65" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="O65" s="5"/>
+    </row>
+    <row r="67" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C67" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D67" s="19">
         <f>SUM(D40:D62)</f>
-        <v>0</v>
+        <v>152</v>
       </c>
       <c r="E67" s="3">
         <f>SUM(E40:E62)</f>
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="F67" s="19">
         <f>SUM(F40:F62)</f>
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="G67" s="3">
         <f>SUM(G40:G62)</f>
-        <v>0</v>
+        <v>2554</v>
       </c>
       <c r="N67" s="5"/>
     </row>
-    <row r="68" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="68" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C68" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D68" s="3">
-        <v>112</v>
+        <v>0</v>
       </c>
       <c r="E68" s="3"/>
       <c r="F68" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G68" s="3">
         <f>+G67+D68</f>
-        <v>112</v>
-      </c>
-    </row>
-    <row r="69" spans="3:14" x14ac:dyDescent="0.25">
+        <v>2554</v>
+      </c>
+      <c r="H68" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="69" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C69" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D69" s="3">
-        <v>112</v>
+        <v>0</v>
       </c>
       <c r="E69" s="1"/>
       <c r="F69" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G69" s="9">
         <f>SUM(K40:K62)</f>
-        <v>0</v>
+        <v>778.4000000000002</v>
       </c>
       <c r="H69" s="7">
         <f>+G69/2</f>
-        <v>0</v>
+        <v>389.2000000000001</v>
+      </c>
+    </row>
+    <row r="70" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="F70" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/Angular/Paletas Yahvé.xlsx
+++ b/Angular/Paletas Yahvé.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bmedina\Downloads\Curso Angular\Angular\Angular\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5734A015-5DEC-4004-875B-F12CE385CDBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{376A3624-A5E2-4EF5-BF88-9749266EFE83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20535" yWindow="-9150" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="64">
   <si>
     <t>#</t>
   </si>
@@ -226,6 +226,9 @@
   </si>
   <si>
     <t>Gananc</t>
+  </si>
+  <si>
+    <t>STOCK 6/02/2025</t>
   </si>
 </sst>
 </file>
@@ -443,6 +446,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -462,9 +468,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -804,7 +807,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:Y69"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
@@ -830,22 +833,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
-      <c r="N1" s="27"/>
-      <c r="O1" s="27"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="28"/>
+      <c r="O1" s="28"/>
       <c r="W1" s="2" t="s">
         <v>56</v>
       </c>
@@ -2516,22 +2519,22 @@
       </c>
     </row>
     <row r="38" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B38" s="28" t="s">
+      <c r="B38" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="C38" s="29"/>
-      <c r="D38" s="29"/>
-      <c r="E38" s="29"/>
-      <c r="F38" s="29"/>
-      <c r="G38" s="29"/>
-      <c r="H38" s="29"/>
-      <c r="I38" s="29"/>
-      <c r="J38" s="29"/>
-      <c r="K38" s="29"/>
-      <c r="L38" s="29"/>
-      <c r="M38" s="29"/>
-      <c r="N38" s="29"/>
-      <c r="O38" s="29"/>
+      <c r="C38" s="30"/>
+      <c r="D38" s="30"/>
+      <c r="E38" s="30"/>
+      <c r="F38" s="30"/>
+      <c r="G38" s="30"/>
+      <c r="H38" s="30"/>
+      <c r="I38" s="30"/>
+      <c r="J38" s="30"/>
+      <c r="K38" s="30"/>
+      <c r="L38" s="30"/>
+      <c r="M38" s="30"/>
+      <c r="N38" s="30"/>
+      <c r="O38" s="30"/>
     </row>
     <row r="39" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B39" s="2" t="s">
@@ -2608,11 +2611,11 @@
       <c r="M40" s="10"/>
       <c r="N40" s="11"/>
       <c r="O40" s="8"/>
-      <c r="T40" s="30" t="s">
+      <c r="T40" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="U40" s="30"/>
-      <c r="V40" s="30"/>
+      <c r="U40" s="31"/>
+      <c r="V40" s="31"/>
     </row>
     <row r="41" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B41" s="2">
@@ -3826,56 +3829,58 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5ED568E-C8BF-4CAC-962C-4B9EA802F0E8}">
-  <dimension ref="B1:X70"/>
+  <dimension ref="B1:Y70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S10" sqref="S10"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3:E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="41.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="21.28515625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="21.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="41.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="21.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="21.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B1" s="26" t="s">
+    <row r="1" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B1" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
-      <c r="N1" s="27"/>
-      <c r="O1" s="27"/>
-      <c r="V1" s="31" t="s">
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="28"/>
+      <c r="O1" s="28"/>
+      <c r="P1" s="28"/>
+      <c r="W1" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="W1" s="32"/>
-      <c r="X1" s="2"/>
-    </row>
-    <row r="2" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="X1" s="33"/>
+      <c r="Y1" s="2"/>
+    </row>
+    <row r="2" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -3886,52 +3891,55 @@
         <v>1</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="P2" s="12" t="s">
+      <c r="Q2" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="V2" s="2" t="s">
+      <c r="W2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="W2" s="2" t="s">
+      <c r="X2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="X2" s="2" t="s">
+      <c r="Y2" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B3" s="2">
         <v>1</v>
       </c>
@@ -3939,75 +3947,79 @@
         <v>5</v>
       </c>
       <c r="D3" s="2">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E3" s="2">
+        <f>+D3+X3</f>
         <v>8</v>
       </c>
       <c r="F3" s="2">
-        <f>+D3-E3</f>
-        <v>-8</v>
-      </c>
-      <c r="G3" s="4">
-        <f>+F3*40</f>
-        <v>-320</v>
+        <v>8</v>
+      </c>
+      <c r="G3" s="2">
+        <f>+D3-F3</f>
+        <v>0</v>
       </c>
       <c r="H3" s="4">
+        <f>+G3*40</f>
+        <v>0</v>
+      </c>
+      <c r="I3" s="4">
         <v>24</v>
       </c>
-      <c r="I3" s="4">
+      <c r="J3" s="4">
         <v>40</v>
       </c>
-      <c r="J3" s="6">
-        <f>(I3-(I3*0.12))-H3</f>
+      <c r="K3" s="6">
+        <f>(J3-(J3*0.12))-I3</f>
         <v>11.200000000000003</v>
       </c>
-      <c r="K3" s="6">
-        <f>+J3*F3</f>
-        <v>-89.600000000000023</v>
-      </c>
-      <c r="L3" s="10">
+      <c r="L3" s="6">
+        <f>+K3*G3</f>
+        <v>0</v>
+      </c>
+      <c r="M3" s="10">
         <v>10</v>
       </c>
-      <c r="M3" s="10">
-        <v>6</v>
-      </c>
-      <c r="N3" s="11">
-        <f>+M3-E3</f>
-        <v>-2</v>
-      </c>
-      <c r="O3" s="8">
-        <f t="shared" ref="O3:O25" si="0">+N3*H3</f>
-        <v>-48</v>
-      </c>
-      <c r="P3">
-        <f t="shared" ref="P3:P25" si="1">+N3+E3</f>
-        <v>6</v>
-      </c>
-      <c r="S3">
-        <f>+U3*25</f>
-        <v>700</v>
-      </c>
-      <c r="T3" t="s">
+      <c r="N3" s="10">
+        <v>6</v>
+      </c>
+      <c r="O3" s="11">
+        <f>MAX(N3-F3, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="P3" s="8">
+        <f t="shared" ref="P3:P25" si="0">+O3*I3</f>
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <f>+O3+F3</f>
+        <v>8</v>
+      </c>
+      <c r="T3">
+        <f>+V3*25</f>
+        <v>625</v>
+      </c>
+      <c r="U3" t="s">
         <v>43</v>
       </c>
-      <c r="U3">
-        <f>SUM(W3:W15)</f>
-        <v>28</v>
-      </c>
-      <c r="V3" s="2" t="s">
+      <c r="V3">
+        <f>SUM(X3:X15)</f>
+        <v>25</v>
+      </c>
+      <c r="W3" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="W3" s="11">
-        <f t="shared" ref="W3:W24" si="2">N3</f>
-        <v>-2</v>
-      </c>
-      <c r="X3" s="8">
-        <f t="shared" ref="X3:X24" si="3">O3</f>
-        <v>-48</v>
-      </c>
-    </row>
-    <row r="4" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="X3" s="11">
+        <f t="shared" ref="X3:X24" si="1">O3</f>
+        <v>0</v>
+      </c>
+      <c r="Y3" s="8">
+        <f t="shared" ref="Y3:Y24" si="2">P3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B4" s="2">
         <v>2</v>
       </c>
@@ -4015,1547 +4027,1636 @@
         <v>6</v>
       </c>
       <c r="D4" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E4" s="2">
-        <v>0</v>
+        <f t="shared" ref="E4:E24" si="3">+D4+X4</f>
+        <v>7</v>
       </c>
       <c r="F4" s="2">
-        <f t="shared" ref="F4:F24" si="4">+D4-E4</f>
-        <v>0</v>
-      </c>
-      <c r="G4" s="4">
-        <f t="shared" ref="G4:G15" si="5">+F4*40</f>
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="G4" s="2">
+        <f>+D4-F4</f>
+        <v>1</v>
       </c>
       <c r="H4" s="4">
+        <f t="shared" ref="H4:H15" si="4">+G4*40</f>
+        <v>40</v>
+      </c>
+      <c r="I4" s="4">
         <v>24</v>
       </c>
-      <c r="I4" s="4">
+      <c r="J4" s="4">
         <v>40</v>
       </c>
-      <c r="J4" s="6">
-        <f t="shared" ref="J4:J25" si="6">(I4-(I4*0.12))-H4</f>
+      <c r="K4" s="6">
+        <f t="shared" ref="K4:K25" si="5">(J4-(J4*0.12))-I4</f>
         <v>11.200000000000003</v>
       </c>
-      <c r="K4" s="6">
-        <f t="shared" ref="K4:K24" si="7">+J4*F4</f>
-        <v>0</v>
-      </c>
-      <c r="L4" s="10">
+      <c r="L4" s="6">
+        <f t="shared" ref="L4:L24" si="6">+K4*G4</f>
+        <v>11.200000000000003</v>
+      </c>
+      <c r="M4" s="10">
         <v>10</v>
       </c>
-      <c r="M4" s="10">
-        <v>6</v>
-      </c>
-      <c r="N4" s="11">
-        <f t="shared" ref="N4:N24" si="8">+M4-E4</f>
-        <v>6</v>
-      </c>
-      <c r="O4" s="8">
+      <c r="N4" s="10">
+        <v>6</v>
+      </c>
+      <c r="O4" s="11">
+        <f t="shared" ref="O4:O25" si="7">MAX(N4-F4, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="P4" s="8">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="Q4">
+        <f>+O4+F4</f>
+        <v>6</v>
+      </c>
+      <c r="T4">
+        <f>+V4*15</f>
+        <v>480</v>
+      </c>
+      <c r="U4" t="s">
+        <v>44</v>
+      </c>
+      <c r="V4">
+        <f>SUM(X16:X24)-X22</f>
+        <v>32</v>
+      </c>
+      <c r="W4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="X4" s="11">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="Y4" s="8">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B5" s="2">
+        <v>3</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="2">
+        <v>6</v>
+      </c>
+      <c r="E5" s="2">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="F5" s="2">
+        <v>3</v>
+      </c>
+      <c r="G5" s="2">
+        <f>+D5-F5</f>
+        <v>3</v>
+      </c>
+      <c r="H5" s="4">
+        <f t="shared" si="4"/>
+        <v>120</v>
+      </c>
+      <c r="I5" s="4">
+        <v>24</v>
+      </c>
+      <c r="J5" s="4">
+        <v>40</v>
+      </c>
+      <c r="K5" s="6">
+        <f t="shared" si="5"/>
+        <v>11.200000000000003</v>
+      </c>
+      <c r="L5" s="6">
+        <f t="shared" si="6"/>
+        <v>33.600000000000009</v>
+      </c>
+      <c r="M5" s="10">
+        <v>10</v>
+      </c>
+      <c r="N5" s="10">
+        <v>6</v>
+      </c>
+      <c r="O5" s="11">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="P5" s="8">
+        <f t="shared" si="0"/>
+        <v>72</v>
+      </c>
+      <c r="Q5">
+        <f>+O5+F5</f>
+        <v>6</v>
+      </c>
+      <c r="T5">
+        <f>+V5*15</f>
+        <v>255</v>
+      </c>
+      <c r="U5" t="s">
+        <v>45</v>
+      </c>
+      <c r="V5">
+        <f>+X22</f>
+        <v>17</v>
+      </c>
+      <c r="W5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="X5" s="11">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="Y5" s="8">
+        <f t="shared" si="2"/>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B6" s="2">
+        <v>4</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="2">
+        <v>6</v>
+      </c>
+      <c r="E6" s="2">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="F6" s="2">
+        <v>4</v>
+      </c>
+      <c r="G6" s="2">
+        <f>+D6-F6</f>
+        <v>2</v>
+      </c>
+      <c r="H6" s="4">
+        <f t="shared" si="4"/>
+        <v>80</v>
+      </c>
+      <c r="I6" s="4">
+        <v>24</v>
+      </c>
+      <c r="J6" s="4">
+        <v>40</v>
+      </c>
+      <c r="K6" s="6">
+        <f t="shared" si="5"/>
+        <v>11.200000000000003</v>
+      </c>
+      <c r="L6" s="6">
+        <f t="shared" si="6"/>
+        <v>22.400000000000006</v>
+      </c>
+      <c r="M6" s="10">
+        <v>10</v>
+      </c>
+      <c r="N6" s="10">
+        <v>6</v>
+      </c>
+      <c r="O6" s="11">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="P6" s="8">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="Q6">
+        <f>+O6+F6</f>
+        <v>6</v>
+      </c>
+      <c r="T6">
+        <f>+T3+T4+T5</f>
+        <v>1360</v>
+      </c>
+      <c r="W6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="X6" s="11">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="Y6" s="8">
+        <f t="shared" si="2"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B7" s="2">
+        <v>5</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="2">
+        <v>6</v>
+      </c>
+      <c r="E7" s="2">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="F7" s="2">
+        <v>5</v>
+      </c>
+      <c r="G7" s="2">
+        <f>+D7-F7</f>
+        <v>1</v>
+      </c>
+      <c r="H7" s="4">
+        <f t="shared" si="4"/>
+        <v>40</v>
+      </c>
+      <c r="I7" s="4">
+        <v>24</v>
+      </c>
+      <c r="J7" s="4">
+        <v>40</v>
+      </c>
+      <c r="K7" s="6">
+        <f t="shared" si="5"/>
+        <v>11.200000000000003</v>
+      </c>
+      <c r="L7" s="6">
+        <f t="shared" si="6"/>
+        <v>11.200000000000003</v>
+      </c>
+      <c r="M7" s="10">
+        <v>10</v>
+      </c>
+      <c r="N7" s="10">
+        <v>6</v>
+      </c>
+      <c r="O7" s="11">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="P7" s="8">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="Q7">
+        <f>+O7+F7</f>
+        <v>6</v>
+      </c>
+      <c r="W7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="X7" s="11">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="Y7" s="8">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B8" s="2">
+        <v>6</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="2">
+        <v>6</v>
+      </c>
+      <c r="E8" s="2">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+      <c r="F8" s="2">
+        <v>1</v>
+      </c>
+      <c r="G8" s="2">
+        <f>+D8-F8</f>
+        <v>5</v>
+      </c>
+      <c r="H8" s="4">
+        <f t="shared" si="4"/>
+        <v>200</v>
+      </c>
+      <c r="I8" s="4">
+        <v>24</v>
+      </c>
+      <c r="J8" s="4">
+        <v>40</v>
+      </c>
+      <c r="K8" s="6">
+        <f t="shared" si="5"/>
+        <v>11.200000000000003</v>
+      </c>
+      <c r="L8" s="6">
+        <f t="shared" si="6"/>
+        <v>56.000000000000014</v>
+      </c>
+      <c r="M8" s="10">
+        <v>5</v>
+      </c>
+      <c r="N8" s="10">
+        <v>6</v>
+      </c>
+      <c r="O8" s="11">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="P8" s="8">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+      <c r="Q8">
+        <f>+O8+F8</f>
+        <v>6</v>
+      </c>
+      <c r="W8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="X8" s="11">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="Y8" s="8">
+        <f t="shared" si="2"/>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="9" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B9" s="13">
+        <v>7</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="2">
+        <v>3</v>
+      </c>
+      <c r="E9" s="2">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="F9" s="2">
+        <v>3</v>
+      </c>
+      <c r="G9" s="13">
+        <f>+D9-F9</f>
+        <v>0</v>
+      </c>
+      <c r="H9" s="14">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I9" s="4">
+        <v>24</v>
+      </c>
+      <c r="J9" s="14">
+        <v>40</v>
+      </c>
+      <c r="K9" s="6">
+        <f t="shared" si="5"/>
+        <v>11.200000000000003</v>
+      </c>
+      <c r="L9" s="15">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M9" s="16">
+        <v>2</v>
+      </c>
+      <c r="N9" s="10">
+        <v>3</v>
+      </c>
+      <c r="O9" s="11">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P9" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q9" s="17">
+        <f>+O9+F9</f>
+        <v>3</v>
+      </c>
+      <c r="W9" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="X9" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y9" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B10" s="2">
+        <v>8</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="2">
+        <v>5</v>
+      </c>
+      <c r="E10" s="2">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="F10" s="2">
+        <v>3</v>
+      </c>
+      <c r="G10" s="2">
+        <f>+D10-F10</f>
+        <v>2</v>
+      </c>
+      <c r="H10" s="4">
+        <f t="shared" si="4"/>
+        <v>80</v>
+      </c>
+      <c r="I10" s="4">
+        <v>24</v>
+      </c>
+      <c r="J10" s="4">
+        <v>40</v>
+      </c>
+      <c r="K10" s="6">
+        <f t="shared" si="5"/>
+        <v>11.200000000000003</v>
+      </c>
+      <c r="L10" s="6">
+        <f t="shared" si="6"/>
+        <v>22.400000000000006</v>
+      </c>
+      <c r="M10" s="10">
+        <v>8</v>
+      </c>
+      <c r="N10" s="10">
+        <v>5</v>
+      </c>
+      <c r="O10" s="11">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="P10" s="8">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="Q10">
+        <f>+O10+F10</f>
+        <v>5</v>
+      </c>
+      <c r="W10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="X10" s="11">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="Y10" s="8">
+        <f t="shared" si="2"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B11" s="13">
+        <v>9</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="2">
+        <v>6</v>
+      </c>
+      <c r="E11" s="2">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="F11" s="2">
+        <v>6</v>
+      </c>
+      <c r="G11" s="13">
+        <f>+D11-F11</f>
+        <v>0</v>
+      </c>
+      <c r="H11" s="14">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I11" s="4">
+        <v>24</v>
+      </c>
+      <c r="J11" s="14">
+        <v>40</v>
+      </c>
+      <c r="K11" s="6">
+        <f t="shared" si="5"/>
+        <v>11.200000000000003</v>
+      </c>
+      <c r="L11" s="15">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M11" s="16">
+        <v>6</v>
+      </c>
+      <c r="N11" s="10">
+        <v>6</v>
+      </c>
+      <c r="O11" s="11">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P11" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q11" s="17">
+        <f>+O11+F11</f>
+        <v>6</v>
+      </c>
+      <c r="W11" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="X11" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y11" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B12" s="13">
+        <v>10</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="2">
+        <v>5</v>
+      </c>
+      <c r="E12" s="2">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="F12" s="2">
+        <v>3</v>
+      </c>
+      <c r="G12" s="13">
+        <f>+D12-F12</f>
+        <v>2</v>
+      </c>
+      <c r="H12" s="14">
+        <f t="shared" si="4"/>
+        <v>80</v>
+      </c>
+      <c r="I12" s="4">
+        <v>24</v>
+      </c>
+      <c r="J12" s="14">
+        <v>40</v>
+      </c>
+      <c r="K12" s="6">
+        <f t="shared" si="5"/>
+        <v>11.200000000000003</v>
+      </c>
+      <c r="L12" s="15">
+        <f t="shared" si="6"/>
+        <v>22.400000000000006</v>
+      </c>
+      <c r="M12" s="16">
+        <v>5</v>
+      </c>
+      <c r="N12" s="10">
+        <v>5</v>
+      </c>
+      <c r="O12" s="11">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="P12" s="15">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="Q12" s="17">
+        <f>+O12+F12</f>
+        <v>5</v>
+      </c>
+      <c r="W12" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="X12" s="11">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="Y12" s="8">
+        <f t="shared" si="2"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B13" s="13">
+        <v>11</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="2">
+        <v>6</v>
+      </c>
+      <c r="E13" s="2">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="F13" s="2">
+        <v>0</v>
+      </c>
+      <c r="G13" s="13">
+        <f>+D13-F13</f>
+        <v>6</v>
+      </c>
+      <c r="H13" s="14">
+        <f t="shared" si="4"/>
+        <v>240</v>
+      </c>
+      <c r="I13" s="4">
+        <v>24</v>
+      </c>
+      <c r="J13" s="14">
+        <v>40</v>
+      </c>
+      <c r="K13" s="6">
+        <f t="shared" si="5"/>
+        <v>11.200000000000003</v>
+      </c>
+      <c r="L13" s="15">
+        <f t="shared" si="6"/>
+        <v>67.200000000000017</v>
+      </c>
+      <c r="M13" s="16">
+        <v>10</v>
+      </c>
+      <c r="N13" s="10">
+        <v>6</v>
+      </c>
+      <c r="O13" s="11">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="P13" s="15">
         <f t="shared" si="0"/>
         <v>144</v>
       </c>
-      <c r="P4">
+      <c r="Q13" s="17">
+        <f>+O13+F13</f>
+        <v>6</v>
+      </c>
+      <c r="W13" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="X13" s="11">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="S4">
-        <f>+U4*15</f>
-        <v>480</v>
-      </c>
-      <c r="T4" t="s">
-        <v>44</v>
-      </c>
-      <c r="U4">
-        <f>SUM(W16:W24)-W22</f>
-        <v>32</v>
-      </c>
-      <c r="V4" s="2" t="s">
+      <c r="Y13" s="8">
+        <f t="shared" si="2"/>
+        <v>144</v>
+      </c>
+    </row>
+    <row r="14" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B14" s="13">
+        <v>12</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="2">
+        <v>3</v>
+      </c>
+      <c r="E14" s="2">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="F14" s="2">
+        <v>0</v>
+      </c>
+      <c r="G14" s="13">
+        <f>+D14-F14</f>
+        <v>3</v>
+      </c>
+      <c r="H14" s="14">
+        <f t="shared" si="4"/>
+        <v>120</v>
+      </c>
+      <c r="I14" s="4">
+        <v>24</v>
+      </c>
+      <c r="J14" s="14">
         <v>40</v>
       </c>
-      <c r="W4" s="11">
-        <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="X4" s="8">
-        <f t="shared" si="3"/>
-        <v>144</v>
-      </c>
-    </row>
-    <row r="5" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B5" s="2">
+      <c r="K14" s="6">
+        <f t="shared" si="5"/>
+        <v>11.200000000000003</v>
+      </c>
+      <c r="L14" s="15">
+        <f t="shared" si="6"/>
+        <v>33.600000000000009</v>
+      </c>
+      <c r="M14" s="16">
+        <v>5</v>
+      </c>
+      <c r="N14" s="10">
         <v>3</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="2">
-        <v>0</v>
-      </c>
-      <c r="E5" s="2">
+      <c r="O14" s="11">
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
-      <c r="F5" s="2">
-        <f t="shared" si="4"/>
-        <v>-3</v>
-      </c>
-      <c r="G5" s="4">
-        <f t="shared" si="5"/>
-        <v>-120</v>
-      </c>
-      <c r="H5" s="4">
-        <v>24</v>
-      </c>
-      <c r="I5" s="4">
-        <v>40</v>
-      </c>
-      <c r="J5" s="6">
-        <f t="shared" si="6"/>
-        <v>11.200000000000003</v>
-      </c>
-      <c r="K5" s="6">
-        <f t="shared" si="7"/>
-        <v>-33.600000000000009</v>
-      </c>
-      <c r="L5" s="10">
-        <v>10</v>
-      </c>
-      <c r="M5" s="10">
-        <v>6</v>
-      </c>
-      <c r="N5" s="11">
-        <f t="shared" si="8"/>
-        <v>3</v>
-      </c>
-      <c r="O5" s="8">
+      <c r="P14" s="15">
         <f t="shared" si="0"/>
         <v>72</v>
       </c>
-      <c r="P5">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="S5">
-        <f>+U5*15</f>
-        <v>255</v>
-      </c>
-      <c r="T5" t="s">
-        <v>45</v>
-      </c>
-      <c r="U5">
-        <f>+W22</f>
-        <v>17</v>
-      </c>
-      <c r="V5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="W5" s="11">
-        <f t="shared" si="2"/>
+      <c r="Q14" s="17">
+        <f>+O14+F14</f>
         <v>3</v>
       </c>
-      <c r="X5" s="8">
-        <f t="shared" si="3"/>
-        <v>72</v>
-      </c>
-    </row>
-    <row r="6" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B6" s="2">
-        <v>4</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="2">
-        <v>0</v>
-      </c>
-      <c r="E6" s="2">
-        <v>4</v>
-      </c>
-      <c r="F6" s="2">
-        <f t="shared" si="4"/>
-        <v>-4</v>
-      </c>
-      <c r="G6" s="4">
-        <f t="shared" si="5"/>
-        <v>-160</v>
-      </c>
-      <c r="H6" s="4">
-        <v>24</v>
-      </c>
-      <c r="I6" s="4">
-        <v>40</v>
-      </c>
-      <c r="J6" s="6">
-        <f t="shared" si="6"/>
-        <v>11.200000000000003</v>
-      </c>
-      <c r="K6" s="6">
-        <f t="shared" si="7"/>
-        <v>-44.800000000000011</v>
-      </c>
-      <c r="L6" s="10">
-        <v>10</v>
-      </c>
-      <c r="M6" s="10">
-        <v>6</v>
-      </c>
-      <c r="N6" s="11">
-        <f t="shared" si="8"/>
-        <v>2</v>
-      </c>
-      <c r="O6" s="8">
-        <f t="shared" si="0"/>
-        <v>48</v>
-      </c>
-      <c r="P6">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="S6">
-        <f>+S3+S4+S5</f>
-        <v>1435</v>
-      </c>
-      <c r="V6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="W6" s="11">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="X6" s="8">
-        <f t="shared" si="3"/>
-        <v>48</v>
-      </c>
-    </row>
-    <row r="7" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B7" s="2">
-        <v>5</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="2">
-        <v>0</v>
-      </c>
-      <c r="E7" s="2">
-        <v>5</v>
-      </c>
-      <c r="F7" s="2">
-        <f t="shared" si="4"/>
-        <v>-5</v>
-      </c>
-      <c r="G7" s="4">
-        <f t="shared" si="5"/>
-        <v>-200</v>
-      </c>
-      <c r="H7" s="4">
-        <v>24</v>
-      </c>
-      <c r="I7" s="4">
-        <v>40</v>
-      </c>
-      <c r="J7" s="6">
-        <f t="shared" si="6"/>
-        <v>11.200000000000003</v>
-      </c>
-      <c r="K7" s="6">
-        <f t="shared" si="7"/>
-        <v>-56.000000000000014</v>
-      </c>
-      <c r="L7" s="10">
-        <v>10</v>
-      </c>
-      <c r="M7" s="10">
-        <v>6</v>
-      </c>
-      <c r="N7" s="11">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="O7" s="8">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="P7">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="V7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="W7" s="11">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="X7" s="8">
-        <f t="shared" si="3"/>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B8" s="2">
-        <v>6</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="2">
-        <v>0</v>
-      </c>
-      <c r="E8" s="2">
-        <v>1</v>
-      </c>
-      <c r="F8" s="2">
-        <f t="shared" si="4"/>
-        <v>-1</v>
-      </c>
-      <c r="G8" s="4">
-        <f t="shared" si="5"/>
-        <v>-40</v>
-      </c>
-      <c r="H8" s="4">
-        <v>24</v>
-      </c>
-      <c r="I8" s="4">
-        <v>40</v>
-      </c>
-      <c r="J8" s="6">
-        <f t="shared" si="6"/>
-        <v>11.200000000000003</v>
-      </c>
-      <c r="K8" s="6">
-        <f t="shared" si="7"/>
-        <v>-11.200000000000003</v>
-      </c>
-      <c r="L8" s="10">
-        <v>5</v>
-      </c>
-      <c r="M8" s="10">
-        <v>6</v>
-      </c>
-      <c r="N8" s="11">
-        <f t="shared" si="8"/>
-        <v>5</v>
-      </c>
-      <c r="O8" s="8">
-        <f t="shared" si="0"/>
-        <v>120</v>
-      </c>
-      <c r="P8">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="V8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="W8" s="11">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="X8" s="8">
-        <f t="shared" si="3"/>
-        <v>120</v>
-      </c>
-    </row>
-    <row r="9" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B9" s="13">
-        <v>7</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="2">
-        <v>0</v>
-      </c>
-      <c r="E9" s="2">
-        <v>3</v>
-      </c>
-      <c r="F9" s="13">
-        <f t="shared" si="4"/>
-        <v>-3</v>
-      </c>
-      <c r="G9" s="14">
-        <f t="shared" si="5"/>
-        <v>-120</v>
-      </c>
-      <c r="H9" s="4">
-        <v>24</v>
-      </c>
-      <c r="I9" s="14">
-        <v>40</v>
-      </c>
-      <c r="J9" s="6">
-        <f t="shared" si="6"/>
-        <v>11.200000000000003</v>
-      </c>
-      <c r="K9" s="15">
-        <f t="shared" si="7"/>
-        <v>-33.600000000000009</v>
-      </c>
-      <c r="L9" s="16">
-        <v>2</v>
-      </c>
-      <c r="M9" s="10">
-        <v>3</v>
-      </c>
-      <c r="N9" s="11">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="O9" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P9" s="17">
+      <c r="W14" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="X14" s="11">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="V9" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="W9" s="11">
+      <c r="Y14" s="8">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="X9" s="8">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="15" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B15" s="2">
+        <v>13</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="2">
+        <v>6</v>
+      </c>
+      <c r="E15" s="2">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B10" s="2">
-        <v>8</v>
-      </c>
-      <c r="C10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F15" s="2">
+        <v>6</v>
+      </c>
+      <c r="G15" s="2">
+        <f>+D15-F15</f>
+        <v>0</v>
+      </c>
+      <c r="H15" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I15" s="4">
+        <v>24</v>
+      </c>
+      <c r="J15" s="4">
+        <v>40</v>
+      </c>
+      <c r="K15" s="6">
+        <f t="shared" si="5"/>
+        <v>11.200000000000003</v>
+      </c>
+      <c r="L15" s="6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M15" s="10">
+        <v>10</v>
+      </c>
+      <c r="N15" s="10">
+        <v>6</v>
+      </c>
+      <c r="O15" s="11">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P15" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <f>+O15+F15</f>
+        <v>6</v>
+      </c>
+      <c r="W15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="X15" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y15" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B16" s="2">
+        <v>14</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="2">
+        <v>6</v>
+      </c>
+      <c r="E16" s="2">
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
-      <c r="D10" s="2">
-        <v>0</v>
-      </c>
-      <c r="E10" s="2">
+      <c r="F16" s="2">
+        <v>0</v>
+      </c>
+      <c r="G16" s="2">
+        <f>+D16-F16</f>
+        <v>6</v>
+      </c>
+      <c r="H16" s="4">
+        <f>+G16*23</f>
+        <v>138</v>
+      </c>
+      <c r="I16" s="4">
+        <v>15</v>
+      </c>
+      <c r="J16" s="4">
+        <v>23</v>
+      </c>
+      <c r="K16" s="6">
+        <f t="shared" si="5"/>
+        <v>5.240000000000002</v>
+      </c>
+      <c r="L16" s="6">
+        <f t="shared" si="6"/>
+        <v>31.440000000000012</v>
+      </c>
+      <c r="M16" s="10">
+        <v>10</v>
+      </c>
+      <c r="N16" s="10">
+        <v>6</v>
+      </c>
+      <c r="O16" s="11">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="P16" s="8">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+      <c r="Q16">
+        <f>+O16+F16</f>
+        <v>6</v>
+      </c>
+      <c r="W16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="X16" s="11">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="Y16" s="8">
+        <f t="shared" si="2"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="17" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B17" s="2">
+        <v>15</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="2">
+        <v>6</v>
+      </c>
+      <c r="E17" s="2">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="F17" s="2">
+        <v>0</v>
+      </c>
+      <c r="G17" s="2">
+        <f>+D17-F17</f>
+        <v>6</v>
+      </c>
+      <c r="H17" s="4">
+        <f t="shared" ref="H17:H24" si="8">+G17*23</f>
+        <v>138</v>
+      </c>
+      <c r="I17" s="4">
+        <v>15</v>
+      </c>
+      <c r="J17" s="4">
+        <v>23</v>
+      </c>
+      <c r="K17" s="6">
+        <f t="shared" si="5"/>
+        <v>5.240000000000002</v>
+      </c>
+      <c r="L17" s="6">
+        <f t="shared" si="6"/>
+        <v>31.440000000000012</v>
+      </c>
+      <c r="M17" s="10">
+        <v>10</v>
+      </c>
+      <c r="N17" s="10">
+        <v>6</v>
+      </c>
+      <c r="O17" s="11">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="P17" s="8">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+      <c r="Q17">
+        <f>+O17+F17</f>
+        <v>6</v>
+      </c>
+      <c r="V17" s="23"/>
+      <c r="W17" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="X17" s="11">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="Y17" s="8">
+        <f t="shared" si="2"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="18" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B18" s="2">
+        <v>16</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="2">
+        <v>6</v>
+      </c>
+      <c r="E18" s="2">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="F18" s="2">
+        <v>0</v>
+      </c>
+      <c r="G18" s="2">
+        <f>+D18-F18</f>
+        <v>6</v>
+      </c>
+      <c r="H18" s="4">
+        <f t="shared" si="8"/>
+        <v>138</v>
+      </c>
+      <c r="I18" s="4">
+        <v>15</v>
+      </c>
+      <c r="J18" s="4">
+        <v>23</v>
+      </c>
+      <c r="K18" s="6">
+        <f t="shared" si="5"/>
+        <v>5.240000000000002</v>
+      </c>
+      <c r="L18" s="6">
+        <f t="shared" si="6"/>
+        <v>31.440000000000012</v>
+      </c>
+      <c r="M18" s="10">
+        <v>10</v>
+      </c>
+      <c r="N18" s="10">
+        <v>6</v>
+      </c>
+      <c r="O18" s="11">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="P18" s="8">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+      <c r="Q18">
+        <f>+O18+F18</f>
+        <v>6</v>
+      </c>
+      <c r="W18" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="X18" s="11">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="Y18" s="8">
+        <f t="shared" si="2"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="19" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B19" s="2">
+        <v>17</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="2">
+        <v>6</v>
+      </c>
+      <c r="E19" s="2">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="F19" s="2">
         <v>3</v>
       </c>
-      <c r="F10" s="2">
-        <f t="shared" si="4"/>
-        <v>-3</v>
-      </c>
-      <c r="G10" s="4">
+      <c r="G19" s="2">
+        <f>+D19-F19</f>
+        <v>3</v>
+      </c>
+      <c r="H19" s="4">
+        <f t="shared" si="8"/>
+        <v>69</v>
+      </c>
+      <c r="I19" s="4">
+        <v>15</v>
+      </c>
+      <c r="J19" s="4">
+        <v>23</v>
+      </c>
+      <c r="K19" s="6">
         <f t="shared" si="5"/>
-        <v>-120</v>
-      </c>
-      <c r="H10" s="4">
-        <v>24</v>
-      </c>
-      <c r="I10" s="4">
-        <v>40</v>
-      </c>
-      <c r="J10" s="6">
+        <v>5.240000000000002</v>
+      </c>
+      <c r="L19" s="6">
         <f t="shared" si="6"/>
-        <v>11.200000000000003</v>
-      </c>
-      <c r="K10" s="6">
+        <v>15.720000000000006</v>
+      </c>
+      <c r="M19" s="10">
+        <v>10</v>
+      </c>
+      <c r="N19" s="10">
+        <v>6</v>
+      </c>
+      <c r="O19" s="11">
         <f t="shared" si="7"/>
-        <v>-33.600000000000009</v>
-      </c>
-      <c r="L10" s="10">
-        <v>8</v>
-      </c>
-      <c r="M10" s="10">
-        <v>5</v>
-      </c>
-      <c r="N10" s="11">
-        <f t="shared" si="8"/>
-        <v>2</v>
-      </c>
-      <c r="O10" s="8">
+        <v>3</v>
+      </c>
+      <c r="P19" s="8">
         <f t="shared" si="0"/>
-        <v>48</v>
-      </c>
-      <c r="P10">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="V10" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="W10" s="11">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="X10" s="8">
-        <f t="shared" si="3"/>
-        <v>48</v>
-      </c>
-    </row>
-    <row r="11" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B11" s="13">
-        <v>9</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" s="2">
-        <v>0</v>
-      </c>
-      <c r="E11" s="2">
-        <v>6</v>
-      </c>
-      <c r="F11" s="13">
-        <f t="shared" si="4"/>
-        <v>-6</v>
-      </c>
-      <c r="G11" s="14">
-        <f t="shared" si="5"/>
-        <v>-240</v>
-      </c>
-      <c r="H11" s="4">
-        <v>24</v>
-      </c>
-      <c r="I11" s="14">
-        <v>40</v>
-      </c>
-      <c r="J11" s="6">
-        <f t="shared" si="6"/>
-        <v>11.200000000000003</v>
-      </c>
-      <c r="K11" s="15">
-        <f t="shared" si="7"/>
-        <v>-67.200000000000017</v>
-      </c>
-      <c r="L11" s="16">
-        <v>6</v>
-      </c>
-      <c r="M11" s="10">
-        <v>6</v>
-      </c>
-      <c r="N11" s="11">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="O11" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P11" s="17">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="V11" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="W11" s="11">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="X11" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B12" s="13">
-        <v>10</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12" s="2">
-        <v>0</v>
-      </c>
-      <c r="E12" s="2">
-        <v>3</v>
-      </c>
-      <c r="F12" s="13">
-        <f t="shared" si="4"/>
-        <v>-3</v>
-      </c>
-      <c r="G12" s="14">
-        <f t="shared" si="5"/>
-        <v>-120</v>
-      </c>
-      <c r="H12" s="4">
-        <v>24</v>
-      </c>
-      <c r="I12" s="14">
-        <v>40</v>
-      </c>
-      <c r="J12" s="6">
-        <f t="shared" si="6"/>
-        <v>11.200000000000003</v>
-      </c>
-      <c r="K12" s="15">
-        <f t="shared" si="7"/>
-        <v>-33.600000000000009</v>
-      </c>
-      <c r="L12" s="16">
-        <v>5</v>
-      </c>
-      <c r="M12" s="10">
-        <v>5</v>
-      </c>
-      <c r="N12" s="11">
-        <f t="shared" si="8"/>
-        <v>2</v>
-      </c>
-      <c r="O12" s="15">
-        <f t="shared" si="0"/>
-        <v>48</v>
-      </c>
-      <c r="P12" s="17">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="V12" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="W12" s="11">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="X12" s="8">
-        <f t="shared" si="3"/>
-        <v>48</v>
-      </c>
-    </row>
-    <row r="13" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B13" s="13">
-        <v>11</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="D13" s="2">
-        <v>0</v>
-      </c>
-      <c r="E13" s="2">
-        <v>0</v>
-      </c>
-      <c r="F13" s="13">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G13" s="14">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="H13" s="4">
-        <v>24</v>
-      </c>
-      <c r="I13" s="14">
-        <v>40</v>
-      </c>
-      <c r="J13" s="6">
-        <f t="shared" si="6"/>
-        <v>11.200000000000003</v>
-      </c>
-      <c r="K13" s="15">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="L13" s="16">
-        <v>10</v>
-      </c>
-      <c r="M13" s="10">
-        <v>6</v>
-      </c>
-      <c r="N13" s="11">
-        <f t="shared" si="8"/>
-        <v>6</v>
-      </c>
-      <c r="O13" s="15">
-        <f t="shared" si="0"/>
-        <v>144</v>
-      </c>
-      <c r="P13" s="17">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="V13" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="W13" s="11">
-        <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="X13" s="8">
-        <f t="shared" si="3"/>
-        <v>144</v>
-      </c>
-    </row>
-    <row r="14" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B14" s="13">
-        <v>12</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="D14" s="2">
-        <v>0</v>
-      </c>
-      <c r="E14" s="2">
-        <v>0</v>
-      </c>
-      <c r="F14" s="13">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G14" s="14">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="H14" s="4">
-        <v>24</v>
-      </c>
-      <c r="I14" s="14">
-        <v>40</v>
-      </c>
-      <c r="J14" s="6">
-        <f t="shared" si="6"/>
-        <v>11.200000000000003</v>
-      </c>
-      <c r="K14" s="15">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="L14" s="16">
-        <v>5</v>
-      </c>
-      <c r="M14" s="10">
-        <v>3</v>
-      </c>
-      <c r="N14" s="11">
-        <f t="shared" si="8"/>
-        <v>3</v>
-      </c>
-      <c r="O14" s="15">
-        <f t="shared" si="0"/>
-        <v>72</v>
-      </c>
-      <c r="P14" s="17">
+        <v>45</v>
+      </c>
+      <c r="Q19">
+        <f>+O19+F19</f>
+        <v>6</v>
+      </c>
+      <c r="W19" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="X19" s="11">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="V14" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="W14" s="11">
+      <c r="Y19" s="8">
         <f t="shared" si="2"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B20" s="2">
+        <v>18</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" s="2">
+        <v>6</v>
+      </c>
+      <c r="E20" s="2">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="F20" s="2">
+        <v>2</v>
+      </c>
+      <c r="G20" s="2">
+        <f>+D20-F20</f>
+        <v>4</v>
+      </c>
+      <c r="H20" s="4">
+        <f t="shared" si="8"/>
+        <v>92</v>
+      </c>
+      <c r="I20" s="4">
+        <v>15</v>
+      </c>
+      <c r="J20" s="4">
+        <v>23</v>
+      </c>
+      <c r="K20" s="6">
+        <f t="shared" si="5"/>
+        <v>5.240000000000002</v>
+      </c>
+      <c r="L20" s="6">
+        <f t="shared" si="6"/>
+        <v>20.960000000000008</v>
+      </c>
+      <c r="M20" s="10">
+        <v>10</v>
+      </c>
+      <c r="N20" s="10">
+        <v>6</v>
+      </c>
+      <c r="O20" s="11">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="P20" s="8">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="Q20">
+        <f>+O20+F20</f>
+        <v>6</v>
+      </c>
+      <c r="W20" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="X20" s="11">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="Y20" s="8">
+        <f t="shared" si="2"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B21" s="2">
+        <v>19</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" s="2">
+        <v>6</v>
+      </c>
+      <c r="E21" s="2">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="F21" s="2">
         <v>3</v>
       </c>
-      <c r="X14" s="8">
-        <f t="shared" si="3"/>
-        <v>72</v>
-      </c>
-    </row>
-    <row r="15" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B15" s="2">
-        <v>13</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" s="2">
-        <v>0</v>
-      </c>
-      <c r="E15" s="2">
-        <v>6</v>
-      </c>
-      <c r="F15" s="2">
-        <f t="shared" si="4"/>
-        <v>-6</v>
-      </c>
-      <c r="G15" s="4">
+      <c r="G21" s="2">
+        <f>+D21-F21</f>
+        <v>3</v>
+      </c>
+      <c r="H21" s="4">
+        <f t="shared" si="8"/>
+        <v>69</v>
+      </c>
+      <c r="I21" s="4">
+        <v>15</v>
+      </c>
+      <c r="J21" s="4">
+        <v>23</v>
+      </c>
+      <c r="K21" s="6">
         <f t="shared" si="5"/>
-        <v>-240</v>
-      </c>
-      <c r="H15" s="4">
-        <v>24</v>
-      </c>
-      <c r="I15" s="4">
-        <v>40</v>
-      </c>
-      <c r="J15" s="6">
+        <v>5.240000000000002</v>
+      </c>
+      <c r="L21" s="6">
         <f t="shared" si="6"/>
-        <v>11.200000000000003</v>
-      </c>
-      <c r="K15" s="6">
+        <v>15.720000000000006</v>
+      </c>
+      <c r="M21" s="10">
+        <v>10</v>
+      </c>
+      <c r="N21" s="10">
+        <v>6</v>
+      </c>
+      <c r="O21" s="11">
         <f t="shared" si="7"/>
-        <v>-67.200000000000017</v>
-      </c>
-      <c r="L15" s="10">
-        <v>10</v>
-      </c>
-      <c r="M15" s="10">
-        <v>6</v>
-      </c>
-      <c r="N15" s="11">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="O15" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P15">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="V15" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="W15" s="11">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="X15" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B16" s="2">
-        <v>14</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D16" s="2">
-        <v>0</v>
-      </c>
-      <c r="E16" s="2">
-        <v>0</v>
-      </c>
-      <c r="F16" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G16" s="4">
-        <f>+F16*23</f>
-        <v>0</v>
-      </c>
-      <c r="H16" s="4">
-        <v>15</v>
-      </c>
-      <c r="I16" s="4">
-        <v>23</v>
-      </c>
-      <c r="J16" s="6">
-        <f t="shared" si="6"/>
-        <v>5.240000000000002</v>
-      </c>
-      <c r="K16" s="6">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="L16" s="10">
-        <v>10</v>
-      </c>
-      <c r="M16" s="10">
-        <v>6</v>
-      </c>
-      <c r="N16" s="11">
-        <f t="shared" si="8"/>
-        <v>6</v>
-      </c>
-      <c r="O16" s="8">
-        <f t="shared" si="0"/>
-        <v>90</v>
-      </c>
-      <c r="P16">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="V16" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="W16" s="11">
-        <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="X16" s="8">
-        <f t="shared" si="3"/>
-        <v>90</v>
-      </c>
-    </row>
-    <row r="17" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B17" s="2">
-        <v>15</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D17" s="2">
-        <v>0</v>
-      </c>
-      <c r="E17" s="2">
-        <v>0</v>
-      </c>
-      <c r="F17" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G17" s="4">
-        <f t="shared" ref="G17:G24" si="9">+F17*23</f>
-        <v>0</v>
-      </c>
-      <c r="H17" s="4">
-        <v>15</v>
-      </c>
-      <c r="I17" s="4">
-        <v>23</v>
-      </c>
-      <c r="J17" s="6">
-        <f t="shared" si="6"/>
-        <v>5.240000000000002</v>
-      </c>
-      <c r="K17" s="6">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="L17" s="10">
-        <v>10</v>
-      </c>
-      <c r="M17" s="10">
-        <v>6</v>
-      </c>
-      <c r="N17" s="11">
-        <f t="shared" si="8"/>
-        <v>6</v>
-      </c>
-      <c r="O17" s="8">
-        <f t="shared" si="0"/>
-        <v>90</v>
-      </c>
-      <c r="P17">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="U17" s="23"/>
-      <c r="V17" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="W17" s="11">
-        <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="X17" s="8">
-        <f t="shared" si="3"/>
-        <v>90</v>
-      </c>
-    </row>
-    <row r="18" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B18" s="2">
-        <v>16</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D18" s="2">
-        <v>0</v>
-      </c>
-      <c r="E18" s="2">
-        <v>0</v>
-      </c>
-      <c r="F18" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G18" s="4">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="H18" s="4">
-        <v>15</v>
-      </c>
-      <c r="I18" s="4">
-        <v>23</v>
-      </c>
-      <c r="J18" s="6">
-        <f t="shared" si="6"/>
-        <v>5.240000000000002</v>
-      </c>
-      <c r="K18" s="6">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="L18" s="10">
-        <v>10</v>
-      </c>
-      <c r="M18" s="10">
-        <v>6</v>
-      </c>
-      <c r="N18" s="11">
-        <f t="shared" si="8"/>
-        <v>6</v>
-      </c>
-      <c r="O18" s="8">
-        <f t="shared" si="0"/>
-        <v>90</v>
-      </c>
-      <c r="P18">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="V18" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="W18" s="11">
-        <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="X18" s="8">
-        <f t="shared" si="3"/>
-        <v>90</v>
-      </c>
-    </row>
-    <row r="19" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B19" s="2">
-        <v>17</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D19" s="2">
-        <v>0</v>
-      </c>
-      <c r="E19" s="2">
         <v>3</v>
       </c>
-      <c r="F19" s="2">
-        <f t="shared" si="4"/>
-        <v>-3</v>
-      </c>
-      <c r="G19" s="4">
-        <f t="shared" si="9"/>
-        <v>-69</v>
-      </c>
-      <c r="H19" s="4">
-        <v>15</v>
-      </c>
-      <c r="I19" s="4">
-        <v>23</v>
-      </c>
-      <c r="J19" s="6">
-        <f t="shared" si="6"/>
-        <v>5.240000000000002</v>
-      </c>
-      <c r="K19" s="6">
-        <f t="shared" si="7"/>
-        <v>-15.720000000000006</v>
-      </c>
-      <c r="L19" s="10">
-        <v>10</v>
-      </c>
-      <c r="M19" s="10">
-        <v>6</v>
-      </c>
-      <c r="N19" s="11">
-        <f t="shared" si="8"/>
-        <v>3</v>
-      </c>
-      <c r="O19" s="8">
+      <c r="P21" s="8">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="P19">
+      <c r="Q21">
+        <f>+O21+F21</f>
+        <v>6</v>
+      </c>
+      <c r="S21" s="5"/>
+      <c r="W21" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="X21" s="11">
         <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="V19" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y21" s="8">
+        <f t="shared" si="2"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B22" s="2">
+        <v>20</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D22" s="2">
+        <v>35</v>
+      </c>
+      <c r="E22" s="2">
+        <f t="shared" si="3"/>
+        <v>52</v>
+      </c>
+      <c r="F22" s="2">
+        <v>18</v>
+      </c>
+      <c r="G22" s="2">
+        <f>+D22-F22</f>
         <v>17</v>
       </c>
-      <c r="W19" s="11">
+      <c r="H22" s="4">
+        <f t="shared" si="8"/>
+        <v>391</v>
+      </c>
+      <c r="I22" s="4">
+        <v>15</v>
+      </c>
+      <c r="J22" s="4">
+        <v>23</v>
+      </c>
+      <c r="K22" s="6">
+        <f t="shared" si="5"/>
+        <v>5.240000000000002</v>
+      </c>
+      <c r="L22" s="6">
+        <f t="shared" si="6"/>
+        <v>89.080000000000041</v>
+      </c>
+      <c r="M22" s="10">
+        <v>32</v>
+      </c>
+      <c r="N22" s="10">
+        <v>35</v>
+      </c>
+      <c r="O22" s="11">
+        <f t="shared" si="7"/>
+        <v>17</v>
+      </c>
+      <c r="P22" s="8">
+        <f t="shared" si="0"/>
+        <v>255</v>
+      </c>
+      <c r="Q22">
+        <f>+O22+F22</f>
+        <v>35</v>
+      </c>
+      <c r="W22" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="X22" s="11">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="Y22" s="8">
         <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="X19" s="8">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="23" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B23" s="2">
+        <v>21</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D23" s="2">
+        <v>4</v>
+      </c>
+      <c r="E23" s="2">
         <f t="shared" si="3"/>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="20" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B20" s="2">
-        <v>18</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D20" s="2">
-        <v>0</v>
-      </c>
-      <c r="E20" s="2">
-        <v>2</v>
-      </c>
-      <c r="F20" s="2">
-        <f t="shared" si="4"/>
-        <v>-2</v>
-      </c>
-      <c r="G20" s="4">
-        <f t="shared" si="9"/>
-        <v>-46</v>
-      </c>
-      <c r="H20" s="4">
+        <v>8</v>
+      </c>
+      <c r="F23" s="2">
+        <v>0</v>
+      </c>
+      <c r="G23" s="2">
+        <f>+D23-F23</f>
+        <v>4</v>
+      </c>
+      <c r="H23" s="4">
+        <f t="shared" si="8"/>
+        <v>92</v>
+      </c>
+      <c r="I23" s="4">
         <v>15</v>
       </c>
-      <c r="I20" s="4">
+      <c r="J23" s="4">
         <v>23</v>
       </c>
-      <c r="J20" s="6">
+      <c r="K23" s="6">
+        <f t="shared" si="5"/>
+        <v>5.240000000000002</v>
+      </c>
+      <c r="L23" s="6">
         <f t="shared" si="6"/>
-        <v>5.240000000000002</v>
-      </c>
-      <c r="K20" s="6">
+        <v>20.960000000000008</v>
+      </c>
+      <c r="M23" s="10">
+        <v>5</v>
+      </c>
+      <c r="N23" s="10">
+        <v>4</v>
+      </c>
+      <c r="O23" s="11">
         <f t="shared" si="7"/>
-        <v>-10.480000000000004</v>
-      </c>
-      <c r="L20" s="10">
-        <v>10</v>
-      </c>
-      <c r="M20" s="10">
-        <v>6</v>
-      </c>
-      <c r="N20" s="11">
-        <f t="shared" si="8"/>
         <v>4</v>
       </c>
-      <c r="O20" s="8">
+      <c r="P23" s="8">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="P20">
+      <c r="Q23">
+        <f>+O23+F23</f>
+        <v>4</v>
+      </c>
+      <c r="T23" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="U23" s="8">
+        <f>SUM(P3:P24)</f>
+        <v>1335</v>
+      </c>
+      <c r="W23" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="X23" s="11">
         <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="V20" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="W20" s="11">
+        <v>4</v>
+      </c>
+      <c r="Y23" s="8">
         <f t="shared" si="2"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B24" s="2">
+        <v>22</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D24" s="2">
         <v>4</v>
       </c>
-      <c r="X20" s="8">
+      <c r="E24" s="2">
         <f t="shared" si="3"/>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="21" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B21" s="2">
-        <v>19</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D21" s="2">
-        <v>0</v>
-      </c>
-      <c r="E21" s="2">
-        <v>3</v>
-      </c>
-      <c r="F21" s="2">
-        <f t="shared" si="4"/>
-        <v>-3</v>
-      </c>
-      <c r="G21" s="4">
-        <f t="shared" si="9"/>
-        <v>-69</v>
-      </c>
-      <c r="H21" s="4">
+        <v>4</v>
+      </c>
+      <c r="F24" s="2">
+        <v>4</v>
+      </c>
+      <c r="G24" s="2">
+        <f>+D24-F24</f>
+        <v>0</v>
+      </c>
+      <c r="H24" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I24" s="4">
         <v>15</v>
       </c>
-      <c r="I21" s="4">
+      <c r="J24" s="4">
         <v>23</v>
       </c>
-      <c r="J21" s="6">
+      <c r="K24" s="6">
+        <f t="shared" si="5"/>
+        <v>5.240000000000002</v>
+      </c>
+      <c r="L24" s="6">
         <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M24" s="10">
+        <v>5</v>
+      </c>
+      <c r="N24" s="10">
+        <v>4</v>
+      </c>
+      <c r="O24" s="11">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P24" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <f>+O24+F24</f>
+        <v>4</v>
+      </c>
+      <c r="R24" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="S24" s="3">
+        <f>SUM(D3:D24)</f>
+        <v>151</v>
+      </c>
+      <c r="T24" s="3">
+        <f>SUM(F3:F24)</f>
+        <v>77</v>
+      </c>
+      <c r="U24" s="3">
+        <f>SUM(G3:G24)</f>
+        <v>74</v>
+      </c>
+      <c r="V24" s="3">
+        <f>SUM(H3:H24)</f>
+        <v>2127</v>
+      </c>
+      <c r="W24" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="X24" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y24" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B25" s="2">
+        <v>23</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D25" s="2">
+        <v>0</v>
+      </c>
+      <c r="E25" s="2">
+        <f>+D25</f>
+        <v>0</v>
+      </c>
+      <c r="F25" s="2">
+        <v>0</v>
+      </c>
+      <c r="G25" s="2">
+        <f>+D25-F25</f>
+        <v>0</v>
+      </c>
+      <c r="H25" s="4">
+        <f t="shared" ref="H25" si="9">+G25*23</f>
+        <v>0</v>
+      </c>
+      <c r="I25" s="4">
+        <v>15</v>
+      </c>
+      <c r="J25" s="4">
+        <v>23</v>
+      </c>
+      <c r="K25" s="6">
+        <f t="shared" si="5"/>
         <v>5.240000000000002</v>
       </c>
-      <c r="K21" s="6">
+      <c r="L25" s="6">
+        <f t="shared" ref="L25" si="10">+K25*G25</f>
+        <v>0</v>
+      </c>
+      <c r="M25" s="10">
+        <v>5</v>
+      </c>
+      <c r="N25" s="10">
+        <v>4</v>
+      </c>
+      <c r="O25" s="11">
         <f t="shared" si="7"/>
-        <v>-15.720000000000006</v>
-      </c>
-      <c r="L21" s="10">
-        <v>10</v>
-      </c>
-      <c r="M21" s="10">
-        <v>6</v>
-      </c>
-      <c r="N21" s="11">
-        <f t="shared" si="8"/>
-        <v>3</v>
-      </c>
-      <c r="O21" s="8">
-        <f t="shared" si="0"/>
-        <v>45</v>
-      </c>
-      <c r="P21">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="R21" s="5"/>
-      <c r="V21" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="W21" s="11">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="X21" s="8">
-        <f t="shared" si="3"/>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="22" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B22" s="2">
-        <v>20</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D22" s="2">
-        <v>0</v>
-      </c>
-      <c r="E22" s="2">
-        <v>18</v>
-      </c>
-      <c r="F22" s="2">
-        <f t="shared" si="4"/>
-        <v>-18</v>
-      </c>
-      <c r="G22" s="4">
-        <f t="shared" si="9"/>
-        <v>-414</v>
-      </c>
-      <c r="H22" s="4">
-        <v>15</v>
-      </c>
-      <c r="I22" s="4">
-        <v>23</v>
-      </c>
-      <c r="J22" s="6">
-        <f t="shared" si="6"/>
-        <v>5.240000000000002</v>
-      </c>
-      <c r="K22" s="6">
-        <f t="shared" si="7"/>
-        <v>-94.320000000000036</v>
-      </c>
-      <c r="L22" s="10">
-        <v>32</v>
-      </c>
-      <c r="M22" s="10">
-        <v>35</v>
-      </c>
-      <c r="N22" s="11">
-        <f t="shared" si="8"/>
-        <v>17</v>
-      </c>
-      <c r="O22" s="8">
-        <f t="shared" si="0"/>
-        <v>255</v>
-      </c>
-      <c r="P22">
-        <f t="shared" si="1"/>
-        <v>35</v>
-      </c>
-      <c r="V22" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="W22" s="11">
-        <f t="shared" si="2"/>
-        <v>17</v>
-      </c>
-      <c r="X22" s="8">
-        <f t="shared" si="3"/>
-        <v>255</v>
-      </c>
-    </row>
-    <row r="23" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B23" s="2">
-        <v>21</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D23" s="2">
-        <v>0</v>
-      </c>
-      <c r="E23" s="2">
-        <v>0</v>
-      </c>
-      <c r="F23" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G23" s="4">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="H23" s="4">
-        <v>15</v>
-      </c>
-      <c r="I23" s="4">
-        <v>23</v>
-      </c>
-      <c r="J23" s="6">
-        <f t="shared" si="6"/>
-        <v>5.240000000000002</v>
-      </c>
-      <c r="K23" s="6">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="L23" s="10">
-        <v>5</v>
-      </c>
-      <c r="M23" s="10">
         <v>4</v>
       </c>
-      <c r="N23" s="11">
-        <f t="shared" si="8"/>
-        <v>4</v>
-      </c>
-      <c r="O23" s="8">
+      <c r="P25" s="8">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="P23">
-        <f t="shared" si="1"/>
+      <c r="Q25">
+        <f>+O25+F25</f>
         <v>4</v>
       </c>
-      <c r="S23" s="1" t="s">
+      <c r="R25" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+      <c r="T25" s="3"/>
+      <c r="U25" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="V25" s="3">
+        <f>+V24+S25</f>
+        <v>2127</v>
+      </c>
+      <c r="W25" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="T23" s="8">
-        <f>SUM(O3:O24)</f>
-        <v>1407</v>
-      </c>
-      <c r="V23" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="W23" s="11">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="X23" s="8">
-        <f t="shared" si="3"/>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="24" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B24" s="2">
+      <c r="X25" s="18">
+        <f>SUM(Y3:Y24)</f>
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="26" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="R26" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D24" s="2">
-        <v>0</v>
-      </c>
-      <c r="E24" s="2">
-        <v>4</v>
-      </c>
-      <c r="F24" s="2">
-        <f t="shared" si="4"/>
-        <v>-4</v>
-      </c>
-      <c r="G24" s="4">
-        <f t="shared" si="9"/>
-        <v>-92</v>
-      </c>
-      <c r="H24" s="4">
-        <v>15</v>
-      </c>
-      <c r="I24" s="4">
-        <v>23</v>
-      </c>
-      <c r="J24" s="6">
-        <f t="shared" si="6"/>
-        <v>5.240000000000002</v>
-      </c>
-      <c r="K24" s="6">
-        <f t="shared" si="7"/>
-        <v>-20.960000000000008</v>
-      </c>
-      <c r="L24" s="10">
-        <v>5</v>
-      </c>
-      <c r="M24" s="10">
-        <v>4</v>
-      </c>
-      <c r="N24" s="11">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="O24" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P24">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="Q24" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="R24" s="3">
-        <f>SUM(D3:D24)</f>
-        <v>0</v>
-      </c>
-      <c r="S24" s="3">
-        <f>SUM(E3:E24)</f>
-        <v>72</v>
-      </c>
-      <c r="T24" s="3">
-        <f>SUM(F3:F24)</f>
-        <v>-72</v>
-      </c>
-      <c r="U24" s="3">
-        <f>SUM(G3:G24)</f>
-        <v>-2370</v>
-      </c>
-      <c r="V24" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="W24" s="11">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="X24" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B25" s="2">
-        <v>23</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D25" s="2">
-        <v>0</v>
-      </c>
-      <c r="E25" s="2">
-        <v>0</v>
-      </c>
-      <c r="F25" s="2">
-        <f t="shared" ref="F25" si="10">+D25-E25</f>
-        <v>0</v>
-      </c>
-      <c r="G25" s="4">
-        <f t="shared" ref="G25" si="11">+F25*23</f>
-        <v>0</v>
-      </c>
-      <c r="H25" s="4">
-        <v>15</v>
-      </c>
-      <c r="I25" s="4">
-        <v>23</v>
-      </c>
-      <c r="J25" s="6">
-        <f t="shared" si="6"/>
-        <v>5.240000000000002</v>
-      </c>
-      <c r="K25" s="6">
-        <f t="shared" ref="K25" si="12">+J25*F25</f>
-        <v>0</v>
-      </c>
-      <c r="L25" s="10">
-        <v>5</v>
-      </c>
-      <c r="M25" s="10">
-        <v>4</v>
-      </c>
-      <c r="N25" s="11">
-        <f t="shared" ref="N25" si="13">+M25-E25</f>
-        <v>4</v>
-      </c>
-      <c r="O25" s="8">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="P25">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="Q25" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="R25" s="3">
-        <v>0</v>
-      </c>
-      <c r="S25" s="3"/>
-      <c r="T25" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="U25" s="3">
-        <f>+U24+R25</f>
-        <v>-2370</v>
-      </c>
-      <c r="V25" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="W25" s="18">
-        <f>SUM(X3:X24)</f>
-        <v>1407</v>
-      </c>
-    </row>
-    <row r="26" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="Q26" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="R26" s="3">
-        <v>0</v>
-      </c>
-      <c r="S26" s="1"/>
-      <c r="T26" s="3" t="s">
+      <c r="S26" s="3">
+        <v>0</v>
+      </c>
+      <c r="T26" s="1"/>
+      <c r="U26" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="U26" s="9">
-        <f>SUM(K3:K24)</f>
-        <v>-627.60000000000036</v>
-      </c>
-    </row>
-    <row r="27" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="P27" s="12"/>
-      <c r="T27" t="s">
+      <c r="V26" s="9">
+        <f>SUM(L3:L24)</f>
+        <v>536.76000000000022</v>
+      </c>
+    </row>
+    <row r="27" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="Q27" s="12"/>
+      <c r="U27" t="s">
         <v>42</v>
       </c>
-      <c r="U27" s="7">
-        <f>+U26/2</f>
-        <v>-313.80000000000018</v>
-      </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="P34" s="17"/>
-    </row>
-    <row r="36" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="P36" s="17"/>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="P37" s="17"/>
-    </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B38" s="28" t="s">
+      <c r="V27" s="7">
+        <f>+V26/2</f>
+        <v>268.38000000000011</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="Q34" s="17"/>
+    </row>
+    <row r="36" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="Q36" s="17"/>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="Q37" s="17"/>
+    </row>
+    <row r="38" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B38" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="C38" s="29"/>
-      <c r="D38" s="29"/>
-      <c r="E38" s="29"/>
-      <c r="F38" s="29"/>
-      <c r="G38" s="29"/>
-      <c r="H38" s="29"/>
-      <c r="I38" s="29"/>
-      <c r="J38" s="29"/>
-      <c r="K38" s="29"/>
-      <c r="L38" s="29"/>
-      <c r="M38" s="29"/>
-      <c r="N38" s="29"/>
-      <c r="O38" s="29"/>
-      <c r="P38" s="17"/>
-    </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C38" s="30"/>
+      <c r="D38" s="30"/>
+      <c r="E38" s="30"/>
+      <c r="F38" s="30"/>
+      <c r="G38" s="30"/>
+      <c r="H38" s="30"/>
+      <c r="I38" s="30"/>
+      <c r="J38" s="30"/>
+      <c r="K38" s="30"/>
+      <c r="L38" s="30"/>
+      <c r="M38" s="30"/>
+      <c r="N38" s="30"/>
+      <c r="O38" s="30"/>
+      <c r="P38" s="30"/>
+      <c r="Q38" s="17"/>
+    </row>
+    <row r="39" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B39" s="2" t="s">
         <v>0</v>
       </c>
@@ -5565,484 +5666,495 @@
       <c r="D39" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E39" s="2" t="s">
+      <c r="E39" s="2"/>
+      <c r="F39" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F39" s="2" t="s">
+      <c r="G39" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G39" s="2" t="s">
+      <c r="H39" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H39" s="2" t="s">
+      <c r="I39" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="I39" s="2" t="s">
+      <c r="J39" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="J39" s="2" t="s">
+      <c r="K39" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="K39" s="2" t="s">
+      <c r="L39" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L39" s="2"/>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
-      <c r="P39" s="17"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="P39" s="2"/>
+      <c r="Q39" s="17"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B40" s="2">
         <v>1</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D40" s="33">
+      <c r="D40" s="26">
         <v>12</v>
       </c>
-      <c r="E40" s="2">
+      <c r="E40" s="26"/>
+      <c r="F40" s="2">
         <v>8</v>
       </c>
-      <c r="F40" s="2">
-        <f>+D40-E40</f>
+      <c r="G40" s="2">
+        <f>+D40-F40</f>
         <v>4</v>
       </c>
-      <c r="G40" s="4">
-        <f>+F40*40</f>
+      <c r="H40" s="4">
+        <f>+G40*40</f>
         <v>160</v>
       </c>
-      <c r="H40" s="4">
+      <c r="I40" s="4">
         <v>24</v>
       </c>
-      <c r="I40" s="4">
+      <c r="J40" s="4">
         <v>40</v>
       </c>
-      <c r="J40" s="6">
-        <f>(I40-(I40*0.12))-H40</f>
+      <c r="K40" s="6">
+        <f>(J40-(J40*0.12))-I40</f>
         <v>11.200000000000003</v>
       </c>
-      <c r="K40" s="6">
-        <f>+J40*F40</f>
+      <c r="L40" s="6">
+        <f>+K40*G40</f>
         <v>44.800000000000011</v>
       </c>
-      <c r="L40" s="10"/>
       <c r="M40" s="10"/>
-      <c r="N40" s="33">
+      <c r="N40" s="10"/>
+      <c r="O40" s="26">
         <v>12</v>
       </c>
-      <c r="O40" s="8">
-        <f>+N40*H40</f>
+      <c r="P40" s="8">
+        <f>+O40*I40</f>
         <v>288</v>
       </c>
     </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B41" s="2">
         <v>2</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D41" s="33">
+      <c r="D41" s="26">
         <v>19</v>
       </c>
-      <c r="E41" s="2">
-        <v>0</v>
-      </c>
+      <c r="E41" s="26"/>
       <c r="F41" s="2">
-        <f t="shared" ref="F41:F62" si="14">+D41-E41</f>
+        <v>0</v>
+      </c>
+      <c r="G41" s="2">
+        <f t="shared" ref="G41:G62" si="11">+D41-F41</f>
         <v>19</v>
       </c>
-      <c r="G41" s="4">
-        <f t="shared" ref="G41:G52" si="15">+F41*40</f>
+      <c r="H41" s="4">
+        <f t="shared" ref="H41:H52" si="12">+G41*40</f>
         <v>760</v>
       </c>
-      <c r="H41" s="4">
+      <c r="I41" s="4">
         <v>24</v>
       </c>
-      <c r="I41" s="4">
+      <c r="J41" s="4">
         <v>40</v>
       </c>
-      <c r="J41" s="6">
-        <f t="shared" ref="J41:J62" si="16">(I41-(I41*0.12))-H41</f>
+      <c r="K41" s="6">
+        <f t="shared" ref="K41:K62" si="13">(J41-(J41*0.12))-I41</f>
         <v>11.200000000000003</v>
       </c>
-      <c r="K41" s="6">
-        <f t="shared" ref="K41:K62" si="17">+J41*F41</f>
+      <c r="L41" s="6">
+        <f t="shared" ref="L41:L62" si="14">+K41*G41</f>
         <v>212.80000000000007</v>
       </c>
-      <c r="L41" s="10"/>
       <c r="M41" s="10"/>
-      <c r="N41" s="33">
+      <c r="N41" s="10"/>
+      <c r="O41" s="26">
         <v>19</v>
       </c>
-      <c r="O41" s="8">
-        <f>+N41*H41</f>
+      <c r="P41" s="8">
+        <f>+O41*I41</f>
         <v>456</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B42" s="2">
         <v>3</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D42" s="33">
-        <v>6</v>
-      </c>
-      <c r="E42" s="2">
+      <c r="D42" s="26">
+        <v>6</v>
+      </c>
+      <c r="E42" s="26"/>
+      <c r="F42" s="2">
         <v>3</v>
       </c>
-      <c r="F42" s="2">
+      <c r="G42" s="2">
+        <f t="shared" si="11"/>
+        <v>3</v>
+      </c>
+      <c r="H42" s="4">
+        <f t="shared" si="12"/>
+        <v>120</v>
+      </c>
+      <c r="I42" s="4">
+        <v>24</v>
+      </c>
+      <c r="J42" s="4">
+        <v>40</v>
+      </c>
+      <c r="K42" s="6">
+        <f t="shared" si="13"/>
+        <v>11.200000000000003</v>
+      </c>
+      <c r="L42" s="6">
         <f t="shared" si="14"/>
+        <v>33.600000000000009</v>
+      </c>
+      <c r="M42" s="10"/>
+      <c r="N42" s="10"/>
+      <c r="O42" s="26">
+        <v>6</v>
+      </c>
+      <c r="P42" s="8">
+        <f t="shared" ref="P42:P62" si="15">+O42*I42</f>
+        <v>144</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B43" s="2">
+        <v>4</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D43" s="26">
+        <v>6</v>
+      </c>
+      <c r="E43" s="26"/>
+      <c r="F43" s="2">
+        <v>4</v>
+      </c>
+      <c r="G43" s="2">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="H43" s="4">
+        <f t="shared" si="12"/>
+        <v>80</v>
+      </c>
+      <c r="I43" s="4">
+        <v>24</v>
+      </c>
+      <c r="J43" s="4">
+        <v>40</v>
+      </c>
+      <c r="K43" s="6">
+        <f t="shared" si="13"/>
+        <v>11.200000000000003</v>
+      </c>
+      <c r="L43" s="6">
+        <f t="shared" si="14"/>
+        <v>22.400000000000006</v>
+      </c>
+      <c r="M43" s="10"/>
+      <c r="N43" s="10"/>
+      <c r="O43" s="26">
+        <v>6</v>
+      </c>
+      <c r="P43" s="8">
+        <f t="shared" si="15"/>
+        <v>144</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B44" s="2">
+        <v>5</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D44" s="26">
+        <v>6</v>
+      </c>
+      <c r="E44" s="26"/>
+      <c r="F44" s="2">
+        <v>5</v>
+      </c>
+      <c r="G44" s="2">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="H44" s="4">
+        <f t="shared" si="12"/>
+        <v>40</v>
+      </c>
+      <c r="I44" s="4">
+        <v>24</v>
+      </c>
+      <c r="J44" s="4">
+        <v>40</v>
+      </c>
+      <c r="K44" s="6">
+        <f t="shared" si="13"/>
+        <v>11.200000000000003</v>
+      </c>
+      <c r="L44" s="6">
+        <f t="shared" si="14"/>
+        <v>11.200000000000003</v>
+      </c>
+      <c r="M44" s="10"/>
+      <c r="N44" s="10"/>
+      <c r="O44" s="26">
+        <v>6</v>
+      </c>
+      <c r="P44" s="8">
+        <f t="shared" si="15"/>
+        <v>144</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B45" s="2">
+        <v>6</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D45" s="26">
+        <v>6</v>
+      </c>
+      <c r="E45" s="26"/>
+      <c r="F45" s="2">
+        <v>1</v>
+      </c>
+      <c r="G45" s="2">
+        <f t="shared" si="11"/>
+        <v>5</v>
+      </c>
+      <c r="H45" s="4">
+        <f t="shared" si="12"/>
+        <v>200</v>
+      </c>
+      <c r="I45" s="4">
+        <v>24</v>
+      </c>
+      <c r="J45" s="4">
+        <v>40</v>
+      </c>
+      <c r="K45" s="6">
+        <f t="shared" si="13"/>
+        <v>11.200000000000003</v>
+      </c>
+      <c r="L45" s="6">
+        <f t="shared" si="14"/>
+        <v>56.000000000000014</v>
+      </c>
+      <c r="M45" s="10"/>
+      <c r="N45" s="10"/>
+      <c r="O45" s="26">
+        <v>6</v>
+      </c>
+      <c r="P45" s="8">
+        <f t="shared" si="15"/>
+        <v>144</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B46" s="13">
+        <v>7</v>
+      </c>
+      <c r="C46" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D46" s="26">
+        <v>6</v>
+      </c>
+      <c r="E46" s="26"/>
+      <c r="F46" s="2">
         <v>3</v>
       </c>
-      <c r="G42" s="4">
+      <c r="G46" s="13">
+        <f t="shared" si="11"/>
+        <v>3</v>
+      </c>
+      <c r="H46" s="14">
+        <f t="shared" si="12"/>
+        <v>120</v>
+      </c>
+      <c r="I46" s="4">
+        <v>24</v>
+      </c>
+      <c r="J46" s="14">
+        <v>40</v>
+      </c>
+      <c r="K46" s="6">
+        <f t="shared" si="13"/>
+        <v>11.200000000000003</v>
+      </c>
+      <c r="L46" s="15">
+        <f t="shared" si="14"/>
+        <v>33.600000000000009</v>
+      </c>
+      <c r="M46" s="16"/>
+      <c r="N46" s="10"/>
+      <c r="O46" s="26">
+        <v>6</v>
+      </c>
+      <c r="P46" s="15">
+        <f t="shared" si="15"/>
+        <v>144</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B47" s="20">
+        <v>8</v>
+      </c>
+      <c r="C47" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D47" s="26">
+        <v>5</v>
+      </c>
+      <c r="E47" s="26"/>
+      <c r="F47" s="2">
+        <v>3</v>
+      </c>
+      <c r="G47" s="20">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="H47" s="21">
+        <f t="shared" si="12"/>
+        <v>80</v>
+      </c>
+      <c r="I47" s="4">
+        <v>24</v>
+      </c>
+      <c r="J47" s="21">
+        <v>40</v>
+      </c>
+      <c r="K47" s="6">
+        <f t="shared" si="13"/>
+        <v>11.200000000000003</v>
+      </c>
+      <c r="L47" s="22">
+        <f t="shared" si="14"/>
+        <v>22.400000000000006</v>
+      </c>
+      <c r="M47" s="10"/>
+      <c r="N47" s="10"/>
+      <c r="O47" s="26">
+        <v>5</v>
+      </c>
+      <c r="P47" s="8">
         <f t="shared" si="15"/>
         <v>120</v>
       </c>
-      <c r="H42" s="4">
-        <v>24</v>
-      </c>
-      <c r="I42" s="4">
-        <v>40</v>
-      </c>
-      <c r="J42" s="6">
-        <f t="shared" si="16"/>
-        <v>11.200000000000003</v>
-      </c>
-      <c r="K42" s="6">
-        <f t="shared" si="17"/>
-        <v>33.600000000000009</v>
-      </c>
-      <c r="L42" s="10"/>
-      <c r="M42" s="10"/>
-      <c r="N42" s="33">
-        <v>6</v>
-      </c>
-      <c r="O42" s="8">
-        <f t="shared" ref="O41:O62" si="18">+N42*H42</f>
-        <v>144</v>
-      </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B43" s="2">
-        <v>4</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D43" s="33">
-        <v>6</v>
-      </c>
-      <c r="E43" s="2">
-        <v>4</v>
-      </c>
-      <c r="F43" s="2">
-        <f t="shared" si="14"/>
-        <v>2</v>
-      </c>
-      <c r="G43" s="4">
-        <f t="shared" si="15"/>
-        <v>80</v>
-      </c>
-      <c r="H43" s="4">
-        <v>24</v>
-      </c>
-      <c r="I43" s="4">
-        <v>40</v>
-      </c>
-      <c r="J43" s="6">
-        <f t="shared" si="16"/>
-        <v>11.200000000000003</v>
-      </c>
-      <c r="K43" s="6">
-        <f t="shared" si="17"/>
-        <v>22.400000000000006</v>
-      </c>
-      <c r="L43" s="10"/>
-      <c r="M43" s="10"/>
-      <c r="N43" s="33">
-        <v>6</v>
-      </c>
-      <c r="O43" s="8">
-        <f t="shared" si="18"/>
-        <v>144</v>
-      </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B44" s="2">
-        <v>5</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D44" s="33">
-        <v>6</v>
-      </c>
-      <c r="E44" s="2">
-        <v>5</v>
-      </c>
-      <c r="F44" s="2">
-        <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="G44" s="4">
-        <f t="shared" si="15"/>
-        <v>40</v>
-      </c>
-      <c r="H44" s="4">
-        <v>24</v>
-      </c>
-      <c r="I44" s="4">
-        <v>40</v>
-      </c>
-      <c r="J44" s="6">
-        <f t="shared" si="16"/>
-        <v>11.200000000000003</v>
-      </c>
-      <c r="K44" s="6">
-        <f t="shared" si="17"/>
-        <v>11.200000000000003</v>
-      </c>
-      <c r="L44" s="10"/>
-      <c r="M44" s="10"/>
-      <c r="N44" s="33">
-        <v>6</v>
-      </c>
-      <c r="O44" s="8">
-        <f t="shared" si="18"/>
-        <v>144</v>
-      </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B45" s="2">
-        <v>6</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D45" s="33">
-        <v>6</v>
-      </c>
-      <c r="E45" s="2">
-        <v>1</v>
-      </c>
-      <c r="F45" s="2">
-        <f t="shared" si="14"/>
-        <v>5</v>
-      </c>
-      <c r="G45" s="4">
-        <f t="shared" si="15"/>
-        <v>200</v>
-      </c>
-      <c r="H45" s="4">
-        <v>24</v>
-      </c>
-      <c r="I45" s="4">
-        <v>40</v>
-      </c>
-      <c r="J45" s="6">
-        <f t="shared" si="16"/>
-        <v>11.200000000000003</v>
-      </c>
-      <c r="K45" s="6">
-        <f t="shared" si="17"/>
-        <v>56.000000000000014</v>
-      </c>
-      <c r="L45" s="10"/>
-      <c r="M45" s="10"/>
-      <c r="N45" s="33">
-        <v>6</v>
-      </c>
-      <c r="O45" s="8">
-        <f t="shared" si="18"/>
-        <v>144</v>
-      </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B46" s="13">
-        <v>7</v>
-      </c>
-      <c r="C46" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D46" s="33">
-        <v>6</v>
-      </c>
-      <c r="E46" s="2">
-        <v>3</v>
-      </c>
-      <c r="F46" s="13">
-        <f t="shared" si="14"/>
-        <v>3</v>
-      </c>
-      <c r="G46" s="14">
-        <f t="shared" si="15"/>
-        <v>120</v>
-      </c>
-      <c r="H46" s="4">
-        <v>24</v>
-      </c>
-      <c r="I46" s="14">
-        <v>40</v>
-      </c>
-      <c r="J46" s="6">
-        <f t="shared" si="16"/>
-        <v>11.200000000000003</v>
-      </c>
-      <c r="K46" s="15">
-        <f t="shared" si="17"/>
-        <v>33.600000000000009</v>
-      </c>
-      <c r="L46" s="16"/>
-      <c r="M46" s="10"/>
-      <c r="N46" s="33">
-        <v>6</v>
-      </c>
-      <c r="O46" s="15">
-        <f t="shared" si="18"/>
-        <v>144</v>
-      </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B47" s="20">
-        <v>8</v>
-      </c>
-      <c r="C47" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="D47" s="33">
-        <v>5</v>
-      </c>
-      <c r="E47" s="2">
-        <v>3</v>
-      </c>
-      <c r="F47" s="20">
-        <f t="shared" si="14"/>
-        <v>2</v>
-      </c>
-      <c r="G47" s="21">
-        <f t="shared" si="15"/>
-        <v>80</v>
-      </c>
-      <c r="H47" s="4">
-        <v>24</v>
-      </c>
-      <c r="I47" s="21">
-        <v>40</v>
-      </c>
-      <c r="J47" s="6">
-        <f t="shared" si="16"/>
-        <v>11.200000000000003</v>
-      </c>
-      <c r="K47" s="22">
-        <f t="shared" si="17"/>
-        <v>22.400000000000006</v>
-      </c>
-      <c r="L47" s="10"/>
-      <c r="M47" s="10"/>
-      <c r="N47" s="33">
-        <v>5</v>
-      </c>
-      <c r="O47" s="8">
-        <f t="shared" si="18"/>
-        <v>120</v>
-      </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B48" s="13">
         <v>9</v>
       </c>
       <c r="C48" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="D48" s="33">
-        <v>6</v>
-      </c>
-      <c r="E48" s="2">
-        <v>6</v>
-      </c>
-      <c r="F48" s="13">
+      <c r="D48" s="26">
+        <v>6</v>
+      </c>
+      <c r="E48" s="26"/>
+      <c r="F48" s="2">
+        <v>6</v>
+      </c>
+      <c r="G48" s="13">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="H48" s="14">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="I48" s="4">
+        <v>24</v>
+      </c>
+      <c r="J48" s="14">
+        <v>40</v>
+      </c>
+      <c r="K48" s="6">
+        <f t="shared" si="13"/>
+        <v>11.200000000000003</v>
+      </c>
+      <c r="L48" s="15">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="G48" s="14">
+      <c r="M48" s="16"/>
+      <c r="N48" s="10"/>
+      <c r="O48" s="26">
+        <v>6</v>
+      </c>
+      <c r="P48" s="15">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="H48" s="4">
-        <v>24</v>
-      </c>
-      <c r="I48" s="14">
-        <v>40</v>
-      </c>
-      <c r="J48" s="6">
-        <f t="shared" si="16"/>
-        <v>11.200000000000003</v>
-      </c>
-      <c r="K48" s="15">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="L48" s="16"/>
-      <c r="M48" s="10"/>
-      <c r="N48" s="33">
-        <v>6</v>
-      </c>
-      <c r="O48" s="15">
-        <f t="shared" si="18"/>
         <v>144</v>
       </c>
     </row>
-    <row r="49" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B49" s="13">
         <v>10</v>
       </c>
       <c r="C49" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="D49" s="33">
-        <v>6</v>
-      </c>
-      <c r="E49" s="2">
+      <c r="D49" s="26">
+        <v>6</v>
+      </c>
+      <c r="E49" s="26"/>
+      <c r="F49" s="2">
         <v>3</v>
       </c>
-      <c r="F49" s="13">
+      <c r="G49" s="13">
+        <f t="shared" si="11"/>
+        <v>3</v>
+      </c>
+      <c r="H49" s="14">
+        <f t="shared" si="12"/>
+        <v>120</v>
+      </c>
+      <c r="I49" s="4">
+        <v>24</v>
+      </c>
+      <c r="J49" s="14">
+        <v>40</v>
+      </c>
+      <c r="K49" s="6">
+        <f t="shared" si="13"/>
+        <v>11.200000000000003</v>
+      </c>
+      <c r="L49" s="15">
         <f t="shared" si="14"/>
-        <v>3</v>
-      </c>
-      <c r="G49" s="14">
+        <v>33.600000000000009</v>
+      </c>
+      <c r="M49" s="16"/>
+      <c r="N49" s="10"/>
+      <c r="O49" s="26">
+        <v>6</v>
+      </c>
+      <c r="P49" s="15">
         <f t="shared" si="15"/>
-        <v>120</v>
-      </c>
-      <c r="H49" s="4">
-        <v>24</v>
-      </c>
-      <c r="I49" s="14">
-        <v>40</v>
-      </c>
-      <c r="J49" s="6">
-        <f t="shared" si="16"/>
-        <v>11.200000000000003</v>
-      </c>
-      <c r="K49" s="15">
-        <f t="shared" si="17"/>
-        <v>33.600000000000009</v>
-      </c>
-      <c r="L49" s="16"/>
-      <c r="M49" s="10"/>
-      <c r="N49" s="33">
-        <v>6</v>
-      </c>
-      <c r="O49" s="15">
-        <f t="shared" si="18"/>
         <v>144</v>
       </c>
     </row>
-    <row r="50" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B50" s="13">
         <v>11</v>
       </c>
@@ -6052,42 +6164,43 @@
       <c r="D50" s="2">
         <v>0</v>
       </c>
-      <c r="E50" s="2">
-        <v>0</v>
-      </c>
-      <c r="F50" s="13">
+      <c r="E50" s="2"/>
+      <c r="F50" s="2">
+        <v>0</v>
+      </c>
+      <c r="G50" s="13">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="H50" s="14">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="I50" s="4">
+        <v>24</v>
+      </c>
+      <c r="J50" s="14">
+        <v>40</v>
+      </c>
+      <c r="K50" s="6">
+        <f t="shared" si="13"/>
+        <v>11.200000000000003</v>
+      </c>
+      <c r="L50" s="15">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="G50" s="14">
+      <c r="M50" s="16"/>
+      <c r="N50" s="10"/>
+      <c r="O50" s="2">
+        <v>0</v>
+      </c>
+      <c r="P50" s="15">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="H50" s="4">
-        <v>24</v>
-      </c>
-      <c r="I50" s="14">
-        <v>40</v>
-      </c>
-      <c r="J50" s="6">
-        <f t="shared" si="16"/>
-        <v>11.200000000000003</v>
-      </c>
-      <c r="K50" s="15">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="L50" s="16"/>
-      <c r="M50" s="10"/>
-      <c r="N50" s="2">
-        <v>0</v>
-      </c>
-      <c r="O50" s="15">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="2:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B51" s="13">
         <v>12</v>
       </c>
@@ -6097,132 +6210,135 @@
       <c r="D51" s="2">
         <v>0</v>
       </c>
-      <c r="E51" s="2">
-        <v>0</v>
-      </c>
-      <c r="F51" s="13">
+      <c r="E51" s="2"/>
+      <c r="F51" s="2">
+        <v>0</v>
+      </c>
+      <c r="G51" s="13">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="H51" s="14">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="I51" s="4">
+        <v>24</v>
+      </c>
+      <c r="J51" s="14">
+        <v>40</v>
+      </c>
+      <c r="K51" s="6">
+        <f t="shared" si="13"/>
+        <v>11.200000000000003</v>
+      </c>
+      <c r="L51" s="15">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="G51" s="14">
+      <c r="M51" s="16"/>
+      <c r="N51" s="10"/>
+      <c r="O51" s="2">
+        <v>0</v>
+      </c>
+      <c r="P51" s="15">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="H51" s="4">
-        <v>24</v>
-      </c>
-      <c r="I51" s="14">
-        <v>40</v>
-      </c>
-      <c r="J51" s="6">
-        <f t="shared" si="16"/>
-        <v>11.200000000000003</v>
-      </c>
-      <c r="K51" s="15">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="L51" s="16"/>
-      <c r="M51" s="10"/>
-      <c r="N51" s="2">
-        <v>0</v>
-      </c>
-      <c r="O51" s="15">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="2:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B52" s="2">
         <v>13</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D52" s="33">
-        <v>6</v>
-      </c>
-      <c r="E52" s="2">
-        <v>6</v>
-      </c>
+      <c r="D52" s="26">
+        <v>6</v>
+      </c>
+      <c r="E52" s="26"/>
       <c r="F52" s="2">
+        <v>6</v>
+      </c>
+      <c r="G52" s="2">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="H52" s="4">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="I52" s="4">
+        <v>24</v>
+      </c>
+      <c r="J52" s="4">
+        <v>40</v>
+      </c>
+      <c r="K52" s="6">
+        <f t="shared" si="13"/>
+        <v>11.200000000000003</v>
+      </c>
+      <c r="L52" s="6">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="G52" s="4">
+      <c r="M52" s="10"/>
+      <c r="N52" s="10"/>
+      <c r="O52" s="26">
+        <v>6</v>
+      </c>
+      <c r="P52" s="8">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="H52" s="4">
-        <v>24</v>
-      </c>
-      <c r="I52" s="4">
-        <v>40</v>
-      </c>
-      <c r="J52" s="6">
-        <f t="shared" si="16"/>
-        <v>11.200000000000003</v>
-      </c>
-      <c r="K52" s="6">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="L52" s="10"/>
-      <c r="M52" s="10"/>
-      <c r="N52" s="33">
-        <v>6</v>
-      </c>
-      <c r="O52" s="8">
-        <f t="shared" si="18"/>
         <v>144</v>
       </c>
     </row>
-    <row r="53" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B53" s="2">
         <v>14</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D53" s="33">
-        <v>6</v>
-      </c>
-      <c r="E53" s="2">
-        <v>0</v>
-      </c>
+      <c r="D53" s="26">
+        <v>6</v>
+      </c>
+      <c r="E53" s="26"/>
       <c r="F53" s="2">
+        <v>0</v>
+      </c>
+      <c r="G53" s="2">
+        <f t="shared" si="11"/>
+        <v>6</v>
+      </c>
+      <c r="H53" s="4">
+        <f>+G53*23</f>
+        <v>138</v>
+      </c>
+      <c r="I53" s="4">
+        <v>15</v>
+      </c>
+      <c r="J53" s="4">
+        <v>25</v>
+      </c>
+      <c r="K53" s="6">
+        <f t="shared" si="13"/>
+        <v>7</v>
+      </c>
+      <c r="L53" s="6">
         <f t="shared" si="14"/>
-        <v>6</v>
-      </c>
-      <c r="G53" s="4">
-        <f>+F53*23</f>
-        <v>138</v>
-      </c>
-      <c r="H53" s="4">
-        <v>15</v>
-      </c>
-      <c r="I53" s="4">
-        <v>25</v>
-      </c>
-      <c r="J53" s="6">
-        <f t="shared" si="16"/>
-        <v>7</v>
-      </c>
-      <c r="K53" s="6">
-        <f t="shared" si="17"/>
         <v>42</v>
       </c>
-      <c r="L53" s="10"/>
       <c r="M53" s="10"/>
-      <c r="N53" s="33">
-        <v>6</v>
-      </c>
-      <c r="O53" s="8">
-        <f t="shared" si="18"/>
+      <c r="N53" s="10"/>
+      <c r="O53" s="26">
+        <v>6</v>
+      </c>
+      <c r="P53" s="8">
+        <f t="shared" si="15"/>
         <v>90</v>
       </c>
     </row>
-    <row r="54" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B54" s="2">
         <v>15</v>
       </c>
@@ -6232,87 +6348,89 @@
       <c r="D54" s="2">
         <v>6</v>
       </c>
-      <c r="E54" s="2">
-        <v>0</v>
-      </c>
+      <c r="E54" s="2"/>
       <c r="F54" s="2">
+        <v>0</v>
+      </c>
+      <c r="G54" s="2">
+        <f t="shared" si="11"/>
+        <v>6</v>
+      </c>
+      <c r="H54" s="4">
+        <f t="shared" ref="H54:H62" si="16">+G54*23</f>
+        <v>138</v>
+      </c>
+      <c r="I54" s="4">
+        <v>15</v>
+      </c>
+      <c r="J54" s="4">
+        <v>25</v>
+      </c>
+      <c r="K54" s="6">
+        <f t="shared" si="13"/>
+        <v>7</v>
+      </c>
+      <c r="L54" s="6">
         <f t="shared" si="14"/>
-        <v>6</v>
-      </c>
-      <c r="G54" s="4">
-        <f t="shared" ref="G54:G62" si="19">+F54*23</f>
-        <v>138</v>
-      </c>
-      <c r="H54" s="4">
-        <v>15</v>
-      </c>
-      <c r="I54" s="4">
-        <v>25</v>
-      </c>
-      <c r="J54" s="6">
-        <f t="shared" si="16"/>
-        <v>7</v>
-      </c>
-      <c r="K54" s="6">
-        <f t="shared" si="17"/>
         <v>42</v>
       </c>
-      <c r="L54" s="10"/>
       <c r="M54" s="10"/>
-      <c r="N54" s="2">
-        <v>6</v>
-      </c>
-      <c r="O54" s="8">
-        <f t="shared" si="18"/>
+      <c r="N54" s="10"/>
+      <c r="O54" s="2">
+        <v>6</v>
+      </c>
+      <c r="P54" s="8">
+        <f t="shared" si="15"/>
         <v>90</v>
       </c>
     </row>
-    <row r="55" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B55" s="2">
         <v>16</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D55" s="33">
-        <v>6</v>
-      </c>
-      <c r="E55" s="2">
-        <v>0</v>
-      </c>
+      <c r="D55" s="26">
+        <v>6</v>
+      </c>
+      <c r="E55" s="26"/>
       <c r="F55" s="2">
+        <v>0</v>
+      </c>
+      <c r="G55" s="2">
+        <f t="shared" si="11"/>
+        <v>6</v>
+      </c>
+      <c r="H55" s="4">
+        <f t="shared" si="16"/>
+        <v>138</v>
+      </c>
+      <c r="I55" s="4">
+        <v>15</v>
+      </c>
+      <c r="J55" s="4">
+        <v>25</v>
+      </c>
+      <c r="K55" s="6">
+        <f t="shared" si="13"/>
+        <v>7</v>
+      </c>
+      <c r="L55" s="6">
         <f t="shared" si="14"/>
-        <v>6</v>
-      </c>
-      <c r="G55" s="4">
-        <f t="shared" si="19"/>
-        <v>138</v>
-      </c>
-      <c r="H55" s="4">
-        <v>15</v>
-      </c>
-      <c r="I55" s="4">
-        <v>25</v>
-      </c>
-      <c r="J55" s="6">
-        <f t="shared" si="16"/>
-        <v>7</v>
-      </c>
-      <c r="K55" s="6">
-        <f t="shared" si="17"/>
         <v>42</v>
       </c>
-      <c r="L55" s="10"/>
       <c r="M55" s="10"/>
-      <c r="N55" s="33">
-        <v>6</v>
-      </c>
-      <c r="O55" s="8">
-        <f t="shared" si="18"/>
+      <c r="N55" s="10"/>
+      <c r="O55" s="26">
+        <v>6</v>
+      </c>
+      <c r="P55" s="8">
+        <f t="shared" si="15"/>
         <v>90</v>
       </c>
     </row>
-    <row r="56" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B56" s="2">
         <v>17</v>
       </c>
@@ -6322,42 +6440,43 @@
       <c r="D56" s="2">
         <v>4</v>
       </c>
-      <c r="E56" s="2">
+      <c r="E56" s="2"/>
+      <c r="F56" s="2">
         <v>3</v>
       </c>
-      <c r="F56" s="2">
+      <c r="G56" s="2">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="H56" s="4">
+        <f t="shared" si="16"/>
+        <v>23</v>
+      </c>
+      <c r="I56" s="4">
+        <v>15</v>
+      </c>
+      <c r="J56" s="4">
+        <v>25</v>
+      </c>
+      <c r="K56" s="6">
+        <f t="shared" si="13"/>
+        <v>7</v>
+      </c>
+      <c r="L56" s="6">
         <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="G56" s="4">
-        <f t="shared" si="19"/>
-        <v>23</v>
-      </c>
-      <c r="H56" s="4">
-        <v>15</v>
-      </c>
-      <c r="I56" s="4">
-        <v>25</v>
-      </c>
-      <c r="J56" s="6">
-        <f t="shared" si="16"/>
         <v>7</v>
       </c>
-      <c r="K56" s="6">
-        <f t="shared" si="17"/>
-        <v>7</v>
-      </c>
-      <c r="L56" s="10"/>
       <c r="M56" s="10"/>
-      <c r="N56" s="2">
+      <c r="N56" s="10"/>
+      <c r="O56" s="2">
         <v>4</v>
       </c>
-      <c r="O56" s="8">
-        <f t="shared" si="18"/>
+      <c r="P56" s="8">
+        <f t="shared" si="15"/>
         <v>60</v>
       </c>
     </row>
-    <row r="57" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B57" s="2">
         <v>18</v>
       </c>
@@ -6367,42 +6486,43 @@
       <c r="D57" s="2">
         <v>6</v>
       </c>
-      <c r="E57" s="2">
+      <c r="E57" s="2"/>
+      <c r="F57" s="2">
         <v>2</v>
       </c>
-      <c r="F57" s="2">
+      <c r="G57" s="2">
+        <f t="shared" si="11"/>
+        <v>4</v>
+      </c>
+      <c r="H57" s="4">
+        <f t="shared" si="16"/>
+        <v>92</v>
+      </c>
+      <c r="I57" s="4">
+        <v>15</v>
+      </c>
+      <c r="J57" s="4">
+        <v>25</v>
+      </c>
+      <c r="K57" s="6">
+        <f t="shared" si="13"/>
+        <v>7</v>
+      </c>
+      <c r="L57" s="6">
         <f t="shared" si="14"/>
-        <v>4</v>
-      </c>
-      <c r="G57" s="4">
-        <f t="shared" si="19"/>
-        <v>92</v>
-      </c>
-      <c r="H57" s="4">
-        <v>15</v>
-      </c>
-      <c r="I57" s="4">
-        <v>25</v>
-      </c>
-      <c r="J57" s="6">
-        <f t="shared" si="16"/>
-        <v>7</v>
-      </c>
-      <c r="K57" s="6">
-        <f t="shared" si="17"/>
         <v>28</v>
       </c>
-      <c r="L57" s="10"/>
       <c r="M57" s="10"/>
-      <c r="N57" s="2">
-        <v>6</v>
-      </c>
-      <c r="O57" s="8">
-        <f t="shared" si="18"/>
+      <c r="N57" s="10"/>
+      <c r="O57" s="2">
+        <v>6</v>
+      </c>
+      <c r="P57" s="8">
+        <f t="shared" si="15"/>
         <v>90</v>
       </c>
     </row>
-    <row r="58" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B58" s="2">
         <v>19</v>
       </c>
@@ -6412,42 +6532,43 @@
       <c r="D58" s="2">
         <v>4</v>
       </c>
-      <c r="E58" s="2">
+      <c r="E58" s="2"/>
+      <c r="F58" s="2">
         <v>3</v>
       </c>
-      <c r="F58" s="2">
+      <c r="G58" s="2">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="H58" s="4">
+        <f t="shared" si="16"/>
+        <v>23</v>
+      </c>
+      <c r="I58" s="4">
+        <v>15</v>
+      </c>
+      <c r="J58" s="4">
+        <v>25</v>
+      </c>
+      <c r="K58" s="6">
+        <f t="shared" si="13"/>
+        <v>7</v>
+      </c>
+      <c r="L58" s="6">
         <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="G58" s="4">
-        <f t="shared" si="19"/>
-        <v>23</v>
-      </c>
-      <c r="H58" s="4">
-        <v>15</v>
-      </c>
-      <c r="I58" s="4">
-        <v>25</v>
-      </c>
-      <c r="J58" s="6">
-        <f t="shared" si="16"/>
         <v>7</v>
       </c>
-      <c r="K58" s="6">
-        <f t="shared" si="17"/>
-        <v>7</v>
-      </c>
-      <c r="L58" s="10"/>
       <c r="M58" s="10"/>
-      <c r="N58" s="2">
+      <c r="N58" s="10"/>
+      <c r="O58" s="2">
         <v>4</v>
       </c>
-      <c r="O58" s="8">
-        <f t="shared" si="18"/>
+      <c r="P58" s="8">
+        <f t="shared" si="15"/>
         <v>60</v>
       </c>
     </row>
-    <row r="59" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B59" s="2">
         <v>20</v>
       </c>
@@ -6457,42 +6578,43 @@
       <c r="D59" s="2">
         <v>30</v>
       </c>
-      <c r="E59" s="2">
+      <c r="E59" s="2"/>
+      <c r="F59" s="2">
         <v>18</v>
       </c>
-      <c r="F59" s="2">
+      <c r="G59" s="2">
+        <f t="shared" si="11"/>
+        <v>12</v>
+      </c>
+      <c r="H59" s="4">
+        <f t="shared" si="16"/>
+        <v>276</v>
+      </c>
+      <c r="I59" s="4">
+        <v>12</v>
+      </c>
+      <c r="J59" s="4">
+        <v>25</v>
+      </c>
+      <c r="K59" s="6">
+        <f t="shared" si="13"/>
+        <v>10</v>
+      </c>
+      <c r="L59" s="6">
         <f t="shared" si="14"/>
-        <v>12</v>
-      </c>
-      <c r="G59" s="4">
-        <f t="shared" si="19"/>
-        <v>276</v>
-      </c>
-      <c r="H59" s="4">
-        <v>12</v>
-      </c>
-      <c r="I59" s="4">
-        <v>25</v>
-      </c>
-      <c r="J59" s="6">
-        <f t="shared" si="16"/>
-        <v>10</v>
-      </c>
-      <c r="K59" s="6">
-        <f t="shared" si="17"/>
         <v>120</v>
       </c>
-      <c r="L59" s="10"/>
       <c r="M59" s="10"/>
-      <c r="N59" s="2">
+      <c r="N59" s="10"/>
+      <c r="O59" s="2">
         <v>30</v>
       </c>
-      <c r="O59" s="8">
-        <f t="shared" si="18"/>
+      <c r="P59" s="8">
+        <f t="shared" si="15"/>
         <v>360</v>
       </c>
     </row>
-    <row r="60" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B60" s="2">
         <v>21</v>
       </c>
@@ -6502,42 +6624,43 @@
       <c r="D60" s="2">
         <v>0</v>
       </c>
-      <c r="E60" s="2">
-        <v>0</v>
-      </c>
+      <c r="E60" s="2"/>
       <c r="F60" s="2">
+        <v>0</v>
+      </c>
+      <c r="G60" s="2">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="H60" s="4">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="I60" s="4">
+        <v>12</v>
+      </c>
+      <c r="J60" s="4">
+        <v>25</v>
+      </c>
+      <c r="K60" s="6">
+        <f t="shared" si="13"/>
+        <v>10</v>
+      </c>
+      <c r="L60" s="6">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="G60" s="4">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="H60" s="4">
-        <v>12</v>
-      </c>
-      <c r="I60" s="4">
-        <v>25</v>
-      </c>
-      <c r="J60" s="6">
-        <f t="shared" si="16"/>
-        <v>10</v>
-      </c>
-      <c r="K60" s="6">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="L60" s="10"/>
       <c r="M60" s="10"/>
-      <c r="N60" s="2">
-        <v>0</v>
-      </c>
-      <c r="O60" s="8">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="N60" s="10"/>
+      <c r="O60" s="2">
+        <v>0</v>
+      </c>
+      <c r="P60" s="8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B61" s="2">
         <v>22</v>
       </c>
@@ -6547,42 +6670,43 @@
       <c r="D61" s="2">
         <v>6</v>
       </c>
-      <c r="E61" s="2">
+      <c r="E61" s="2"/>
+      <c r="F61" s="2">
         <v>4</v>
       </c>
-      <c r="F61" s="2">
+      <c r="G61" s="2">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="H61" s="4">
+        <f t="shared" si="16"/>
+        <v>46</v>
+      </c>
+      <c r="I61" s="4">
+        <v>12</v>
+      </c>
+      <c r="J61" s="4">
+        <v>25</v>
+      </c>
+      <c r="K61" s="6">
+        <f t="shared" si="13"/>
+        <v>10</v>
+      </c>
+      <c r="L61" s="6">
         <f t="shared" si="14"/>
-        <v>2</v>
-      </c>
-      <c r="G61" s="4">
-        <f t="shared" si="19"/>
-        <v>46</v>
-      </c>
-      <c r="H61" s="4">
-        <v>12</v>
-      </c>
-      <c r="I61" s="4">
-        <v>25</v>
-      </c>
-      <c r="J61" s="6">
-        <f t="shared" si="16"/>
-        <v>10</v>
-      </c>
-      <c r="K61" s="6">
-        <f t="shared" si="17"/>
         <v>20</v>
       </c>
-      <c r="L61" s="10"/>
       <c r="M61" s="10"/>
-      <c r="N61" s="2">
-        <v>6</v>
-      </c>
-      <c r="O61" s="8">
-        <f t="shared" si="18"/>
+      <c r="N61" s="10"/>
+      <c r="O61" s="2">
+        <v>6</v>
+      </c>
+      <c r="P61" s="8">
+        <f t="shared" si="15"/>
         <v>72</v>
       </c>
     </row>
-    <row r="62" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B62" s="2">
         <v>23</v>
       </c>
@@ -6592,51 +6716,52 @@
       <c r="D62" s="2">
         <v>0</v>
       </c>
-      <c r="E62" s="2">
-        <v>0</v>
-      </c>
+      <c r="E62" s="2"/>
       <c r="F62" s="2">
+        <v>0</v>
+      </c>
+      <c r="G62" s="2">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="H62" s="4">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="I62" s="4">
+        <v>12</v>
+      </c>
+      <c r="J62" s="4">
+        <v>25</v>
+      </c>
+      <c r="K62" s="6">
+        <f t="shared" si="13"/>
+        <v>10</v>
+      </c>
+      <c r="L62" s="6">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="G62" s="4">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="H62" s="4">
-        <v>12</v>
-      </c>
-      <c r="I62" s="4">
-        <v>25</v>
-      </c>
-      <c r="J62" s="6">
-        <f t="shared" si="16"/>
-        <v>10</v>
-      </c>
-      <c r="K62" s="6">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="L62" s="10"/>
       <c r="M62" s="10"/>
-      <c r="N62" s="2">
-        <v>0</v>
-      </c>
-      <c r="O62" s="8">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="O63" s="5"/>
-    </row>
-    <row r="64" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="O64" s="5"/>
-    </row>
-    <row r="65" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="O65" s="5"/>
-    </row>
-    <row r="67" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="N62" s="10"/>
+      <c r="O62" s="2">
+        <v>0</v>
+      </c>
+      <c r="P62" s="8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="P63" s="5"/>
+    </row>
+    <row r="64" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="P64" s="5"/>
+    </row>
+    <row r="65" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="P65" s="5"/>
+    </row>
+    <row r="67" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C67" s="1" t="s">
         <v>47</v>
       </c>
@@ -6644,21 +6769,22 @@
         <f>SUM(D40:D62)</f>
         <v>152</v>
       </c>
-      <c r="E67" s="3">
-        <f>SUM(E40:E62)</f>
+      <c r="E67" s="19"/>
+      <c r="F67" s="3">
+        <f>SUM(F40:F62)</f>
         <v>72</v>
       </c>
-      <c r="F67" s="19">
-        <f>SUM(F40:F62)</f>
+      <c r="G67" s="19">
+        <f>SUM(G40:G62)</f>
         <v>80</v>
       </c>
-      <c r="G67" s="3">
-        <f>SUM(G40:G62)</f>
+      <c r="H67" s="3">
+        <f>SUM(H40:H62)</f>
         <v>2554</v>
       </c>
-      <c r="N67" s="5"/>
-    </row>
-    <row r="68" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="O67" s="5"/>
+    </row>
+    <row r="68" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C68" s="1" t="s">
         <v>21</v>
       </c>
@@ -6666,47 +6792,49 @@
         <v>0</v>
       </c>
       <c r="E68" s="3"/>
-      <c r="F68" s="3" t="s">
+      <c r="F68" s="3"/>
+      <c r="G68" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G68" s="3">
-        <f>+G67+D68</f>
+      <c r="H68" s="3">
+        <f>+H67+D68</f>
         <v>2554</v>
       </c>
-      <c r="H68" s="1" t="s">
+      <c r="I68" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="69" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="69" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C69" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D69" s="3">
         <v>0</v>
       </c>
-      <c r="E69" s="1"/>
-      <c r="F69" s="3" t="s">
+      <c r="E69" s="3"/>
+      <c r="F69" s="1"/>
+      <c r="G69" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G69" s="9">
-        <f>SUM(K40:K62)</f>
+      <c r="H69" s="9">
+        <f>SUM(L40:L62)</f>
         <v>778.4000000000002</v>
       </c>
-      <c r="H69" s="7">
-        <f>+G69/2</f>
+      <c r="I69" s="7">
+        <f>+H69/2</f>
         <v>389.2000000000001</v>
       </c>
     </row>
-    <row r="70" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="F70" t="s">
+    <row r="70" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="G70" t="s">
         <v>59</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="B1:O1"/>
-    <mergeCell ref="B38:O38"/>
-    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="B1:P1"/>
+    <mergeCell ref="B38:P38"/>
+    <mergeCell ref="W1:X1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Angular/Paletas Yahvé.xlsx
+++ b/Angular/Paletas Yahvé.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bmedina\Downloads\Curso Angular\Angular\Angular\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{376A3624-A5E2-4EF5-BF88-9749266EFE83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2036E0C1-8704-4DFD-9C5B-CEC4809D5A4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20535" yWindow="-9150" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tienda 1" sheetId="1" r:id="rId1"/>
@@ -207,9 +207,6 @@
     <t xml:space="preserve">Venta Paletas T1 REGISTRO VENDIDO </t>
   </si>
   <si>
-    <t>PEDIDO T1 16/01/2025</t>
-  </si>
-  <si>
     <t>Venta Paletas T2 REGISTRO VENDIDO  Enero/Febrero 2025</t>
   </si>
   <si>
@@ -229,6 +226,9 @@
   </si>
   <si>
     <t>STOCK 6/02/2025</t>
+  </si>
+  <si>
+    <t>PEDIDO T1 13/02/2025</t>
   </si>
 </sst>
 </file>
@@ -807,8 +807,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:Y69"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G72" sqref="G72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -850,7 +850,7 @@
       <c r="N1" s="28"/>
       <c r="O1" s="28"/>
       <c r="W1" s="2" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="X1" s="2"/>
       <c r="Y1" s="2"/>
@@ -875,13 +875,13 @@
         <v>24</v>
       </c>
       <c r="H2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>61</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>62</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>3</v>
@@ -919,10 +919,10 @@
         <v>5</v>
       </c>
       <c r="D3" s="2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E3" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F3" s="2">
         <f>+D3-E3</f>
@@ -955,11 +955,11 @@
       </c>
       <c r="N3" s="11">
         <f>+M3-E3</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O3" s="8">
         <f t="shared" ref="O3:O25" si="0">+N3*H3</f>
-        <v>75</v>
+        <v>125</v>
       </c>
       <c r="P3">
         <f t="shared" ref="P3:P25" si="1">+N3+E3</f>
@@ -967,25 +967,25 @@
       </c>
       <c r="T3">
         <f>+V3*25</f>
-        <v>850</v>
+        <v>825</v>
       </c>
       <c r="U3" t="s">
         <v>43</v>
       </c>
       <c r="V3">
         <f>SUM(X3:X15)</f>
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="W3" s="2" t="s">
         <v>41</v>
       </c>
       <c r="X3" s="11">
         <f t="shared" ref="X3:X24" si="2">N3</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Y3" s="8">
         <f>O3</f>
-        <v>75</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" spans="2:25" x14ac:dyDescent="0.25">
@@ -996,18 +996,18 @@
         <v>6</v>
       </c>
       <c r="D4" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E4" s="2">
         <v>0</v>
       </c>
       <c r="F4" s="2">
         <f t="shared" ref="F4:F25" si="3">+D4-E4</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G4" s="4">
         <f t="shared" ref="G4:G15" si="4">+F4*40</f>
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="H4" s="4">
         <v>25</v>
@@ -1021,7 +1021,7 @@
       </c>
       <c r="K4" s="6">
         <f t="shared" ref="K4:K25" si="6">+J4*F4</f>
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="L4" s="10">
         <v>10</v>
@@ -1044,14 +1044,14 @@
       </c>
       <c r="T4">
         <f>+V4*15</f>
-        <v>45</v>
+        <v>135</v>
       </c>
       <c r="U4" t="s">
         <v>44</v>
       </c>
       <c r="V4">
         <f>SUM(X16:X24)-X22</f>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="W4" s="2" t="s">
         <v>40</v>
@@ -1073,18 +1073,18 @@
         <v>7</v>
       </c>
       <c r="D5" s="2">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E5" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5" s="2">
         <f t="shared" si="3"/>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G5" s="4">
         <f t="shared" si="4"/>
-        <v>320</v>
+        <v>80</v>
       </c>
       <c r="H5" s="4">
         <v>25</v>
@@ -1098,7 +1098,7 @@
       </c>
       <c r="K5" s="6">
         <f t="shared" si="6"/>
-        <v>120</v>
+        <v>30</v>
       </c>
       <c r="L5" s="10">
         <v>10</v>
@@ -1109,11 +1109,11 @@
       </c>
       <c r="N5" s="11">
         <f t="shared" si="8"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O5" s="8">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="P5">
         <f t="shared" si="1"/>
@@ -1121,25 +1121,25 @@
       </c>
       <c r="T5">
         <f>+V5*15</f>
-        <v>405</v>
+        <v>300</v>
       </c>
       <c r="U5" t="s">
         <v>45</v>
       </c>
       <c r="V5">
         <f>+X22</f>
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="W5" s="2" t="s">
         <v>7</v>
       </c>
       <c r="X5" s="11">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Y5" s="8">
         <f t="shared" si="9"/>
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="2:25" x14ac:dyDescent="0.25">
@@ -1150,18 +1150,18 @@
         <v>8</v>
       </c>
       <c r="D6" s="2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E6" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F6" s="2">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G6" s="4">
         <f t="shared" si="4"/>
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="H6" s="4">
         <v>25</v>
@@ -1175,7 +1175,7 @@
       </c>
       <c r="K6" s="6">
         <f t="shared" si="6"/>
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="L6" s="10">
         <v>10</v>
@@ -1186,11 +1186,11 @@
       </c>
       <c r="N6" s="11">
         <f t="shared" si="8"/>
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="O6" s="8">
         <f t="shared" si="0"/>
-        <v>-25</v>
+        <v>50</v>
       </c>
       <c r="P6">
         <f t="shared" si="1"/>
@@ -1198,18 +1198,18 @@
       </c>
       <c r="T6">
         <f>+T3+T4+T5</f>
-        <v>1300</v>
+        <v>1260</v>
       </c>
       <c r="W6" s="2" t="s">
         <v>8</v>
       </c>
       <c r="X6" s="11">
         <f t="shared" si="2"/>
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y6" s="8">
         <f t="shared" si="9"/>
-        <v>-25</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="2:25" x14ac:dyDescent="0.25">
@@ -1220,10 +1220,10 @@
         <v>9</v>
       </c>
       <c r="D7" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E7" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F7" s="2">
         <f t="shared" si="3"/>
@@ -1256,11 +1256,11 @@
       </c>
       <c r="N7" s="11">
         <f t="shared" si="8"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="O7" s="8">
         <f t="shared" si="0"/>
-        <v>-25</v>
+        <v>0</v>
       </c>
       <c r="P7">
         <f t="shared" si="1"/>
@@ -1271,11 +1271,11 @@
       </c>
       <c r="X7" s="11">
         <f t="shared" si="2"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Y7" s="8">
         <f t="shared" si="9"/>
-        <v>-25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="2:25" x14ac:dyDescent="0.25">
@@ -1286,10 +1286,10 @@
         <v>10</v>
       </c>
       <c r="D8" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E8" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F8" s="2">
         <f t="shared" si="3"/>
@@ -1321,11 +1321,11 @@
       </c>
       <c r="N8" s="11">
         <f t="shared" si="8"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="O8" s="8">
         <f t="shared" si="0"/>
-        <v>-25</v>
+        <v>0</v>
       </c>
       <c r="P8">
         <f t="shared" si="1"/>
@@ -1336,11 +1336,11 @@
       </c>
       <c r="X8" s="11">
         <f t="shared" si="2"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Y8" s="8">
         <f t="shared" si="9"/>
-        <v>-25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="2:25" x14ac:dyDescent="0.25">
@@ -1351,18 +1351,18 @@
         <v>11</v>
       </c>
       <c r="D9" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E9" s="2">
         <v>0</v>
       </c>
       <c r="F9" s="13">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G9" s="14">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="H9" s="14">
         <v>25</v>
@@ -1376,7 +1376,7 @@
       </c>
       <c r="K9" s="15">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L9" s="16">
         <v>2</v>
@@ -1416,18 +1416,18 @@
         <v>12</v>
       </c>
       <c r="D10" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" s="2">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G10" s="4">
         <f t="shared" si="4"/>
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="H10" s="4">
         <v>25</v>
@@ -1441,7 +1441,7 @@
       </c>
       <c r="K10" s="6">
         <f t="shared" si="6"/>
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="L10" s="10">
         <v>8</v>
@@ -1452,11 +1452,11 @@
       </c>
       <c r="N10" s="11">
         <f t="shared" si="8"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O10" s="8">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="P10">
         <f t="shared" si="1"/>
@@ -1467,11 +1467,11 @@
       </c>
       <c r="X10" s="11">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Y10" s="8">
         <f t="shared" si="9"/>
-        <v>100</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="2:25" x14ac:dyDescent="0.25">
@@ -1482,18 +1482,18 @@
         <v>34</v>
       </c>
       <c r="D11" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E11" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F11" s="13">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G11" s="14">
         <f t="shared" si="4"/>
-        <v>240</v>
+        <v>0</v>
       </c>
       <c r="H11" s="14">
         <v>25</v>
@@ -1507,7 +1507,7 @@
       </c>
       <c r="K11" s="15">
         <f t="shared" si="6"/>
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="L11" s="16">
         <v>6</v>
@@ -1517,11 +1517,11 @@
       </c>
       <c r="N11" s="11">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O11" s="15">
         <f t="shared" si="0"/>
-        <v>125</v>
+        <v>0</v>
       </c>
       <c r="P11" s="17">
         <f t="shared" si="1"/>
@@ -1532,11 +1532,11 @@
       </c>
       <c r="X11" s="11">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Y11" s="8">
         <f t="shared" si="9"/>
-        <v>125</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="2:25" x14ac:dyDescent="0.25">
@@ -1547,18 +1547,18 @@
         <v>35</v>
       </c>
       <c r="D12" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E12" s="2">
         <v>0</v>
       </c>
       <c r="F12" s="13">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G12" s="14">
         <f t="shared" si="4"/>
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="H12" s="14">
         <v>25</v>
@@ -1572,7 +1572,7 @@
       </c>
       <c r="K12" s="15">
         <f t="shared" si="6"/>
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="L12" s="16">
         <v>5</v>
@@ -1612,10 +1612,10 @@
         <v>36</v>
       </c>
       <c r="D13" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13" s="13">
         <f t="shared" si="3"/>
@@ -1648,11 +1648,11 @@
       </c>
       <c r="N13" s="11">
         <f t="shared" si="8"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O13" s="15">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="P13" s="17">
         <f t="shared" si="1"/>
@@ -1663,11 +1663,11 @@
       </c>
       <c r="X13" s="11">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Y13" s="8">
         <f t="shared" si="9"/>
-        <v>100</v>
+        <v>125</v>
       </c>
     </row>
     <row r="14" spans="2:25" x14ac:dyDescent="0.25">
@@ -1678,18 +1678,18 @@
         <v>33</v>
       </c>
       <c r="D14" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14" s="13">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G14" s="14">
         <f t="shared" si="4"/>
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="H14" s="14">
         <v>25</v>
@@ -1703,7 +1703,7 @@
       </c>
       <c r="K14" s="15">
         <f t="shared" si="6"/>
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="L14" s="16">
         <v>5</v>
@@ -1713,11 +1713,11 @@
       </c>
       <c r="N14" s="11">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O14" s="15">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="P14" s="17">
         <f t="shared" si="1"/>
@@ -1728,11 +1728,11 @@
       </c>
       <c r="X14" s="11">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Y14" s="8">
         <f t="shared" si="9"/>
-        <v>50</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15" spans="2:25" x14ac:dyDescent="0.25">
@@ -1743,18 +1743,18 @@
         <v>13</v>
       </c>
       <c r="D15" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E15" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F15" s="2">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G15" s="4">
         <f t="shared" si="4"/>
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="H15" s="4">
         <v>25</v>
@@ -1768,7 +1768,7 @@
       </c>
       <c r="K15" s="6">
         <f t="shared" si="6"/>
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="L15" s="10">
         <v>10</v>
@@ -1779,11 +1779,11 @@
       </c>
       <c r="N15" s="11">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O15" s="8">
         <f t="shared" si="0"/>
-        <v>125</v>
+        <v>75</v>
       </c>
       <c r="P15">
         <f t="shared" si="1"/>
@@ -1794,11 +1794,11 @@
       </c>
       <c r="X15" s="11">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Y15" s="8">
         <f t="shared" si="9"/>
-        <v>125</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16" spans="2:25" x14ac:dyDescent="0.25">
@@ -1809,18 +1809,18 @@
         <v>14</v>
       </c>
       <c r="D16" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E16" s="2">
         <v>2</v>
       </c>
       <c r="F16" s="2">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G16" s="4">
         <f>+F16*23</f>
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="H16" s="4">
         <v>15</v>
@@ -1834,7 +1834,7 @@
       </c>
       <c r="K16" s="6">
         <f t="shared" si="6"/>
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="L16" s="10">
         <v>10</v>
@@ -1875,10 +1875,10 @@
         <v>15</v>
       </c>
       <c r="D17" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E17" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F17" s="2">
         <f t="shared" si="3"/>
@@ -1911,11 +1911,11 @@
       </c>
       <c r="N17" s="11">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O17" s="8">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="P17">
         <f t="shared" si="1"/>
@@ -1926,11 +1926,11 @@
       </c>
       <c r="X17" s="11">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y17" s="8">
         <f t="shared" si="9"/>
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="2:25" x14ac:dyDescent="0.25">
@@ -1941,18 +1941,18 @@
         <v>16</v>
       </c>
       <c r="D18" s="2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E18" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F18" s="2">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G18" s="4">
         <f t="shared" si="10"/>
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="H18" s="4">
         <v>15</v>
@@ -1966,7 +1966,7 @@
       </c>
       <c r="K18" s="6">
         <f t="shared" si="6"/>
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="L18" s="10">
         <v>10</v>
@@ -1977,11 +1977,11 @@
       </c>
       <c r="N18" s="11">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O18" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="P18">
         <f t="shared" si="1"/>
@@ -1992,11 +1992,11 @@
       </c>
       <c r="X18" s="11">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Y18" s="8">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="2:25" x14ac:dyDescent="0.25">
@@ -2007,18 +2007,18 @@
         <v>17</v>
       </c>
       <c r="D19" s="2">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E19" s="2">
         <v>7</v>
       </c>
       <c r="F19" s="2">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>-2</v>
       </c>
       <c r="G19" s="4">
         <f t="shared" si="10"/>
-        <v>115</v>
+        <v>-46</v>
       </c>
       <c r="H19" s="4">
         <v>15</v>
@@ -2032,7 +2032,7 @@
       </c>
       <c r="K19" s="6">
         <f t="shared" si="6"/>
-        <v>40</v>
+        <v>-16</v>
       </c>
       <c r="L19" s="10">
         <v>10</v>
@@ -2073,18 +2073,18 @@
         <v>18</v>
       </c>
       <c r="D20" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E20" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F20" s="2">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G20" s="4">
         <f t="shared" si="10"/>
-        <v>161</v>
+        <v>69</v>
       </c>
       <c r="H20" s="4">
         <v>15</v>
@@ -2098,7 +2098,7 @@
       </c>
       <c r="K20" s="6">
         <f t="shared" si="6"/>
-        <v>56</v>
+        <v>24</v>
       </c>
       <c r="L20" s="10">
         <v>10</v>
@@ -2109,11 +2109,11 @@
       </c>
       <c r="N20" s="11">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O20" s="8">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="P20">
         <f t="shared" si="1"/>
@@ -2124,11 +2124,11 @@
       </c>
       <c r="X20" s="11">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Y20" s="8">
         <f t="shared" si="9"/>
-        <v>30</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" spans="2:25" x14ac:dyDescent="0.25">
@@ -2139,18 +2139,18 @@
         <v>19</v>
       </c>
       <c r="D21" s="2">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E21" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F21" s="2">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G21" s="4">
         <f t="shared" si="10"/>
-        <v>23</v>
+        <v>-23</v>
       </c>
       <c r="H21" s="4">
         <v>15</v>
@@ -2164,7 +2164,7 @@
       </c>
       <c r="K21" s="6">
         <f t="shared" si="6"/>
-        <v>8</v>
+        <v>-8</v>
       </c>
       <c r="L21" s="10">
         <v>10</v>
@@ -2175,11 +2175,11 @@
       </c>
       <c r="N21" s="11">
         <f t="shared" si="8"/>
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="O21" s="8">
         <f t="shared" si="0"/>
-        <v>-30</v>
+        <v>-15</v>
       </c>
       <c r="P21">
         <f t="shared" si="1"/>
@@ -2191,11 +2191,11 @@
       </c>
       <c r="X21" s="11">
         <f t="shared" si="2"/>
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="Y21" s="8">
         <f t="shared" si="9"/>
-        <v>-30</v>
+        <v>-15</v>
       </c>
     </row>
     <row r="22" spans="2:25" x14ac:dyDescent="0.25">
@@ -2206,18 +2206,18 @@
         <v>20</v>
       </c>
       <c r="D22" s="2">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="E22" s="2">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F22" s="2">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="G22" s="4">
         <f t="shared" si="10"/>
-        <v>23</v>
+        <v>460</v>
       </c>
       <c r="H22" s="4">
         <v>15</v>
@@ -2231,7 +2231,7 @@
       </c>
       <c r="K22" s="6">
         <f t="shared" si="6"/>
-        <v>8</v>
+        <v>160</v>
       </c>
       <c r="L22" s="10">
         <v>32</v>
@@ -2241,11 +2241,11 @@
       </c>
       <c r="N22" s="11">
         <f t="shared" si="8"/>
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="O22" s="8">
         <f t="shared" si="0"/>
-        <v>405</v>
+        <v>300</v>
       </c>
       <c r="P22">
         <f t="shared" si="1"/>
@@ -2256,11 +2256,11 @@
       </c>
       <c r="X22" s="11">
         <f t="shared" si="2"/>
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="Y22" s="8">
         <f t="shared" si="9"/>
-        <v>405</v>
+        <v>300</v>
       </c>
     </row>
     <row r="23" spans="2:25" x14ac:dyDescent="0.25">
@@ -2271,18 +2271,18 @@
         <v>31</v>
       </c>
       <c r="D23" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E23" s="2">
         <v>4</v>
       </c>
       <c r="F23" s="2">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="G23" s="4">
         <f t="shared" si="10"/>
-        <v>46</v>
+        <v>-23</v>
       </c>
       <c r="H23" s="4">
         <v>15</v>
@@ -2296,7 +2296,7 @@
       </c>
       <c r="K23" s="6">
         <f t="shared" si="6"/>
-        <v>16</v>
+        <v>-8</v>
       </c>
       <c r="L23" s="10">
         <v>5</v>
@@ -2321,7 +2321,7 @@
       </c>
       <c r="U23" s="8">
         <f>SUM(O3:O24)</f>
-        <v>1300</v>
+        <v>1260</v>
       </c>
       <c r="W23" s="2" t="s">
         <v>31</v>
@@ -2343,18 +2343,18 @@
         <v>32</v>
       </c>
       <c r="D24" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E24" s="2">
         <v>1</v>
       </c>
       <c r="F24" s="2">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G24" s="4">
         <f t="shared" si="10"/>
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="H24" s="4">
         <v>15</v>
@@ -2368,7 +2368,7 @@
       </c>
       <c r="K24" s="6">
         <f t="shared" si="6"/>
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="L24" s="10">
         <v>5</v>
@@ -2393,19 +2393,19 @@
       </c>
       <c r="S24" s="3">
         <f>SUM(D3:D24)</f>
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="T24" s="3">
         <f>SUM(E3:E24)</f>
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="U24" s="3">
         <f>SUM(F3:F24)</f>
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="V24" s="3">
         <f>SUM(G3:G24)</f>
-        <v>2306</v>
+        <v>1987</v>
       </c>
       <c r="W24" s="2" t="s">
         <v>32</v>
@@ -2427,18 +2427,18 @@
         <v>48</v>
       </c>
       <c r="D25" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E25" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F25" s="2">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G25" s="4">
         <f t="shared" si="10"/>
-        <v>92</v>
+        <v>0</v>
       </c>
       <c r="H25" s="4">
         <v>12</v>
@@ -2452,7 +2452,7 @@
       </c>
       <c r="K25" s="6">
         <f t="shared" si="6"/>
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="L25" s="10">
         <v>6</v>
@@ -2460,11 +2460,11 @@
       <c r="M25" s="10"/>
       <c r="N25" s="11">
         <f>+L25-E25</f>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="O25" s="8">
         <f t="shared" si="0"/>
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="P25">
         <f t="shared" si="1"/>
@@ -2482,14 +2482,14 @@
       </c>
       <c r="V25" s="3">
         <f>+V24+S25</f>
-        <v>3819</v>
+        <v>3500</v>
       </c>
       <c r="W25" s="1" t="s">
         <v>28</v>
       </c>
       <c r="X25" s="18">
         <f>SUM(Y3:Y24)</f>
-        <v>1300</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="26" spans="2:25" x14ac:dyDescent="0.25">
@@ -2505,7 +2505,7 @@
       </c>
       <c r="V26" s="9">
         <f>SUM(K3:K24)</f>
-        <v>851</v>
+        <v>727</v>
       </c>
     </row>
     <row r="27" spans="2:25" x14ac:dyDescent="0.25">
@@ -2515,7 +2515,7 @@
       </c>
       <c r="V27" s="7">
         <f>+V26/2</f>
-        <v>425.5</v>
+        <v>363.5</v>
       </c>
     </row>
     <row r="38" spans="2:22" x14ac:dyDescent="0.25">
@@ -2556,13 +2556,13 @@
         <v>24</v>
       </c>
       <c r="H39" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="I39" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="I39" s="2" t="s">
+      <c r="J39" s="2" t="s">
         <v>61</v>
-      </c>
-      <c r="J39" s="2" t="s">
-        <v>62</v>
       </c>
       <c r="K39" s="2" t="s">
         <v>3</v>
@@ -2583,15 +2583,15 @@
         <v>5</v>
       </c>
       <c r="E40" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F40" s="2">
         <f>+D40-E40</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G40" s="4">
         <f>+F40*40</f>
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="H40" s="4">
         <v>25</v>
@@ -2605,7 +2605,7 @@
       </c>
       <c r="K40" s="6">
         <f>+J40*F40</f>
-        <v>44.760000000000005</v>
+        <v>74.600000000000009</v>
       </c>
       <c r="L40" s="10"/>
       <c r="M40" s="10"/>
@@ -2677,15 +2677,15 @@
         <v>5</v>
       </c>
       <c r="E42" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F42" s="2">
         <f t="shared" si="11"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G42" s="4">
         <f t="shared" si="12"/>
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="H42" s="4">
         <v>25</v>
@@ -2699,7 +2699,7 @@
       </c>
       <c r="K42" s="6">
         <f t="shared" si="14"/>
-        <v>59.680000000000007</v>
+        <v>29.840000000000003</v>
       </c>
       <c r="L42" s="10"/>
       <c r="M42" s="10"/>
@@ -2728,15 +2728,15 @@
         <v>5</v>
       </c>
       <c r="E43" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F43" s="2">
         <f t="shared" si="11"/>
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="G43" s="4">
         <f t="shared" si="12"/>
-        <v>-40</v>
+        <v>80</v>
       </c>
       <c r="H43" s="4">
         <v>25</v>
@@ -2750,7 +2750,7 @@
       </c>
       <c r="K43" s="6">
         <f t="shared" si="14"/>
-        <v>-14.920000000000002</v>
+        <v>29.840000000000003</v>
       </c>
       <c r="L43" s="10"/>
       <c r="M43" s="10"/>
@@ -2779,15 +2779,15 @@
         <v>5</v>
       </c>
       <c r="E44" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F44" s="2">
         <f t="shared" si="11"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G44" s="4">
         <f t="shared" si="12"/>
-        <v>-40</v>
+        <v>0</v>
       </c>
       <c r="H44" s="4">
         <v>25</v>
@@ -2801,7 +2801,7 @@
       </c>
       <c r="K44" s="6">
         <f t="shared" si="14"/>
-        <v>-14.920000000000002</v>
+        <v>0</v>
       </c>
       <c r="L44" s="10"/>
       <c r="M44" s="10"/>
@@ -2830,15 +2830,15 @@
         <v>5</v>
       </c>
       <c r="E45" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F45" s="2">
         <f t="shared" si="11"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G45" s="4">
         <f t="shared" si="12"/>
-        <v>-40</v>
+        <v>0</v>
       </c>
       <c r="H45" s="4">
         <v>25</v>
@@ -2852,7 +2852,7 @@
       </c>
       <c r="K45" s="6">
         <f t="shared" si="14"/>
-        <v>-14.920000000000002</v>
+        <v>0</v>
       </c>
       <c r="L45" s="10"/>
       <c r="M45" s="10"/>
@@ -2880,7 +2880,7 @@
       <c r="D46" s="20">
         <v>2</v>
       </c>
-      <c r="E46" s="20">
+      <c r="E46" s="2">
         <v>0</v>
       </c>
       <c r="F46" s="13">
@@ -2931,16 +2931,16 @@
       <c r="D47" s="20">
         <v>4</v>
       </c>
-      <c r="E47" s="20">
-        <v>0</v>
+      <c r="E47" s="2">
+        <v>1</v>
       </c>
       <c r="F47" s="20">
         <f t="shared" si="11"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G47" s="21">
         <f t="shared" si="12"/>
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="H47" s="21">
         <v>25</v>
@@ -2954,7 +2954,7 @@
       </c>
       <c r="K47" s="22">
         <f t="shared" si="14"/>
-        <v>59.680000000000007</v>
+        <v>44.760000000000005</v>
       </c>
       <c r="L47" s="10"/>
       <c r="M47" s="10"/>
@@ -2982,16 +2982,16 @@
       <c r="D48" s="20">
         <v>5</v>
       </c>
-      <c r="E48" s="20">
-        <v>0</v>
+      <c r="E48" s="2">
+        <v>5</v>
       </c>
       <c r="F48" s="13">
         <f t="shared" ref="F48" si="17">+D48-E48</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G48" s="14">
         <f t="shared" ref="G48" si="18">+F48*40</f>
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="H48" s="14">
         <v>25</v>
@@ -3005,7 +3005,7 @@
       </c>
       <c r="K48" s="15">
         <f t="shared" ref="K48" si="19">+J48*F48</f>
-        <v>74.600000000000009</v>
+        <v>0</v>
       </c>
       <c r="L48" s="16"/>
       <c r="M48" s="10"/>
@@ -3033,7 +3033,7 @@
       <c r="D49" s="20">
         <v>3</v>
       </c>
-      <c r="E49" s="20">
+      <c r="E49" s="2">
         <v>0</v>
       </c>
       <c r="F49" s="13">
@@ -3084,16 +3084,16 @@
       <c r="D50" s="20">
         <v>5</v>
       </c>
-      <c r="E50" s="20">
-        <v>1</v>
+      <c r="E50" s="2">
+        <v>0</v>
       </c>
       <c r="F50" s="13">
         <f t="shared" si="20"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G50" s="14">
         <f t="shared" si="21"/>
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="H50" s="14">
         <v>25</v>
@@ -3107,7 +3107,7 @@
       </c>
       <c r="K50" s="15">
         <f t="shared" si="22"/>
-        <v>59.680000000000007</v>
+        <v>74.600000000000009</v>
       </c>
       <c r="L50" s="16"/>
       <c r="M50" s="10"/>
@@ -3135,16 +3135,16 @@
       <c r="D51" s="20">
         <v>3</v>
       </c>
-      <c r="E51" s="20">
-        <v>2</v>
+      <c r="E51" s="2">
+        <v>0</v>
       </c>
       <c r="F51" s="13">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G51" s="14">
         <f t="shared" si="12"/>
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="H51" s="14">
         <v>25</v>
@@ -3158,7 +3158,7 @@
       </c>
       <c r="K51" s="15">
         <f t="shared" ref="K51" si="23">+J51*F51</f>
-        <v>14.920000000000002</v>
+        <v>44.760000000000005</v>
       </c>
       <c r="L51" s="16"/>
       <c r="M51" s="10"/>
@@ -3187,15 +3187,15 @@
         <v>5</v>
       </c>
       <c r="E52" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F52" s="2">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G52" s="4">
         <f t="shared" si="12"/>
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="H52" s="4">
         <v>25</v>
@@ -3209,7 +3209,7 @@
       </c>
       <c r="K52" s="6">
         <f t="shared" si="14"/>
-        <v>74.600000000000009</v>
+        <v>44.760000000000005</v>
       </c>
       <c r="L52" s="10"/>
       <c r="M52" s="10"/>
@@ -3238,15 +3238,15 @@
         <v>5</v>
       </c>
       <c r="E53" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F53" s="2">
         <f t="shared" si="11"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G53" s="4">
         <f>+F53*23</f>
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="H53" s="4">
         <v>15</v>
@@ -3260,7 +3260,7 @@
       </c>
       <c r="K53" s="6">
         <f t="shared" si="14"/>
-        <v>15.908000000000001</v>
+        <v>23.862000000000002</v>
       </c>
       <c r="L53" s="10"/>
       <c r="M53" s="10"/>
@@ -3289,15 +3289,15 @@
         <v>5</v>
       </c>
       <c r="E54" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F54" s="2">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G54" s="4">
         <f t="shared" ref="G54:G59" si="24">+F54*23</f>
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="H54" s="4">
         <v>15</v>
@@ -3311,7 +3311,7 @@
       </c>
       <c r="K54" s="6">
         <f t="shared" si="14"/>
-        <v>7.9540000000000006</v>
+        <v>15.908000000000001</v>
       </c>
       <c r="L54" s="10"/>
       <c r="M54" s="10"/>
@@ -3340,15 +3340,15 @@
         <v>5</v>
       </c>
       <c r="E55" s="2">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F55" s="2">
         <f t="shared" si="11"/>
-        <v>-2</v>
+        <v>3</v>
       </c>
       <c r="G55" s="4">
         <f t="shared" si="24"/>
-        <v>-46</v>
+        <v>69</v>
       </c>
       <c r="H55" s="4">
         <v>15</v>
@@ -3362,7 +3362,7 @@
       </c>
       <c r="K55" s="6">
         <f t="shared" si="14"/>
-        <v>-15.908000000000001</v>
+        <v>23.862000000000002</v>
       </c>
       <c r="L55" s="10"/>
       <c r="M55" s="10"/>
@@ -3442,15 +3442,15 @@
         <v>5</v>
       </c>
       <c r="E57" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F57" s="2">
         <f t="shared" si="11"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G57" s="4">
         <f t="shared" si="24"/>
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="H57" s="4">
         <v>15</v>
@@ -3464,7 +3464,7 @@
       </c>
       <c r="K57" s="6">
         <f t="shared" si="14"/>
-        <v>15.908000000000001</v>
+        <v>23.862000000000002</v>
       </c>
       <c r="L57" s="10"/>
       <c r="M57" s="10"/>
@@ -3493,15 +3493,15 @@
         <v>5</v>
       </c>
       <c r="E58" s="2">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F58" s="2">
         <f t="shared" si="11"/>
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="G58" s="4">
         <f t="shared" si="24"/>
-        <v>-69</v>
+        <v>-23</v>
       </c>
       <c r="H58" s="4">
         <v>15</v>
@@ -3515,7 +3515,7 @@
       </c>
       <c r="K58" s="6">
         <f t="shared" si="14"/>
-        <v>-23.862000000000002</v>
+        <v>-7.9540000000000006</v>
       </c>
       <c r="L58" s="10"/>
       <c r="M58" s="10"/>
@@ -3544,15 +3544,15 @@
         <v>32</v>
       </c>
       <c r="E59" s="2">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F59" s="2">
         <f t="shared" si="11"/>
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="G59" s="4">
         <f t="shared" si="24"/>
-        <v>621</v>
+        <v>460</v>
       </c>
       <c r="H59" s="4">
         <v>12</v>
@@ -3566,7 +3566,7 @@
       </c>
       <c r="K59" s="6">
         <f t="shared" si="14"/>
-        <v>295.75800000000004</v>
+        <v>219.08</v>
       </c>
       <c r="L59" s="10"/>
       <c r="M59" s="10"/>
@@ -3697,15 +3697,15 @@
         <v>6</v>
       </c>
       <c r="E62" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F62" s="2">
         <f t="shared" ref="F62" si="28">+D62-E62</f>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G62" s="4">
         <f t="shared" ref="G62" si="29">+F62*23</f>
-        <v>138</v>
+        <v>0</v>
       </c>
       <c r="H62" s="4">
         <v>12</v>
@@ -3719,7 +3719,7 @@
       </c>
       <c r="K62" s="6">
         <f t="shared" ref="K62" si="30">+J62*F62</f>
-        <v>65.724000000000004</v>
+        <v>0</v>
       </c>
       <c r="L62" s="10"/>
       <c r="M62" s="10"/>
@@ -3769,15 +3769,15 @@
       </c>
       <c r="E67" s="3">
         <f>SUM(E40:E62)</f>
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F67" s="19">
         <f>SUM(F40:F62)</f>
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G67" s="3">
         <f>SUM(G40:G62)</f>
-        <v>2056</v>
+        <v>1987</v>
       </c>
       <c r="N67" s="5"/>
     </row>
@@ -3794,7 +3794,7 @@
       </c>
       <c r="G68" s="3">
         <f>+G67+D68</f>
-        <v>2168</v>
+        <v>2099</v>
       </c>
     </row>
     <row r="69" spans="3:14" x14ac:dyDescent="0.25">
@@ -3810,11 +3810,11 @@
       </c>
       <c r="G69" s="9">
         <f>SUM(K40:K62)</f>
-        <v>848.88800000000015</v>
+        <v>786.02600000000007</v>
       </c>
       <c r="H69" s="7">
         <f>+G69/2</f>
-        <v>424.44400000000007</v>
+        <v>393.01300000000003</v>
       </c>
     </row>
   </sheetData>
@@ -3831,7 +3831,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5ED568E-C8BF-4CAC-962C-4B9EA802F0E8}">
   <dimension ref="B1:Y70"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E3" sqref="E3:E25"/>
     </sheetView>
   </sheetViews>
@@ -3891,7 +3891,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>2</v>
@@ -3903,13 +3903,13 @@
         <v>24</v>
       </c>
       <c r="I2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>61</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>62</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>3</v>
@@ -3957,7 +3957,7 @@
         <v>8</v>
       </c>
       <c r="G3" s="2">
-        <f>+D3-F3</f>
+        <f t="shared" ref="G3:G25" si="0">+D3-F3</f>
         <v>0</v>
       </c>
       <c r="H3" s="4">
@@ -3989,11 +3989,11 @@
         <v>0</v>
       </c>
       <c r="P3" s="8">
-        <f t="shared" ref="P3:P25" si="0">+O3*I3</f>
+        <f t="shared" ref="P3:P25" si="1">+O3*I3</f>
         <v>0</v>
       </c>
       <c r="Q3">
-        <f>+O3+F3</f>
+        <f t="shared" ref="Q3:Q25" si="2">+O3+F3</f>
         <v>8</v>
       </c>
       <c r="T3">
@@ -4011,11 +4011,11 @@
         <v>41</v>
       </c>
       <c r="X3" s="11">
-        <f t="shared" ref="X3:X24" si="1">O3</f>
+        <f t="shared" ref="X3:X24" si="3">O3</f>
         <v>0</v>
       </c>
       <c r="Y3" s="8">
-        <f t="shared" ref="Y3:Y24" si="2">P3</f>
+        <f t="shared" ref="Y3:Y24" si="4">P3</f>
         <v>0</v>
       </c>
     </row>
@@ -4030,18 +4030,18 @@
         <v>6</v>
       </c>
       <c r="E4" s="2">
-        <f t="shared" ref="E4:E24" si="3">+D4+X4</f>
+        <f t="shared" ref="E4:E24" si="5">+D4+X4</f>
         <v>7</v>
       </c>
       <c r="F4" s="2">
         <v>5</v>
       </c>
       <c r="G4" s="2">
-        <f>+D4-F4</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H4" s="4">
-        <f t="shared" ref="H4:H15" si="4">+G4*40</f>
+        <f t="shared" ref="H4:H15" si="6">+G4*40</f>
         <v>40</v>
       </c>
       <c r="I4" s="4">
@@ -4051,11 +4051,11 @@
         <v>40</v>
       </c>
       <c r="K4" s="6">
-        <f t="shared" ref="K4:K25" si="5">(J4-(J4*0.12))-I4</f>
+        <f t="shared" ref="K4:K25" si="7">(J4-(J4*0.12))-I4</f>
         <v>11.200000000000003</v>
       </c>
       <c r="L4" s="6">
-        <f t="shared" ref="L4:L24" si="6">+K4*G4</f>
+        <f t="shared" ref="L4:L24" si="8">+K4*G4</f>
         <v>11.200000000000003</v>
       </c>
       <c r="M4" s="10">
@@ -4065,15 +4065,15 @@
         <v>6</v>
       </c>
       <c r="O4" s="11">
-        <f t="shared" ref="O4:O25" si="7">MAX(N4-F4, 0)</f>
+        <f t="shared" ref="O4:O25" si="9">MAX(N4-F4, 0)</f>
         <v>1</v>
       </c>
       <c r="P4" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="Q4">
-        <f>+O4+F4</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="T4">
@@ -4091,11 +4091,11 @@
         <v>40</v>
       </c>
       <c r="X4" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="Y4" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>24</v>
       </c>
     </row>
@@ -4110,18 +4110,18 @@
         <v>6</v>
       </c>
       <c r="E5" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>9</v>
       </c>
       <c r="F5" s="2">
         <v>3</v>
       </c>
       <c r="G5" s="2">
-        <f>+D5-F5</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="H5" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>120</v>
       </c>
       <c r="I5" s="4">
@@ -4131,11 +4131,11 @@
         <v>40</v>
       </c>
       <c r="K5" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>11.200000000000003</v>
       </c>
       <c r="L5" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>33.600000000000009</v>
       </c>
       <c r="M5" s="10">
@@ -4145,15 +4145,15 @@
         <v>6</v>
       </c>
       <c r="O5" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="P5" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>72</v>
       </c>
       <c r="Q5">
-        <f>+O5+F5</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="T5">
@@ -4171,11 +4171,11 @@
         <v>7</v>
       </c>
       <c r="X5" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="Y5" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>72</v>
       </c>
     </row>
@@ -4190,18 +4190,18 @@
         <v>6</v>
       </c>
       <c r="E6" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="F6" s="2">
         <v>4</v>
       </c>
       <c r="G6" s="2">
-        <f>+D6-F6</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="H6" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>80</v>
       </c>
       <c r="I6" s="4">
@@ -4211,11 +4211,11 @@
         <v>40</v>
       </c>
       <c r="K6" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>11.200000000000003</v>
       </c>
       <c r="L6" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>22.400000000000006</v>
       </c>
       <c r="M6" s="10">
@@ -4225,15 +4225,15 @@
         <v>6</v>
       </c>
       <c r="O6" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="P6" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>48</v>
       </c>
       <c r="Q6">
-        <f>+O6+F6</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="T6">
@@ -4244,11 +4244,11 @@
         <v>8</v>
       </c>
       <c r="X6" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="Y6" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>48</v>
       </c>
     </row>
@@ -4263,18 +4263,18 @@
         <v>6</v>
       </c>
       <c r="E7" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
       <c r="F7" s="2">
         <v>5</v>
       </c>
       <c r="G7" s="2">
-        <f>+D7-F7</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H7" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>40</v>
       </c>
       <c r="I7" s="4">
@@ -4284,11 +4284,11 @@
         <v>40</v>
       </c>
       <c r="K7" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>11.200000000000003</v>
       </c>
       <c r="L7" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>11.200000000000003</v>
       </c>
       <c r="M7" s="10">
@@ -4298,26 +4298,26 @@
         <v>6</v>
       </c>
       <c r="O7" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="P7" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="Q7">
-        <f>+O7+F7</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="W7" s="2" t="s">
         <v>9</v>
       </c>
       <c r="X7" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="Y7" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>24</v>
       </c>
     </row>
@@ -4332,18 +4332,18 @@
         <v>6</v>
       </c>
       <c r="E8" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>11</v>
       </c>
       <c r="F8" s="2">
         <v>1</v>
       </c>
       <c r="G8" s="2">
-        <f>+D8-F8</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="H8" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>200</v>
       </c>
       <c r="I8" s="4">
@@ -4353,11 +4353,11 @@
         <v>40</v>
       </c>
       <c r="K8" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>11.200000000000003</v>
       </c>
       <c r="L8" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>56.000000000000014</v>
       </c>
       <c r="M8" s="10">
@@ -4367,26 +4367,26 @@
         <v>6</v>
       </c>
       <c r="O8" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="P8" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>120</v>
       </c>
       <c r="Q8">
-        <f>+O8+F8</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="W8" s="2" t="s">
         <v>10</v>
       </c>
       <c r="X8" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="Y8" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>120</v>
       </c>
     </row>
@@ -4401,18 +4401,18 @@
         <v>3</v>
       </c>
       <c r="E9" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="F9" s="2">
         <v>3</v>
       </c>
       <c r="G9" s="13">
-        <f>+D9-F9</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H9" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I9" s="4">
@@ -4422,11 +4422,11 @@
         <v>40</v>
       </c>
       <c r="K9" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>11.200000000000003</v>
       </c>
       <c r="L9" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="M9" s="16">
@@ -4436,26 +4436,26 @@
         <v>3</v>
       </c>
       <c r="O9" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="P9" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q9" s="17">
-        <f>+O9+F9</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="W9" s="13" t="s">
         <v>11</v>
       </c>
       <c r="X9" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Y9" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -4470,18 +4470,18 @@
         <v>5</v>
       </c>
       <c r="E10" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
       <c r="F10" s="2">
         <v>3</v>
       </c>
       <c r="G10" s="2">
-        <f>+D10-F10</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="H10" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>80</v>
       </c>
       <c r="I10" s="4">
@@ -4491,11 +4491,11 @@
         <v>40</v>
       </c>
       <c r="K10" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>11.200000000000003</v>
       </c>
       <c r="L10" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>22.400000000000006</v>
       </c>
       <c r="M10" s="10">
@@ -4505,26 +4505,26 @@
         <v>5</v>
       </c>
       <c r="O10" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="P10" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>48</v>
       </c>
       <c r="Q10">
-        <f>+O10+F10</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="W10" s="2" t="s">
         <v>12</v>
       </c>
       <c r="X10" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="Y10" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>48</v>
       </c>
     </row>
@@ -4539,18 +4539,18 @@
         <v>6</v>
       </c>
       <c r="E11" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="F11" s="2">
         <v>6</v>
       </c>
       <c r="G11" s="13">
-        <f>+D11-F11</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H11" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I11" s="4">
@@ -4560,11 +4560,11 @@
         <v>40</v>
       </c>
       <c r="K11" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>11.200000000000003</v>
       </c>
       <c r="L11" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="M11" s="16">
@@ -4574,26 +4574,26 @@
         <v>6</v>
       </c>
       <c r="O11" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="P11" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q11" s="17">
-        <f>+O11+F11</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="W11" s="13" t="s">
         <v>34</v>
       </c>
       <c r="X11" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Y11" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -4608,18 +4608,18 @@
         <v>5</v>
       </c>
       <c r="E12" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
       <c r="F12" s="2">
         <v>3</v>
       </c>
       <c r="G12" s="13">
-        <f>+D12-F12</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="H12" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>80</v>
       </c>
       <c r="I12" s="4">
@@ -4629,11 +4629,11 @@
         <v>40</v>
       </c>
       <c r="K12" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>11.200000000000003</v>
       </c>
       <c r="L12" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>22.400000000000006</v>
       </c>
       <c r="M12" s="16">
@@ -4643,26 +4643,26 @@
         <v>5</v>
       </c>
       <c r="O12" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="P12" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>48</v>
       </c>
       <c r="Q12" s="17">
-        <f>+O12+F12</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="W12" s="13" t="s">
         <v>35</v>
       </c>
       <c r="X12" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="Y12" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>48</v>
       </c>
     </row>
@@ -4677,18 +4677,18 @@
         <v>6</v>
       </c>
       <c r="E13" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="F13" s="2">
         <v>0</v>
       </c>
       <c r="G13" s="13">
-        <f>+D13-F13</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="H13" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>240</v>
       </c>
       <c r="I13" s="4">
@@ -4698,11 +4698,11 @@
         <v>40</v>
       </c>
       <c r="K13" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>11.200000000000003</v>
       </c>
       <c r="L13" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>67.200000000000017</v>
       </c>
       <c r="M13" s="16">
@@ -4712,26 +4712,26 @@
         <v>6</v>
       </c>
       <c r="O13" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>6</v>
       </c>
       <c r="P13" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>144</v>
       </c>
       <c r="Q13" s="17">
-        <f>+O13+F13</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="W13" s="13" t="s">
         <v>36</v>
       </c>
       <c r="X13" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="Y13" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>144</v>
       </c>
     </row>
@@ -4746,18 +4746,18 @@
         <v>3</v>
       </c>
       <c r="E14" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="F14" s="2">
         <v>0</v>
       </c>
       <c r="G14" s="13">
-        <f>+D14-F14</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="H14" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>120</v>
       </c>
       <c r="I14" s="4">
@@ -4767,11 +4767,11 @@
         <v>40</v>
       </c>
       <c r="K14" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>11.200000000000003</v>
       </c>
       <c r="L14" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>33.600000000000009</v>
       </c>
       <c r="M14" s="16">
@@ -4781,26 +4781,26 @@
         <v>3</v>
       </c>
       <c r="O14" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="P14" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>72</v>
       </c>
       <c r="Q14" s="17">
-        <f>+O14+F14</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="W14" s="13" t="s">
         <v>33</v>
       </c>
       <c r="X14" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="Y14" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>72</v>
       </c>
     </row>
@@ -4815,18 +4815,18 @@
         <v>6</v>
       </c>
       <c r="E15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="F15" s="2">
         <v>6</v>
       </c>
       <c r="G15" s="2">
-        <f>+D15-F15</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H15" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I15" s="4">
@@ -4836,11 +4836,11 @@
         <v>40</v>
       </c>
       <c r="K15" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>11.200000000000003</v>
       </c>
       <c r="L15" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="M15" s="10">
@@ -4850,26 +4850,26 @@
         <v>6</v>
       </c>
       <c r="O15" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="P15" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q15">
-        <f>+O15+F15</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="W15" s="2" t="s">
         <v>13</v>
       </c>
       <c r="X15" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Y15" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -4884,14 +4884,14 @@
         <v>6</v>
       </c>
       <c r="E16" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="F16" s="2">
         <v>0</v>
       </c>
       <c r="G16" s="2">
-        <f>+D16-F16</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="H16" s="4">
@@ -4905,11 +4905,11 @@
         <v>23</v>
       </c>
       <c r="K16" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>5.240000000000002</v>
       </c>
       <c r="L16" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>31.440000000000012</v>
       </c>
       <c r="M16" s="10">
@@ -4919,26 +4919,26 @@
         <v>6</v>
       </c>
       <c r="O16" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>6</v>
       </c>
       <c r="P16" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>90</v>
       </c>
       <c r="Q16">
-        <f>+O16+F16</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="W16" s="2" t="s">
         <v>14</v>
       </c>
       <c r="X16" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="Y16" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>90</v>
       </c>
     </row>
@@ -4953,18 +4953,18 @@
         <v>6</v>
       </c>
       <c r="E17" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="F17" s="2">
         <v>0</v>
       </c>
       <c r="G17" s="2">
-        <f>+D17-F17</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="H17" s="4">
-        <f t="shared" ref="H17:H24" si="8">+G17*23</f>
+        <f t="shared" ref="H17:H24" si="10">+G17*23</f>
         <v>138</v>
       </c>
       <c r="I17" s="4">
@@ -4974,11 +4974,11 @@
         <v>23</v>
       </c>
       <c r="K17" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>5.240000000000002</v>
       </c>
       <c r="L17" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>31.440000000000012</v>
       </c>
       <c r="M17" s="10">
@@ -4988,15 +4988,15 @@
         <v>6</v>
       </c>
       <c r="O17" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>6</v>
       </c>
       <c r="P17" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>90</v>
       </c>
       <c r="Q17">
-        <f>+O17+F17</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="V17" s="23"/>
@@ -5004,11 +5004,11 @@
         <v>15</v>
       </c>
       <c r="X17" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="Y17" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>90</v>
       </c>
     </row>
@@ -5023,18 +5023,18 @@
         <v>6</v>
       </c>
       <c r="E18" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="F18" s="2">
         <v>0</v>
       </c>
       <c r="G18" s="2">
-        <f>+D18-F18</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="H18" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>138</v>
       </c>
       <c r="I18" s="4">
@@ -5044,11 +5044,11 @@
         <v>23</v>
       </c>
       <c r="K18" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>5.240000000000002</v>
       </c>
       <c r="L18" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>31.440000000000012</v>
       </c>
       <c r="M18" s="10">
@@ -5058,26 +5058,26 @@
         <v>6</v>
       </c>
       <c r="O18" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>6</v>
       </c>
       <c r="P18" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>90</v>
       </c>
       <c r="Q18">
-        <f>+O18+F18</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="W18" s="2" t="s">
         <v>16</v>
       </c>
       <c r="X18" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="Y18" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>90</v>
       </c>
     </row>
@@ -5092,18 +5092,18 @@
         <v>6</v>
       </c>
       <c r="E19" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>9</v>
       </c>
       <c r="F19" s="2">
         <v>3</v>
       </c>
       <c r="G19" s="2">
-        <f>+D19-F19</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="H19" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>69</v>
       </c>
       <c r="I19" s="4">
@@ -5113,11 +5113,11 @@
         <v>23</v>
       </c>
       <c r="K19" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>5.240000000000002</v>
       </c>
       <c r="L19" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>15.720000000000006</v>
       </c>
       <c r="M19" s="10">
@@ -5127,26 +5127,26 @@
         <v>6</v>
       </c>
       <c r="O19" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="P19" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45</v>
       </c>
       <c r="Q19">
-        <f>+O19+F19</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="W19" s="2" t="s">
         <v>17</v>
       </c>
       <c r="X19" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="Y19" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>45</v>
       </c>
     </row>
@@ -5161,18 +5161,18 @@
         <v>6</v>
       </c>
       <c r="E20" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="F20" s="2">
         <v>2</v>
       </c>
       <c r="G20" s="2">
-        <f>+D20-F20</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="H20" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>92</v>
       </c>
       <c r="I20" s="4">
@@ -5182,11 +5182,11 @@
         <v>23</v>
       </c>
       <c r="K20" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>5.240000000000002</v>
       </c>
       <c r="L20" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>20.960000000000008</v>
       </c>
       <c r="M20" s="10">
@@ -5196,26 +5196,26 @@
         <v>6</v>
       </c>
       <c r="O20" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="P20" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
       <c r="Q20">
-        <f>+O20+F20</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="W20" s="2" t="s">
         <v>18</v>
       </c>
       <c r="X20" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="Y20" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>60</v>
       </c>
     </row>
@@ -5230,18 +5230,18 @@
         <v>6</v>
       </c>
       <c r="E21" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>9</v>
       </c>
       <c r="F21" s="2">
         <v>3</v>
       </c>
       <c r="G21" s="2">
-        <f>+D21-F21</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="H21" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>69</v>
       </c>
       <c r="I21" s="4">
@@ -5251,11 +5251,11 @@
         <v>23</v>
       </c>
       <c r="K21" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>5.240000000000002</v>
       </c>
       <c r="L21" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>15.720000000000006</v>
       </c>
       <c r="M21" s="10">
@@ -5265,15 +5265,15 @@
         <v>6</v>
       </c>
       <c r="O21" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="P21" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45</v>
       </c>
       <c r="Q21">
-        <f>+O21+F21</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="S21" s="5"/>
@@ -5281,11 +5281,11 @@
         <v>19</v>
       </c>
       <c r="X21" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="Y21" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>45</v>
       </c>
     </row>
@@ -5300,18 +5300,18 @@
         <v>35</v>
       </c>
       <c r="E22" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>52</v>
       </c>
       <c r="F22" s="2">
         <v>18</v>
       </c>
       <c r="G22" s="2">
-        <f>+D22-F22</f>
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="H22" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>391</v>
       </c>
       <c r="I22" s="4">
@@ -5321,11 +5321,11 @@
         <v>23</v>
       </c>
       <c r="K22" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>5.240000000000002</v>
       </c>
       <c r="L22" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>89.080000000000041</v>
       </c>
       <c r="M22" s="10">
@@ -5335,26 +5335,26 @@
         <v>35</v>
       </c>
       <c r="O22" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>17</v>
       </c>
       <c r="P22" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>255</v>
       </c>
       <c r="Q22">
-        <f>+O22+F22</f>
+        <f t="shared" si="2"/>
         <v>35</v>
       </c>
       <c r="W22" s="2" t="s">
         <v>20</v>
       </c>
       <c r="X22" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>17</v>
       </c>
       <c r="Y22" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>255</v>
       </c>
     </row>
@@ -5369,18 +5369,18 @@
         <v>4</v>
       </c>
       <c r="E23" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="F23" s="2">
         <v>0</v>
       </c>
       <c r="G23" s="2">
-        <f>+D23-F23</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="H23" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>92</v>
       </c>
       <c r="I23" s="4">
@@ -5390,11 +5390,11 @@
         <v>23</v>
       </c>
       <c r="K23" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>5.240000000000002</v>
       </c>
       <c r="L23" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>20.960000000000008</v>
       </c>
       <c r="M23" s="10">
@@ -5404,15 +5404,15 @@
         <v>4</v>
       </c>
       <c r="O23" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="P23" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
       <c r="Q23">
-        <f>+O23+F23</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="T23" s="1" t="s">
@@ -5426,11 +5426,11 @@
         <v>31</v>
       </c>
       <c r="X23" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="Y23" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>60</v>
       </c>
     </row>
@@ -5445,18 +5445,18 @@
         <v>4</v>
       </c>
       <c r="E24" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="F24" s="2">
         <v>4</v>
       </c>
       <c r="G24" s="2">
-        <f>+D24-F24</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H24" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I24" s="4">
@@ -5466,11 +5466,11 @@
         <v>23</v>
       </c>
       <c r="K24" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>5.240000000000002</v>
       </c>
       <c r="L24" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="M24" s="10">
@@ -5480,15 +5480,15 @@
         <v>4</v>
       </c>
       <c r="O24" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="P24" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q24">
-        <f>+O24+F24</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="R24" s="1" t="s">
@@ -5514,11 +5514,11 @@
         <v>32</v>
       </c>
       <c r="X24" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Y24" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -5540,11 +5540,11 @@
         <v>0</v>
       </c>
       <c r="G25" s="2">
-        <f>+D25-F25</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H25" s="4">
-        <f t="shared" ref="H25" si="9">+G25*23</f>
+        <f t="shared" ref="H25" si="11">+G25*23</f>
         <v>0</v>
       </c>
       <c r="I25" s="4">
@@ -5554,11 +5554,11 @@
         <v>23</v>
       </c>
       <c r="K25" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>5.240000000000002</v>
       </c>
       <c r="L25" s="6">
-        <f t="shared" ref="L25" si="10">+K25*G25</f>
+        <f t="shared" ref="L25" si="12">+K25*G25</f>
         <v>0</v>
       </c>
       <c r="M25" s="10">
@@ -5568,15 +5568,15 @@
         <v>4</v>
       </c>
       <c r="O25" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="P25" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
       <c r="Q25">
-        <f>+O25+F25</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="R25" s="1" t="s">
@@ -5638,7 +5638,7 @@
     </row>
     <row r="38" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B38" s="29" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C38" s="30"/>
       <c r="D38" s="30"/>
@@ -5677,13 +5677,13 @@
         <v>24</v>
       </c>
       <c r="I39" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J39" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="J39" s="2" t="s">
+      <c r="K39" s="2" t="s">
         <v>61</v>
-      </c>
-      <c r="K39" s="2" t="s">
-        <v>62</v>
       </c>
       <c r="L39" s="2" t="s">
         <v>3</v>
@@ -5755,11 +5755,11 @@
         <v>0</v>
       </c>
       <c r="G41" s="2">
-        <f t="shared" ref="G41:G62" si="11">+D41-F41</f>
+        <f t="shared" ref="G41:G62" si="13">+D41-F41</f>
         <v>19</v>
       </c>
       <c r="H41" s="4">
-        <f t="shared" ref="H41:H52" si="12">+G41*40</f>
+        <f t="shared" ref="H41:H52" si="14">+G41*40</f>
         <v>760</v>
       </c>
       <c r="I41" s="4">
@@ -5769,11 +5769,11 @@
         <v>40</v>
       </c>
       <c r="K41" s="6">
-        <f t="shared" ref="K41:K62" si="13">(J41-(J41*0.12))-I41</f>
+        <f t="shared" ref="K41:K62" si="15">(J41-(J41*0.12))-I41</f>
         <v>11.200000000000003</v>
       </c>
       <c r="L41" s="6">
-        <f t="shared" ref="L41:L62" si="14">+K41*G41</f>
+        <f t="shared" ref="L41:L62" si="16">+K41*G41</f>
         <v>212.80000000000007</v>
       </c>
       <c r="M41" s="10"/>
@@ -5801,11 +5801,11 @@
         <v>3</v>
       </c>
       <c r="G42" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>3</v>
       </c>
       <c r="H42" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>120</v>
       </c>
       <c r="I42" s="4">
@@ -5815,11 +5815,11 @@
         <v>40</v>
       </c>
       <c r="K42" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>11.200000000000003</v>
       </c>
       <c r="L42" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>33.600000000000009</v>
       </c>
       <c r="M42" s="10"/>
@@ -5828,7 +5828,7 @@
         <v>6</v>
       </c>
       <c r="P42" s="8">
-        <f t="shared" ref="P42:P62" si="15">+O42*I42</f>
+        <f t="shared" ref="P42:P62" si="17">+O42*I42</f>
         <v>144</v>
       </c>
     </row>
@@ -5847,11 +5847,11 @@
         <v>4</v>
       </c>
       <c r="G43" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
       <c r="H43" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>80</v>
       </c>
       <c r="I43" s="4">
@@ -5861,11 +5861,11 @@
         <v>40</v>
       </c>
       <c r="K43" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>11.200000000000003</v>
       </c>
       <c r="L43" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>22.400000000000006</v>
       </c>
       <c r="M43" s="10"/>
@@ -5874,7 +5874,7 @@
         <v>6</v>
       </c>
       <c r="P43" s="8">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>144</v>
       </c>
     </row>
@@ -5893,11 +5893,11 @@
         <v>5</v>
       </c>
       <c r="G44" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="H44" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>40</v>
       </c>
       <c r="I44" s="4">
@@ -5907,11 +5907,11 @@
         <v>40</v>
       </c>
       <c r="K44" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>11.200000000000003</v>
       </c>
       <c r="L44" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>11.200000000000003</v>
       </c>
       <c r="M44" s="10"/>
@@ -5920,7 +5920,7 @@
         <v>6</v>
       </c>
       <c r="P44" s="8">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>144</v>
       </c>
     </row>
@@ -5939,11 +5939,11 @@
         <v>1</v>
       </c>
       <c r="G45" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>5</v>
       </c>
       <c r="H45" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>200</v>
       </c>
       <c r="I45" s="4">
@@ -5953,11 +5953,11 @@
         <v>40</v>
       </c>
       <c r="K45" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>11.200000000000003</v>
       </c>
       <c r="L45" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>56.000000000000014</v>
       </c>
       <c r="M45" s="10"/>
@@ -5966,7 +5966,7 @@
         <v>6</v>
       </c>
       <c r="P45" s="8">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>144</v>
       </c>
     </row>
@@ -5985,11 +5985,11 @@
         <v>3</v>
       </c>
       <c r="G46" s="13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>3</v>
       </c>
       <c r="H46" s="14">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>120</v>
       </c>
       <c r="I46" s="4">
@@ -5999,11 +5999,11 @@
         <v>40</v>
       </c>
       <c r="K46" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>11.200000000000003</v>
       </c>
       <c r="L46" s="15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>33.600000000000009</v>
       </c>
       <c r="M46" s="16"/>
@@ -6012,7 +6012,7 @@
         <v>6</v>
       </c>
       <c r="P46" s="15">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>144</v>
       </c>
     </row>
@@ -6031,11 +6031,11 @@
         <v>3</v>
       </c>
       <c r="G47" s="20">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
       <c r="H47" s="21">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>80</v>
       </c>
       <c r="I47" s="4">
@@ -6045,11 +6045,11 @@
         <v>40</v>
       </c>
       <c r="K47" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>11.200000000000003</v>
       </c>
       <c r="L47" s="22">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>22.400000000000006</v>
       </c>
       <c r="M47" s="10"/>
@@ -6058,7 +6058,7 @@
         <v>5</v>
       </c>
       <c r="P47" s="8">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>120</v>
       </c>
     </row>
@@ -6077,11 +6077,11 @@
         <v>6</v>
       </c>
       <c r="G48" s="13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H48" s="14">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="I48" s="4">
@@ -6091,11 +6091,11 @@
         <v>40</v>
       </c>
       <c r="K48" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>11.200000000000003</v>
       </c>
       <c r="L48" s="15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="M48" s="16"/>
@@ -6104,7 +6104,7 @@
         <v>6</v>
       </c>
       <c r="P48" s="15">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>144</v>
       </c>
     </row>
@@ -6123,11 +6123,11 @@
         <v>3</v>
       </c>
       <c r="G49" s="13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>3</v>
       </c>
       <c r="H49" s="14">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>120</v>
       </c>
       <c r="I49" s="4">
@@ -6137,11 +6137,11 @@
         <v>40</v>
       </c>
       <c r="K49" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>11.200000000000003</v>
       </c>
       <c r="L49" s="15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>33.600000000000009</v>
       </c>
       <c r="M49" s="16"/>
@@ -6150,7 +6150,7 @@
         <v>6</v>
       </c>
       <c r="P49" s="15">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>144</v>
       </c>
     </row>
@@ -6169,11 +6169,11 @@
         <v>0</v>
       </c>
       <c r="G50" s="13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H50" s="14">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="I50" s="4">
@@ -6183,11 +6183,11 @@
         <v>40</v>
       </c>
       <c r="K50" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>11.200000000000003</v>
       </c>
       <c r="L50" s="15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="M50" s="16"/>
@@ -6196,7 +6196,7 @@
         <v>0</v>
       </c>
       <c r="P50" s="15">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -6215,11 +6215,11 @@
         <v>0</v>
       </c>
       <c r="G51" s="13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H51" s="14">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="I51" s="4">
@@ -6229,11 +6229,11 @@
         <v>40</v>
       </c>
       <c r="K51" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>11.200000000000003</v>
       </c>
       <c r="L51" s="15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="M51" s="16"/>
@@ -6242,7 +6242,7 @@
         <v>0</v>
       </c>
       <c r="P51" s="15">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -6261,11 +6261,11 @@
         <v>6</v>
       </c>
       <c r="G52" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H52" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="I52" s="4">
@@ -6275,11 +6275,11 @@
         <v>40</v>
       </c>
       <c r="K52" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>11.200000000000003</v>
       </c>
       <c r="L52" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="M52" s="10"/>
@@ -6288,7 +6288,7 @@
         <v>6</v>
       </c>
       <c r="P52" s="8">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>144</v>
       </c>
     </row>
@@ -6307,7 +6307,7 @@
         <v>0</v>
       </c>
       <c r="G53" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>6</v>
       </c>
       <c r="H53" s="4">
@@ -6321,11 +6321,11 @@
         <v>25</v>
       </c>
       <c r="K53" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>7</v>
       </c>
       <c r="L53" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>42</v>
       </c>
       <c r="M53" s="10"/>
@@ -6334,7 +6334,7 @@
         <v>6</v>
       </c>
       <c r="P53" s="8">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>90</v>
       </c>
     </row>
@@ -6353,11 +6353,11 @@
         <v>0</v>
       </c>
       <c r="G54" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>6</v>
       </c>
       <c r="H54" s="4">
-        <f t="shared" ref="H54:H62" si="16">+G54*23</f>
+        <f t="shared" ref="H54:H62" si="18">+G54*23</f>
         <v>138</v>
       </c>
       <c r="I54" s="4">
@@ -6367,11 +6367,11 @@
         <v>25</v>
       </c>
       <c r="K54" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>7</v>
       </c>
       <c r="L54" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>42</v>
       </c>
       <c r="M54" s="10"/>
@@ -6380,7 +6380,7 @@
         <v>6</v>
       </c>
       <c r="P54" s="8">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>90</v>
       </c>
     </row>
@@ -6399,11 +6399,11 @@
         <v>0</v>
       </c>
       <c r="G55" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>6</v>
       </c>
       <c r="H55" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>138</v>
       </c>
       <c r="I55" s="4">
@@ -6413,11 +6413,11 @@
         <v>25</v>
       </c>
       <c r="K55" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>7</v>
       </c>
       <c r="L55" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>42</v>
       </c>
       <c r="M55" s="10"/>
@@ -6426,7 +6426,7 @@
         <v>6</v>
       </c>
       <c r="P55" s="8">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>90</v>
       </c>
     </row>
@@ -6445,11 +6445,11 @@
         <v>3</v>
       </c>
       <c r="G56" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="H56" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>23</v>
       </c>
       <c r="I56" s="4">
@@ -6459,11 +6459,11 @@
         <v>25</v>
       </c>
       <c r="K56" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>7</v>
       </c>
       <c r="L56" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>7</v>
       </c>
       <c r="M56" s="10"/>
@@ -6472,7 +6472,7 @@
         <v>4</v>
       </c>
       <c r="P56" s="8">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>60</v>
       </c>
     </row>
@@ -6491,11 +6491,11 @@
         <v>2</v>
       </c>
       <c r="G57" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>4</v>
       </c>
       <c r="H57" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>92</v>
       </c>
       <c r="I57" s="4">
@@ -6505,11 +6505,11 @@
         <v>25</v>
       </c>
       <c r="K57" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>7</v>
       </c>
       <c r="L57" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>28</v>
       </c>
       <c r="M57" s="10"/>
@@ -6518,7 +6518,7 @@
         <v>6</v>
       </c>
       <c r="P57" s="8">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>90</v>
       </c>
     </row>
@@ -6537,11 +6537,11 @@
         <v>3</v>
       </c>
       <c r="G58" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="H58" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>23</v>
       </c>
       <c r="I58" s="4">
@@ -6551,11 +6551,11 @@
         <v>25</v>
       </c>
       <c r="K58" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>7</v>
       </c>
       <c r="L58" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>7</v>
       </c>
       <c r="M58" s="10"/>
@@ -6564,7 +6564,7 @@
         <v>4</v>
       </c>
       <c r="P58" s="8">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>60</v>
       </c>
     </row>
@@ -6583,11 +6583,11 @@
         <v>18</v>
       </c>
       <c r="G59" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>12</v>
       </c>
       <c r="H59" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>276</v>
       </c>
       <c r="I59" s="4">
@@ -6597,11 +6597,11 @@
         <v>25</v>
       </c>
       <c r="K59" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>10</v>
       </c>
       <c r="L59" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>120</v>
       </c>
       <c r="M59" s="10"/>
@@ -6610,7 +6610,7 @@
         <v>30</v>
       </c>
       <c r="P59" s="8">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>360</v>
       </c>
     </row>
@@ -6629,11 +6629,11 @@
         <v>0</v>
       </c>
       <c r="G60" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H60" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="I60" s="4">
@@ -6643,11 +6643,11 @@
         <v>25</v>
       </c>
       <c r="K60" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>10</v>
       </c>
       <c r="L60" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="M60" s="10"/>
@@ -6656,7 +6656,7 @@
         <v>0</v>
       </c>
       <c r="P60" s="8">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -6675,11 +6675,11 @@
         <v>4</v>
       </c>
       <c r="G61" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
       <c r="H61" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>46</v>
       </c>
       <c r="I61" s="4">
@@ -6689,11 +6689,11 @@
         <v>25</v>
       </c>
       <c r="K61" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>10</v>
       </c>
       <c r="L61" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>20</v>
       </c>
       <c r="M61" s="10"/>
@@ -6702,7 +6702,7 @@
         <v>6</v>
       </c>
       <c r="P61" s="8">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>72</v>
       </c>
     </row>
@@ -6721,11 +6721,11 @@
         <v>0</v>
       </c>
       <c r="G62" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H62" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="I62" s="4">
@@ -6735,11 +6735,11 @@
         <v>25</v>
       </c>
       <c r="K62" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>10</v>
       </c>
       <c r="L62" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="M62" s="10"/>
@@ -6748,7 +6748,7 @@
         <v>0</v>
       </c>
       <c r="P62" s="8">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -6801,7 +6801,7 @@
         <v>2554</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="69" spans="3:16" x14ac:dyDescent="0.25">
@@ -6827,7 +6827,7 @@
     </row>
     <row r="70" spans="3:16" x14ac:dyDescent="0.25">
       <c r="G70" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/Angular/Paletas Yahvé.xlsx
+++ b/Angular/Paletas Yahvé.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bmedina\Downloads\Curso Angular\Angular\Angular\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2036E0C1-8704-4DFD-9C5B-CEC4809D5A4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA020345-748B-43E4-B0CB-99C2C5FABF96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -807,8 +807,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:Y69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G72" sqref="G72"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -933,18 +933,18 @@
         <v>200</v>
       </c>
       <c r="H3" s="4">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I3" s="4">
         <v>40</v>
       </c>
       <c r="J3" s="6">
         <f>(I3-(I3*0))-H3</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K3" s="6">
         <f>+J3*F3</f>
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="L3" s="10">
         <v>10</v>
@@ -959,7 +959,7 @@
       </c>
       <c r="O3" s="8">
         <f t="shared" ref="O3:O25" si="0">+N3*H3</f>
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="P3">
         <f t="shared" ref="P3:P25" si="1">+N3+E3</f>
@@ -985,7 +985,7 @@
       </c>
       <c r="Y3" s="8">
         <f>O3</f>
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4" spans="2:25" x14ac:dyDescent="0.25">
@@ -1010,18 +1010,18 @@
         <v>200</v>
       </c>
       <c r="H4" s="4">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I4" s="4">
         <v>40</v>
       </c>
       <c r="J4" s="6">
         <f t="shared" ref="J4:J25" si="5">(I4-(I4*0))-H4</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K4" s="6">
         <f t="shared" ref="K4:K25" si="6">+J4*F4</f>
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="L4" s="10">
         <v>10</v>
@@ -1036,7 +1036,7 @@
       </c>
       <c r="O4" s="8">
         <f t="shared" si="0"/>
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="P4">
         <f t="shared" si="1"/>
@@ -1062,7 +1062,7 @@
       </c>
       <c r="Y4" s="8">
         <f t="shared" ref="Y4:Y24" si="9">O4</f>
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="2:25" x14ac:dyDescent="0.25">
@@ -1087,18 +1087,18 @@
         <v>80</v>
       </c>
       <c r="H5" s="4">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I5" s="4">
         <v>40</v>
       </c>
       <c r="J5" s="6">
         <f t="shared" si="5"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K5" s="6">
         <f t="shared" si="6"/>
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="L5" s="10">
         <v>10</v>
@@ -1113,7 +1113,7 @@
       </c>
       <c r="O5" s="8">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="P5">
         <f t="shared" si="1"/>
@@ -1139,7 +1139,7 @@
       </c>
       <c r="Y5" s="8">
         <f t="shared" si="9"/>
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="2:25" x14ac:dyDescent="0.25">
@@ -1164,18 +1164,18 @@
         <v>80</v>
       </c>
       <c r="H6" s="4">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I6" s="4">
         <v>40</v>
       </c>
       <c r="J6" s="6">
         <f t="shared" si="5"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K6" s="6">
         <f t="shared" si="6"/>
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="L6" s="10">
         <v>10</v>
@@ -1190,7 +1190,7 @@
       </c>
       <c r="O6" s="8">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="P6">
         <f t="shared" si="1"/>
@@ -1209,7 +1209,7 @@
       </c>
       <c r="Y6" s="8">
         <f t="shared" si="9"/>
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="2:25" x14ac:dyDescent="0.25">
@@ -1234,14 +1234,14 @@
         <v>0</v>
       </c>
       <c r="H7" s="4">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I7" s="4">
         <v>40</v>
       </c>
       <c r="J7" s="6">
         <f t="shared" si="5"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K7" s="6">
         <f t="shared" si="6"/>
@@ -1300,14 +1300,14 @@
         <v>0</v>
       </c>
       <c r="H8" s="4">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I8" s="4">
         <v>40</v>
       </c>
       <c r="J8" s="6">
         <f t="shared" si="5"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K8" s="6">
         <f t="shared" si="6"/>
@@ -1364,19 +1364,19 @@
         <f t="shared" si="4"/>
         <v>80</v>
       </c>
-      <c r="H9" s="14">
-        <v>25</v>
+      <c r="H9" s="4">
+        <v>24</v>
       </c>
       <c r="I9" s="14">
         <v>40</v>
       </c>
       <c r="J9" s="6">
         <f t="shared" si="5"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K9" s="15">
         <f t="shared" si="6"/>
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="L9" s="16">
         <v>2</v>
@@ -1390,7 +1390,7 @@
       </c>
       <c r="O9" s="15">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="P9" s="17">
         <f t="shared" si="1"/>
@@ -1405,7 +1405,7 @@
       </c>
       <c r="Y9" s="8">
         <f t="shared" si="9"/>
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="2:25" x14ac:dyDescent="0.25">
@@ -1430,18 +1430,18 @@
         <v>120</v>
       </c>
       <c r="H10" s="4">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I10" s="4">
         <v>40</v>
       </c>
       <c r="J10" s="6">
         <f t="shared" si="5"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K10" s="6">
         <f t="shared" si="6"/>
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="L10" s="10">
         <v>8</v>
@@ -1456,7 +1456,7 @@
       </c>
       <c r="O10" s="8">
         <f t="shared" si="0"/>
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="P10">
         <f t="shared" si="1"/>
@@ -1471,7 +1471,7 @@
       </c>
       <c r="Y10" s="8">
         <f t="shared" si="9"/>
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="2:25" x14ac:dyDescent="0.25">
@@ -1495,15 +1495,15 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H11" s="14">
-        <v>25</v>
+      <c r="H11" s="4">
+        <v>24</v>
       </c>
       <c r="I11" s="14">
         <v>40</v>
       </c>
       <c r="J11" s="6">
         <f t="shared" si="5"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K11" s="15">
         <f t="shared" si="6"/>
@@ -1560,19 +1560,19 @@
         <f t="shared" si="4"/>
         <v>120</v>
       </c>
-      <c r="H12" s="14">
-        <v>25</v>
+      <c r="H12" s="4">
+        <v>24</v>
       </c>
       <c r="I12" s="14">
         <v>40</v>
       </c>
       <c r="J12" s="6">
         <f t="shared" si="5"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K12" s="15">
         <f t="shared" si="6"/>
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="L12" s="16">
         <v>5</v>
@@ -1586,7 +1586,7 @@
       </c>
       <c r="O12" s="15">
         <f t="shared" si="0"/>
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="P12" s="17">
         <f t="shared" si="1"/>
@@ -1601,7 +1601,7 @@
       </c>
       <c r="Y12" s="8">
         <f t="shared" si="9"/>
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="2:25" x14ac:dyDescent="0.25">
@@ -1625,19 +1625,19 @@
         <f t="shared" si="4"/>
         <v>200</v>
       </c>
-      <c r="H13" s="14">
-        <v>25</v>
+      <c r="H13" s="4">
+        <v>24</v>
       </c>
       <c r="I13" s="14">
         <v>40</v>
       </c>
       <c r="J13" s="6">
         <f t="shared" si="5"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K13" s="15">
         <f t="shared" si="6"/>
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="L13" s="16">
         <v>10</v>
@@ -1652,7 +1652,7 @@
       </c>
       <c r="O13" s="15">
         <f t="shared" si="0"/>
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="P13" s="17">
         <f t="shared" si="1"/>
@@ -1667,7 +1667,7 @@
       </c>
       <c r="Y13" s="8">
         <f t="shared" si="9"/>
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="14" spans="2:25" x14ac:dyDescent="0.25">
@@ -1691,19 +1691,19 @@
         <f t="shared" si="4"/>
         <v>120</v>
       </c>
-      <c r="H14" s="14">
-        <v>25</v>
+      <c r="H14" s="4">
+        <v>24</v>
       </c>
       <c r="I14" s="14">
         <v>40</v>
       </c>
       <c r="J14" s="6">
         <f t="shared" si="5"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K14" s="15">
         <f t="shared" si="6"/>
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="L14" s="16">
         <v>5</v>
@@ -1717,7 +1717,7 @@
       </c>
       <c r="O14" s="15">
         <f t="shared" si="0"/>
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="P14" s="17">
         <f t="shared" si="1"/>
@@ -1732,7 +1732,7 @@
       </c>
       <c r="Y14" s="8">
         <f t="shared" si="9"/>
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="2:25" x14ac:dyDescent="0.25">
@@ -1757,18 +1757,18 @@
         <v>120</v>
       </c>
       <c r="H15" s="4">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I15" s="4">
         <v>40</v>
       </c>
       <c r="J15" s="6">
         <f t="shared" si="5"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K15" s="6">
         <f t="shared" si="6"/>
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="L15" s="10">
         <v>10</v>
@@ -1783,7 +1783,7 @@
       </c>
       <c r="O15" s="8">
         <f t="shared" si="0"/>
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="P15">
         <f t="shared" si="1"/>
@@ -1798,7 +1798,7 @@
       </c>
       <c r="Y15" s="8">
         <f t="shared" si="9"/>
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16" spans="2:25" x14ac:dyDescent="0.25">
@@ -1826,15 +1826,15 @@
         <v>15</v>
       </c>
       <c r="I16" s="4">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J16" s="6">
         <f t="shared" si="5"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K16" s="6">
         <f t="shared" si="6"/>
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="L16" s="10">
         <v>10</v>
@@ -1892,15 +1892,15 @@
         <v>15</v>
       </c>
       <c r="I17" s="4">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J17" s="6">
         <f t="shared" si="5"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K17" s="6">
         <f t="shared" si="6"/>
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="L17" s="10">
         <v>10</v>
@@ -1958,15 +1958,15 @@
         <v>15</v>
       </c>
       <c r="I18" s="4">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J18" s="6">
         <f t="shared" si="5"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K18" s="6">
         <f t="shared" si="6"/>
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="L18" s="10">
         <v>10</v>
@@ -2024,15 +2024,15 @@
         <v>15</v>
       </c>
       <c r="I19" s="4">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J19" s="6">
         <f t="shared" si="5"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K19" s="6">
         <f t="shared" si="6"/>
-        <v>-16</v>
+        <v>-20</v>
       </c>
       <c r="L19" s="10">
         <v>10</v>
@@ -2090,15 +2090,15 @@
         <v>15</v>
       </c>
       <c r="I20" s="4">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J20" s="6">
         <f t="shared" si="5"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K20" s="6">
         <f t="shared" si="6"/>
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="L20" s="10">
         <v>10</v>
@@ -2156,15 +2156,15 @@
         <v>15</v>
       </c>
       <c r="I21" s="4">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J21" s="6">
         <f t="shared" si="5"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K21" s="6">
         <f t="shared" si="6"/>
-        <v>-8</v>
+        <v>-10</v>
       </c>
       <c r="L21" s="10">
         <v>10</v>
@@ -2223,15 +2223,15 @@
         <v>15</v>
       </c>
       <c r="I22" s="4">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J22" s="6">
         <f t="shared" si="5"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K22" s="6">
         <f t="shared" si="6"/>
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="L22" s="10">
         <v>32</v>
@@ -2288,15 +2288,15 @@
         <v>15</v>
       </c>
       <c r="I23" s="4">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J23" s="6">
         <f t="shared" si="5"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K23" s="6">
         <f t="shared" si="6"/>
-        <v>-8</v>
+        <v>-10</v>
       </c>
       <c r="L23" s="10">
         <v>5</v>
@@ -2321,7 +2321,7 @@
       </c>
       <c r="U23" s="8">
         <f>SUM(O3:O24)</f>
-        <v>1260</v>
+        <v>1227</v>
       </c>
       <c r="W23" s="2" t="s">
         <v>31</v>
@@ -2360,15 +2360,15 @@
         <v>15</v>
       </c>
       <c r="I24" s="4">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J24" s="6">
         <f t="shared" si="5"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K24" s="6">
         <f t="shared" si="6"/>
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="L24" s="10">
         <v>5</v>
@@ -2444,11 +2444,11 @@
         <v>12</v>
       </c>
       <c r="I25" s="4">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J25" s="6">
         <f t="shared" si="5"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="K25" s="6">
         <f t="shared" si="6"/>
@@ -2489,7 +2489,7 @@
       </c>
       <c r="X25" s="18">
         <f>SUM(Y3:Y24)</f>
-        <v>1260</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="26" spans="2:25" x14ac:dyDescent="0.25">
@@ -2505,7 +2505,7 @@
       </c>
       <c r="V26" s="9">
         <f>SUM(K3:K24)</f>
-        <v>727</v>
+        <v>818</v>
       </c>
     </row>
     <row r="27" spans="2:25" x14ac:dyDescent="0.25">
@@ -2515,7 +2515,7 @@
       </c>
       <c r="V27" s="7">
         <f>+V26/2</f>
-        <v>363.5</v>
+        <v>409</v>
       </c>
     </row>
     <row r="38" spans="2:22" x14ac:dyDescent="0.25">
